--- a/doc/API_Design/BLOG_API_Spec.xlsx
+++ b/doc/API_Design/BLOG_API_Spec.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="7155" tabRatio="927"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="7155" tabRatio="927" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="23" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3605" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3605" uniqueCount="467">
   <si>
     <t>Description</t>
   </si>
@@ -1507,6 +1507,9 @@
   <si>
     <t>Blog system</t>
   </si>
+  <si>
+    <t>xxxxxxxxxxxxxxxxx</t>
+  </si>
 </sst>
 </file>
 
@@ -2848,48 +2851,44 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="10" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="17" fillId="6" borderId="10" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -2921,6 +2920,16 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -2948,6 +2957,21 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="10" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -2960,62 +2984,41 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="6" borderId="10" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3053,6 +3056,12 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="411" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="411" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="411" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="411" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="411" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="411" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -3068,17 +3077,11 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="411" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="411" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="411" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="411" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="411" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="411" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="411" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3088,18 +3091,13 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="411" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3111,22 +3109,16 @@
     <xf numFmtId="0" fontId="28" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -3135,14 +3127,25 @@
     <xf numFmtId="0" fontId="28" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -23112,7 +23115,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D3" sqref="D3:J3"/>
     </sheetView>
   </sheetViews>
@@ -23124,303 +23127,303 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="43" customFormat="1" ht="15.75">
-      <c r="A1" s="205" t="s">
+      <c r="A1" s="236" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="206"/>
-      <c r="C1" s="207"/>
-      <c r="D1" s="208" t="s">
+      <c r="B1" s="237"/>
+      <c r="C1" s="238"/>
+      <c r="D1" s="239" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="209"/>
-      <c r="F1" s="209"/>
-      <c r="G1" s="209"/>
-      <c r="H1" s="209"/>
-      <c r="I1" s="209"/>
-      <c r="J1" s="209"/>
-      <c r="K1" s="210" t="s">
+      <c r="E1" s="240"/>
+      <c r="F1" s="240"/>
+      <c r="G1" s="240"/>
+      <c r="H1" s="240"/>
+      <c r="I1" s="240"/>
+      <c r="J1" s="240"/>
+      <c r="K1" s="244" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="211"/>
-      <c r="M1" s="212"/>
-      <c r="N1" s="213" t="s">
+      <c r="L1" s="245"/>
+      <c r="M1" s="246"/>
+      <c r="N1" s="226" t="s">
         <v>147</v>
       </c>
-      <c r="O1" s="214"/>
-      <c r="P1" s="214"/>
-      <c r="Q1" s="214"/>
-      <c r="R1" s="214"/>
-      <c r="S1" s="214"/>
-      <c r="T1" s="214"/>
-      <c r="U1" s="215"/>
-      <c r="V1" s="216" t="s">
+      <c r="O1" s="227"/>
+      <c r="P1" s="227"/>
+      <c r="Q1" s="227"/>
+      <c r="R1" s="227"/>
+      <c r="S1" s="227"/>
+      <c r="T1" s="227"/>
+      <c r="U1" s="228"/>
+      <c r="V1" s="247" t="s">
         <v>33</v>
       </c>
-      <c r="W1" s="217"/>
-      <c r="X1" s="217"/>
-      <c r="Y1" s="217"/>
-      <c r="Z1" s="217"/>
-      <c r="AA1" s="217"/>
-      <c r="AB1" s="217"/>
-      <c r="AC1" s="217"/>
-      <c r="AD1" s="218"/>
+      <c r="W1" s="248"/>
+      <c r="X1" s="248"/>
+      <c r="Y1" s="248"/>
+      <c r="Z1" s="248"/>
+      <c r="AA1" s="248"/>
+      <c r="AB1" s="248"/>
+      <c r="AC1" s="248"/>
+      <c r="AD1" s="249"/>
     </row>
     <row r="2" spans="1:30" s="43" customFormat="1" ht="15.75">
-      <c r="A2" s="205" t="s">
+      <c r="A2" s="236" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="206"/>
-      <c r="C2" s="207"/>
-      <c r="D2" s="208" t="s">
+      <c r="B2" s="237"/>
+      <c r="C2" s="238"/>
+      <c r="D2" s="239" t="s">
         <v>465</v>
       </c>
-      <c r="E2" s="209"/>
-      <c r="F2" s="209"/>
-      <c r="G2" s="209"/>
-      <c r="H2" s="209"/>
-      <c r="I2" s="209"/>
-      <c r="J2" s="209"/>
-      <c r="K2" s="222" t="s">
+      <c r="E2" s="240"/>
+      <c r="F2" s="240"/>
+      <c r="G2" s="240"/>
+      <c r="H2" s="240"/>
+      <c r="I2" s="240"/>
+      <c r="J2" s="240"/>
+      <c r="K2" s="221" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="223"/>
-      <c r="M2" s="224"/>
-      <c r="N2" s="234" t="s">
+      <c r="L2" s="222"/>
+      <c r="M2" s="223"/>
+      <c r="N2" s="241" t="s">
         <v>150</v>
       </c>
-      <c r="O2" s="235"/>
-      <c r="P2" s="235"/>
-      <c r="Q2" s="235"/>
-      <c r="R2" s="235"/>
-      <c r="S2" s="235"/>
-      <c r="T2" s="235"/>
-      <c r="U2" s="236"/>
-      <c r="V2" s="219" t="s">
+      <c r="O2" s="242"/>
+      <c r="P2" s="242"/>
+      <c r="Q2" s="242"/>
+      <c r="R2" s="242"/>
+      <c r="S2" s="242"/>
+      <c r="T2" s="242"/>
+      <c r="U2" s="243"/>
+      <c r="V2" s="218" t="s">
         <v>152</v>
       </c>
-      <c r="W2" s="220"/>
-      <c r="X2" s="221"/>
-      <c r="Y2" s="219" t="s">
+      <c r="W2" s="219"/>
+      <c r="X2" s="220"/>
+      <c r="Y2" s="218" t="s">
         <v>36</v>
       </c>
-      <c r="Z2" s="220"/>
-      <c r="AA2" s="221"/>
-      <c r="AB2" s="219" t="s">
+      <c r="Z2" s="219"/>
+      <c r="AA2" s="220"/>
+      <c r="AB2" s="218" t="s">
         <v>37</v>
       </c>
-      <c r="AC2" s="220"/>
-      <c r="AD2" s="221"/>
+      <c r="AC2" s="219"/>
+      <c r="AD2" s="220"/>
     </row>
     <row r="3" spans="1:30" s="43" customFormat="1" ht="15.75">
-      <c r="A3" s="222" t="s">
+      <c r="A3" s="221" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="223"/>
-      <c r="C3" s="224"/>
-      <c r="D3" s="225" t="s">
+      <c r="B3" s="222"/>
+      <c r="C3" s="223"/>
+      <c r="D3" s="224" t="s">
         <v>149</v>
       </c>
-      <c r="E3" s="226"/>
-      <c r="F3" s="226"/>
-      <c r="G3" s="226"/>
-      <c r="H3" s="226"/>
-      <c r="I3" s="226"/>
-      <c r="J3" s="226"/>
-      <c r="K3" s="222" t="s">
+      <c r="E3" s="225"/>
+      <c r="F3" s="225"/>
+      <c r="G3" s="225"/>
+      <c r="H3" s="225"/>
+      <c r="I3" s="225"/>
+      <c r="J3" s="225"/>
+      <c r="K3" s="221" t="s">
         <v>38</v>
       </c>
-      <c r="L3" s="223"/>
-      <c r="M3" s="224"/>
-      <c r="N3" s="213" t="s">
+      <c r="L3" s="222"/>
+      <c r="M3" s="223"/>
+      <c r="N3" s="226" t="s">
         <v>151</v>
       </c>
-      <c r="O3" s="214"/>
-      <c r="P3" s="214"/>
-      <c r="Q3" s="214"/>
-      <c r="R3" s="214"/>
-      <c r="S3" s="214"/>
-      <c r="T3" s="214"/>
-      <c r="U3" s="215"/>
-      <c r="V3" s="227" t="s">
+      <c r="O3" s="227"/>
+      <c r="P3" s="227"/>
+      <c r="Q3" s="227"/>
+      <c r="R3" s="227"/>
+      <c r="S3" s="227"/>
+      <c r="T3" s="227"/>
+      <c r="U3" s="228"/>
+      <c r="V3" s="229" t="s">
         <v>249</v>
       </c>
-      <c r="W3" s="228"/>
-      <c r="X3" s="229"/>
-      <c r="Y3" s="230">
+      <c r="W3" s="230"/>
+      <c r="X3" s="231"/>
+      <c r="Y3" s="232">
         <v>41961</v>
       </c>
-      <c r="Z3" s="231"/>
-      <c r="AA3" s="232"/>
-      <c r="AB3" s="233">
+      <c r="Z3" s="233"/>
+      <c r="AA3" s="234"/>
+      <c r="AB3" s="235">
         <v>41967</v>
       </c>
-      <c r="AC3" s="231"/>
-      <c r="AD3" s="232"/>
+      <c r="AC3" s="233"/>
+      <c r="AD3" s="234"/>
     </row>
     <row r="7" spans="1:30" ht="15.75" thickBot="1"/>
     <row r="8" spans="1:30" ht="16.5" thickBot="1">
-      <c r="B8" s="249" t="s">
+      <c r="B8" s="216" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="249"/>
-      <c r="D8" s="249"/>
-      <c r="E8" s="249"/>
-      <c r="F8" s="249" t="s">
+      <c r="C8" s="216"/>
+      <c r="D8" s="216"/>
+      <c r="E8" s="216"/>
+      <c r="F8" s="216" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="249"/>
-      <c r="H8" s="249" t="s">
+      <c r="G8" s="216"/>
+      <c r="H8" s="216" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="249"/>
-      <c r="J8" s="249"/>
-      <c r="K8" s="249" t="s">
+      <c r="I8" s="216"/>
+      <c r="J8" s="216"/>
+      <c r="K8" s="216" t="s">
         <v>0</v>
       </c>
-      <c r="L8" s="249"/>
-      <c r="M8" s="249"/>
-      <c r="N8" s="249"/>
-      <c r="O8" s="249"/>
-      <c r="P8" s="249"/>
-      <c r="Q8" s="249"/>
-      <c r="R8" s="249"/>
-      <c r="S8" s="249"/>
-      <c r="T8" s="249"/>
-      <c r="U8" s="249"/>
-      <c r="V8" s="249"/>
-      <c r="W8" s="249"/>
-      <c r="X8" s="249" t="s">
+      <c r="L8" s="216"/>
+      <c r="M8" s="216"/>
+      <c r="N8" s="216"/>
+      <c r="O8" s="216"/>
+      <c r="P8" s="216"/>
+      <c r="Q8" s="216"/>
+      <c r="R8" s="216"/>
+      <c r="S8" s="216"/>
+      <c r="T8" s="216"/>
+      <c r="U8" s="216"/>
+      <c r="V8" s="216"/>
+      <c r="W8" s="216"/>
+      <c r="X8" s="216" t="s">
         <v>41</v>
       </c>
-      <c r="Y8" s="249"/>
-      <c r="Z8" s="249"/>
-      <c r="AA8" s="249"/>
-      <c r="AB8" s="249"/>
-      <c r="AC8" s="249"/>
+      <c r="Y8" s="216"/>
+      <c r="Z8" s="216"/>
+      <c r="AA8" s="216"/>
+      <c r="AB8" s="216"/>
+      <c r="AC8" s="216"/>
     </row>
     <row r="9" spans="1:30">
-      <c r="B9" s="237">
+      <c r="B9" s="217">
         <v>41961</v>
       </c>
-      <c r="C9" s="238"/>
-      <c r="D9" s="238"/>
-      <c r="E9" s="239"/>
-      <c r="F9" s="240" t="s">
+      <c r="C9" s="206"/>
+      <c r="D9" s="206"/>
+      <c r="E9" s="207"/>
+      <c r="F9" s="208" t="s">
         <v>146</v>
       </c>
-      <c r="G9" s="241"/>
-      <c r="H9" s="242"/>
-      <c r="I9" s="238"/>
-      <c r="J9" s="239"/>
-      <c r="K9" s="243"/>
-      <c r="L9" s="244"/>
-      <c r="M9" s="244"/>
-      <c r="N9" s="244"/>
-      <c r="O9" s="244"/>
-      <c r="P9" s="244"/>
-      <c r="Q9" s="244"/>
-      <c r="R9" s="244"/>
-      <c r="S9" s="244"/>
-      <c r="T9" s="244"/>
-      <c r="U9" s="244"/>
-      <c r="V9" s="244"/>
-      <c r="W9" s="245"/>
-      <c r="X9" s="246"/>
-      <c r="Y9" s="247"/>
-      <c r="Z9" s="247"/>
-      <c r="AA9" s="247"/>
-      <c r="AB9" s="247"/>
-      <c r="AC9" s="248"/>
+      <c r="G9" s="209"/>
+      <c r="H9" s="205"/>
+      <c r="I9" s="206"/>
+      <c r="J9" s="207"/>
+      <c r="K9" s="210"/>
+      <c r="L9" s="211"/>
+      <c r="M9" s="211"/>
+      <c r="N9" s="211"/>
+      <c r="O9" s="211"/>
+      <c r="P9" s="211"/>
+      <c r="Q9" s="211"/>
+      <c r="R9" s="211"/>
+      <c r="S9" s="211"/>
+      <c r="T9" s="211"/>
+      <c r="U9" s="211"/>
+      <c r="V9" s="211"/>
+      <c r="W9" s="212"/>
+      <c r="X9" s="213"/>
+      <c r="Y9" s="214"/>
+      <c r="Z9" s="214"/>
+      <c r="AA9" s="214"/>
+      <c r="AB9" s="214"/>
+      <c r="AC9" s="215"/>
     </row>
     <row r="10" spans="1:30">
-      <c r="B10" s="242"/>
-      <c r="C10" s="238"/>
-      <c r="D10" s="238"/>
-      <c r="E10" s="239"/>
-      <c r="F10" s="240"/>
-      <c r="G10" s="241"/>
-      <c r="H10" s="242"/>
-      <c r="I10" s="238"/>
-      <c r="J10" s="239"/>
-      <c r="K10" s="243"/>
-      <c r="L10" s="244"/>
-      <c r="M10" s="244"/>
-      <c r="N10" s="244"/>
-      <c r="O10" s="244"/>
-      <c r="P10" s="244"/>
-      <c r="Q10" s="244"/>
-      <c r="R10" s="244"/>
-      <c r="S10" s="244"/>
-      <c r="T10" s="244"/>
-      <c r="U10" s="244"/>
-      <c r="V10" s="244"/>
-      <c r="W10" s="245"/>
-      <c r="X10" s="246"/>
-      <c r="Y10" s="247"/>
-      <c r="Z10" s="247"/>
-      <c r="AA10" s="247"/>
-      <c r="AB10" s="247"/>
-      <c r="AC10" s="248"/>
+      <c r="B10" s="205"/>
+      <c r="C10" s="206"/>
+      <c r="D10" s="206"/>
+      <c r="E10" s="207"/>
+      <c r="F10" s="208"/>
+      <c r="G10" s="209"/>
+      <c r="H10" s="205"/>
+      <c r="I10" s="206"/>
+      <c r="J10" s="207"/>
+      <c r="K10" s="210"/>
+      <c r="L10" s="211"/>
+      <c r="M10" s="211"/>
+      <c r="N10" s="211"/>
+      <c r="O10" s="211"/>
+      <c r="P10" s="211"/>
+      <c r="Q10" s="211"/>
+      <c r="R10" s="211"/>
+      <c r="S10" s="211"/>
+      <c r="T10" s="211"/>
+      <c r="U10" s="211"/>
+      <c r="V10" s="211"/>
+      <c r="W10" s="212"/>
+      <c r="X10" s="213"/>
+      <c r="Y10" s="214"/>
+      <c r="Z10" s="214"/>
+      <c r="AA10" s="214"/>
+      <c r="AB10" s="214"/>
+      <c r="AC10" s="215"/>
     </row>
     <row r="11" spans="1:30">
-      <c r="B11" s="242"/>
-      <c r="C11" s="238"/>
-      <c r="D11" s="238"/>
-      <c r="E11" s="239"/>
-      <c r="F11" s="240"/>
-      <c r="G11" s="241"/>
-      <c r="H11" s="242"/>
-      <c r="I11" s="238"/>
-      <c r="J11" s="239"/>
-      <c r="K11" s="243"/>
-      <c r="L11" s="244"/>
-      <c r="M11" s="244"/>
-      <c r="N11" s="244"/>
-      <c r="O11" s="244"/>
-      <c r="P11" s="244"/>
-      <c r="Q11" s="244"/>
-      <c r="R11" s="244"/>
-      <c r="S11" s="244"/>
-      <c r="T11" s="244"/>
-      <c r="U11" s="244"/>
-      <c r="V11" s="244"/>
-      <c r="W11" s="245"/>
-      <c r="X11" s="246"/>
-      <c r="Y11" s="247"/>
-      <c r="Z11" s="247"/>
-      <c r="AA11" s="247"/>
-      <c r="AB11" s="247"/>
-      <c r="AC11" s="248"/>
+      <c r="B11" s="205"/>
+      <c r="C11" s="206"/>
+      <c r="D11" s="206"/>
+      <c r="E11" s="207"/>
+      <c r="F11" s="208"/>
+      <c r="G11" s="209"/>
+      <c r="H11" s="205"/>
+      <c r="I11" s="206"/>
+      <c r="J11" s="207"/>
+      <c r="K11" s="210"/>
+      <c r="L11" s="211"/>
+      <c r="M11" s="211"/>
+      <c r="N11" s="211"/>
+      <c r="O11" s="211"/>
+      <c r="P11" s="211"/>
+      <c r="Q11" s="211"/>
+      <c r="R11" s="211"/>
+      <c r="S11" s="211"/>
+      <c r="T11" s="211"/>
+      <c r="U11" s="211"/>
+      <c r="V11" s="211"/>
+      <c r="W11" s="212"/>
+      <c r="X11" s="213"/>
+      <c r="Y11" s="214"/>
+      <c r="Z11" s="214"/>
+      <c r="AA11" s="214"/>
+      <c r="AB11" s="214"/>
+      <c r="AC11" s="215"/>
     </row>
     <row r="12" spans="1:30">
-      <c r="B12" s="242"/>
-      <c r="C12" s="238"/>
-      <c r="D12" s="238"/>
-      <c r="E12" s="239"/>
-      <c r="F12" s="240"/>
-      <c r="G12" s="241"/>
-      <c r="H12" s="242"/>
-      <c r="I12" s="238"/>
-      <c r="J12" s="239"/>
-      <c r="K12" s="243"/>
-      <c r="L12" s="244"/>
-      <c r="M12" s="244"/>
-      <c r="N12" s="244"/>
-      <c r="O12" s="244"/>
-      <c r="P12" s="244"/>
-      <c r="Q12" s="244"/>
-      <c r="R12" s="244"/>
-      <c r="S12" s="244"/>
-      <c r="T12" s="244"/>
-      <c r="U12" s="244"/>
-      <c r="V12" s="244"/>
-      <c r="W12" s="245"/>
-      <c r="X12" s="246"/>
-      <c r="Y12" s="247"/>
-      <c r="Z12" s="247"/>
-      <c r="AA12" s="247"/>
-      <c r="AB12" s="247"/>
-      <c r="AC12" s="248"/>
+      <c r="B12" s="205"/>
+      <c r="C12" s="206"/>
+      <c r="D12" s="206"/>
+      <c r="E12" s="207"/>
+      <c r="F12" s="208"/>
+      <c r="G12" s="209"/>
+      <c r="H12" s="205"/>
+      <c r="I12" s="206"/>
+      <c r="J12" s="207"/>
+      <c r="K12" s="210"/>
+      <c r="L12" s="211"/>
+      <c r="M12" s="211"/>
+      <c r="N12" s="211"/>
+      <c r="O12" s="211"/>
+      <c r="P12" s="211"/>
+      <c r="Q12" s="211"/>
+      <c r="R12" s="211"/>
+      <c r="S12" s="211"/>
+      <c r="T12" s="211"/>
+      <c r="U12" s="211"/>
+      <c r="V12" s="211"/>
+      <c r="W12" s="212"/>
+      <c r="X12" s="213"/>
+      <c r="Y12" s="214"/>
+      <c r="Z12" s="214"/>
+      <c r="AA12" s="214"/>
+      <c r="AB12" s="214"/>
+      <c r="AC12" s="215"/>
     </row>
     <row r="13" spans="1:30" ht="18" customHeight="1"/>
     <row r="14" spans="1:30" ht="18" customHeight="1"/>
@@ -23450,31 +23453,11 @@
     <row r="38" ht="18" customHeight="1"/>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="K12:W12"/>
-    <mergeCell ref="X12:AC12"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="K10:W10"/>
-    <mergeCell ref="X10:AC10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="K11:W11"/>
-    <mergeCell ref="X11:AC11"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="K8:W8"/>
-    <mergeCell ref="X8:AC8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K9:W9"/>
-    <mergeCell ref="X9:AC9"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:U1"/>
+    <mergeCell ref="V1:AD1"/>
     <mergeCell ref="Y2:AA2"/>
     <mergeCell ref="AB2:AD2"/>
     <mergeCell ref="A3:C3"/>
@@ -23489,11 +23472,31 @@
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:U2"/>
     <mergeCell ref="V2:X2"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:U1"/>
-    <mergeCell ref="V1:AD1"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:W9"/>
+    <mergeCell ref="X9:AC9"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="K8:W8"/>
+    <mergeCell ref="X8:AC8"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:W11"/>
+    <mergeCell ref="X11:AC11"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="K10:W10"/>
+    <mergeCell ref="X10:AC10"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="K12:W12"/>
+    <mergeCell ref="X12:AC12"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -23596,11 +23599,11 @@
       <c r="C4" s="266" t="s">
         <v>205</v>
       </c>
-      <c r="D4" s="275"/>
-      <c r="E4" s="275"/>
-      <c r="F4" s="275"/>
-      <c r="G4" s="275"/>
-      <c r="H4" s="275"/>
+      <c r="D4" s="268"/>
+      <c r="E4" s="268"/>
+      <c r="F4" s="268"/>
+      <c r="G4" s="268"/>
+      <c r="H4" s="268"/>
       <c r="I4" s="267"/>
       <c r="J4" s="154"/>
       <c r="K4" s="154"/>
@@ -23615,11 +23618,11 @@
         <v>125</v>
       </c>
       <c r="C5" s="266"/>
-      <c r="D5" s="275"/>
-      <c r="E5" s="275"/>
-      <c r="F5" s="275"/>
-      <c r="G5" s="275"/>
-      <c r="H5" s="275"/>
+      <c r="D5" s="268"/>
+      <c r="E5" s="268"/>
+      <c r="F5" s="268"/>
+      <c r="G5" s="268"/>
+      <c r="H5" s="268"/>
       <c r="I5" s="267"/>
       <c r="J5" s="154"/>
       <c r="K5" s="154"/>
@@ -23657,11 +23660,11 @@
       <c r="C7" s="266" t="s">
         <v>208</v>
       </c>
-      <c r="D7" s="275"/>
-      <c r="E7" s="275"/>
-      <c r="F7" s="275"/>
-      <c r="G7" s="275"/>
-      <c r="H7" s="275"/>
+      <c r="D7" s="268"/>
+      <c r="E7" s="268"/>
+      <c r="F7" s="268"/>
+      <c r="G7" s="268"/>
+      <c r="H7" s="268"/>
       <c r="I7" s="267"/>
       <c r="J7" s="154"/>
       <c r="K7" s="154"/>
@@ -23699,11 +23702,11 @@
       <c r="C9" s="266" t="s">
         <v>184</v>
       </c>
-      <c r="D9" s="275"/>
-      <c r="E9" s="275"/>
-      <c r="F9" s="275"/>
-      <c r="G9" s="275"/>
-      <c r="H9" s="275"/>
+      <c r="D9" s="268"/>
+      <c r="E9" s="268"/>
+      <c r="F9" s="268"/>
+      <c r="G9" s="268"/>
+      <c r="H9" s="268"/>
       <c r="I9" s="267"/>
       <c r="J9" s="154"/>
       <c r="K9" s="154"/>
@@ -23767,19 +23770,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="154"/>
-      <c r="B13" s="268" t="s">
+      <c r="B13" s="270" t="s">
         <v>126</v>
       </c>
-      <c r="C13" s="269"/>
-      <c r="D13" s="269"/>
-      <c r="E13" s="269"/>
-      <c r="F13" s="269"/>
-      <c r="G13" s="269"/>
-      <c r="H13" s="269"/>
-      <c r="I13" s="269"/>
-      <c r="J13" s="269"/>
-      <c r="K13" s="269"/>
-      <c r="L13" s="270"/>
+      <c r="C13" s="271"/>
+      <c r="D13" s="271"/>
+      <c r="E13" s="271"/>
+      <c r="F13" s="271"/>
+      <c r="G13" s="271"/>
+      <c r="H13" s="271"/>
+      <c r="I13" s="271"/>
+      <c r="J13" s="271"/>
+      <c r="K13" s="271"/>
+      <c r="L13" s="272"/>
       <c r="M13" s="154"/>
       <c r="N13" s="154"/>
       <c r="O13" s="154"/>
@@ -23808,11 +23811,11 @@
       <c r="I14" s="175" t="s">
         <v>133</v>
       </c>
-      <c r="J14" s="279" t="s">
+      <c r="J14" s="269" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="279"/>
-      <c r="L14" s="279"/>
+      <c r="K14" s="269"/>
+      <c r="L14" s="269"/>
       <c r="M14" s="154"/>
       <c r="N14" s="154"/>
       <c r="O14" s="154"/>
@@ -23993,12 +23996,12 @@
     </row>
     <row r="25" spans="1:15" s="173" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="174"/>
-      <c r="B25" s="271" t="s">
+      <c r="B25" s="273" t="s">
         <v>128</v>
       </c>
-      <c r="C25" s="272"/>
-      <c r="D25" s="272"/>
-      <c r="E25" s="273"/>
+      <c r="C25" s="274"/>
+      <c r="D25" s="274"/>
+      <c r="E25" s="275"/>
       <c r="F25" s="175" t="s">
         <v>127</v>
       </c>
@@ -24528,11 +24531,11 @@
     </row>
     <row r="50" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A50" s="154"/>
-      <c r="B50" s="276" t="s">
+      <c r="B50" s="277" t="s">
         <v>348</v>
       </c>
-      <c r="C50" s="276"/>
-      <c r="D50" s="276"/>
+      <c r="C50" s="277"/>
+      <c r="D50" s="277"/>
       <c r="E50" s="154"/>
       <c r="F50" s="154"/>
       <c r="G50" s="154"/>
@@ -24549,12 +24552,12 @@
     </row>
     <row r="51" spans="1:15" s="173" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A51" s="174"/>
-      <c r="B51" s="271" t="s">
+      <c r="B51" s="273" t="s">
         <v>128</v>
       </c>
-      <c r="C51" s="272"/>
-      <c r="D51" s="272"/>
-      <c r="E51" s="273"/>
+      <c r="C51" s="274"/>
+      <c r="D51" s="274"/>
+      <c r="E51" s="275"/>
       <c r="F51" s="175" t="s">
         <v>127</v>
       </c>
@@ -25200,6 +25203,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="D54:E54"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="B25:E25"/>
     <mergeCell ref="D28:E28"/>
@@ -25210,13 +25220,6 @@
     <mergeCell ref="C9:I9"/>
     <mergeCell ref="B13:L13"/>
     <mergeCell ref="J14:L14"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="D54:E54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -25313,11 +25316,11 @@
       <c r="C4" s="266" t="s">
         <v>402</v>
       </c>
-      <c r="D4" s="275"/>
-      <c r="E4" s="275"/>
-      <c r="F4" s="275"/>
-      <c r="G4" s="275"/>
-      <c r="H4" s="275"/>
+      <c r="D4" s="268"/>
+      <c r="E4" s="268"/>
+      <c r="F4" s="268"/>
+      <c r="G4" s="268"/>
+      <c r="H4" s="268"/>
       <c r="I4" s="267"/>
       <c r="J4" s="154"/>
       <c r="K4" s="154"/>
@@ -25334,11 +25337,11 @@
       <c r="C5" s="266" t="s">
         <v>401</v>
       </c>
-      <c r="D5" s="275"/>
-      <c r="E5" s="275"/>
-      <c r="F5" s="275"/>
-      <c r="G5" s="275"/>
-      <c r="H5" s="275"/>
+      <c r="D5" s="268"/>
+      <c r="E5" s="268"/>
+      <c r="F5" s="268"/>
+      <c r="G5" s="268"/>
+      <c r="H5" s="268"/>
       <c r="I5" s="267"/>
       <c r="J5" s="154"/>
       <c r="K5" s="154"/>
@@ -25376,11 +25379,11 @@
       <c r="C7" s="266" t="s">
         <v>208</v>
       </c>
-      <c r="D7" s="275"/>
-      <c r="E7" s="275"/>
-      <c r="F7" s="275"/>
-      <c r="G7" s="275"/>
-      <c r="H7" s="275"/>
+      <c r="D7" s="268"/>
+      <c r="E7" s="268"/>
+      <c r="F7" s="268"/>
+      <c r="G7" s="268"/>
+      <c r="H7" s="268"/>
       <c r="I7" s="267"/>
       <c r="J7" s="154"/>
       <c r="K7" s="154"/>
@@ -25418,11 +25421,11 @@
       <c r="C9" s="266" t="s">
         <v>184</v>
       </c>
-      <c r="D9" s="275"/>
-      <c r="E9" s="275"/>
-      <c r="F9" s="275"/>
-      <c r="G9" s="275"/>
-      <c r="H9" s="275"/>
+      <c r="D9" s="268"/>
+      <c r="E9" s="268"/>
+      <c r="F9" s="268"/>
+      <c r="G9" s="268"/>
+      <c r="H9" s="268"/>
       <c r="I9" s="267"/>
       <c r="J9" s="154"/>
       <c r="K9" s="154"/>
@@ -25486,19 +25489,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="154"/>
-      <c r="B13" s="268" t="s">
+      <c r="B13" s="270" t="s">
         <v>126</v>
       </c>
-      <c r="C13" s="269"/>
-      <c r="D13" s="269"/>
-      <c r="E13" s="269"/>
-      <c r="F13" s="269"/>
-      <c r="G13" s="269"/>
-      <c r="H13" s="269"/>
-      <c r="I13" s="269"/>
-      <c r="J13" s="269"/>
-      <c r="K13" s="269"/>
-      <c r="L13" s="270"/>
+      <c r="C13" s="271"/>
+      <c r="D13" s="271"/>
+      <c r="E13" s="271"/>
+      <c r="F13" s="271"/>
+      <c r="G13" s="271"/>
+      <c r="H13" s="271"/>
+      <c r="I13" s="271"/>
+      <c r="J13" s="271"/>
+      <c r="K13" s="271"/>
+      <c r="L13" s="272"/>
       <c r="M13" s="154"/>
       <c r="N13" s="154"/>
       <c r="O13" s="154"/>
@@ -25527,11 +25530,11 @@
       <c r="I14" s="175" t="s">
         <v>133</v>
       </c>
-      <c r="J14" s="279" t="s">
+      <c r="J14" s="269" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="279"/>
-      <c r="L14" s="279"/>
+      <c r="K14" s="269"/>
+      <c r="L14" s="269"/>
       <c r="M14" s="154"/>
       <c r="N14" s="154"/>
       <c r="O14" s="154"/>
@@ -25741,12 +25744,12 @@
     </row>
     <row r="26" spans="1:15" s="173" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="174"/>
-      <c r="B26" s="271" t="s">
+      <c r="B26" s="273" t="s">
         <v>128</v>
       </c>
-      <c r="C26" s="272"/>
-      <c r="D26" s="272"/>
-      <c r="E26" s="273"/>
+      <c r="C26" s="274"/>
+      <c r="D26" s="274"/>
+      <c r="E26" s="275"/>
       <c r="F26" s="175" t="s">
         <v>127</v>
       </c>
@@ -25970,10 +25973,10 @@
       <c r="A33" s="154"/>
       <c r="B33" s="168"/>
       <c r="C33" s="171"/>
-      <c r="D33" s="277" t="s">
+      <c r="D33" s="278" t="s">
         <v>363</v>
       </c>
-      <c r="E33" s="278"/>
+      <c r="E33" s="279"/>
       <c r="F33" s="162" t="s">
         <v>362</v>
       </c>
@@ -27066,11 +27069,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="D32:E32"/>
@@ -27080,6 +27078,11 @@
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="D29:E29"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -27774,15 +27777,15 @@
       <c r="B4" s="70" t="s">
         <v>124</v>
       </c>
-      <c r="C4" s="285" t="s">
+      <c r="C4" s="289" t="s">
         <v>215</v>
       </c>
-      <c r="D4" s="297"/>
-      <c r="E4" s="297"/>
-      <c r="F4" s="297"/>
-      <c r="G4" s="297"/>
-      <c r="H4" s="297"/>
-      <c r="I4" s="284"/>
+      <c r="D4" s="290"/>
+      <c r="E4" s="290"/>
+      <c r="F4" s="290"/>
+      <c r="G4" s="290"/>
+      <c r="H4" s="290"/>
+      <c r="I4" s="291"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -27795,15 +27798,15 @@
       <c r="B5" s="70" t="s">
         <v>125</v>
       </c>
-      <c r="C5" s="285" t="s">
+      <c r="C5" s="289" t="s">
         <v>295</v>
       </c>
-      <c r="D5" s="297"/>
-      <c r="E5" s="297"/>
-      <c r="F5" s="297"/>
-      <c r="G5" s="297"/>
-      <c r="H5" s="297"/>
-      <c r="I5" s="284"/>
+      <c r="D5" s="290"/>
+      <c r="E5" s="290"/>
+      <c r="F5" s="290"/>
+      <c r="G5" s="290"/>
+      <c r="H5" s="290"/>
+      <c r="I5" s="291"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -27837,15 +27840,15 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="283" t="s">
+      <c r="C7" s="292" t="s">
         <v>158</v>
       </c>
-      <c r="D7" s="297"/>
-      <c r="E7" s="297"/>
-      <c r="F7" s="297"/>
-      <c r="G7" s="297"/>
-      <c r="H7" s="297"/>
-      <c r="I7" s="284"/>
+      <c r="D7" s="290"/>
+      <c r="E7" s="290"/>
+      <c r="F7" s="290"/>
+      <c r="G7" s="290"/>
+      <c r="H7" s="290"/>
+      <c r="I7" s="291"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -27879,15 +27882,15 @@
       <c r="B9" s="70" t="s">
         <v>183</v>
       </c>
-      <c r="C9" s="283" t="s">
+      <c r="C9" s="292" t="s">
         <v>184</v>
       </c>
-      <c r="D9" s="297"/>
-      <c r="E9" s="297"/>
-      <c r="F9" s="297"/>
-      <c r="G9" s="297"/>
-      <c r="H9" s="297"/>
-      <c r="I9" s="284"/>
+      <c r="D9" s="290"/>
+      <c r="E9" s="290"/>
+      <c r="F9" s="290"/>
+      <c r="G9" s="290"/>
+      <c r="H9" s="290"/>
+      <c r="I9" s="291"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -27950,19 +27953,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="298" t="s">
+      <c r="B13" s="293" t="s">
         <v>126</v>
       </c>
-      <c r="C13" s="299"/>
-      <c r="D13" s="299"/>
-      <c r="E13" s="299"/>
-      <c r="F13" s="299"/>
-      <c r="G13" s="299"/>
-      <c r="H13" s="299"/>
-      <c r="I13" s="299"/>
-      <c r="J13" s="299"/>
-      <c r="K13" s="299"/>
-      <c r="L13" s="300"/>
+      <c r="C13" s="294"/>
+      <c r="D13" s="294"/>
+      <c r="E13" s="294"/>
+      <c r="F13" s="294"/>
+      <c r="G13" s="294"/>
+      <c r="H13" s="294"/>
+      <c r="I13" s="294"/>
+      <c r="J13" s="294"/>
+      <c r="K13" s="294"/>
+      <c r="L13" s="295"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -27991,11 +27994,11 @@
       <c r="I14" s="115" t="s">
         <v>133</v>
       </c>
-      <c r="J14" s="301" t="s">
+      <c r="J14" s="296" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="301"/>
-      <c r="L14" s="301"/>
+      <c r="K14" s="296"/>
+      <c r="L14" s="296"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -28020,11 +28023,11 @@
       <c r="I15" s="130" t="s">
         <v>296</v>
       </c>
-      <c r="J15" s="294" t="s">
+      <c r="J15" s="283" t="s">
         <v>297</v>
       </c>
-      <c r="K15" s="295"/>
-      <c r="L15" s="295"/>
+      <c r="K15" s="284"/>
+      <c r="L15" s="284"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -28053,9 +28056,9 @@
       <c r="I16" s="130" t="s">
         <v>302</v>
       </c>
-      <c r="J16" s="295"/>
-      <c r="K16" s="295"/>
-      <c r="L16" s="295"/>
+      <c r="J16" s="284"/>
+      <c r="K16" s="284"/>
+      <c r="L16" s="284"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -28246,11 +28249,11 @@
     </row>
     <row r="27" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="69"/>
-      <c r="B27" s="296" t="s">
+      <c r="B27" s="285" t="s">
         <v>168</v>
       </c>
-      <c r="C27" s="296"/>
-      <c r="D27" s="296"/>
+      <c r="C27" s="285"/>
+      <c r="D27" s="285"/>
       <c r="E27" s="80"/>
       <c r="F27" s="81"/>
       <c r="G27" s="80"/>
@@ -28265,12 +28268,12 @@
     </row>
     <row r="28" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="83"/>
-      <c r="B28" s="289" t="s">
+      <c r="B28" s="286" t="s">
         <v>128</v>
       </c>
-      <c r="C28" s="290"/>
-      <c r="D28" s="290"/>
-      <c r="E28" s="291"/>
+      <c r="C28" s="287"/>
+      <c r="D28" s="287"/>
+      <c r="E28" s="288"/>
       <c r="F28" s="115" t="s">
         <v>127</v>
       </c>
@@ -28362,10 +28365,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="85"/>
       <c r="C31" s="90"/>
-      <c r="D31" s="283" t="s">
+      <c r="D31" s="292" t="s">
         <v>174</v>
       </c>
-      <c r="E31" s="284"/>
+      <c r="E31" s="291"/>
       <c r="F31" s="74" t="s">
         <v>141</v>
       </c>
@@ -28395,10 +28398,10 @@
       <c r="A32" s="66"/>
       <c r="B32" s="85"/>
       <c r="C32" s="92"/>
-      <c r="D32" s="283" t="s">
+      <c r="D32" s="292" t="s">
         <v>175</v>
       </c>
-      <c r="E32" s="284"/>
+      <c r="E32" s="291"/>
       <c r="F32" s="74" t="s">
         <v>176</v>
       </c>
@@ -28461,10 +28464,10 @@
       <c r="A34" s="66"/>
       <c r="B34" s="85"/>
       <c r="C34" s="95"/>
-      <c r="D34" s="285" t="s">
+      <c r="D34" s="289" t="s">
         <v>305</v>
       </c>
-      <c r="E34" s="284"/>
+      <c r="E34" s="291"/>
       <c r="F34" s="105" t="s">
         <v>287</v>
       </c>
@@ -28494,10 +28497,10 @@
       <c r="A35" s="66"/>
       <c r="B35" s="85"/>
       <c r="C35" s="95"/>
-      <c r="D35" s="286" t="s">
+      <c r="D35" s="297" t="s">
         <v>298</v>
       </c>
-      <c r="E35" s="287"/>
+      <c r="E35" s="298"/>
       <c r="F35" s="105" t="s">
         <v>299</v>
       </c>
@@ -28887,11 +28890,11 @@
     </row>
     <row r="56" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="66"/>
-      <c r="B56" s="288" t="s">
+      <c r="B56" s="299" t="s">
         <v>144</v>
       </c>
-      <c r="C56" s="288"/>
-      <c r="D56" s="288"/>
+      <c r="C56" s="299"/>
+      <c r="D56" s="299"/>
       <c r="E56" s="66"/>
       <c r="F56" s="66"/>
       <c r="G56" s="66"/>
@@ -28908,12 +28911,12 @@
     </row>
     <row r="57" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="83"/>
-      <c r="B57" s="289" t="s">
+      <c r="B57" s="286" t="s">
         <v>128</v>
       </c>
-      <c r="C57" s="290"/>
-      <c r="D57" s="290"/>
-      <c r="E57" s="291"/>
+      <c r="C57" s="287"/>
+      <c r="D57" s="287"/>
+      <c r="E57" s="288"/>
       <c r="F57" s="115" t="s">
         <v>127</v>
       </c>
@@ -29005,10 +29008,10 @@
       <c r="A60" s="66"/>
       <c r="B60" s="85"/>
       <c r="C60" s="90"/>
-      <c r="D60" s="285" t="s">
+      <c r="D60" s="289" t="s">
         <v>174</v>
       </c>
-      <c r="E60" s="284"/>
+      <c r="E60" s="291"/>
       <c r="F60" s="74" t="s">
         <v>141</v>
       </c>
@@ -29038,10 +29041,10 @@
       <c r="A61" s="66"/>
       <c r="B61" s="85"/>
       <c r="C61" s="90"/>
-      <c r="D61" s="285" t="s">
+      <c r="D61" s="289" t="s">
         <v>0</v>
       </c>
-      <c r="E61" s="292"/>
+      <c r="E61" s="300"/>
       <c r="F61" s="105" t="s">
         <v>192</v>
       </c>
@@ -29071,10 +29074,10 @@
       <c r="A62" s="66"/>
       <c r="B62" s="85"/>
       <c r="C62" s="90"/>
-      <c r="D62" s="293" t="s">
+      <c r="D62" s="301" t="s">
         <v>197</v>
       </c>
-      <c r="E62" s="292"/>
+      <c r="E62" s="300"/>
       <c r="F62" s="105" t="s">
         <v>195</v>
       </c>
@@ -29168,8 +29171,8 @@
       <c r="A65" s="66"/>
       <c r="B65" s="91"/>
       <c r="C65" s="92"/>
-      <c r="D65" s="283"/>
-      <c r="E65" s="284"/>
+      <c r="D65" s="292"/>
+      <c r="E65" s="291"/>
       <c r="F65" s="74"/>
       <c r="G65" s="76"/>
       <c r="H65" s="76"/>
@@ -29559,6 +29562,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D62:E62"/>
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="J16:L16"/>
     <mergeCell ref="B27:D27"/>
@@ -29569,16 +29582,6 @@
     <mergeCell ref="C9:I9"/>
     <mergeCell ref="B13:L13"/>
     <mergeCell ref="J14:L14"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D62:E62"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -29676,15 +29679,15 @@
       <c r="B4" s="70" t="s">
         <v>124</v>
       </c>
-      <c r="C4" s="285" t="s">
+      <c r="C4" s="289" t="s">
         <v>308</v>
       </c>
-      <c r="D4" s="297"/>
-      <c r="E4" s="297"/>
-      <c r="F4" s="297"/>
-      <c r="G4" s="297"/>
-      <c r="H4" s="297"/>
-      <c r="I4" s="284"/>
+      <c r="D4" s="290"/>
+      <c r="E4" s="290"/>
+      <c r="F4" s="290"/>
+      <c r="G4" s="290"/>
+      <c r="H4" s="290"/>
+      <c r="I4" s="291"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -29697,15 +29700,15 @@
       <c r="B5" s="70" t="s">
         <v>125</v>
       </c>
-      <c r="C5" s="285" t="s">
+      <c r="C5" s="289" t="s">
         <v>309</v>
       </c>
-      <c r="D5" s="297"/>
-      <c r="E5" s="297"/>
-      <c r="F5" s="297"/>
-      <c r="G5" s="297"/>
-      <c r="H5" s="297"/>
-      <c r="I5" s="284"/>
+      <c r="D5" s="290"/>
+      <c r="E5" s="290"/>
+      <c r="F5" s="290"/>
+      <c r="G5" s="290"/>
+      <c r="H5" s="290"/>
+      <c r="I5" s="291"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -29739,15 +29742,15 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="285" t="s">
+      <c r="C7" s="289" t="s">
         <v>207</v>
       </c>
-      <c r="D7" s="297"/>
-      <c r="E7" s="297"/>
-      <c r="F7" s="297"/>
-      <c r="G7" s="297"/>
-      <c r="H7" s="297"/>
-      <c r="I7" s="284"/>
+      <c r="D7" s="290"/>
+      <c r="E7" s="290"/>
+      <c r="F7" s="290"/>
+      <c r="G7" s="290"/>
+      <c r="H7" s="290"/>
+      <c r="I7" s="291"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -29781,15 +29784,15 @@
       <c r="B9" s="70" t="s">
         <v>183</v>
       </c>
-      <c r="C9" s="283" t="s">
+      <c r="C9" s="292" t="s">
         <v>184</v>
       </c>
-      <c r="D9" s="297"/>
-      <c r="E9" s="297"/>
-      <c r="F9" s="297"/>
-      <c r="G9" s="297"/>
-      <c r="H9" s="297"/>
-      <c r="I9" s="284"/>
+      <c r="D9" s="290"/>
+      <c r="E9" s="290"/>
+      <c r="F9" s="290"/>
+      <c r="G9" s="290"/>
+      <c r="H9" s="290"/>
+      <c r="I9" s="291"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -29852,19 +29855,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="298" t="s">
+      <c r="B13" s="293" t="s">
         <v>126</v>
       </c>
-      <c r="C13" s="299"/>
-      <c r="D13" s="299"/>
-      <c r="E13" s="299"/>
-      <c r="F13" s="299"/>
-      <c r="G13" s="299"/>
-      <c r="H13" s="299"/>
-      <c r="I13" s="299"/>
-      <c r="J13" s="299"/>
-      <c r="K13" s="299"/>
-      <c r="L13" s="300"/>
+      <c r="C13" s="294"/>
+      <c r="D13" s="294"/>
+      <c r="E13" s="294"/>
+      <c r="F13" s="294"/>
+      <c r="G13" s="294"/>
+      <c r="H13" s="294"/>
+      <c r="I13" s="294"/>
+      <c r="J13" s="294"/>
+      <c r="K13" s="294"/>
+      <c r="L13" s="295"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -29893,11 +29896,11 @@
       <c r="I14" s="115" t="s">
         <v>133</v>
       </c>
-      <c r="J14" s="301" t="s">
+      <c r="J14" s="296" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="301"/>
-      <c r="L14" s="301"/>
+      <c r="K14" s="296"/>
+      <c r="L14" s="296"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -29922,11 +29925,11 @@
       <c r="I15" s="130" t="s">
         <v>290</v>
       </c>
-      <c r="J15" s="294" t="s">
+      <c r="J15" s="283" t="s">
         <v>312</v>
       </c>
-      <c r="K15" s="295"/>
-      <c r="L15" s="295"/>
+      <c r="K15" s="284"/>
+      <c r="L15" s="284"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -29951,9 +29954,9 @@
       <c r="I16" s="131" t="s">
         <v>289</v>
       </c>
-      <c r="J16" s="294"/>
-      <c r="K16" s="295"/>
-      <c r="L16" s="295"/>
+      <c r="J16" s="283"/>
+      <c r="K16" s="284"/>
+      <c r="L16" s="284"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -30115,11 +30118,11 @@
     </row>
     <row r="26" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="69"/>
-      <c r="B26" s="296" t="s">
+      <c r="B26" s="285" t="s">
         <v>168</v>
       </c>
-      <c r="C26" s="296"/>
-      <c r="D26" s="296"/>
+      <c r="C26" s="285"/>
+      <c r="D26" s="285"/>
       <c r="E26" s="80"/>
       <c r="F26" s="81"/>
       <c r="G26" s="80"/>
@@ -30134,12 +30137,12 @@
     </row>
     <row r="27" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="83"/>
-      <c r="B27" s="289" t="s">
+      <c r="B27" s="286" t="s">
         <v>128</v>
       </c>
-      <c r="C27" s="290"/>
-      <c r="D27" s="290"/>
-      <c r="E27" s="291"/>
+      <c r="C27" s="287"/>
+      <c r="D27" s="287"/>
+      <c r="E27" s="288"/>
       <c r="F27" s="115" t="s">
         <v>127</v>
       </c>
@@ -30231,10 +30234,10 @@
       <c r="A30" s="66"/>
       <c r="B30" s="85"/>
       <c r="C30" s="90"/>
-      <c r="D30" s="283" t="s">
+      <c r="D30" s="292" t="s">
         <v>174</v>
       </c>
-      <c r="E30" s="284"/>
+      <c r="E30" s="291"/>
       <c r="F30" s="74" t="s">
         <v>141</v>
       </c>
@@ -30264,10 +30267,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="85"/>
       <c r="C31" s="92"/>
-      <c r="D31" s="283" t="s">
+      <c r="D31" s="292" t="s">
         <v>175</v>
       </c>
-      <c r="E31" s="284"/>
+      <c r="E31" s="291"/>
       <c r="F31" s="74" t="s">
         <v>176</v>
       </c>
@@ -30330,10 +30333,10 @@
       <c r="A33" s="66"/>
       <c r="B33" s="85"/>
       <c r="C33" s="95"/>
-      <c r="D33" s="283" t="s">
+      <c r="D33" s="292" t="s">
         <v>142</v>
       </c>
-      <c r="E33" s="284"/>
+      <c r="E33" s="291"/>
       <c r="F33" s="74" t="s">
         <v>143</v>
       </c>
@@ -30363,10 +30366,10 @@
       <c r="A34" s="66"/>
       <c r="B34" s="85"/>
       <c r="C34" s="95"/>
-      <c r="D34" s="285" t="s">
+      <c r="D34" s="289" t="s">
         <v>311</v>
       </c>
-      <c r="E34" s="284"/>
+      <c r="E34" s="291"/>
       <c r="F34" s="105" t="s">
         <v>287</v>
       </c>
@@ -30450,10 +30453,10 @@
       <c r="A37" s="66"/>
       <c r="B37" s="91"/>
       <c r="C37" s="92"/>
-      <c r="D37" s="303" t="s">
+      <c r="D37" s="302" t="s">
         <v>320</v>
       </c>
-      <c r="E37" s="304"/>
+      <c r="E37" s="303"/>
       <c r="F37" s="139" t="s">
         <v>319</v>
       </c>
@@ -30785,11 +30788,11 @@
     </row>
     <row r="56" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="66"/>
-      <c r="B56" s="288" t="s">
+      <c r="B56" s="299" t="s">
         <v>144</v>
       </c>
-      <c r="C56" s="288"/>
-      <c r="D56" s="288"/>
+      <c r="C56" s="299"/>
+      <c r="D56" s="299"/>
       <c r="E56" s="66"/>
       <c r="F56" s="66"/>
       <c r="G56" s="66"/>
@@ -30806,12 +30809,12 @@
     </row>
     <row r="57" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="83"/>
-      <c r="B57" s="289" t="s">
+      <c r="B57" s="286" t="s">
         <v>128</v>
       </c>
-      <c r="C57" s="290"/>
-      <c r="D57" s="290"/>
-      <c r="E57" s="291"/>
+      <c r="C57" s="287"/>
+      <c r="D57" s="287"/>
+      <c r="E57" s="288"/>
       <c r="F57" s="115" t="s">
         <v>127</v>
       </c>
@@ -30903,10 +30906,10 @@
       <c r="A60" s="66"/>
       <c r="B60" s="85"/>
       <c r="C60" s="90"/>
-      <c r="D60" s="285" t="s">
+      <c r="D60" s="289" t="s">
         <v>174</v>
       </c>
-      <c r="E60" s="284"/>
+      <c r="E60" s="291"/>
       <c r="F60" s="74" t="s">
         <v>141</v>
       </c>
@@ -30936,10 +30939,10 @@
       <c r="A61" s="66"/>
       <c r="B61" s="85"/>
       <c r="C61" s="90"/>
-      <c r="D61" s="285" t="s">
+      <c r="D61" s="289" t="s">
         <v>0</v>
       </c>
-      <c r="E61" s="292"/>
+      <c r="E61" s="300"/>
       <c r="F61" s="105" t="s">
         <v>192</v>
       </c>
@@ -30969,10 +30972,10 @@
       <c r="A62" s="66"/>
       <c r="B62" s="85"/>
       <c r="C62" s="90"/>
-      <c r="D62" s="293" t="s">
+      <c r="D62" s="301" t="s">
         <v>197</v>
       </c>
-      <c r="E62" s="292"/>
+      <c r="E62" s="300"/>
       <c r="F62" s="105" t="s">
         <v>195</v>
       </c>
@@ -31037,8 +31040,8 @@
       <c r="C64" s="88" t="s">
         <v>173</v>
       </c>
-      <c r="D64" s="302"/>
-      <c r="E64" s="302"/>
+      <c r="D64" s="304"/>
+      <c r="E64" s="304"/>
       <c r="F64" s="74" t="s">
         <v>171</v>
       </c>
@@ -31066,10 +31069,10 @@
       <c r="A65" s="66"/>
       <c r="B65" s="77"/>
       <c r="C65" s="86"/>
-      <c r="D65" s="283" t="s">
+      <c r="D65" s="292" t="s">
         <v>142</v>
       </c>
-      <c r="E65" s="284"/>
+      <c r="E65" s="291"/>
       <c r="F65" s="74" t="s">
         <v>143</v>
       </c>
@@ -31099,10 +31102,10 @@
       <c r="A66" s="66"/>
       <c r="B66" s="77"/>
       <c r="C66" s="86"/>
-      <c r="D66" s="285" t="s">
+      <c r="D66" s="289" t="s">
         <v>311</v>
       </c>
-      <c r="E66" s="284"/>
+      <c r="E66" s="291"/>
       <c r="F66" s="105" t="s">
         <v>287</v>
       </c>
@@ -31186,10 +31189,10 @@
       <c r="A69" s="66"/>
       <c r="B69" s="77"/>
       <c r="C69" s="86"/>
-      <c r="D69" s="303" t="s">
+      <c r="D69" s="302" t="s">
         <v>320</v>
       </c>
-      <c r="E69" s="304"/>
+      <c r="E69" s="303"/>
       <c r="F69" s="139" t="s">
         <v>319</v>
       </c>
@@ -31572,6 +31575,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D62:E62"/>
     <mergeCell ref="B57:E57"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="C4:I4"/>
@@ -31588,14 +31599,6 @@
     <mergeCell ref="J16:L16"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B27:E27"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D62:E62"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -31693,15 +31696,15 @@
       <c r="B4" s="70" t="s">
         <v>124</v>
       </c>
-      <c r="C4" s="285" t="s">
+      <c r="C4" s="289" t="s">
         <v>314</v>
       </c>
-      <c r="D4" s="297"/>
-      <c r="E4" s="297"/>
-      <c r="F4" s="297"/>
-      <c r="G4" s="297"/>
-      <c r="H4" s="297"/>
-      <c r="I4" s="284"/>
+      <c r="D4" s="290"/>
+      <c r="E4" s="290"/>
+      <c r="F4" s="290"/>
+      <c r="G4" s="290"/>
+      <c r="H4" s="290"/>
+      <c r="I4" s="291"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -31714,15 +31717,15 @@
       <c r="B5" s="70" t="s">
         <v>125</v>
       </c>
-      <c r="C5" s="285" t="s">
+      <c r="C5" s="289" t="s">
         <v>315</v>
       </c>
-      <c r="D5" s="297"/>
-      <c r="E5" s="297"/>
-      <c r="F5" s="297"/>
-      <c r="G5" s="297"/>
-      <c r="H5" s="297"/>
-      <c r="I5" s="284"/>
+      <c r="D5" s="290"/>
+      <c r="E5" s="290"/>
+      <c r="F5" s="290"/>
+      <c r="G5" s="290"/>
+      <c r="H5" s="290"/>
+      <c r="I5" s="291"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -31756,15 +31759,15 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="285" t="s">
+      <c r="C7" s="289" t="s">
         <v>207</v>
       </c>
-      <c r="D7" s="297"/>
-      <c r="E7" s="297"/>
-      <c r="F7" s="297"/>
-      <c r="G7" s="297"/>
-      <c r="H7" s="297"/>
-      <c r="I7" s="284"/>
+      <c r="D7" s="290"/>
+      <c r="E7" s="290"/>
+      <c r="F7" s="290"/>
+      <c r="G7" s="290"/>
+      <c r="H7" s="290"/>
+      <c r="I7" s="291"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -31798,15 +31801,15 @@
       <c r="B9" s="70" t="s">
         <v>183</v>
       </c>
-      <c r="C9" s="283" t="s">
+      <c r="C9" s="292" t="s">
         <v>184</v>
       </c>
-      <c r="D9" s="297"/>
-      <c r="E9" s="297"/>
-      <c r="F9" s="297"/>
-      <c r="G9" s="297"/>
-      <c r="H9" s="297"/>
-      <c r="I9" s="284"/>
+      <c r="D9" s="290"/>
+      <c r="E9" s="290"/>
+      <c r="F9" s="290"/>
+      <c r="G9" s="290"/>
+      <c r="H9" s="290"/>
+      <c r="I9" s="291"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -31869,19 +31872,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="298" t="s">
+      <c r="B13" s="293" t="s">
         <v>126</v>
       </c>
-      <c r="C13" s="299"/>
-      <c r="D13" s="299"/>
-      <c r="E13" s="299"/>
-      <c r="F13" s="299"/>
-      <c r="G13" s="299"/>
-      <c r="H13" s="299"/>
-      <c r="I13" s="299"/>
-      <c r="J13" s="299"/>
-      <c r="K13" s="299"/>
-      <c r="L13" s="300"/>
+      <c r="C13" s="294"/>
+      <c r="D13" s="294"/>
+      <c r="E13" s="294"/>
+      <c r="F13" s="294"/>
+      <c r="G13" s="294"/>
+      <c r="H13" s="294"/>
+      <c r="I13" s="294"/>
+      <c r="J13" s="294"/>
+      <c r="K13" s="294"/>
+      <c r="L13" s="295"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -31910,11 +31913,11 @@
       <c r="I14" s="115" t="s">
         <v>133</v>
       </c>
-      <c r="J14" s="301" t="s">
+      <c r="J14" s="296" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="301"/>
-      <c r="L14" s="301"/>
+      <c r="K14" s="296"/>
+      <c r="L14" s="296"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -31939,11 +31942,11 @@
       <c r="I15" s="130" t="s">
         <v>290</v>
       </c>
-      <c r="J15" s="294" t="s">
+      <c r="J15" s="283" t="s">
         <v>317</v>
       </c>
-      <c r="K15" s="295"/>
-      <c r="L15" s="295"/>
+      <c r="K15" s="284"/>
+      <c r="L15" s="284"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -31968,9 +31971,9 @@
       <c r="I16" s="131" t="s">
         <v>289</v>
       </c>
-      <c r="J16" s="294"/>
-      <c r="K16" s="295"/>
-      <c r="L16" s="295"/>
+      <c r="J16" s="283"/>
+      <c r="K16" s="284"/>
+      <c r="L16" s="284"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -32132,11 +32135,11 @@
     </row>
     <row r="26" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="69"/>
-      <c r="B26" s="296" t="s">
+      <c r="B26" s="285" t="s">
         <v>168</v>
       </c>
-      <c r="C26" s="296"/>
-      <c r="D26" s="296"/>
+      <c r="C26" s="285"/>
+      <c r="D26" s="285"/>
       <c r="E26" s="80"/>
       <c r="F26" s="81"/>
       <c r="G26" s="80"/>
@@ -32151,12 +32154,12 @@
     </row>
     <row r="27" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="83"/>
-      <c r="B27" s="289" t="s">
+      <c r="B27" s="286" t="s">
         <v>128</v>
       </c>
-      <c r="C27" s="290"/>
-      <c r="D27" s="290"/>
-      <c r="E27" s="291"/>
+      <c r="C27" s="287"/>
+      <c r="D27" s="287"/>
+      <c r="E27" s="288"/>
       <c r="F27" s="115" t="s">
         <v>127</v>
       </c>
@@ -32248,10 +32251,10 @@
       <c r="A30" s="66"/>
       <c r="B30" s="85"/>
       <c r="C30" s="90"/>
-      <c r="D30" s="283" t="s">
+      <c r="D30" s="292" t="s">
         <v>174</v>
       </c>
-      <c r="E30" s="284"/>
+      <c r="E30" s="291"/>
       <c r="F30" s="74" t="s">
         <v>141</v>
       </c>
@@ -32281,10 +32284,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="85"/>
       <c r="C31" s="92"/>
-      <c r="D31" s="283" t="s">
+      <c r="D31" s="292" t="s">
         <v>175</v>
       </c>
-      <c r="E31" s="284"/>
+      <c r="E31" s="291"/>
       <c r="F31" s="74" t="s">
         <v>176</v>
       </c>
@@ -32347,10 +32350,10 @@
       <c r="A33" s="66"/>
       <c r="B33" s="85"/>
       <c r="C33" s="95"/>
-      <c r="D33" s="283" t="s">
+      <c r="D33" s="292" t="s">
         <v>142</v>
       </c>
-      <c r="E33" s="284"/>
+      <c r="E33" s="291"/>
       <c r="F33" s="74" t="s">
         <v>143</v>
       </c>
@@ -32380,10 +32383,10 @@
       <c r="A34" s="66"/>
       <c r="B34" s="85"/>
       <c r="C34" s="95"/>
-      <c r="D34" s="285" t="s">
+      <c r="D34" s="289" t="s">
         <v>311</v>
       </c>
-      <c r="E34" s="284"/>
+      <c r="E34" s="291"/>
       <c r="F34" s="105" t="s">
         <v>287</v>
       </c>
@@ -32467,10 +32470,10 @@
       <c r="A37" s="66"/>
       <c r="B37" s="91"/>
       <c r="C37" s="92"/>
-      <c r="D37" s="303" t="s">
+      <c r="D37" s="302" t="s">
         <v>320</v>
       </c>
-      <c r="E37" s="304"/>
+      <c r="E37" s="303"/>
       <c r="F37" s="137" t="s">
         <v>319</v>
       </c>
@@ -32802,11 +32805,11 @@
     </row>
     <row r="56" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="66"/>
-      <c r="B56" s="288" t="s">
+      <c r="B56" s="299" t="s">
         <v>144</v>
       </c>
-      <c r="C56" s="288"/>
-      <c r="D56" s="288"/>
+      <c r="C56" s="299"/>
+      <c r="D56" s="299"/>
       <c r="E56" s="66"/>
       <c r="F56" s="66"/>
       <c r="G56" s="66"/>
@@ -32823,12 +32826,12 @@
     </row>
     <row r="57" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="83"/>
-      <c r="B57" s="289" t="s">
+      <c r="B57" s="286" t="s">
         <v>128</v>
       </c>
-      <c r="C57" s="290"/>
-      <c r="D57" s="290"/>
-      <c r="E57" s="291"/>
+      <c r="C57" s="287"/>
+      <c r="D57" s="287"/>
+      <c r="E57" s="288"/>
       <c r="F57" s="151" t="s">
         <v>127</v>
       </c>
@@ -32920,10 +32923,10 @@
       <c r="A60" s="66"/>
       <c r="B60" s="85"/>
       <c r="C60" s="90"/>
-      <c r="D60" s="285" t="s">
+      <c r="D60" s="289" t="s">
         <v>174</v>
       </c>
-      <c r="E60" s="284"/>
+      <c r="E60" s="291"/>
       <c r="F60" s="74" t="s">
         <v>141</v>
       </c>
@@ -32953,10 +32956,10 @@
       <c r="A61" s="66"/>
       <c r="B61" s="85"/>
       <c r="C61" s="90"/>
-      <c r="D61" s="285" t="s">
+      <c r="D61" s="289" t="s">
         <v>0</v>
       </c>
-      <c r="E61" s="292"/>
+      <c r="E61" s="300"/>
       <c r="F61" s="105" t="s">
         <v>192</v>
       </c>
@@ -32986,10 +32989,10 @@
       <c r="A62" s="66"/>
       <c r="B62" s="85"/>
       <c r="C62" s="90"/>
-      <c r="D62" s="293" t="s">
+      <c r="D62" s="301" t="s">
         <v>197</v>
       </c>
-      <c r="E62" s="292"/>
+      <c r="E62" s="300"/>
       <c r="F62" s="105" t="s">
         <v>195</v>
       </c>
@@ -33054,8 +33057,8 @@
       <c r="C64" s="88" t="s">
         <v>173</v>
       </c>
-      <c r="D64" s="302"/>
-      <c r="E64" s="302"/>
+      <c r="D64" s="304"/>
+      <c r="E64" s="304"/>
       <c r="F64" s="74" t="s">
         <v>171</v>
       </c>
@@ -33083,10 +33086,10 @@
       <c r="A65" s="66"/>
       <c r="B65" s="77"/>
       <c r="C65" s="86"/>
-      <c r="D65" s="283" t="s">
+      <c r="D65" s="292" t="s">
         <v>142</v>
       </c>
-      <c r="E65" s="284"/>
+      <c r="E65" s="291"/>
       <c r="F65" s="74" t="s">
         <v>143</v>
       </c>
@@ -33116,10 +33119,10 @@
       <c r="A66" s="66"/>
       <c r="B66" s="77"/>
       <c r="C66" s="86"/>
-      <c r="D66" s="285" t="s">
+      <c r="D66" s="289" t="s">
         <v>311</v>
       </c>
-      <c r="E66" s="284"/>
+      <c r="E66" s="291"/>
       <c r="F66" s="105" t="s">
         <v>287</v>
       </c>
@@ -33203,10 +33206,10 @@
       <c r="A69" s="66"/>
       <c r="B69" s="77"/>
       <c r="C69" s="86"/>
-      <c r="D69" s="303" t="s">
+      <c r="D69" s="302" t="s">
         <v>320</v>
       </c>
-      <c r="E69" s="304"/>
+      <c r="E69" s="303"/>
       <c r="F69" s="139" t="s">
         <v>319</v>
       </c>
@@ -33563,6 +33566,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D65:E65"/>
     <mergeCell ref="D60:E60"/>
     <mergeCell ref="D61:E61"/>
     <mergeCell ref="D31:E31"/>
@@ -33579,14 +33590,6 @@
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D62:E62"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -33684,15 +33687,15 @@
       <c r="B4" s="70" t="s">
         <v>124</v>
       </c>
-      <c r="C4" s="285" t="s">
+      <c r="C4" s="289" t="s">
         <v>330</v>
       </c>
-      <c r="D4" s="297"/>
-      <c r="E4" s="297"/>
-      <c r="F4" s="297"/>
-      <c r="G4" s="297"/>
-      <c r="H4" s="297"/>
-      <c r="I4" s="284"/>
+      <c r="D4" s="290"/>
+      <c r="E4" s="290"/>
+      <c r="F4" s="290"/>
+      <c r="G4" s="290"/>
+      <c r="H4" s="290"/>
+      <c r="I4" s="291"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -33705,15 +33708,15 @@
       <c r="B5" s="70" t="s">
         <v>125</v>
       </c>
-      <c r="C5" s="285" t="s">
+      <c r="C5" s="289" t="s">
         <v>331</v>
       </c>
-      <c r="D5" s="297"/>
-      <c r="E5" s="297"/>
-      <c r="F5" s="297"/>
-      <c r="G5" s="297"/>
-      <c r="H5" s="297"/>
-      <c r="I5" s="284"/>
+      <c r="D5" s="290"/>
+      <c r="E5" s="290"/>
+      <c r="F5" s="290"/>
+      <c r="G5" s="290"/>
+      <c r="H5" s="290"/>
+      <c r="I5" s="291"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -33747,15 +33750,15 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="285" t="s">
+      <c r="C7" s="289" t="s">
         <v>207</v>
       </c>
-      <c r="D7" s="297"/>
-      <c r="E7" s="297"/>
-      <c r="F7" s="297"/>
-      <c r="G7" s="297"/>
-      <c r="H7" s="297"/>
-      <c r="I7" s="284"/>
+      <c r="D7" s="290"/>
+      <c r="E7" s="290"/>
+      <c r="F7" s="290"/>
+      <c r="G7" s="290"/>
+      <c r="H7" s="290"/>
+      <c r="I7" s="291"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -33789,15 +33792,15 @@
       <c r="B9" s="70" t="s">
         <v>183</v>
       </c>
-      <c r="C9" s="283" t="s">
+      <c r="C9" s="292" t="s">
         <v>184</v>
       </c>
-      <c r="D9" s="297"/>
-      <c r="E9" s="297"/>
-      <c r="F9" s="297"/>
-      <c r="G9" s="297"/>
-      <c r="H9" s="297"/>
-      <c r="I9" s="284"/>
+      <c r="D9" s="290"/>
+      <c r="E9" s="290"/>
+      <c r="F9" s="290"/>
+      <c r="G9" s="290"/>
+      <c r="H9" s="290"/>
+      <c r="I9" s="291"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -33860,19 +33863,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="298" t="s">
+      <c r="B13" s="293" t="s">
         <v>126</v>
       </c>
-      <c r="C13" s="299"/>
-      <c r="D13" s="299"/>
-      <c r="E13" s="299"/>
-      <c r="F13" s="299"/>
-      <c r="G13" s="299"/>
-      <c r="H13" s="299"/>
-      <c r="I13" s="299"/>
-      <c r="J13" s="299"/>
-      <c r="K13" s="299"/>
-      <c r="L13" s="300"/>
+      <c r="C13" s="294"/>
+      <c r="D13" s="294"/>
+      <c r="E13" s="294"/>
+      <c r="F13" s="294"/>
+      <c r="G13" s="294"/>
+      <c r="H13" s="294"/>
+      <c r="I13" s="294"/>
+      <c r="J13" s="294"/>
+      <c r="K13" s="294"/>
+      <c r="L13" s="295"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -33901,11 +33904,11 @@
       <c r="I14" s="115" t="s">
         <v>133</v>
       </c>
-      <c r="J14" s="301" t="s">
+      <c r="J14" s="296" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="301"/>
-      <c r="L14" s="301"/>
+      <c r="K14" s="296"/>
+      <c r="L14" s="296"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -33930,11 +33933,11 @@
       <c r="I15" s="130" t="s">
         <v>296</v>
       </c>
-      <c r="J15" s="294" t="s">
+      <c r="J15" s="283" t="s">
         <v>333</v>
       </c>
-      <c r="K15" s="295"/>
-      <c r="L15" s="295"/>
+      <c r="K15" s="284"/>
+      <c r="L15" s="284"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -33959,9 +33962,9 @@
       <c r="I16" s="130" t="s">
         <v>289</v>
       </c>
-      <c r="J16" s="295"/>
-      <c r="K16" s="295"/>
-      <c r="L16" s="295"/>
+      <c r="J16" s="284"/>
+      <c r="K16" s="284"/>
+      <c r="L16" s="284"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -34140,11 +34143,11 @@
     </row>
     <row r="27" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="69"/>
-      <c r="B27" s="296" t="s">
+      <c r="B27" s="285" t="s">
         <v>168</v>
       </c>
-      <c r="C27" s="296"/>
-      <c r="D27" s="296"/>
+      <c r="C27" s="285"/>
+      <c r="D27" s="285"/>
       <c r="E27" s="80"/>
       <c r="F27" s="81"/>
       <c r="G27" s="80"/>
@@ -34159,12 +34162,12 @@
     </row>
     <row r="28" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="83"/>
-      <c r="B28" s="289" t="s">
+      <c r="B28" s="286" t="s">
         <v>128</v>
       </c>
-      <c r="C28" s="290"/>
-      <c r="D28" s="290"/>
-      <c r="E28" s="291"/>
+      <c r="C28" s="287"/>
+      <c r="D28" s="287"/>
+      <c r="E28" s="288"/>
       <c r="F28" s="115" t="s">
         <v>127</v>
       </c>
@@ -34256,10 +34259,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="85"/>
       <c r="C31" s="90"/>
-      <c r="D31" s="283" t="s">
+      <c r="D31" s="292" t="s">
         <v>174</v>
       </c>
-      <c r="E31" s="284"/>
+      <c r="E31" s="291"/>
       <c r="F31" s="74" t="s">
         <v>141</v>
       </c>
@@ -34289,10 +34292,10 @@
       <c r="A32" s="66"/>
       <c r="B32" s="85"/>
       <c r="C32" s="92"/>
-      <c r="D32" s="283" t="s">
+      <c r="D32" s="292" t="s">
         <v>175</v>
       </c>
-      <c r="E32" s="284"/>
+      <c r="E32" s="291"/>
       <c r="F32" s="74" t="s">
         <v>176</v>
       </c>
@@ -34355,10 +34358,10 @@
       <c r="A34" s="66"/>
       <c r="B34" s="85"/>
       <c r="C34" s="95"/>
-      <c r="D34" s="285" t="s">
+      <c r="D34" s="289" t="s">
         <v>305</v>
       </c>
-      <c r="E34" s="284"/>
+      <c r="E34" s="291"/>
       <c r="F34" s="105" t="s">
         <v>287</v>
       </c>
@@ -34388,10 +34391,10 @@
       <c r="A35" s="66"/>
       <c r="B35" s="85"/>
       <c r="C35" s="95"/>
-      <c r="D35" s="286" t="s">
+      <c r="D35" s="297" t="s">
         <v>298</v>
       </c>
-      <c r="E35" s="287"/>
+      <c r="E35" s="298"/>
       <c r="F35" s="105" t="s">
         <v>299</v>
       </c>
@@ -34475,10 +34478,10 @@
       <c r="A38" s="66"/>
       <c r="B38" s="85"/>
       <c r="C38" s="95"/>
-      <c r="D38" s="303" t="s">
+      <c r="D38" s="302" t="s">
         <v>300</v>
       </c>
-      <c r="E38" s="304"/>
+      <c r="E38" s="303"/>
       <c r="F38" s="137" t="s">
         <v>301</v>
       </c>
@@ -34810,11 +34813,11 @@
     </row>
     <row r="57" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="66"/>
-      <c r="B57" s="288" t="s">
+      <c r="B57" s="299" t="s">
         <v>144</v>
       </c>
-      <c r="C57" s="288"/>
-      <c r="D57" s="288"/>
+      <c r="C57" s="299"/>
+      <c r="D57" s="299"/>
       <c r="E57" s="66"/>
       <c r="F57" s="66"/>
       <c r="G57" s="66"/>
@@ -34831,12 +34834,12 @@
     </row>
     <row r="58" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A58" s="83"/>
-      <c r="B58" s="289" t="s">
+      <c r="B58" s="286" t="s">
         <v>128</v>
       </c>
-      <c r="C58" s="290"/>
-      <c r="D58" s="290"/>
-      <c r="E58" s="291"/>
+      <c r="C58" s="287"/>
+      <c r="D58" s="287"/>
+      <c r="E58" s="288"/>
       <c r="F58" s="115" t="s">
         <v>127</v>
       </c>
@@ -34928,10 +34931,10 @@
       <c r="A61" s="66"/>
       <c r="B61" s="85"/>
       <c r="C61" s="90"/>
-      <c r="D61" s="285" t="s">
+      <c r="D61" s="289" t="s">
         <v>174</v>
       </c>
-      <c r="E61" s="284"/>
+      <c r="E61" s="291"/>
       <c r="F61" s="74" t="s">
         <v>141</v>
       </c>
@@ -34961,10 +34964,10 @@
       <c r="A62" s="66"/>
       <c r="B62" s="85"/>
       <c r="C62" s="90"/>
-      <c r="D62" s="285" t="s">
+      <c r="D62" s="289" t="s">
         <v>0</v>
       </c>
-      <c r="E62" s="292"/>
+      <c r="E62" s="300"/>
       <c r="F62" s="105" t="s">
         <v>192</v>
       </c>
@@ -34994,10 +34997,10 @@
       <c r="A63" s="66"/>
       <c r="B63" s="85"/>
       <c r="C63" s="90"/>
-      <c r="D63" s="293" t="s">
+      <c r="D63" s="301" t="s">
         <v>197</v>
       </c>
-      <c r="E63" s="292"/>
+      <c r="E63" s="300"/>
       <c r="F63" s="105" t="s">
         <v>195</v>
       </c>
@@ -35091,10 +35094,10 @@
       <c r="A66" s="66"/>
       <c r="B66" s="93"/>
       <c r="C66" s="86"/>
-      <c r="D66" s="285" t="s">
+      <c r="D66" s="289" t="s">
         <v>305</v>
       </c>
-      <c r="E66" s="284"/>
+      <c r="E66" s="291"/>
       <c r="F66" s="105" t="s">
         <v>287</v>
       </c>
@@ -35124,10 +35127,10 @@
       <c r="A67" s="66"/>
       <c r="B67" s="93"/>
       <c r="C67" s="86"/>
-      <c r="D67" s="286" t="s">
+      <c r="D67" s="297" t="s">
         <v>298</v>
       </c>
-      <c r="E67" s="287"/>
+      <c r="E67" s="298"/>
       <c r="F67" s="105" t="s">
         <v>299</v>
       </c>
@@ -35211,10 +35214,10 @@
       <c r="A70" s="66"/>
       <c r="B70" s="66"/>
       <c r="C70" s="66"/>
-      <c r="D70" s="303" t="s">
+      <c r="D70" s="302" t="s">
         <v>300</v>
       </c>
-      <c r="E70" s="304"/>
+      <c r="E70" s="303"/>
       <c r="F70" s="137" t="s">
         <v>301</v>
       </c>
@@ -35546,6 +35549,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D63:E63"/>
     <mergeCell ref="D61:E61"/>
     <mergeCell ref="D62:E62"/>
     <mergeCell ref="D32:E32"/>
@@ -35562,14 +35573,6 @@
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D63:E63"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -35667,15 +35670,15 @@
       <c r="B4" s="70" t="s">
         <v>124</v>
       </c>
-      <c r="C4" s="285" t="s">
+      <c r="C4" s="289" t="s">
         <v>341</v>
       </c>
-      <c r="D4" s="297"/>
-      <c r="E4" s="297"/>
-      <c r="F4" s="297"/>
-      <c r="G4" s="297"/>
-      <c r="H4" s="297"/>
-      <c r="I4" s="284"/>
+      <c r="D4" s="290"/>
+      <c r="E4" s="290"/>
+      <c r="F4" s="290"/>
+      <c r="G4" s="290"/>
+      <c r="H4" s="290"/>
+      <c r="I4" s="291"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -35688,15 +35691,15 @@
       <c r="B5" s="70" t="s">
         <v>125</v>
       </c>
-      <c r="C5" s="285" t="s">
+      <c r="C5" s="289" t="s">
         <v>342</v>
       </c>
-      <c r="D5" s="297"/>
-      <c r="E5" s="297"/>
-      <c r="F5" s="297"/>
-      <c r="G5" s="297"/>
-      <c r="H5" s="297"/>
-      <c r="I5" s="284"/>
+      <c r="D5" s="290"/>
+      <c r="E5" s="290"/>
+      <c r="F5" s="290"/>
+      <c r="G5" s="290"/>
+      <c r="H5" s="290"/>
+      <c r="I5" s="291"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -35730,15 +35733,15 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="285" t="s">
+      <c r="C7" s="289" t="s">
         <v>226</v>
       </c>
-      <c r="D7" s="297"/>
-      <c r="E7" s="297"/>
-      <c r="F7" s="297"/>
-      <c r="G7" s="297"/>
-      <c r="H7" s="297"/>
-      <c r="I7" s="284"/>
+      <c r="D7" s="290"/>
+      <c r="E7" s="290"/>
+      <c r="F7" s="290"/>
+      <c r="G7" s="290"/>
+      <c r="H7" s="290"/>
+      <c r="I7" s="291"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -35772,15 +35775,15 @@
       <c r="B9" s="70" t="s">
         <v>183</v>
       </c>
-      <c r="C9" s="283" t="s">
+      <c r="C9" s="292" t="s">
         <v>184</v>
       </c>
-      <c r="D9" s="297"/>
-      <c r="E9" s="297"/>
-      <c r="F9" s="297"/>
-      <c r="G9" s="297"/>
-      <c r="H9" s="297"/>
-      <c r="I9" s="284"/>
+      <c r="D9" s="290"/>
+      <c r="E9" s="290"/>
+      <c r="F9" s="290"/>
+      <c r="G9" s="290"/>
+      <c r="H9" s="290"/>
+      <c r="I9" s="291"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -35843,19 +35846,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="298" t="s">
+      <c r="B13" s="293" t="s">
         <v>126</v>
       </c>
-      <c r="C13" s="299"/>
-      <c r="D13" s="299"/>
-      <c r="E13" s="299"/>
-      <c r="F13" s="299"/>
-      <c r="G13" s="299"/>
-      <c r="H13" s="299"/>
-      <c r="I13" s="299"/>
-      <c r="J13" s="299"/>
-      <c r="K13" s="299"/>
-      <c r="L13" s="300"/>
+      <c r="C13" s="294"/>
+      <c r="D13" s="294"/>
+      <c r="E13" s="294"/>
+      <c r="F13" s="294"/>
+      <c r="G13" s="294"/>
+      <c r="H13" s="294"/>
+      <c r="I13" s="294"/>
+      <c r="J13" s="294"/>
+      <c r="K13" s="294"/>
+      <c r="L13" s="295"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -35884,11 +35887,11 @@
       <c r="I14" s="115" t="s">
         <v>133</v>
       </c>
-      <c r="J14" s="301" t="s">
+      <c r="J14" s="296" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="301"/>
-      <c r="L14" s="301"/>
+      <c r="K14" s="296"/>
+      <c r="L14" s="296"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -35913,11 +35916,11 @@
       <c r="I15" s="130" t="s">
         <v>290</v>
       </c>
-      <c r="J15" s="294" t="s">
+      <c r="J15" s="283" t="s">
         <v>343</v>
       </c>
-      <c r="K15" s="295"/>
-      <c r="L15" s="295"/>
+      <c r="K15" s="284"/>
+      <c r="L15" s="284"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -35942,9 +35945,9 @@
       <c r="I16" s="131" t="s">
         <v>289</v>
       </c>
-      <c r="J16" s="294"/>
-      <c r="K16" s="295"/>
-      <c r="L16" s="295"/>
+      <c r="J16" s="283"/>
+      <c r="K16" s="284"/>
+      <c r="L16" s="284"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -36106,11 +36109,11 @@
     </row>
     <row r="26" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="69"/>
-      <c r="B26" s="296" t="s">
+      <c r="B26" s="285" t="s">
         <v>168</v>
       </c>
-      <c r="C26" s="296"/>
-      <c r="D26" s="296"/>
+      <c r="C26" s="285"/>
+      <c r="D26" s="285"/>
       <c r="E26" s="80"/>
       <c r="F26" s="81"/>
       <c r="G26" s="80"/>
@@ -36125,12 +36128,12 @@
     </row>
     <row r="27" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="83"/>
-      <c r="B27" s="289" t="s">
+      <c r="B27" s="286" t="s">
         <v>128</v>
       </c>
-      <c r="C27" s="290"/>
-      <c r="D27" s="290"/>
-      <c r="E27" s="291"/>
+      <c r="C27" s="287"/>
+      <c r="D27" s="287"/>
+      <c r="E27" s="288"/>
       <c r="F27" s="115" t="s">
         <v>127</v>
       </c>
@@ -36222,10 +36225,10 @@
       <c r="A30" s="66"/>
       <c r="B30" s="85"/>
       <c r="C30" s="90"/>
-      <c r="D30" s="283" t="s">
+      <c r="D30" s="292" t="s">
         <v>174</v>
       </c>
-      <c r="E30" s="284"/>
+      <c r="E30" s="291"/>
       <c r="F30" s="74" t="s">
         <v>141</v>
       </c>
@@ -36255,10 +36258,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="85"/>
       <c r="C31" s="92"/>
-      <c r="D31" s="283" t="s">
+      <c r="D31" s="292" t="s">
         <v>175</v>
       </c>
-      <c r="E31" s="284"/>
+      <c r="E31" s="291"/>
       <c r="F31" s="74" t="s">
         <v>176</v>
       </c>
@@ -36321,10 +36324,10 @@
       <c r="A33" s="66"/>
       <c r="B33" s="85"/>
       <c r="C33" s="95"/>
-      <c r="D33" s="283" t="s">
+      <c r="D33" s="292" t="s">
         <v>142</v>
       </c>
-      <c r="E33" s="284"/>
+      <c r="E33" s="291"/>
       <c r="F33" s="74" t="s">
         <v>143</v>
       </c>
@@ -36660,11 +36663,11 @@
     </row>
     <row r="52" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="66"/>
-      <c r="B52" s="288" t="s">
+      <c r="B52" s="299" t="s">
         <v>144</v>
       </c>
-      <c r="C52" s="288"/>
-      <c r="D52" s="288"/>
+      <c r="C52" s="299"/>
+      <c r="D52" s="299"/>
       <c r="E52" s="66"/>
       <c r="F52" s="66"/>
       <c r="G52" s="66"/>
@@ -36681,12 +36684,12 @@
     </row>
     <row r="53" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A53" s="83"/>
-      <c r="B53" s="289" t="s">
+      <c r="B53" s="286" t="s">
         <v>128</v>
       </c>
-      <c r="C53" s="290"/>
-      <c r="D53" s="290"/>
-      <c r="E53" s="291"/>
+      <c r="C53" s="287"/>
+      <c r="D53" s="287"/>
+      <c r="E53" s="288"/>
       <c r="F53" s="115" t="s">
         <v>127</v>
       </c>
@@ -36778,10 +36781,10 @@
       <c r="A56" s="66"/>
       <c r="B56" s="85"/>
       <c r="C56" s="90"/>
-      <c r="D56" s="285" t="s">
+      <c r="D56" s="289" t="s">
         <v>174</v>
       </c>
-      <c r="E56" s="284"/>
+      <c r="E56" s="291"/>
       <c r="F56" s="74" t="s">
         <v>141</v>
       </c>
@@ -36811,10 +36814,10 @@
       <c r="A57" s="66"/>
       <c r="B57" s="85"/>
       <c r="C57" s="90"/>
-      <c r="D57" s="285" t="s">
+      <c r="D57" s="289" t="s">
         <v>0</v>
       </c>
-      <c r="E57" s="292"/>
+      <c r="E57" s="300"/>
       <c r="F57" s="105" t="s">
         <v>192</v>
       </c>
@@ -36844,10 +36847,10 @@
       <c r="A58" s="66"/>
       <c r="B58" s="85"/>
       <c r="C58" s="90"/>
-      <c r="D58" s="293" t="s">
+      <c r="D58" s="301" t="s">
         <v>197</v>
       </c>
-      <c r="E58" s="292"/>
+      <c r="E58" s="300"/>
       <c r="F58" s="105" t="s">
         <v>195</v>
       </c>
@@ -37307,6 +37310,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="D56:E56"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
@@ -37319,12 +37328,6 @@
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B27:E27"/>
     <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="D56:E56"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -37422,15 +37425,15 @@
       <c r="B4" s="70" t="s">
         <v>124</v>
       </c>
-      <c r="C4" s="285" t="s">
+      <c r="C4" s="289" t="s">
         <v>220</v>
       </c>
-      <c r="D4" s="297"/>
-      <c r="E4" s="297"/>
-      <c r="F4" s="297"/>
-      <c r="G4" s="297"/>
-      <c r="H4" s="297"/>
-      <c r="I4" s="284"/>
+      <c r="D4" s="290"/>
+      <c r="E4" s="290"/>
+      <c r="F4" s="290"/>
+      <c r="G4" s="290"/>
+      <c r="H4" s="290"/>
+      <c r="I4" s="291"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -37443,15 +37446,15 @@
       <c r="B5" s="70" t="s">
         <v>125</v>
       </c>
-      <c r="C5" s="285" t="s">
+      <c r="C5" s="289" t="s">
         <v>322</v>
       </c>
-      <c r="D5" s="297"/>
-      <c r="E5" s="297"/>
-      <c r="F5" s="297"/>
-      <c r="G5" s="297"/>
-      <c r="H5" s="297"/>
-      <c r="I5" s="284"/>
+      <c r="D5" s="290"/>
+      <c r="E5" s="290"/>
+      <c r="F5" s="290"/>
+      <c r="G5" s="290"/>
+      <c r="H5" s="290"/>
+      <c r="I5" s="291"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -37485,15 +37488,15 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="285" t="s">
+      <c r="C7" s="289" t="s">
         <v>208</v>
       </c>
-      <c r="D7" s="297"/>
-      <c r="E7" s="297"/>
-      <c r="F7" s="297"/>
-      <c r="G7" s="297"/>
-      <c r="H7" s="297"/>
-      <c r="I7" s="284"/>
+      <c r="D7" s="290"/>
+      <c r="E7" s="290"/>
+      <c r="F7" s="290"/>
+      <c r="G7" s="290"/>
+      <c r="H7" s="290"/>
+      <c r="I7" s="291"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -37527,15 +37530,15 @@
       <c r="B9" s="70" t="s">
         <v>183</v>
       </c>
-      <c r="C9" s="283" t="s">
+      <c r="C9" s="292" t="s">
         <v>184</v>
       </c>
-      <c r="D9" s="297"/>
-      <c r="E9" s="297"/>
-      <c r="F9" s="297"/>
-      <c r="G9" s="297"/>
-      <c r="H9" s="297"/>
-      <c r="I9" s="284"/>
+      <c r="D9" s="290"/>
+      <c r="E9" s="290"/>
+      <c r="F9" s="290"/>
+      <c r="G9" s="290"/>
+      <c r="H9" s="290"/>
+      <c r="I9" s="291"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -37598,19 +37601,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="298" t="s">
+      <c r="B13" s="293" t="s">
         <v>126</v>
       </c>
-      <c r="C13" s="299"/>
-      <c r="D13" s="299"/>
-      <c r="E13" s="299"/>
-      <c r="F13" s="299"/>
-      <c r="G13" s="299"/>
-      <c r="H13" s="299"/>
-      <c r="I13" s="299"/>
-      <c r="J13" s="299"/>
-      <c r="K13" s="299"/>
-      <c r="L13" s="300"/>
+      <c r="C13" s="294"/>
+      <c r="D13" s="294"/>
+      <c r="E13" s="294"/>
+      <c r="F13" s="294"/>
+      <c r="G13" s="294"/>
+      <c r="H13" s="294"/>
+      <c r="I13" s="294"/>
+      <c r="J13" s="294"/>
+      <c r="K13" s="294"/>
+      <c r="L13" s="295"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -37639,11 +37642,11 @@
       <c r="I14" s="115" t="s">
         <v>133</v>
       </c>
-      <c r="J14" s="301" t="s">
+      <c r="J14" s="296" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="301"/>
-      <c r="L14" s="301"/>
+      <c r="K14" s="296"/>
+      <c r="L14" s="296"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -37658,9 +37661,9 @@
       <c r="G15" s="76"/>
       <c r="H15" s="76"/>
       <c r="I15" s="130"/>
-      <c r="J15" s="294"/>
-      <c r="K15" s="295"/>
-      <c r="L15" s="295"/>
+      <c r="J15" s="283"/>
+      <c r="K15" s="284"/>
+      <c r="L15" s="284"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -37675,9 +37678,9 @@
       <c r="G16" s="76"/>
       <c r="H16" s="76"/>
       <c r="I16" s="130"/>
-      <c r="J16" s="295"/>
-      <c r="K16" s="295"/>
-      <c r="L16" s="295"/>
+      <c r="J16" s="284"/>
+      <c r="K16" s="284"/>
+      <c r="L16" s="284"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -37856,11 +37859,11 @@
     </row>
     <row r="27" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="69"/>
-      <c r="B27" s="296" t="s">
+      <c r="B27" s="285" t="s">
         <v>168</v>
       </c>
-      <c r="C27" s="296"/>
-      <c r="D27" s="296"/>
+      <c r="C27" s="285"/>
+      <c r="D27" s="285"/>
       <c r="E27" s="80"/>
       <c r="F27" s="81"/>
       <c r="G27" s="80"/>
@@ -37875,12 +37878,12 @@
     </row>
     <row r="28" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="83"/>
-      <c r="B28" s="289" t="s">
+      <c r="B28" s="286" t="s">
         <v>128</v>
       </c>
-      <c r="C28" s="290"/>
-      <c r="D28" s="290"/>
-      <c r="E28" s="291"/>
+      <c r="C28" s="287"/>
+      <c r="D28" s="287"/>
+      <c r="E28" s="288"/>
       <c r="F28" s="115" t="s">
         <v>127</v>
       </c>
@@ -37972,10 +37975,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="85"/>
       <c r="C31" s="90"/>
-      <c r="D31" s="283" t="s">
+      <c r="D31" s="292" t="s">
         <v>174</v>
       </c>
-      <c r="E31" s="284"/>
+      <c r="E31" s="291"/>
       <c r="F31" s="74" t="s">
         <v>141</v>
       </c>
@@ -38005,10 +38008,10 @@
       <c r="A32" s="66"/>
       <c r="B32" s="85"/>
       <c r="C32" s="92"/>
-      <c r="D32" s="283" t="s">
+      <c r="D32" s="292" t="s">
         <v>175</v>
       </c>
-      <c r="E32" s="284"/>
+      <c r="E32" s="291"/>
       <c r="F32" s="74" t="s">
         <v>176</v>
       </c>
@@ -38071,10 +38074,10 @@
       <c r="A34" s="66"/>
       <c r="B34" s="85"/>
       <c r="C34" s="95"/>
-      <c r="D34" s="285" t="s">
+      <c r="D34" s="289" t="s">
         <v>305</v>
       </c>
-      <c r="E34" s="284"/>
+      <c r="E34" s="291"/>
       <c r="F34" s="105" t="s">
         <v>287</v>
       </c>
@@ -38104,10 +38107,10 @@
       <c r="A35" s="66"/>
       <c r="B35" s="85"/>
       <c r="C35" s="95"/>
-      <c r="D35" s="286" t="s">
+      <c r="D35" s="297" t="s">
         <v>298</v>
       </c>
-      <c r="E35" s="287"/>
+      <c r="E35" s="298"/>
       <c r="F35" s="105" t="s">
         <v>299</v>
       </c>
@@ -38443,11 +38446,11 @@
     </row>
     <row r="54" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A54" s="66"/>
-      <c r="B54" s="288" t="s">
+      <c r="B54" s="299" t="s">
         <v>144</v>
       </c>
-      <c r="C54" s="288"/>
-      <c r="D54" s="288"/>
+      <c r="C54" s="299"/>
+      <c r="D54" s="299"/>
       <c r="E54" s="66"/>
       <c r="F54" s="66"/>
       <c r="G54" s="66"/>
@@ -38464,12 +38467,12 @@
     </row>
     <row r="55" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A55" s="83"/>
-      <c r="B55" s="289" t="s">
+      <c r="B55" s="286" t="s">
         <v>128</v>
       </c>
-      <c r="C55" s="290"/>
-      <c r="D55" s="290"/>
-      <c r="E55" s="291"/>
+      <c r="C55" s="287"/>
+      <c r="D55" s="287"/>
+      <c r="E55" s="288"/>
       <c r="F55" s="115" t="s">
         <v>127</v>
       </c>
@@ -38561,10 +38564,10 @@
       <c r="A58" s="66"/>
       <c r="B58" s="85"/>
       <c r="C58" s="90"/>
-      <c r="D58" s="285" t="s">
+      <c r="D58" s="289" t="s">
         <v>174</v>
       </c>
-      <c r="E58" s="284"/>
+      <c r="E58" s="291"/>
       <c r="F58" s="74" t="s">
         <v>141</v>
       </c>
@@ -38594,10 +38597,10 @@
       <c r="A59" s="66"/>
       <c r="B59" s="85"/>
       <c r="C59" s="90"/>
-      <c r="D59" s="285" t="s">
+      <c r="D59" s="289" t="s">
         <v>0</v>
       </c>
-      <c r="E59" s="292"/>
+      <c r="E59" s="300"/>
       <c r="F59" s="105" t="s">
         <v>192</v>
       </c>
@@ -38627,10 +38630,10 @@
       <c r="A60" s="66"/>
       <c r="B60" s="85"/>
       <c r="C60" s="90"/>
-      <c r="D60" s="293" t="s">
+      <c r="D60" s="301" t="s">
         <v>197</v>
       </c>
-      <c r="E60" s="292"/>
+      <c r="E60" s="300"/>
       <c r="F60" s="105" t="s">
         <v>195</v>
       </c>
@@ -38724,8 +38727,8 @@
       <c r="A63" s="66"/>
       <c r="B63" s="91"/>
       <c r="C63" s="92"/>
-      <c r="D63" s="283"/>
-      <c r="E63" s="284"/>
+      <c r="D63" s="292"/>
+      <c r="E63" s="291"/>
       <c r="F63" s="74"/>
       <c r="G63" s="76"/>
       <c r="H63" s="76"/>
@@ -39115,6 +39118,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D59:E59"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
@@ -39127,14 +39138,6 @@
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D59:E59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -39228,15 +39231,15 @@
       <c r="B4" s="70" t="s">
         <v>124</v>
       </c>
-      <c r="C4" s="285" t="s">
+      <c r="C4" s="289" t="s">
         <v>325</v>
       </c>
-      <c r="D4" s="297"/>
-      <c r="E4" s="297"/>
-      <c r="F4" s="297"/>
-      <c r="G4" s="297"/>
-      <c r="H4" s="297"/>
-      <c r="I4" s="284"/>
+      <c r="D4" s="290"/>
+      <c r="E4" s="290"/>
+      <c r="F4" s="290"/>
+      <c r="G4" s="290"/>
+      <c r="H4" s="290"/>
+      <c r="I4" s="291"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -39249,13 +39252,13 @@
       <c r="B5" s="70" t="s">
         <v>125</v>
       </c>
-      <c r="C5" s="285"/>
-      <c r="D5" s="297"/>
-      <c r="E5" s="297"/>
-      <c r="F5" s="297"/>
-      <c r="G5" s="297"/>
-      <c r="H5" s="297"/>
-      <c r="I5" s="284"/>
+      <c r="C5" s="289"/>
+      <c r="D5" s="290"/>
+      <c r="E5" s="290"/>
+      <c r="F5" s="290"/>
+      <c r="G5" s="290"/>
+      <c r="H5" s="290"/>
+      <c r="I5" s="291"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -39289,15 +39292,15 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="285" t="s">
+      <c r="C7" s="289" t="s">
         <v>208</v>
       </c>
-      <c r="D7" s="297"/>
-      <c r="E7" s="297"/>
-      <c r="F7" s="297"/>
-      <c r="G7" s="297"/>
-      <c r="H7" s="297"/>
-      <c r="I7" s="284"/>
+      <c r="D7" s="290"/>
+      <c r="E7" s="290"/>
+      <c r="F7" s="290"/>
+      <c r="G7" s="290"/>
+      <c r="H7" s="290"/>
+      <c r="I7" s="291"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -39331,15 +39334,15 @@
       <c r="B9" s="70" t="s">
         <v>183</v>
       </c>
-      <c r="C9" s="283" t="s">
+      <c r="C9" s="292" t="s">
         <v>184</v>
       </c>
-      <c r="D9" s="297"/>
-      <c r="E9" s="297"/>
-      <c r="F9" s="297"/>
-      <c r="G9" s="297"/>
-      <c r="H9" s="297"/>
-      <c r="I9" s="284"/>
+      <c r="D9" s="290"/>
+      <c r="E9" s="290"/>
+      <c r="F9" s="290"/>
+      <c r="G9" s="290"/>
+      <c r="H9" s="290"/>
+      <c r="I9" s="291"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -39402,19 +39405,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="298" t="s">
+      <c r="B13" s="293" t="s">
         <v>126</v>
       </c>
-      <c r="C13" s="299"/>
-      <c r="D13" s="299"/>
-      <c r="E13" s="299"/>
-      <c r="F13" s="299"/>
-      <c r="G13" s="299"/>
-      <c r="H13" s="299"/>
-      <c r="I13" s="299"/>
-      <c r="J13" s="299"/>
-      <c r="K13" s="299"/>
-      <c r="L13" s="300"/>
+      <c r="C13" s="294"/>
+      <c r="D13" s="294"/>
+      <c r="E13" s="294"/>
+      <c r="F13" s="294"/>
+      <c r="G13" s="294"/>
+      <c r="H13" s="294"/>
+      <c r="I13" s="294"/>
+      <c r="J13" s="294"/>
+      <c r="K13" s="294"/>
+      <c r="L13" s="295"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -39443,11 +39446,11 @@
       <c r="I14" s="115" t="s">
         <v>133</v>
       </c>
-      <c r="J14" s="301" t="s">
+      <c r="J14" s="296" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="301"/>
-      <c r="L14" s="301"/>
+      <c r="K14" s="296"/>
+      <c r="L14" s="296"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -39472,11 +39475,11 @@
       <c r="I15" s="131" t="s">
         <v>288</v>
       </c>
-      <c r="J15" s="294" t="s">
+      <c r="J15" s="283" t="s">
         <v>327</v>
       </c>
-      <c r="K15" s="295"/>
-      <c r="L15" s="295"/>
+      <c r="K15" s="284"/>
+      <c r="L15" s="284"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -39491,9 +39494,9 @@
       <c r="G16" s="76"/>
       <c r="H16" s="76"/>
       <c r="I16" s="130"/>
-      <c r="J16" s="295"/>
-      <c r="K16" s="295"/>
-      <c r="L16" s="295"/>
+      <c r="J16" s="284"/>
+      <c r="K16" s="284"/>
+      <c r="L16" s="284"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -39672,11 +39675,11 @@
     </row>
     <row r="27" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="69"/>
-      <c r="B27" s="296" t="s">
+      <c r="B27" s="285" t="s">
         <v>168</v>
       </c>
-      <c r="C27" s="296"/>
-      <c r="D27" s="296"/>
+      <c r="C27" s="285"/>
+      <c r="D27" s="285"/>
       <c r="E27" s="80"/>
       <c r="F27" s="81"/>
       <c r="G27" s="80"/>
@@ -39691,12 +39694,12 @@
     </row>
     <row r="28" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="83"/>
-      <c r="B28" s="289" t="s">
+      <c r="B28" s="286" t="s">
         <v>128</v>
       </c>
-      <c r="C28" s="290"/>
-      <c r="D28" s="290"/>
-      <c r="E28" s="291"/>
+      <c r="C28" s="287"/>
+      <c r="D28" s="287"/>
+      <c r="E28" s="288"/>
       <c r="F28" s="115" t="s">
         <v>127</v>
       </c>
@@ -39788,10 +39791,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="85"/>
       <c r="C31" s="90"/>
-      <c r="D31" s="283" t="s">
+      <c r="D31" s="292" t="s">
         <v>174</v>
       </c>
-      <c r="E31" s="284"/>
+      <c r="E31" s="291"/>
       <c r="F31" s="74" t="s">
         <v>141</v>
       </c>
@@ -39821,10 +39824,10 @@
       <c r="A32" s="66"/>
       <c r="B32" s="85"/>
       <c r="C32" s="92"/>
-      <c r="D32" s="283" t="s">
+      <c r="D32" s="292" t="s">
         <v>175</v>
       </c>
-      <c r="E32" s="284"/>
+      <c r="E32" s="291"/>
       <c r="F32" s="74" t="s">
         <v>176</v>
       </c>
@@ -39887,10 +39890,10 @@
       <c r="A34" s="66"/>
       <c r="B34" s="85"/>
       <c r="C34" s="95"/>
-      <c r="D34" s="285" t="s">
+      <c r="D34" s="289" t="s">
         <v>286</v>
       </c>
-      <c r="E34" s="292"/>
+      <c r="E34" s="300"/>
       <c r="F34" s="105" t="s">
         <v>178</v>
       </c>
@@ -39916,10 +39919,10 @@
       <c r="A35" s="66"/>
       <c r="B35" s="85"/>
       <c r="C35" s="95"/>
-      <c r="D35" s="285" t="s">
+      <c r="D35" s="289" t="s">
         <v>305</v>
       </c>
-      <c r="E35" s="284"/>
+      <c r="E35" s="291"/>
       <c r="F35" s="105" t="s">
         <v>287</v>
       </c>
@@ -39949,10 +39952,10 @@
       <c r="A36" s="66"/>
       <c r="B36" s="85"/>
       <c r="C36" s="95"/>
-      <c r="D36" s="286" t="s">
+      <c r="D36" s="297" t="s">
         <v>298</v>
       </c>
-      <c r="E36" s="287"/>
+      <c r="E36" s="298"/>
       <c r="F36" s="105" t="s">
         <v>299</v>
       </c>
@@ -40288,11 +40291,11 @@
     </row>
     <row r="55" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A55" s="66"/>
-      <c r="B55" s="288" t="s">
+      <c r="B55" s="299" t="s">
         <v>144</v>
       </c>
-      <c r="C55" s="288"/>
-      <c r="D55" s="288"/>
+      <c r="C55" s="299"/>
+      <c r="D55" s="299"/>
       <c r="E55" s="66"/>
       <c r="F55" s="66"/>
       <c r="G55" s="66"/>
@@ -40309,12 +40312,12 @@
     </row>
     <row r="56" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="83"/>
-      <c r="B56" s="289" t="s">
+      <c r="B56" s="286" t="s">
         <v>128</v>
       </c>
-      <c r="C56" s="290"/>
-      <c r="D56" s="290"/>
-      <c r="E56" s="291"/>
+      <c r="C56" s="287"/>
+      <c r="D56" s="287"/>
+      <c r="E56" s="288"/>
       <c r="F56" s="115" t="s">
         <v>127</v>
       </c>
@@ -40406,10 +40409,10 @@
       <c r="A59" s="66"/>
       <c r="B59" s="85"/>
       <c r="C59" s="90"/>
-      <c r="D59" s="285" t="s">
+      <c r="D59" s="289" t="s">
         <v>174</v>
       </c>
-      <c r="E59" s="284"/>
+      <c r="E59" s="291"/>
       <c r="F59" s="74" t="s">
         <v>141</v>
       </c>
@@ -40439,10 +40442,10 @@
       <c r="A60" s="66"/>
       <c r="B60" s="85"/>
       <c r="C60" s="90"/>
-      <c r="D60" s="285" t="s">
+      <c r="D60" s="289" t="s">
         <v>0</v>
       </c>
-      <c r="E60" s="292"/>
+      <c r="E60" s="300"/>
       <c r="F60" s="105" t="s">
         <v>192</v>
       </c>
@@ -40472,10 +40475,10 @@
       <c r="A61" s="66"/>
       <c r="B61" s="85"/>
       <c r="C61" s="90"/>
-      <c r="D61" s="293" t="s">
+      <c r="D61" s="301" t="s">
         <v>197</v>
       </c>
-      <c r="E61" s="292"/>
+      <c r="E61" s="300"/>
       <c r="F61" s="105" t="s">
         <v>195</v>
       </c>
@@ -40569,8 +40572,8 @@
       <c r="A64" s="66"/>
       <c r="B64" s="91"/>
       <c r="C64" s="92"/>
-      <c r="D64" s="283"/>
-      <c r="E64" s="284"/>
+      <c r="D64" s="292"/>
+      <c r="E64" s="291"/>
       <c r="F64" s="74"/>
       <c r="G64" s="76"/>
       <c r="H64" s="76"/>
@@ -40960,6 +40963,15 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D60:E60"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
@@ -40972,15 +40984,6 @@
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:E56"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D60:E60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -41509,15 +41512,15 @@
       <c r="B4" s="70" t="s">
         <v>124</v>
       </c>
-      <c r="C4" s="285" t="s">
+      <c r="C4" s="289" t="s">
         <v>230</v>
       </c>
-      <c r="D4" s="297"/>
-      <c r="E4" s="297"/>
-      <c r="F4" s="297"/>
-      <c r="G4" s="297"/>
-      <c r="H4" s="297"/>
-      <c r="I4" s="284"/>
+      <c r="D4" s="290"/>
+      <c r="E4" s="290"/>
+      <c r="F4" s="290"/>
+      <c r="G4" s="290"/>
+      <c r="H4" s="290"/>
+      <c r="I4" s="291"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -41530,15 +41533,15 @@
       <c r="B5" s="70" t="s">
         <v>125</v>
       </c>
-      <c r="C5" s="285" t="s">
+      <c r="C5" s="289" t="s">
         <v>405</v>
       </c>
-      <c r="D5" s="297"/>
-      <c r="E5" s="297"/>
-      <c r="F5" s="297"/>
-      <c r="G5" s="297"/>
-      <c r="H5" s="297"/>
-      <c r="I5" s="284"/>
+      <c r="D5" s="290"/>
+      <c r="E5" s="290"/>
+      <c r="F5" s="290"/>
+      <c r="G5" s="290"/>
+      <c r="H5" s="290"/>
+      <c r="I5" s="291"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -41572,15 +41575,15 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="283" t="s">
+      <c r="C7" s="292" t="s">
         <v>158</v>
       </c>
-      <c r="D7" s="297"/>
-      <c r="E7" s="297"/>
-      <c r="F7" s="297"/>
-      <c r="G7" s="297"/>
-      <c r="H7" s="297"/>
-      <c r="I7" s="284"/>
+      <c r="D7" s="290"/>
+      <c r="E7" s="290"/>
+      <c r="F7" s="290"/>
+      <c r="G7" s="290"/>
+      <c r="H7" s="290"/>
+      <c r="I7" s="291"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -41614,15 +41617,15 @@
       <c r="B9" s="70" t="s">
         <v>183</v>
       </c>
-      <c r="C9" s="283" t="s">
+      <c r="C9" s="292" t="s">
         <v>184</v>
       </c>
-      <c r="D9" s="297"/>
-      <c r="E9" s="297"/>
-      <c r="F9" s="297"/>
-      <c r="G9" s="297"/>
-      <c r="H9" s="297"/>
-      <c r="I9" s="284"/>
+      <c r="D9" s="290"/>
+      <c r="E9" s="290"/>
+      <c r="F9" s="290"/>
+      <c r="G9" s="290"/>
+      <c r="H9" s="290"/>
+      <c r="I9" s="291"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -41685,19 +41688,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="298" t="s">
+      <c r="B13" s="293" t="s">
         <v>126</v>
       </c>
-      <c r="C13" s="299"/>
-      <c r="D13" s="299"/>
-      <c r="E13" s="299"/>
-      <c r="F13" s="299"/>
-      <c r="G13" s="299"/>
-      <c r="H13" s="299"/>
-      <c r="I13" s="299"/>
-      <c r="J13" s="299"/>
-      <c r="K13" s="299"/>
-      <c r="L13" s="300"/>
+      <c r="C13" s="294"/>
+      <c r="D13" s="294"/>
+      <c r="E13" s="294"/>
+      <c r="F13" s="294"/>
+      <c r="G13" s="294"/>
+      <c r="H13" s="294"/>
+      <c r="I13" s="294"/>
+      <c r="J13" s="294"/>
+      <c r="K13" s="294"/>
+      <c r="L13" s="295"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -41726,11 +41729,11 @@
       <c r="I14" s="151" t="s">
         <v>133</v>
       </c>
-      <c r="J14" s="301" t="s">
+      <c r="J14" s="296" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="301"/>
-      <c r="L14" s="301"/>
+      <c r="K14" s="296"/>
+      <c r="L14" s="296"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -41755,11 +41758,11 @@
       <c r="I15" s="130" t="s">
         <v>296</v>
       </c>
-      <c r="J15" s="294" t="s">
+      <c r="J15" s="283" t="s">
         <v>297</v>
       </c>
-      <c r="K15" s="295"/>
-      <c r="L15" s="295"/>
+      <c r="K15" s="284"/>
+      <c r="L15" s="284"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -41813,9 +41816,9 @@
       <c r="I17" s="130" t="s">
         <v>408</v>
       </c>
-      <c r="J17" s="295"/>
-      <c r="K17" s="295"/>
-      <c r="L17" s="295"/>
+      <c r="J17" s="284"/>
+      <c r="K17" s="284"/>
+      <c r="L17" s="284"/>
       <c r="M17" s="66"/>
       <c r="N17" s="66"/>
       <c r="O17" s="66"/>
@@ -42006,11 +42009,11 @@
     </row>
     <row r="28" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="69"/>
-      <c r="B28" s="296" t="s">
+      <c r="B28" s="285" t="s">
         <v>168</v>
       </c>
-      <c r="C28" s="296"/>
-      <c r="D28" s="296"/>
+      <c r="C28" s="285"/>
+      <c r="D28" s="285"/>
       <c r="E28" s="80"/>
       <c r="F28" s="81"/>
       <c r="G28" s="80"/>
@@ -42025,12 +42028,12 @@
     </row>
     <row r="29" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="83"/>
-      <c r="B29" s="289" t="s">
+      <c r="B29" s="286" t="s">
         <v>128</v>
       </c>
-      <c r="C29" s="290"/>
-      <c r="D29" s="290"/>
-      <c r="E29" s="291"/>
+      <c r="C29" s="287"/>
+      <c r="D29" s="287"/>
+      <c r="E29" s="288"/>
       <c r="F29" s="151" t="s">
         <v>127</v>
       </c>
@@ -42122,10 +42125,10 @@
       <c r="A32" s="66"/>
       <c r="B32" s="85"/>
       <c r="C32" s="90"/>
-      <c r="D32" s="283" t="s">
+      <c r="D32" s="292" t="s">
         <v>174</v>
       </c>
-      <c r="E32" s="284"/>
+      <c r="E32" s="291"/>
       <c r="F32" s="74" t="s">
         <v>141</v>
       </c>
@@ -42155,10 +42158,10 @@
       <c r="A33" s="66"/>
       <c r="B33" s="85"/>
       <c r="C33" s="92"/>
-      <c r="D33" s="283" t="s">
+      <c r="D33" s="292" t="s">
         <v>175</v>
       </c>
-      <c r="E33" s="284"/>
+      <c r="E33" s="291"/>
       <c r="F33" s="74" t="s">
         <v>176</v>
       </c>
@@ -42250,10 +42253,10 @@
       <c r="A36" s="66"/>
       <c r="B36" s="85"/>
       <c r="C36" s="95"/>
-      <c r="D36" s="285" t="s">
+      <c r="D36" s="289" t="s">
         <v>305</v>
       </c>
-      <c r="E36" s="284"/>
+      <c r="E36" s="291"/>
       <c r="F36" s="105" t="s">
         <v>407</v>
       </c>
@@ -42283,10 +42286,10 @@
       <c r="A37" s="66"/>
       <c r="B37" s="85"/>
       <c r="C37" s="95"/>
-      <c r="D37" s="286" t="s">
+      <c r="D37" s="297" t="s">
         <v>410</v>
       </c>
-      <c r="E37" s="287"/>
+      <c r="E37" s="298"/>
       <c r="F37" s="105" t="s">
         <v>287</v>
       </c>
@@ -42709,11 +42712,11 @@
     </row>
     <row r="59" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A59" s="66"/>
-      <c r="B59" s="288" t="s">
+      <c r="B59" s="299" t="s">
         <v>144</v>
       </c>
-      <c r="C59" s="288"/>
-      <c r="D59" s="288"/>
+      <c r="C59" s="299"/>
+      <c r="D59" s="299"/>
       <c r="E59" s="66"/>
       <c r="F59" s="66"/>
       <c r="G59" s="66"/>
@@ -42730,12 +42733,12 @@
     </row>
     <row r="60" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A60" s="83"/>
-      <c r="B60" s="289" t="s">
+      <c r="B60" s="286" t="s">
         <v>128</v>
       </c>
-      <c r="C60" s="290"/>
-      <c r="D60" s="290"/>
-      <c r="E60" s="291"/>
+      <c r="C60" s="287"/>
+      <c r="D60" s="287"/>
+      <c r="E60" s="288"/>
       <c r="F60" s="151" t="s">
         <v>127</v>
       </c>
@@ -42827,10 +42830,10 @@
       <c r="A63" s="66"/>
       <c r="B63" s="85"/>
       <c r="C63" s="90"/>
-      <c r="D63" s="285" t="s">
+      <c r="D63" s="289" t="s">
         <v>174</v>
       </c>
-      <c r="E63" s="284"/>
+      <c r="E63" s="291"/>
       <c r="F63" s="74" t="s">
         <v>141</v>
       </c>
@@ -42860,10 +42863,10 @@
       <c r="A64" s="66"/>
       <c r="B64" s="85"/>
       <c r="C64" s="90"/>
-      <c r="D64" s="285" t="s">
+      <c r="D64" s="289" t="s">
         <v>0</v>
       </c>
-      <c r="E64" s="292"/>
+      <c r="E64" s="300"/>
       <c r="F64" s="105" t="s">
         <v>192</v>
       </c>
@@ -42893,10 +42896,10 @@
       <c r="A65" s="66"/>
       <c r="B65" s="85"/>
       <c r="C65" s="90"/>
-      <c r="D65" s="293" t="s">
+      <c r="D65" s="301" t="s">
         <v>197</v>
       </c>
-      <c r="E65" s="292"/>
+      <c r="E65" s="300"/>
       <c r="F65" s="105" t="s">
         <v>195</v>
       </c>
@@ -42990,8 +42993,8 @@
       <c r="A68" s="66"/>
       <c r="B68" s="91"/>
       <c r="C68" s="92"/>
-      <c r="D68" s="283"/>
-      <c r="E68" s="284"/>
+      <c r="D68" s="292"/>
+      <c r="E68" s="291"/>
       <c r="F68" s="74"/>
       <c r="G68" s="76"/>
       <c r="H68" s="76"/>
@@ -43381,6 +43384,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D64:E64"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
@@ -43393,14 +43404,6 @@
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="B29:E29"/>
     <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:E60"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D64:E64"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -43498,15 +43501,15 @@
       <c r="B4" s="70" t="s">
         <v>124</v>
       </c>
-      <c r="C4" s="285" t="s">
+      <c r="C4" s="289" t="s">
         <v>231</v>
       </c>
-      <c r="D4" s="297"/>
-      <c r="E4" s="297"/>
-      <c r="F4" s="297"/>
-      <c r="G4" s="297"/>
-      <c r="H4" s="297"/>
-      <c r="I4" s="284"/>
+      <c r="D4" s="290"/>
+      <c r="E4" s="290"/>
+      <c r="F4" s="290"/>
+      <c r="G4" s="290"/>
+      <c r="H4" s="290"/>
+      <c r="I4" s="291"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -43519,15 +43522,15 @@
       <c r="B5" s="70" t="s">
         <v>125</v>
       </c>
-      <c r="C5" s="285" t="s">
+      <c r="C5" s="289" t="s">
         <v>420</v>
       </c>
-      <c r="D5" s="297"/>
-      <c r="E5" s="297"/>
-      <c r="F5" s="297"/>
-      <c r="G5" s="297"/>
-      <c r="H5" s="297"/>
-      <c r="I5" s="284"/>
+      <c r="D5" s="290"/>
+      <c r="E5" s="290"/>
+      <c r="F5" s="290"/>
+      <c r="G5" s="290"/>
+      <c r="H5" s="290"/>
+      <c r="I5" s="291"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -43561,15 +43564,15 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="285" t="s">
+      <c r="C7" s="289" t="s">
         <v>207</v>
       </c>
-      <c r="D7" s="297"/>
-      <c r="E7" s="297"/>
-      <c r="F7" s="297"/>
-      <c r="G7" s="297"/>
-      <c r="H7" s="297"/>
-      <c r="I7" s="284"/>
+      <c r="D7" s="290"/>
+      <c r="E7" s="290"/>
+      <c r="F7" s="290"/>
+      <c r="G7" s="290"/>
+      <c r="H7" s="290"/>
+      <c r="I7" s="291"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -43603,15 +43606,15 @@
       <c r="B9" s="70" t="s">
         <v>183</v>
       </c>
-      <c r="C9" s="283" t="s">
+      <c r="C9" s="292" t="s">
         <v>184</v>
       </c>
-      <c r="D9" s="297"/>
-      <c r="E9" s="297"/>
-      <c r="F9" s="297"/>
-      <c r="G9" s="297"/>
-      <c r="H9" s="297"/>
-      <c r="I9" s="284"/>
+      <c r="D9" s="290"/>
+      <c r="E9" s="290"/>
+      <c r="F9" s="290"/>
+      <c r="G9" s="290"/>
+      <c r="H9" s="290"/>
+      <c r="I9" s="291"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -43674,19 +43677,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="298" t="s">
+      <c r="B13" s="293" t="s">
         <v>126</v>
       </c>
-      <c r="C13" s="299"/>
-      <c r="D13" s="299"/>
-      <c r="E13" s="299"/>
-      <c r="F13" s="299"/>
-      <c r="G13" s="299"/>
-      <c r="H13" s="299"/>
-      <c r="I13" s="299"/>
-      <c r="J13" s="299"/>
-      <c r="K13" s="299"/>
-      <c r="L13" s="300"/>
+      <c r="C13" s="294"/>
+      <c r="D13" s="294"/>
+      <c r="E13" s="294"/>
+      <c r="F13" s="294"/>
+      <c r="G13" s="294"/>
+      <c r="H13" s="294"/>
+      <c r="I13" s="294"/>
+      <c r="J13" s="294"/>
+      <c r="K13" s="294"/>
+      <c r="L13" s="295"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -43715,11 +43718,11 @@
       <c r="I14" s="151" t="s">
         <v>133</v>
       </c>
-      <c r="J14" s="301" t="s">
+      <c r="J14" s="296" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="301"/>
-      <c r="L14" s="301"/>
+      <c r="K14" s="296"/>
+      <c r="L14" s="296"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -43744,11 +43747,11 @@
       <c r="I15" s="130" t="s">
         <v>296</v>
       </c>
-      <c r="J15" s="294" t="s">
+      <c r="J15" s="283" t="s">
         <v>297</v>
       </c>
-      <c r="K15" s="295"/>
-      <c r="L15" s="295"/>
+      <c r="K15" s="284"/>
+      <c r="L15" s="284"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -43802,11 +43805,11 @@
       <c r="I17" s="130" t="s">
         <v>408</v>
       </c>
-      <c r="J17" s="294" t="s">
+      <c r="J17" s="283" t="s">
         <v>306</v>
       </c>
-      <c r="K17" s="295"/>
-      <c r="L17" s="295"/>
+      <c r="K17" s="284"/>
+      <c r="L17" s="284"/>
       <c r="M17" s="66"/>
       <c r="N17" s="66"/>
       <c r="O17" s="66"/>
@@ -44028,11 +44031,11 @@
     </row>
     <row r="29" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="69"/>
-      <c r="B29" s="296" t="s">
+      <c r="B29" s="285" t="s">
         <v>168</v>
       </c>
-      <c r="C29" s="296"/>
-      <c r="D29" s="296"/>
+      <c r="C29" s="285"/>
+      <c r="D29" s="285"/>
       <c r="E29" s="80"/>
       <c r="F29" s="81"/>
       <c r="G29" s="80"/>
@@ -44047,12 +44050,12 @@
     </row>
     <row r="30" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="83"/>
-      <c r="B30" s="289" t="s">
+      <c r="B30" s="286" t="s">
         <v>128</v>
       </c>
-      <c r="C30" s="290"/>
-      <c r="D30" s="290"/>
-      <c r="E30" s="291"/>
+      <c r="C30" s="287"/>
+      <c r="D30" s="287"/>
+      <c r="E30" s="288"/>
       <c r="F30" s="151" t="s">
         <v>127</v>
       </c>
@@ -44144,10 +44147,10 @@
       <c r="A33" s="66"/>
       <c r="B33" s="85"/>
       <c r="C33" s="90"/>
-      <c r="D33" s="283" t="s">
+      <c r="D33" s="292" t="s">
         <v>174</v>
       </c>
-      <c r="E33" s="284"/>
+      <c r="E33" s="291"/>
       <c r="F33" s="74" t="s">
         <v>141</v>
       </c>
@@ -44177,10 +44180,10 @@
       <c r="A34" s="66"/>
       <c r="B34" s="85"/>
       <c r="C34" s="92"/>
-      <c r="D34" s="283" t="s">
+      <c r="D34" s="292" t="s">
         <v>175</v>
       </c>
-      <c r="E34" s="284"/>
+      <c r="E34" s="291"/>
       <c r="F34" s="74" t="s">
         <v>176</v>
       </c>
@@ -44272,10 +44275,10 @@
       <c r="A37" s="66"/>
       <c r="B37" s="85"/>
       <c r="C37" s="95"/>
-      <c r="D37" s="285" t="s">
+      <c r="D37" s="289" t="s">
         <v>305</v>
       </c>
-      <c r="E37" s="284"/>
+      <c r="E37" s="291"/>
       <c r="F37" s="105" t="s">
         <v>407</v>
       </c>
@@ -44305,10 +44308,10 @@
       <c r="A38" s="66"/>
       <c r="B38" s="85"/>
       <c r="C38" s="95"/>
-      <c r="D38" s="286" t="s">
+      <c r="D38" s="297" t="s">
         <v>410</v>
       </c>
-      <c r="E38" s="287"/>
+      <c r="E38" s="298"/>
       <c r="F38" s="105" t="s">
         <v>287</v>
       </c>
@@ -44731,11 +44734,11 @@
     </row>
     <row r="60" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A60" s="66"/>
-      <c r="B60" s="288" t="s">
+      <c r="B60" s="299" t="s">
         <v>144</v>
       </c>
-      <c r="C60" s="288"/>
-      <c r="D60" s="288"/>
+      <c r="C60" s="299"/>
+      <c r="D60" s="299"/>
       <c r="E60" s="66"/>
       <c r="F60" s="66"/>
       <c r="G60" s="66"/>
@@ -44752,12 +44755,12 @@
     </row>
     <row r="61" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A61" s="83"/>
-      <c r="B61" s="289" t="s">
+      <c r="B61" s="286" t="s">
         <v>128</v>
       </c>
-      <c r="C61" s="290"/>
-      <c r="D61" s="290"/>
-      <c r="E61" s="291"/>
+      <c r="C61" s="287"/>
+      <c r="D61" s="287"/>
+      <c r="E61" s="288"/>
       <c r="F61" s="151" t="s">
         <v>127</v>
       </c>
@@ -44849,10 +44852,10 @@
       <c r="A64" s="66"/>
       <c r="B64" s="85"/>
       <c r="C64" s="90"/>
-      <c r="D64" s="285" t="s">
+      <c r="D64" s="289" t="s">
         <v>174</v>
       </c>
-      <c r="E64" s="284"/>
+      <c r="E64" s="291"/>
       <c r="F64" s="74" t="s">
         <v>141</v>
       </c>
@@ -44882,10 +44885,10 @@
       <c r="A65" s="66"/>
       <c r="B65" s="85"/>
       <c r="C65" s="90"/>
-      <c r="D65" s="285" t="s">
+      <c r="D65" s="289" t="s">
         <v>0</v>
       </c>
-      <c r="E65" s="292"/>
+      <c r="E65" s="300"/>
       <c r="F65" s="105" t="s">
         <v>192</v>
       </c>
@@ -44915,10 +44918,10 @@
       <c r="A66" s="66"/>
       <c r="B66" s="85"/>
       <c r="C66" s="90"/>
-      <c r="D66" s="293" t="s">
+      <c r="D66" s="301" t="s">
         <v>197</v>
       </c>
-      <c r="E66" s="292"/>
+      <c r="E66" s="300"/>
       <c r="F66" s="105" t="s">
         <v>195</v>
       </c>
@@ -45041,10 +45044,10 @@
       <c r="A70" s="66"/>
       <c r="B70" s="85"/>
       <c r="C70" s="95"/>
-      <c r="D70" s="285" t="s">
+      <c r="D70" s="289" t="s">
         <v>305</v>
       </c>
-      <c r="E70" s="284"/>
+      <c r="E70" s="291"/>
       <c r="F70" s="105" t="s">
         <v>407</v>
       </c>
@@ -45074,10 +45077,10 @@
       <c r="A71" s="66"/>
       <c r="B71" s="85"/>
       <c r="C71" s="95"/>
-      <c r="D71" s="286" t="s">
+      <c r="D71" s="297" t="s">
         <v>410</v>
       </c>
-      <c r="E71" s="287"/>
+      <c r="E71" s="298"/>
       <c r="F71" s="105" t="s">
         <v>287</v>
       </c>
@@ -45530,6 +45533,15 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:E61"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D65:E65"/>
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
@@ -45542,15 +45554,6 @@
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="B30:E30"/>
     <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:E61"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D65:E65"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -45648,15 +45651,15 @@
       <c r="B4" s="70" t="s">
         <v>124</v>
       </c>
-      <c r="C4" s="285" t="s">
+      <c r="C4" s="289" t="s">
         <v>232</v>
       </c>
-      <c r="D4" s="297"/>
-      <c r="E4" s="297"/>
-      <c r="F4" s="297"/>
-      <c r="G4" s="297"/>
-      <c r="H4" s="297"/>
-      <c r="I4" s="284"/>
+      <c r="D4" s="290"/>
+      <c r="E4" s="290"/>
+      <c r="F4" s="290"/>
+      <c r="G4" s="290"/>
+      <c r="H4" s="290"/>
+      <c r="I4" s="291"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -45669,15 +45672,15 @@
       <c r="B5" s="70" t="s">
         <v>125</v>
       </c>
-      <c r="C5" s="285" t="s">
+      <c r="C5" s="289" t="s">
         <v>426</v>
       </c>
-      <c r="D5" s="297"/>
-      <c r="E5" s="297"/>
-      <c r="F5" s="297"/>
-      <c r="G5" s="297"/>
-      <c r="H5" s="297"/>
-      <c r="I5" s="284"/>
+      <c r="D5" s="290"/>
+      <c r="E5" s="290"/>
+      <c r="F5" s="290"/>
+      <c r="G5" s="290"/>
+      <c r="H5" s="290"/>
+      <c r="I5" s="291"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -45711,15 +45714,15 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="285" t="s">
+      <c r="C7" s="289" t="s">
         <v>226</v>
       </c>
-      <c r="D7" s="297"/>
-      <c r="E7" s="297"/>
-      <c r="F7" s="297"/>
-      <c r="G7" s="297"/>
-      <c r="H7" s="297"/>
-      <c r="I7" s="284"/>
+      <c r="D7" s="290"/>
+      <c r="E7" s="290"/>
+      <c r="F7" s="290"/>
+      <c r="G7" s="290"/>
+      <c r="H7" s="290"/>
+      <c r="I7" s="291"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -45753,15 +45756,15 @@
       <c r="B9" s="70" t="s">
         <v>183</v>
       </c>
-      <c r="C9" s="283" t="s">
+      <c r="C9" s="292" t="s">
         <v>184</v>
       </c>
-      <c r="D9" s="297"/>
-      <c r="E9" s="297"/>
-      <c r="F9" s="297"/>
-      <c r="G9" s="297"/>
-      <c r="H9" s="297"/>
-      <c r="I9" s="284"/>
+      <c r="D9" s="290"/>
+      <c r="E9" s="290"/>
+      <c r="F9" s="290"/>
+      <c r="G9" s="290"/>
+      <c r="H9" s="290"/>
+      <c r="I9" s="291"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -45824,19 +45827,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="298" t="s">
+      <c r="B13" s="293" t="s">
         <v>126</v>
       </c>
-      <c r="C13" s="299"/>
-      <c r="D13" s="299"/>
-      <c r="E13" s="299"/>
-      <c r="F13" s="299"/>
-      <c r="G13" s="299"/>
-      <c r="H13" s="299"/>
-      <c r="I13" s="299"/>
-      <c r="J13" s="299"/>
-      <c r="K13" s="299"/>
-      <c r="L13" s="300"/>
+      <c r="C13" s="294"/>
+      <c r="D13" s="294"/>
+      <c r="E13" s="294"/>
+      <c r="F13" s="294"/>
+      <c r="G13" s="294"/>
+      <c r="H13" s="294"/>
+      <c r="I13" s="294"/>
+      <c r="J13" s="294"/>
+      <c r="K13" s="294"/>
+      <c r="L13" s="295"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -45865,11 +45868,11 @@
       <c r="I14" s="151" t="s">
         <v>133</v>
       </c>
-      <c r="J14" s="301" t="s">
+      <c r="J14" s="296" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="301"/>
-      <c r="L14" s="301"/>
+      <c r="K14" s="296"/>
+      <c r="L14" s="296"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -45894,11 +45897,11 @@
       <c r="I15" s="130" t="s">
         <v>296</v>
       </c>
-      <c r="J15" s="294" t="s">
+      <c r="J15" s="283" t="s">
         <v>297</v>
       </c>
-      <c r="K15" s="295"/>
-      <c r="L15" s="295"/>
+      <c r="K15" s="284"/>
+      <c r="L15" s="284"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -45952,11 +45955,11 @@
       <c r="I17" s="130" t="s">
         <v>408</v>
       </c>
-      <c r="J17" s="294" t="s">
+      <c r="J17" s="283" t="s">
         <v>306</v>
       </c>
-      <c r="K17" s="295"/>
-      <c r="L17" s="295"/>
+      <c r="K17" s="284"/>
+      <c r="L17" s="284"/>
       <c r="M17" s="66"/>
       <c r="N17" s="66"/>
       <c r="O17" s="66"/>
@@ -46147,11 +46150,11 @@
     </row>
     <row r="28" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="69"/>
-      <c r="B28" s="296" t="s">
+      <c r="B28" s="285" t="s">
         <v>168</v>
       </c>
-      <c r="C28" s="296"/>
-      <c r="D28" s="296"/>
+      <c r="C28" s="285"/>
+      <c r="D28" s="285"/>
       <c r="E28" s="80"/>
       <c r="F28" s="81"/>
       <c r="G28" s="80"/>
@@ -46166,12 +46169,12 @@
     </row>
     <row r="29" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="83"/>
-      <c r="B29" s="289" t="s">
+      <c r="B29" s="286" t="s">
         <v>128</v>
       </c>
-      <c r="C29" s="290"/>
-      <c r="D29" s="290"/>
-      <c r="E29" s="291"/>
+      <c r="C29" s="287"/>
+      <c r="D29" s="287"/>
+      <c r="E29" s="288"/>
       <c r="F29" s="151" t="s">
         <v>127</v>
       </c>
@@ -46263,10 +46266,10 @@
       <c r="A32" s="66"/>
       <c r="B32" s="85"/>
       <c r="C32" s="90"/>
-      <c r="D32" s="283" t="s">
+      <c r="D32" s="292" t="s">
         <v>174</v>
       </c>
-      <c r="E32" s="284"/>
+      <c r="E32" s="291"/>
       <c r="F32" s="74" t="s">
         <v>141</v>
       </c>
@@ -46296,10 +46299,10 @@
       <c r="A33" s="66"/>
       <c r="B33" s="85"/>
       <c r="C33" s="92"/>
-      <c r="D33" s="283" t="s">
+      <c r="D33" s="292" t="s">
         <v>175</v>
       </c>
-      <c r="E33" s="284"/>
+      <c r="E33" s="291"/>
       <c r="F33" s="74" t="s">
         <v>176</v>
       </c>
@@ -46695,11 +46698,11 @@
     </row>
     <row r="54" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A54" s="66"/>
-      <c r="B54" s="288" t="s">
+      <c r="B54" s="299" t="s">
         <v>144</v>
       </c>
-      <c r="C54" s="288"/>
-      <c r="D54" s="288"/>
+      <c r="C54" s="299"/>
+      <c r="D54" s="299"/>
       <c r="E54" s="66"/>
       <c r="F54" s="66"/>
       <c r="G54" s="66"/>
@@ -46716,12 +46719,12 @@
     </row>
     <row r="55" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A55" s="83"/>
-      <c r="B55" s="289" t="s">
+      <c r="B55" s="286" t="s">
         <v>128</v>
       </c>
-      <c r="C55" s="290"/>
-      <c r="D55" s="290"/>
-      <c r="E55" s="291"/>
+      <c r="C55" s="287"/>
+      <c r="D55" s="287"/>
+      <c r="E55" s="288"/>
       <c r="F55" s="151" t="s">
         <v>127</v>
       </c>
@@ -46813,10 +46816,10 @@
       <c r="A58" s="66"/>
       <c r="B58" s="85"/>
       <c r="C58" s="90"/>
-      <c r="D58" s="285" t="s">
+      <c r="D58" s="289" t="s">
         <v>174</v>
       </c>
-      <c r="E58" s="284"/>
+      <c r="E58" s="291"/>
       <c r="F58" s="74" t="s">
         <v>141</v>
       </c>
@@ -46846,10 +46849,10 @@
       <c r="A59" s="66"/>
       <c r="B59" s="85"/>
       <c r="C59" s="90"/>
-      <c r="D59" s="285" t="s">
+      <c r="D59" s="289" t="s">
         <v>0</v>
       </c>
-      <c r="E59" s="292"/>
+      <c r="E59" s="300"/>
       <c r="F59" s="105" t="s">
         <v>192</v>
       </c>
@@ -46879,10 +46882,10 @@
       <c r="A60" s="66"/>
       <c r="B60" s="85"/>
       <c r="C60" s="90"/>
-      <c r="D60" s="293" t="s">
+      <c r="D60" s="301" t="s">
         <v>197</v>
       </c>
-      <c r="E60" s="292"/>
+      <c r="E60" s="300"/>
       <c r="F60" s="105" t="s">
         <v>195</v>
       </c>
@@ -46976,8 +46979,8 @@
       <c r="A63" s="66"/>
       <c r="B63" s="91"/>
       <c r="C63" s="92"/>
-      <c r="D63" s="283"/>
-      <c r="E63" s="284"/>
+      <c r="D63" s="292"/>
+      <c r="E63" s="291"/>
       <c r="F63" s="74"/>
       <c r="G63" s="76"/>
       <c r="H63" s="76"/>
@@ -47367,17 +47370,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="D32:E32"/>
     <mergeCell ref="D60:E60"/>
     <mergeCell ref="D63:E63"/>
     <mergeCell ref="J16:L16"/>
@@ -47387,6 +47379,17 @@
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="D59:E59"/>
     <mergeCell ref="D33:E33"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -47484,15 +47487,15 @@
       <c r="B4" s="70" t="s">
         <v>124</v>
       </c>
-      <c r="C4" s="285" t="s">
+      <c r="C4" s="289" t="s">
         <v>429</v>
       </c>
-      <c r="D4" s="297"/>
-      <c r="E4" s="297"/>
-      <c r="F4" s="297"/>
-      <c r="G4" s="297"/>
-      <c r="H4" s="297"/>
-      <c r="I4" s="284"/>
+      <c r="D4" s="290"/>
+      <c r="E4" s="290"/>
+      <c r="F4" s="290"/>
+      <c r="G4" s="290"/>
+      <c r="H4" s="290"/>
+      <c r="I4" s="291"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -47505,15 +47508,15 @@
       <c r="B5" s="70" t="s">
         <v>125</v>
       </c>
-      <c r="C5" s="285" t="s">
+      <c r="C5" s="289" t="s">
         <v>430</v>
       </c>
-      <c r="D5" s="297"/>
-      <c r="E5" s="297"/>
-      <c r="F5" s="297"/>
-      <c r="G5" s="297"/>
-      <c r="H5" s="297"/>
-      <c r="I5" s="284"/>
+      <c r="D5" s="290"/>
+      <c r="E5" s="290"/>
+      <c r="F5" s="290"/>
+      <c r="G5" s="290"/>
+      <c r="H5" s="290"/>
+      <c r="I5" s="291"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -47547,15 +47550,15 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="285" t="s">
+      <c r="C7" s="289" t="s">
         <v>208</v>
       </c>
-      <c r="D7" s="297"/>
-      <c r="E7" s="297"/>
-      <c r="F7" s="297"/>
-      <c r="G7" s="297"/>
-      <c r="H7" s="297"/>
-      <c r="I7" s="284"/>
+      <c r="D7" s="290"/>
+      <c r="E7" s="290"/>
+      <c r="F7" s="290"/>
+      <c r="G7" s="290"/>
+      <c r="H7" s="290"/>
+      <c r="I7" s="291"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -47589,15 +47592,15 @@
       <c r="B9" s="70" t="s">
         <v>183</v>
       </c>
-      <c r="C9" s="283" t="s">
+      <c r="C9" s="292" t="s">
         <v>184</v>
       </c>
-      <c r="D9" s="297"/>
-      <c r="E9" s="297"/>
-      <c r="F9" s="297"/>
-      <c r="G9" s="297"/>
-      <c r="H9" s="297"/>
-      <c r="I9" s="284"/>
+      <c r="D9" s="290"/>
+      <c r="E9" s="290"/>
+      <c r="F9" s="290"/>
+      <c r="G9" s="290"/>
+      <c r="H9" s="290"/>
+      <c r="I9" s="291"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -47660,19 +47663,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="298" t="s">
+      <c r="B13" s="293" t="s">
         <v>126</v>
       </c>
-      <c r="C13" s="299"/>
-      <c r="D13" s="299"/>
-      <c r="E13" s="299"/>
-      <c r="F13" s="299"/>
-      <c r="G13" s="299"/>
-      <c r="H13" s="299"/>
-      <c r="I13" s="299"/>
-      <c r="J13" s="299"/>
-      <c r="K13" s="299"/>
-      <c r="L13" s="300"/>
+      <c r="C13" s="294"/>
+      <c r="D13" s="294"/>
+      <c r="E13" s="294"/>
+      <c r="F13" s="294"/>
+      <c r="G13" s="294"/>
+      <c r="H13" s="294"/>
+      <c r="I13" s="294"/>
+      <c r="J13" s="294"/>
+      <c r="K13" s="294"/>
+      <c r="L13" s="295"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -47701,11 +47704,11 @@
       <c r="I14" s="151" t="s">
         <v>133</v>
       </c>
-      <c r="J14" s="301" t="s">
+      <c r="J14" s="296" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="301"/>
-      <c r="L14" s="301"/>
+      <c r="K14" s="296"/>
+      <c r="L14" s="296"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -47730,11 +47733,11 @@
       <c r="I15" s="130" t="s">
         <v>289</v>
       </c>
-      <c r="J15" s="294" t="s">
+      <c r="J15" s="283" t="s">
         <v>306</v>
       </c>
-      <c r="K15" s="295"/>
-      <c r="L15" s="295"/>
+      <c r="K15" s="284"/>
+      <c r="L15" s="284"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -47749,9 +47752,9 @@
       <c r="G16" s="76"/>
       <c r="H16" s="76"/>
       <c r="I16" s="130"/>
-      <c r="J16" s="295"/>
-      <c r="K16" s="295"/>
-      <c r="L16" s="295"/>
+      <c r="J16" s="284"/>
+      <c r="K16" s="284"/>
+      <c r="L16" s="284"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -47930,11 +47933,11 @@
     </row>
     <row r="27" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="69"/>
-      <c r="B27" s="296" t="s">
+      <c r="B27" s="285" t="s">
         <v>168</v>
       </c>
-      <c r="C27" s="296"/>
-      <c r="D27" s="296"/>
+      <c r="C27" s="285"/>
+      <c r="D27" s="285"/>
       <c r="E27" s="80"/>
       <c r="F27" s="81"/>
       <c r="G27" s="80"/>
@@ -47949,12 +47952,12 @@
     </row>
     <row r="28" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="83"/>
-      <c r="B28" s="289" t="s">
+      <c r="B28" s="286" t="s">
         <v>128</v>
       </c>
-      <c r="C28" s="290"/>
-      <c r="D28" s="290"/>
-      <c r="E28" s="291"/>
+      <c r="C28" s="287"/>
+      <c r="D28" s="287"/>
+      <c r="E28" s="288"/>
       <c r="F28" s="151" t="s">
         <v>127</v>
       </c>
@@ -48046,10 +48049,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="85"/>
       <c r="C31" s="90"/>
-      <c r="D31" s="283" t="s">
+      <c r="D31" s="292" t="s">
         <v>174</v>
       </c>
-      <c r="E31" s="284"/>
+      <c r="E31" s="291"/>
       <c r="F31" s="74" t="s">
         <v>141</v>
       </c>
@@ -48079,10 +48082,10 @@
       <c r="A32" s="66"/>
       <c r="B32" s="85"/>
       <c r="C32" s="92"/>
-      <c r="D32" s="283" t="s">
+      <c r="D32" s="292" t="s">
         <v>175</v>
       </c>
-      <c r="E32" s="284"/>
+      <c r="E32" s="291"/>
       <c r="F32" s="74" t="s">
         <v>176</v>
       </c>
@@ -48145,10 +48148,10 @@
       <c r="A34" s="66"/>
       <c r="B34" s="85"/>
       <c r="C34" s="95"/>
-      <c r="D34" s="285" t="s">
+      <c r="D34" s="289" t="s">
         <v>410</v>
       </c>
-      <c r="E34" s="284"/>
+      <c r="E34" s="291"/>
       <c r="F34" s="105" t="s">
         <v>287</v>
       </c>
@@ -48178,10 +48181,10 @@
       <c r="A35" s="66"/>
       <c r="B35" s="85"/>
       <c r="C35" s="95"/>
-      <c r="D35" s="286" t="s">
+      <c r="D35" s="297" t="s">
         <v>300</v>
       </c>
-      <c r="E35" s="287"/>
+      <c r="E35" s="298"/>
       <c r="F35" s="105" t="s">
         <v>301</v>
       </c>
@@ -48517,11 +48520,11 @@
     </row>
     <row r="54" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A54" s="66"/>
-      <c r="B54" s="288" t="s">
+      <c r="B54" s="299" t="s">
         <v>144</v>
       </c>
-      <c r="C54" s="288"/>
-      <c r="D54" s="288"/>
+      <c r="C54" s="299"/>
+      <c r="D54" s="299"/>
       <c r="E54" s="66"/>
       <c r="F54" s="66"/>
       <c r="G54" s="66"/>
@@ -48538,12 +48541,12 @@
     </row>
     <row r="55" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A55" s="83"/>
-      <c r="B55" s="289" t="s">
+      <c r="B55" s="286" t="s">
         <v>128</v>
       </c>
-      <c r="C55" s="290"/>
-      <c r="D55" s="290"/>
-      <c r="E55" s="291"/>
+      <c r="C55" s="287"/>
+      <c r="D55" s="287"/>
+      <c r="E55" s="288"/>
       <c r="F55" s="151" t="s">
         <v>127</v>
       </c>
@@ -48635,10 +48638,10 @@
       <c r="A58" s="66"/>
       <c r="B58" s="85"/>
       <c r="C58" s="90"/>
-      <c r="D58" s="285" t="s">
+      <c r="D58" s="289" t="s">
         <v>174</v>
       </c>
-      <c r="E58" s="284"/>
+      <c r="E58" s="291"/>
       <c r="F58" s="74" t="s">
         <v>141</v>
       </c>
@@ -48668,10 +48671,10 @@
       <c r="A59" s="66"/>
       <c r="B59" s="85"/>
       <c r="C59" s="90"/>
-      <c r="D59" s="285" t="s">
+      <c r="D59" s="289" t="s">
         <v>0</v>
       </c>
-      <c r="E59" s="292"/>
+      <c r="E59" s="300"/>
       <c r="F59" s="105" t="s">
         <v>192</v>
       </c>
@@ -48701,10 +48704,10 @@
       <c r="A60" s="66"/>
       <c r="B60" s="85"/>
       <c r="C60" s="90"/>
-      <c r="D60" s="293" t="s">
+      <c r="D60" s="301" t="s">
         <v>197</v>
       </c>
-      <c r="E60" s="292"/>
+      <c r="E60" s="300"/>
       <c r="F60" s="105" t="s">
         <v>195</v>
       </c>
@@ -48798,8 +48801,8 @@
       <c r="A63" s="66"/>
       <c r="B63" s="91"/>
       <c r="C63" s="92"/>
-      <c r="D63" s="283"/>
-      <c r="E63" s="284"/>
+      <c r="D63" s="292"/>
+      <c r="E63" s="291"/>
       <c r="F63" s="74"/>
       <c r="G63" s="76"/>
       <c r="H63" s="76"/>
@@ -49189,6 +49192,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D59:E59"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
@@ -49201,14 +49212,6 @@
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D59:E59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -49302,15 +49305,15 @@
       <c r="B4" s="70" t="s">
         <v>124</v>
       </c>
-      <c r="C4" s="285" t="s">
+      <c r="C4" s="289" t="s">
         <v>432</v>
       </c>
-      <c r="D4" s="297"/>
-      <c r="E4" s="297"/>
-      <c r="F4" s="297"/>
-      <c r="G4" s="297"/>
-      <c r="H4" s="297"/>
-      <c r="I4" s="284"/>
+      <c r="D4" s="290"/>
+      <c r="E4" s="290"/>
+      <c r="F4" s="290"/>
+      <c r="G4" s="290"/>
+      <c r="H4" s="290"/>
+      <c r="I4" s="291"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -49323,15 +49326,15 @@
       <c r="B5" s="70" t="s">
         <v>125</v>
       </c>
-      <c r="C5" s="285" t="s">
+      <c r="C5" s="289" t="s">
         <v>433</v>
       </c>
-      <c r="D5" s="297"/>
-      <c r="E5" s="297"/>
-      <c r="F5" s="297"/>
-      <c r="G5" s="297"/>
-      <c r="H5" s="297"/>
-      <c r="I5" s="284"/>
+      <c r="D5" s="290"/>
+      <c r="E5" s="290"/>
+      <c r="F5" s="290"/>
+      <c r="G5" s="290"/>
+      <c r="H5" s="290"/>
+      <c r="I5" s="291"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -49365,15 +49368,15 @@
       <c r="B7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="285" t="s">
+      <c r="C7" s="289" t="s">
         <v>208</v>
       </c>
-      <c r="D7" s="297"/>
-      <c r="E7" s="297"/>
-      <c r="F7" s="297"/>
-      <c r="G7" s="297"/>
-      <c r="H7" s="297"/>
-      <c r="I7" s="284"/>
+      <c r="D7" s="290"/>
+      <c r="E7" s="290"/>
+      <c r="F7" s="290"/>
+      <c r="G7" s="290"/>
+      <c r="H7" s="290"/>
+      <c r="I7" s="291"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -49407,15 +49410,15 @@
       <c r="B9" s="70" t="s">
         <v>183</v>
       </c>
-      <c r="C9" s="283" t="s">
+      <c r="C9" s="292" t="s">
         <v>184</v>
       </c>
-      <c r="D9" s="297"/>
-      <c r="E9" s="297"/>
-      <c r="F9" s="297"/>
-      <c r="G9" s="297"/>
-      <c r="H9" s="297"/>
-      <c r="I9" s="284"/>
+      <c r="D9" s="290"/>
+      <c r="E9" s="290"/>
+      <c r="F9" s="290"/>
+      <c r="G9" s="290"/>
+      <c r="H9" s="290"/>
+      <c r="I9" s="291"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -49478,19 +49481,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="298" t="s">
+      <c r="B13" s="293" t="s">
         <v>126</v>
       </c>
-      <c r="C13" s="299"/>
-      <c r="D13" s="299"/>
-      <c r="E13" s="299"/>
-      <c r="F13" s="299"/>
-      <c r="G13" s="299"/>
-      <c r="H13" s="299"/>
-      <c r="I13" s="299"/>
-      <c r="J13" s="299"/>
-      <c r="K13" s="299"/>
-      <c r="L13" s="300"/>
+      <c r="C13" s="294"/>
+      <c r="D13" s="294"/>
+      <c r="E13" s="294"/>
+      <c r="F13" s="294"/>
+      <c r="G13" s="294"/>
+      <c r="H13" s="294"/>
+      <c r="I13" s="294"/>
+      <c r="J13" s="294"/>
+      <c r="K13" s="294"/>
+      <c r="L13" s="295"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -49519,11 +49522,11 @@
       <c r="I14" s="151" t="s">
         <v>133</v>
       </c>
-      <c r="J14" s="301" t="s">
+      <c r="J14" s="296" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="301"/>
-      <c r="L14" s="301"/>
+      <c r="K14" s="296"/>
+      <c r="L14" s="296"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -49548,11 +49551,11 @@
       <c r="I15" s="130" t="s">
         <v>435</v>
       </c>
-      <c r="J15" s="294" t="s">
+      <c r="J15" s="283" t="s">
         <v>436</v>
       </c>
-      <c r="K15" s="295"/>
-      <c r="L15" s="295"/>
+      <c r="K15" s="284"/>
+      <c r="L15" s="284"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -49577,11 +49580,11 @@
       <c r="I16" s="130" t="s">
         <v>289</v>
       </c>
-      <c r="J16" s="294" t="s">
+      <c r="J16" s="283" t="s">
         <v>437</v>
       </c>
-      <c r="K16" s="295"/>
-      <c r="L16" s="295"/>
+      <c r="K16" s="284"/>
+      <c r="L16" s="284"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -49760,11 +49763,11 @@
     </row>
     <row r="27" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="69"/>
-      <c r="B27" s="296" t="s">
+      <c r="B27" s="285" t="s">
         <v>168</v>
       </c>
-      <c r="C27" s="296"/>
-      <c r="D27" s="296"/>
+      <c r="C27" s="285"/>
+      <c r="D27" s="285"/>
       <c r="E27" s="80"/>
       <c r="F27" s="81"/>
       <c r="G27" s="80"/>
@@ -49779,12 +49782,12 @@
     </row>
     <row r="28" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="83"/>
-      <c r="B28" s="289" t="s">
+      <c r="B28" s="286" t="s">
         <v>128</v>
       </c>
-      <c r="C28" s="290"/>
-      <c r="D28" s="290"/>
-      <c r="E28" s="291"/>
+      <c r="C28" s="287"/>
+      <c r="D28" s="287"/>
+      <c r="E28" s="288"/>
       <c r="F28" s="151" t="s">
         <v>127</v>
       </c>
@@ -49876,10 +49879,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="85"/>
       <c r="C31" s="90"/>
-      <c r="D31" s="283" t="s">
+      <c r="D31" s="292" t="s">
         <v>174</v>
       </c>
-      <c r="E31" s="284"/>
+      <c r="E31" s="291"/>
       <c r="F31" s="74" t="s">
         <v>141</v>
       </c>
@@ -49909,10 +49912,10 @@
       <c r="A32" s="66"/>
       <c r="B32" s="85"/>
       <c r="C32" s="92"/>
-      <c r="D32" s="283" t="s">
+      <c r="D32" s="292" t="s">
         <v>175</v>
       </c>
-      <c r="E32" s="284"/>
+      <c r="E32" s="291"/>
       <c r="F32" s="74" t="s">
         <v>176</v>
       </c>
@@ -50004,10 +50007,10 @@
       <c r="A35" s="66"/>
       <c r="B35" s="85"/>
       <c r="C35" s="95"/>
-      <c r="D35" s="285" t="s">
+      <c r="D35" s="289" t="s">
         <v>410</v>
       </c>
-      <c r="E35" s="284"/>
+      <c r="E35" s="291"/>
       <c r="F35" s="105" t="s">
         <v>287</v>
       </c>
@@ -50037,10 +50040,10 @@
       <c r="A36" s="66"/>
       <c r="B36" s="85"/>
       <c r="C36" s="95"/>
-      <c r="D36" s="286" t="s">
+      <c r="D36" s="297" t="s">
         <v>300</v>
       </c>
-      <c r="E36" s="287"/>
+      <c r="E36" s="298"/>
       <c r="F36" s="105" t="s">
         <v>301</v>
       </c>
@@ -50376,11 +50379,11 @@
     </row>
     <row r="55" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A55" s="66"/>
-      <c r="B55" s="288" t="s">
+      <c r="B55" s="299" t="s">
         <v>144</v>
       </c>
-      <c r="C55" s="288"/>
-      <c r="D55" s="288"/>
+      <c r="C55" s="299"/>
+      <c r="D55" s="299"/>
       <c r="E55" s="66"/>
       <c r="F55" s="66"/>
       <c r="G55" s="66"/>
@@ -50397,12 +50400,12 @@
     </row>
     <row r="56" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="83"/>
-      <c r="B56" s="289" t="s">
+      <c r="B56" s="286" t="s">
         <v>128</v>
       </c>
-      <c r="C56" s="290"/>
-      <c r="D56" s="290"/>
-      <c r="E56" s="291"/>
+      <c r="C56" s="287"/>
+      <c r="D56" s="287"/>
+      <c r="E56" s="288"/>
       <c r="F56" s="151" t="s">
         <v>127</v>
       </c>
@@ -50494,10 +50497,10 @@
       <c r="A59" s="66"/>
       <c r="B59" s="85"/>
       <c r="C59" s="90"/>
-      <c r="D59" s="285" t="s">
+      <c r="D59" s="289" t="s">
         <v>174</v>
       </c>
-      <c r="E59" s="284"/>
+      <c r="E59" s="291"/>
       <c r="F59" s="74" t="s">
         <v>141</v>
       </c>
@@ -50527,10 +50530,10 @@
       <c r="A60" s="66"/>
       <c r="B60" s="85"/>
       <c r="C60" s="90"/>
-      <c r="D60" s="285" t="s">
+      <c r="D60" s="289" t="s">
         <v>0</v>
       </c>
-      <c r="E60" s="292"/>
+      <c r="E60" s="300"/>
       <c r="F60" s="105" t="s">
         <v>192</v>
       </c>
@@ -50560,10 +50563,10 @@
       <c r="A61" s="66"/>
       <c r="B61" s="85"/>
       <c r="C61" s="90"/>
-      <c r="D61" s="293" t="s">
+      <c r="D61" s="301" t="s">
         <v>197</v>
       </c>
-      <c r="E61" s="292"/>
+      <c r="E61" s="300"/>
       <c r="F61" s="105" t="s">
         <v>195</v>
       </c>
@@ -50657,8 +50660,8 @@
       <c r="A64" s="66"/>
       <c r="B64" s="91"/>
       <c r="C64" s="92"/>
-      <c r="D64" s="283"/>
-      <c r="E64" s="284"/>
+      <c r="D64" s="292"/>
+      <c r="E64" s="291"/>
       <c r="F64" s="74"/>
       <c r="G64" s="76"/>
       <c r="H64" s="76"/>
@@ -51048,6 +51051,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D60:E60"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
@@ -51060,14 +51071,6 @@
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:E56"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D60:E60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -51112,10 +51115,10 @@
       <c r="C4" s="111" t="s">
         <v>187</v>
       </c>
-      <c r="D4" s="253" t="s">
+      <c r="D4" s="250" t="s">
         <v>191</v>
       </c>
-      <c r="E4" s="253"/>
+      <c r="E4" s="250"/>
       <c r="F4" s="111" t="s">
         <v>188</v>
       </c>
@@ -51128,10 +51131,10 @@
       <c r="C5" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="252" t="s">
+      <c r="D5" s="251" t="s">
         <v>292</v>
       </c>
-      <c r="E5" s="252"/>
+      <c r="E5" s="251"/>
       <c r="F5" s="120" t="s">
         <v>250</v>
       </c>
@@ -51145,10 +51148,10 @@
       <c r="C6" s="119" t="s">
         <v>278</v>
       </c>
-      <c r="D6" s="252" t="s">
+      <c r="D6" s="251" t="s">
         <v>304</v>
       </c>
-      <c r="E6" s="252"/>
+      <c r="E6" s="251"/>
       <c r="F6" s="120" t="s">
         <v>281</v>
       </c>
@@ -51161,10 +51164,10 @@
       <c r="C7" s="119" t="s">
         <v>279</v>
       </c>
-      <c r="D7" s="252" t="s">
+      <c r="D7" s="251" t="s">
         <v>280</v>
       </c>
-      <c r="E7" s="252"/>
+      <c r="E7" s="251"/>
       <c r="F7" s="120" t="s">
         <v>282</v>
       </c>
@@ -51177,10 +51180,10 @@
       <c r="C8" s="119" t="s">
         <v>291</v>
       </c>
-      <c r="D8" s="252" t="s">
+      <c r="D8" s="251" t="s">
         <v>294</v>
       </c>
-      <c r="E8" s="252"/>
+      <c r="E8" s="251"/>
       <c r="F8" s="120" t="s">
         <v>293</v>
       </c>
@@ -51200,10 +51203,10 @@
       <c r="C10" s="111" t="s">
         <v>187</v>
       </c>
-      <c r="D10" s="253" t="s">
+      <c r="D10" s="250" t="s">
         <v>191</v>
       </c>
-      <c r="E10" s="253"/>
+      <c r="E10" s="250"/>
       <c r="F10" s="111" t="s">
         <v>188</v>
       </c>
@@ -51215,10 +51218,10 @@
       <c r="C11" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="252" t="s">
+      <c r="D11" s="251" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="252"/>
+      <c r="E11" s="251"/>
       <c r="F11" s="100"/>
       <c r="H11" s="100"/>
     </row>
@@ -51229,10 +51232,10 @@
       <c r="C12" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="252" t="s">
+      <c r="D12" s="251" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="252"/>
+      <c r="E12" s="251"/>
       <c r="F12" s="120"/>
       <c r="G12" s="100"/>
       <c r="H12" s="100"/>
@@ -51244,10 +51247,10 @@
       <c r="C13" s="119" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="252" t="s">
+      <c r="D13" s="251" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="252"/>
+      <c r="E13" s="251"/>
       <c r="F13" s="120"/>
       <c r="G13" s="100"/>
       <c r="H13" s="100"/>
@@ -51259,10 +51262,10 @@
       <c r="C14" s="119" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="252" t="s">
+      <c r="D14" s="251" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="252"/>
+      <c r="E14" s="251"/>
       <c r="F14" s="120"/>
       <c r="G14" s="100"/>
       <c r="H14" s="100"/>
@@ -51274,10 +51277,10 @@
       <c r="C15" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="252" t="s">
+      <c r="D15" s="251" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="252"/>
+      <c r="E15" s="251"/>
       <c r="F15" s="120"/>
       <c r="G15" s="100"/>
       <c r="H15" s="100"/>
@@ -51296,10 +51299,10 @@
       <c r="C18" s="111" t="s">
         <v>187</v>
       </c>
-      <c r="D18" s="253" t="s">
+      <c r="D18" s="250" t="s">
         <v>191</v>
       </c>
-      <c r="E18" s="253"/>
+      <c r="E18" s="250"/>
       <c r="F18" s="111" t="s">
         <v>188</v>
       </c>
@@ -51311,10 +51314,10 @@
       <c r="C19" s="119" t="s">
         <v>251</v>
       </c>
-      <c r="D19" s="252" t="s">
+      <c r="D19" s="251" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="252"/>
+      <c r="E19" s="251"/>
       <c r="F19" s="122"/>
       <c r="G19" s="100"/>
       <c r="H19" s="100"/>
@@ -51326,10 +51329,10 @@
       <c r="C20" s="119" t="s">
         <v>252</v>
       </c>
-      <c r="D20" s="252" t="s">
+      <c r="D20" s="251" t="s">
         <v>257</v>
       </c>
-      <c r="E20" s="252"/>
+      <c r="E20" s="251"/>
       <c r="F20" s="122"/>
       <c r="G20" s="100"/>
       <c r="H20" s="100"/>
@@ -51341,10 +51344,10 @@
       <c r="C21" s="119" t="s">
         <v>253</v>
       </c>
-      <c r="D21" s="252" t="s">
+      <c r="D21" s="251" t="s">
         <v>258</v>
       </c>
-      <c r="E21" s="252"/>
+      <c r="E21" s="251"/>
       <c r="F21" s="122"/>
       <c r="G21" s="100"/>
       <c r="H21" s="100"/>
@@ -51356,10 +51359,10 @@
       <c r="C22" s="119" t="s">
         <v>254</v>
       </c>
-      <c r="D22" s="252" t="s">
+      <c r="D22" s="251" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="252"/>
+      <c r="E22" s="251"/>
       <c r="F22" s="122"/>
       <c r="G22" s="100"/>
       <c r="H22" s="100"/>
@@ -51371,10 +51374,10 @@
       <c r="C23" s="119" t="s">
         <v>255</v>
       </c>
-      <c r="D23" s="252" t="s">
+      <c r="D23" s="251" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="252"/>
+      <c r="E23" s="251"/>
       <c r="F23" s="122"/>
       <c r="G23" s="100"/>
       <c r="H23" s="100"/>
@@ -51386,10 +51389,10 @@
       <c r="C24" s="119" t="s">
         <v>256</v>
       </c>
-      <c r="D24" s="252" t="s">
+      <c r="D24" s="251" t="s">
         <v>26</v>
       </c>
-      <c r="E24" s="252"/>
+      <c r="E24" s="251"/>
       <c r="F24" s="122"/>
       <c r="G24" s="100"/>
       <c r="H24" s="100"/>
@@ -51408,10 +51411,10 @@
       <c r="C27" s="111" t="s">
         <v>187</v>
       </c>
-      <c r="D27" s="253" t="s">
+      <c r="D27" s="250" t="s">
         <v>191</v>
       </c>
-      <c r="E27" s="253"/>
+      <c r="E27" s="250"/>
       <c r="F27" s="111" t="s">
         <v>188</v>
       </c>
@@ -51423,10 +51426,10 @@
       <c r="C28" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="252" t="s">
+      <c r="D28" s="251" t="s">
         <v>190</v>
       </c>
-      <c r="E28" s="252"/>
+      <c r="E28" s="251"/>
       <c r="F28" s="122"/>
       <c r="G28" s="100"/>
       <c r="H28" s="100"/>
@@ -51438,10 +51441,10 @@
       <c r="C29" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="252" t="s">
+      <c r="D29" s="251" t="s">
         <v>270</v>
       </c>
-      <c r="E29" s="252"/>
+      <c r="E29" s="251"/>
       <c r="F29" s="122"/>
       <c r="G29" s="100"/>
       <c r="H29" s="100"/>
@@ -51453,10 +51456,10 @@
       <c r="C30" s="119" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="252" t="s">
+      <c r="D30" s="251" t="s">
         <v>461</v>
       </c>
-      <c r="E30" s="252"/>
+      <c r="E30" s="251"/>
       <c r="F30" s="122"/>
       <c r="G30" s="100"/>
       <c r="H30" s="100"/>
@@ -51468,10 +51471,10 @@
       <c r="C31" s="119" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="252" t="s">
+      <c r="D31" s="251" t="s">
         <v>259</v>
       </c>
-      <c r="E31" s="252"/>
+      <c r="E31" s="251"/>
       <c r="F31" s="122"/>
       <c r="G31" s="100"/>
       <c r="H31" s="100"/>
@@ -51483,10 +51486,10 @@
       <c r="C32" s="119" t="s">
         <v>24</v>
       </c>
-      <c r="D32" s="252" t="s">
+      <c r="D32" s="251" t="s">
         <v>260</v>
       </c>
-      <c r="E32" s="252"/>
+      <c r="E32" s="251"/>
       <c r="F32" s="122"/>
       <c r="G32" s="100"/>
       <c r="H32" s="100"/>
@@ -51503,10 +51506,10 @@
       <c r="C36" s="111" t="s">
         <v>187</v>
       </c>
-      <c r="D36" s="253" t="s">
+      <c r="D36" s="250" t="s">
         <v>191</v>
       </c>
-      <c r="E36" s="253"/>
+      <c r="E36" s="250"/>
       <c r="F36" s="111" t="s">
         <v>188</v>
       </c>
@@ -51518,10 +51521,10 @@
       <c r="C37" s="119" t="s">
         <v>109</v>
       </c>
-      <c r="D37" s="254" t="s">
+      <c r="D37" s="252" t="s">
         <v>263</v>
       </c>
-      <c r="E37" s="255"/>
+      <c r="E37" s="253"/>
       <c r="F37" s="126"/>
     </row>
     <row r="38" spans="2:6" ht="15" customHeight="1">
@@ -51531,10 +51534,10 @@
       <c r="C38" s="119" t="s">
         <v>110</v>
       </c>
-      <c r="D38" s="254" t="s">
+      <c r="D38" s="252" t="s">
         <v>264</v>
       </c>
-      <c r="E38" s="255"/>
+      <c r="E38" s="253"/>
       <c r="F38" s="126"/>
     </row>
     <row r="39" spans="2:6" ht="15" customHeight="1">
@@ -51544,10 +51547,10 @@
       <c r="C39" s="119" t="s">
         <v>111</v>
       </c>
-      <c r="D39" s="254" t="s">
+      <c r="D39" s="252" t="s">
         <v>265</v>
       </c>
-      <c r="E39" s="255"/>
+      <c r="E39" s="253"/>
       <c r="F39" s="126"/>
     </row>
     <row r="40" spans="2:6" ht="15" customHeight="1">
@@ -51557,10 +51560,10 @@
       <c r="C40" s="119" t="s">
         <v>112</v>
       </c>
-      <c r="D40" s="254" t="s">
+      <c r="D40" s="252" t="s">
         <v>266</v>
       </c>
-      <c r="E40" s="255"/>
+      <c r="E40" s="253"/>
       <c r="F40" s="126"/>
     </row>
     <row r="41" spans="2:6" ht="15" customHeight="1">
@@ -51570,10 +51573,10 @@
       <c r="C41" s="119" t="s">
         <v>113</v>
       </c>
-      <c r="D41" s="254" t="s">
+      <c r="D41" s="252" t="s">
         <v>267</v>
       </c>
-      <c r="E41" s="255"/>
+      <c r="E41" s="253"/>
       <c r="F41" s="126"/>
     </row>
     <row r="42" spans="2:6">
@@ -51583,10 +51586,10 @@
       <c r="C42" s="127">
         <v>2506</v>
       </c>
-      <c r="D42" s="250" t="s">
+      <c r="D42" s="254" t="s">
         <v>269</v>
       </c>
-      <c r="E42" s="251"/>
+      <c r="E42" s="255"/>
       <c r="F42" s="128"/>
     </row>
     <row r="43" spans="2:6">
@@ -51596,10 +51599,10 @@
       <c r="C43" s="127">
         <v>2507</v>
       </c>
-      <c r="D43" s="250" t="s">
+      <c r="D43" s="254" t="s">
         <v>329</v>
       </c>
-      <c r="E43" s="251"/>
+      <c r="E43" s="255"/>
       <c r="F43" s="129"/>
     </row>
     <row r="45" spans="2:6" ht="15.75">
@@ -51614,10 +51617,10 @@
       <c r="C46" s="111" t="s">
         <v>187</v>
       </c>
-      <c r="D46" s="253" t="s">
+      <c r="D46" s="250" t="s">
         <v>191</v>
       </c>
-      <c r="E46" s="253"/>
+      <c r="E46" s="250"/>
       <c r="F46" s="111" t="s">
         <v>188</v>
       </c>
@@ -51629,10 +51632,10 @@
       <c r="C47" s="119" t="s">
         <v>97</v>
       </c>
-      <c r="D47" s="252" t="s">
+      <c r="D47" s="251" t="s">
         <v>272</v>
       </c>
-      <c r="E47" s="252"/>
+      <c r="E47" s="251"/>
       <c r="F47" s="122"/>
     </row>
     <row r="48" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -51642,10 +51645,10 @@
       <c r="C48" s="119" t="s">
         <v>98</v>
       </c>
-      <c r="D48" s="252" t="s">
+      <c r="D48" s="251" t="s">
         <v>273</v>
       </c>
-      <c r="E48" s="252"/>
+      <c r="E48" s="251"/>
       <c r="F48" s="122"/>
     </row>
     <row r="49" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -51655,10 +51658,10 @@
       <c r="C49" s="119" t="s">
         <v>99</v>
       </c>
-      <c r="D49" s="252" t="s">
+      <c r="D49" s="251" t="s">
         <v>274</v>
       </c>
-      <c r="E49" s="252"/>
+      <c r="E49" s="251"/>
       <c r="F49" s="122"/>
     </row>
     <row r="50" spans="2:6" ht="32.25" customHeight="1">
@@ -51668,10 +51671,10 @@
       <c r="C50" s="119" t="s">
         <v>100</v>
       </c>
-      <c r="D50" s="252" t="s">
+      <c r="D50" s="251" t="s">
         <v>275</v>
       </c>
-      <c r="E50" s="252"/>
+      <c r="E50" s="251"/>
       <c r="F50" s="122" t="s">
         <v>460</v>
       </c>
@@ -51683,10 +51686,10 @@
       <c r="C51" s="119" t="s">
         <v>101</v>
       </c>
-      <c r="D51" s="252" t="s">
+      <c r="D51" s="251" t="s">
         <v>276</v>
       </c>
-      <c r="E51" s="252"/>
+      <c r="E51" s="251"/>
       <c r="F51" s="122"/>
     </row>
     <row r="52" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -51696,25 +51699,28 @@
       <c r="C52" s="119" t="s">
         <v>102</v>
       </c>
-      <c r="D52" s="252" t="s">
+      <c r="D52" s="251" t="s">
         <v>277</v>
       </c>
-      <c r="E52" s="252"/>
+      <c r="E52" s="251"/>
       <c r="F52" s="122"/>
     </row>
     <row r="53" spans="2:6" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
     <mergeCell ref="D52:E52"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D14:E14"/>
@@ -51731,19 +51737,16 @@
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -52418,11 +52421,11 @@
       <c r="C4" s="266" t="s">
         <v>201</v>
       </c>
-      <c r="D4" s="275"/>
-      <c r="E4" s="275"/>
-      <c r="F4" s="275"/>
-      <c r="G4" s="275"/>
-      <c r="H4" s="275"/>
+      <c r="D4" s="268"/>
+      <c r="E4" s="268"/>
+      <c r="F4" s="268"/>
+      <c r="G4" s="268"/>
+      <c r="H4" s="268"/>
       <c r="I4" s="267"/>
       <c r="J4" s="154"/>
       <c r="K4" s="154"/>
@@ -52439,11 +52442,11 @@
       <c r="C5" s="266" t="s">
         <v>380</v>
       </c>
-      <c r="D5" s="275"/>
-      <c r="E5" s="275"/>
-      <c r="F5" s="275"/>
-      <c r="G5" s="275"/>
-      <c r="H5" s="275"/>
+      <c r="D5" s="268"/>
+      <c r="E5" s="268"/>
+      <c r="F5" s="268"/>
+      <c r="G5" s="268"/>
+      <c r="H5" s="268"/>
       <c r="I5" s="267"/>
       <c r="J5" s="154"/>
       <c r="K5" s="154"/>
@@ -52481,11 +52484,11 @@
       <c r="C7" s="266" t="s">
         <v>158</v>
       </c>
-      <c r="D7" s="275"/>
-      <c r="E7" s="275"/>
-      <c r="F7" s="275"/>
-      <c r="G7" s="275"/>
-      <c r="H7" s="275"/>
+      <c r="D7" s="268"/>
+      <c r="E7" s="268"/>
+      <c r="F7" s="268"/>
+      <c r="G7" s="268"/>
+      <c r="H7" s="268"/>
       <c r="I7" s="267"/>
       <c r="J7" s="154"/>
       <c r="K7" s="154"/>
@@ -52523,11 +52526,11 @@
       <c r="C9" s="266" t="s">
         <v>184</v>
       </c>
-      <c r="D9" s="275"/>
-      <c r="E9" s="275"/>
-      <c r="F9" s="275"/>
-      <c r="G9" s="275"/>
-      <c r="H9" s="275"/>
+      <c r="D9" s="268"/>
+      <c r="E9" s="268"/>
+      <c r="F9" s="268"/>
+      <c r="G9" s="268"/>
+      <c r="H9" s="268"/>
       <c r="I9" s="267"/>
       <c r="J9" s="154"/>
       <c r="K9" s="154"/>
@@ -52591,19 +52594,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="154"/>
-      <c r="B13" s="268" t="s">
+      <c r="B13" s="270" t="s">
         <v>126</v>
       </c>
-      <c r="C13" s="269"/>
-      <c r="D13" s="269"/>
-      <c r="E13" s="269"/>
-      <c r="F13" s="269"/>
-      <c r="G13" s="269"/>
-      <c r="H13" s="269"/>
-      <c r="I13" s="269"/>
-      <c r="J13" s="269"/>
-      <c r="K13" s="269"/>
-      <c r="L13" s="270"/>
+      <c r="C13" s="271"/>
+      <c r="D13" s="271"/>
+      <c r="E13" s="271"/>
+      <c r="F13" s="271"/>
+      <c r="G13" s="271"/>
+      <c r="H13" s="271"/>
+      <c r="I13" s="271"/>
+      <c r="J13" s="271"/>
+      <c r="K13" s="271"/>
+      <c r="L13" s="272"/>
       <c r="M13" s="154"/>
       <c r="N13" s="154"/>
       <c r="O13" s="154"/>
@@ -52632,11 +52635,11 @@
       <c r="I14" s="175" t="s">
         <v>133</v>
       </c>
-      <c r="J14" s="279" t="s">
+      <c r="J14" s="269" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="279"/>
-      <c r="L14" s="279"/>
+      <c r="K14" s="269"/>
+      <c r="L14" s="269"/>
       <c r="M14" s="154"/>
       <c r="N14" s="154"/>
       <c r="O14" s="154"/>
@@ -52665,11 +52668,11 @@
       <c r="I15" s="130" t="s">
         <v>378</v>
       </c>
-      <c r="J15" s="274" t="s">
+      <c r="J15" s="276" t="s">
         <v>377</v>
       </c>
-      <c r="K15" s="274"/>
-      <c r="L15" s="274"/>
+      <c r="K15" s="276"/>
+      <c r="L15" s="276"/>
       <c r="M15" s="154"/>
       <c r="N15" s="154"/>
       <c r="O15" s="154"/>
@@ -52698,11 +52701,11 @@
       <c r="I16" s="130" t="s">
         <v>374</v>
       </c>
-      <c r="J16" s="274" t="s">
+      <c r="J16" s="276" t="s">
         <v>373</v>
       </c>
-      <c r="K16" s="274"/>
-      <c r="L16" s="274"/>
+      <c r="K16" s="276"/>
+      <c r="L16" s="276"/>
       <c r="M16" s="154"/>
       <c r="N16" s="154"/>
       <c r="O16" s="154"/>
@@ -52767,7 +52770,7 @@
       <c r="J18" s="266" t="s">
         <v>369</v>
       </c>
-      <c r="K18" s="275"/>
+      <c r="K18" s="268"/>
       <c r="L18" s="267"/>
       <c r="M18" s="154"/>
       <c r="N18" s="154"/>
@@ -52800,7 +52803,7 @@
       <c r="J19" s="266" t="s">
         <v>367</v>
       </c>
-      <c r="K19" s="275"/>
+      <c r="K19" s="268"/>
       <c r="L19" s="267"/>
       <c r="M19" s="154"/>
       <c r="N19" s="154"/>
@@ -52982,12 +52985,12 @@
     </row>
     <row r="30" spans="1:15" s="173" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="174"/>
-      <c r="B30" s="271" t="s">
+      <c r="B30" s="273" t="s">
         <v>128</v>
       </c>
-      <c r="C30" s="272"/>
-      <c r="D30" s="272"/>
-      <c r="E30" s="273"/>
+      <c r="C30" s="274"/>
+      <c r="D30" s="274"/>
+      <c r="E30" s="275"/>
       <c r="F30" s="175" t="s">
         <v>127</v>
       </c>
@@ -53211,10 +53214,10 @@
       <c r="A37" s="154"/>
       <c r="B37" s="168"/>
       <c r="C37" s="171"/>
-      <c r="D37" s="277" t="s">
+      <c r="D37" s="278" t="s">
         <v>363</v>
       </c>
-      <c r="E37" s="278"/>
+      <c r="E37" s="279"/>
       <c r="F37" s="162" t="s">
         <v>362</v>
       </c>
@@ -53682,11 +53685,11 @@
     </row>
     <row r="60" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A60" s="154"/>
-      <c r="B60" s="276" t="s">
+      <c r="B60" s="277" t="s">
         <v>348</v>
       </c>
-      <c r="C60" s="276"/>
-      <c r="D60" s="276"/>
+      <c r="C60" s="277"/>
+      <c r="D60" s="277"/>
       <c r="E60" s="154"/>
       <c r="F60" s="154"/>
       <c r="G60" s="154"/>
@@ -53703,12 +53706,12 @@
     </row>
     <row r="61" spans="1:15" s="173" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A61" s="174"/>
-      <c r="B61" s="271" t="s">
+      <c r="B61" s="273" t="s">
         <v>128</v>
       </c>
-      <c r="C61" s="272"/>
-      <c r="D61" s="272"/>
-      <c r="E61" s="273"/>
+      <c r="C61" s="274"/>
+      <c r="D61" s="274"/>
+      <c r="E61" s="275"/>
       <c r="F61" s="175" t="s">
         <v>127</v>
       </c>
@@ -54354,13 +54357,7 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="D64:E64"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="D69:E69"/>
     <mergeCell ref="B13:L13"/>
@@ -54377,7 +54374,13 @@
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="D65:E65"/>
     <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -54480,11 +54483,11 @@
       <c r="C4" s="266" t="s">
         <v>202</v>
       </c>
-      <c r="D4" s="275"/>
-      <c r="E4" s="275"/>
-      <c r="F4" s="275"/>
-      <c r="G4" s="275"/>
-      <c r="H4" s="275"/>
+      <c r="D4" s="268"/>
+      <c r="E4" s="268"/>
+      <c r="F4" s="268"/>
+      <c r="G4" s="268"/>
+      <c r="H4" s="268"/>
       <c r="I4" s="267"/>
       <c r="J4" s="154"/>
       <c r="K4" s="154"/>
@@ -54501,11 +54504,11 @@
       <c r="C5" s="266" t="s">
         <v>385</v>
       </c>
-      <c r="D5" s="275"/>
-      <c r="E5" s="275"/>
-      <c r="F5" s="275"/>
-      <c r="G5" s="275"/>
-      <c r="H5" s="275"/>
+      <c r="D5" s="268"/>
+      <c r="E5" s="268"/>
+      <c r="F5" s="268"/>
+      <c r="G5" s="268"/>
+      <c r="H5" s="268"/>
       <c r="I5" s="267"/>
       <c r="J5" s="154"/>
       <c r="K5" s="154"/>
@@ -54543,11 +54546,11 @@
       <c r="C7" s="266" t="s">
         <v>158</v>
       </c>
-      <c r="D7" s="275"/>
-      <c r="E7" s="275"/>
-      <c r="F7" s="275"/>
-      <c r="G7" s="275"/>
-      <c r="H7" s="275"/>
+      <c r="D7" s="268"/>
+      <c r="E7" s="268"/>
+      <c r="F7" s="268"/>
+      <c r="G7" s="268"/>
+      <c r="H7" s="268"/>
       <c r="I7" s="267"/>
       <c r="J7" s="154"/>
       <c r="K7" s="154"/>
@@ -54585,11 +54588,11 @@
       <c r="C9" s="266" t="s">
         <v>184</v>
       </c>
-      <c r="D9" s="275"/>
-      <c r="E9" s="275"/>
-      <c r="F9" s="275"/>
-      <c r="G9" s="275"/>
-      <c r="H9" s="275"/>
+      <c r="D9" s="268"/>
+      <c r="E9" s="268"/>
+      <c r="F9" s="268"/>
+      <c r="G9" s="268"/>
+      <c r="H9" s="268"/>
       <c r="I9" s="267"/>
       <c r="J9" s="154"/>
       <c r="K9" s="154"/>
@@ -54653,19 +54656,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="154"/>
-      <c r="B13" s="268" t="s">
+      <c r="B13" s="270" t="s">
         <v>126</v>
       </c>
-      <c r="C13" s="269"/>
-      <c r="D13" s="269"/>
-      <c r="E13" s="269"/>
-      <c r="F13" s="269"/>
-      <c r="G13" s="269"/>
-      <c r="H13" s="269"/>
-      <c r="I13" s="269"/>
-      <c r="J13" s="269"/>
-      <c r="K13" s="269"/>
-      <c r="L13" s="270"/>
+      <c r="C13" s="271"/>
+      <c r="D13" s="271"/>
+      <c r="E13" s="271"/>
+      <c r="F13" s="271"/>
+      <c r="G13" s="271"/>
+      <c r="H13" s="271"/>
+      <c r="I13" s="271"/>
+      <c r="J13" s="271"/>
+      <c r="K13" s="271"/>
+      <c r="L13" s="272"/>
       <c r="M13" s="154"/>
       <c r="N13" s="154"/>
       <c r="O13" s="154"/>
@@ -54694,11 +54697,11 @@
       <c r="I14" s="175" t="s">
         <v>133</v>
       </c>
-      <c r="J14" s="279" t="s">
+      <c r="J14" s="269" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="279"/>
-      <c r="L14" s="279"/>
+      <c r="K14" s="269"/>
+      <c r="L14" s="269"/>
       <c r="M14" s="154"/>
       <c r="N14" s="154"/>
       <c r="O14" s="154"/>
@@ -54723,11 +54726,11 @@
       <c r="I15" s="130" t="s">
         <v>378</v>
       </c>
-      <c r="J15" s="274" t="s">
+      <c r="J15" s="276" t="s">
         <v>377</v>
       </c>
-      <c r="K15" s="274"/>
-      <c r="L15" s="274"/>
+      <c r="K15" s="276"/>
+      <c r="L15" s="276"/>
       <c r="M15" s="154"/>
       <c r="N15" s="154"/>
       <c r="O15" s="154"/>
@@ -54752,11 +54755,11 @@
       <c r="I16" s="130" t="s">
         <v>374</v>
       </c>
-      <c r="J16" s="274" t="s">
+      <c r="J16" s="276" t="s">
         <v>383</v>
       </c>
-      <c r="K16" s="274"/>
-      <c r="L16" s="274"/>
+      <c r="K16" s="276"/>
+      <c r="L16" s="276"/>
       <c r="M16" s="154"/>
       <c r="N16" s="154"/>
       <c r="O16" s="154"/>
@@ -54937,12 +54940,12 @@
     </row>
     <row r="27" spans="1:15" s="173" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="174"/>
-      <c r="B27" s="271" t="s">
+      <c r="B27" s="273" t="s">
         <v>128</v>
       </c>
-      <c r="C27" s="272"/>
-      <c r="D27" s="272"/>
-      <c r="E27" s="273"/>
+      <c r="C27" s="274"/>
+      <c r="D27" s="274"/>
+      <c r="E27" s="275"/>
       <c r="F27" s="175" t="s">
         <v>127</v>
       </c>
@@ -55166,10 +55169,10 @@
       <c r="A34" s="154"/>
       <c r="B34" s="168"/>
       <c r="C34" s="171"/>
-      <c r="D34" s="277" t="s">
+      <c r="D34" s="278" t="s">
         <v>363</v>
       </c>
-      <c r="E34" s="278"/>
+      <c r="E34" s="279"/>
       <c r="F34" s="162" t="s">
         <v>362</v>
       </c>
@@ -55538,11 +55541,11 @@
     </row>
     <row r="54" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A54" s="154"/>
-      <c r="B54" s="276" t="s">
+      <c r="B54" s="277" t="s">
         <v>348</v>
       </c>
-      <c r="C54" s="276"/>
-      <c r="D54" s="276"/>
+      <c r="C54" s="277"/>
+      <c r="D54" s="277"/>
       <c r="E54" s="154"/>
       <c r="F54" s="154"/>
       <c r="G54" s="154"/>
@@ -55559,12 +55562,12 @@
     </row>
     <row r="55" spans="1:15" s="173" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A55" s="174"/>
-      <c r="B55" s="271" t="s">
+      <c r="B55" s="273" t="s">
         <v>128</v>
       </c>
-      <c r="C55" s="272"/>
-      <c r="D55" s="272"/>
-      <c r="E55" s="273"/>
+      <c r="C55" s="274"/>
+      <c r="D55" s="274"/>
+      <c r="E55" s="275"/>
       <c r="F55" s="175" t="s">
         <v>127</v>
       </c>
@@ -56210,27 +56213,27 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
     <mergeCell ref="D63:E63"/>
     <mergeCell ref="B54:D54"/>
     <mergeCell ref="B55:E55"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="D59:E59"/>
     <mergeCell ref="D60:E60"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -56245,8 +56248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O95"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="I66" sqref="I66"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -56331,11 +56334,11 @@
       <c r="C4" s="266" t="s">
         <v>452</v>
       </c>
-      <c r="D4" s="275"/>
-      <c r="E4" s="275"/>
-      <c r="F4" s="275"/>
-      <c r="G4" s="275"/>
-      <c r="H4" s="275"/>
+      <c r="D4" s="268"/>
+      <c r="E4" s="268"/>
+      <c r="F4" s="268"/>
+      <c r="G4" s="268"/>
+      <c r="H4" s="268"/>
       <c r="I4" s="267"/>
       <c r="J4" s="154"/>
       <c r="K4" s="154"/>
@@ -56352,11 +56355,11 @@
       <c r="C5" s="266" t="s">
         <v>459</v>
       </c>
-      <c r="D5" s="275"/>
-      <c r="E5" s="275"/>
-      <c r="F5" s="275"/>
-      <c r="G5" s="275"/>
-      <c r="H5" s="275"/>
+      <c r="D5" s="268"/>
+      <c r="E5" s="268"/>
+      <c r="F5" s="268"/>
+      <c r="G5" s="268"/>
+      <c r="H5" s="268"/>
       <c r="I5" s="267"/>
       <c r="J5" s="154"/>
       <c r="K5" s="154"/>
@@ -56394,11 +56397,11 @@
       <c r="C7" s="266" t="s">
         <v>207</v>
       </c>
-      <c r="D7" s="275"/>
-      <c r="E7" s="275"/>
-      <c r="F7" s="275"/>
-      <c r="G7" s="275"/>
-      <c r="H7" s="275"/>
+      <c r="D7" s="268"/>
+      <c r="E7" s="268"/>
+      <c r="F7" s="268"/>
+      <c r="G7" s="268"/>
+      <c r="H7" s="268"/>
       <c r="I7" s="267"/>
       <c r="J7" s="154"/>
       <c r="K7" s="154"/>
@@ -56436,11 +56439,11 @@
       <c r="C9" s="266" t="s">
         <v>184</v>
       </c>
-      <c r="D9" s="275"/>
-      <c r="E9" s="275"/>
-      <c r="F9" s="275"/>
-      <c r="G9" s="275"/>
-      <c r="H9" s="275"/>
+      <c r="D9" s="268"/>
+      <c r="E9" s="268"/>
+      <c r="F9" s="268"/>
+      <c r="G9" s="268"/>
+      <c r="H9" s="268"/>
       <c r="I9" s="267"/>
       <c r="J9" s="154"/>
       <c r="K9" s="154"/>
@@ -56504,19 +56507,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="154"/>
-      <c r="B13" s="268" t="s">
+      <c r="B13" s="270" t="s">
         <v>126</v>
       </c>
-      <c r="C13" s="269"/>
-      <c r="D13" s="269"/>
-      <c r="E13" s="269"/>
-      <c r="F13" s="269"/>
-      <c r="G13" s="269"/>
-      <c r="H13" s="269"/>
-      <c r="I13" s="269"/>
-      <c r="J13" s="269"/>
-      <c r="K13" s="269"/>
-      <c r="L13" s="270"/>
+      <c r="C13" s="271"/>
+      <c r="D13" s="271"/>
+      <c r="E13" s="271"/>
+      <c r="F13" s="271"/>
+      <c r="G13" s="271"/>
+      <c r="H13" s="271"/>
+      <c r="I13" s="271"/>
+      <c r="J13" s="271"/>
+      <c r="K13" s="271"/>
+      <c r="L13" s="272"/>
       <c r="M13" s="154"/>
       <c r="N13" s="154"/>
       <c r="O13" s="154"/>
@@ -56545,11 +56548,11 @@
       <c r="I14" s="175" t="s">
         <v>133</v>
       </c>
-      <c r="J14" s="279" t="s">
+      <c r="J14" s="269" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="279"/>
-      <c r="L14" s="279"/>
+      <c r="K14" s="269"/>
+      <c r="L14" s="269"/>
       <c r="M14" s="154"/>
       <c r="N14" s="154"/>
       <c r="O14" s="154"/>
@@ -56569,20 +56572,16 @@
       <c r="F15" s="161" t="s">
         <v>169</v>
       </c>
-      <c r="G15" s="161">
-        <v>5</v>
-      </c>
-      <c r="H15" s="161">
-        <v>50</v>
-      </c>
+      <c r="G15" s="161"/>
+      <c r="H15" s="161"/>
       <c r="I15" s="130" t="s">
-        <v>378</v>
-      </c>
-      <c r="J15" s="274" t="s">
+        <v>466</v>
+      </c>
+      <c r="J15" s="276" t="s">
         <v>386</v>
       </c>
-      <c r="K15" s="274"/>
-      <c r="L15" s="274"/>
+      <c r="K15" s="276"/>
+      <c r="L15" s="276"/>
       <c r="M15" s="154"/>
       <c r="N15" s="154"/>
       <c r="O15" s="154"/>
@@ -56647,7 +56646,7 @@
       <c r="J17" s="266" t="s">
         <v>369</v>
       </c>
-      <c r="K17" s="275"/>
+      <c r="K17" s="268"/>
       <c r="L17" s="267"/>
       <c r="M17" s="154"/>
       <c r="N17" s="154"/>
@@ -56680,7 +56679,7 @@
       <c r="J18" s="266" t="s">
         <v>367</v>
       </c>
-      <c r="K18" s="275"/>
+      <c r="K18" s="268"/>
       <c r="L18" s="267"/>
       <c r="M18" s="154"/>
       <c r="N18" s="154"/>
@@ -56862,12 +56861,12 @@
     </row>
     <row r="29" spans="1:15" s="173" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="174"/>
-      <c r="B29" s="271" t="s">
+      <c r="B29" s="273" t="s">
         <v>128</v>
       </c>
-      <c r="C29" s="272"/>
-      <c r="D29" s="272"/>
-      <c r="E29" s="273"/>
+      <c r="C29" s="274"/>
+      <c r="D29" s="274"/>
+      <c r="E29" s="275"/>
       <c r="F29" s="175" t="s">
         <v>127</v>
       </c>
@@ -57091,10 +57090,10 @@
       <c r="A36" s="154"/>
       <c r="B36" s="168"/>
       <c r="C36" s="171"/>
-      <c r="D36" s="277" t="s">
+      <c r="D36" s="278" t="s">
         <v>363</v>
       </c>
-      <c r="E36" s="278"/>
+      <c r="E36" s="279"/>
       <c r="F36" s="162" t="s">
         <v>362</v>
       </c>
@@ -57562,11 +57561,11 @@
     </row>
     <row r="59" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A59" s="154"/>
-      <c r="B59" s="276" t="s">
+      <c r="B59" s="277" t="s">
         <v>348</v>
       </c>
-      <c r="C59" s="276"/>
-      <c r="D59" s="276"/>
+      <c r="C59" s="277"/>
+      <c r="D59" s="277"/>
       <c r="E59" s="154"/>
       <c r="F59" s="154"/>
       <c r="G59" s="154"/>
@@ -57583,12 +57582,12 @@
     </row>
     <row r="60" spans="1:15" s="173" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A60" s="174"/>
-      <c r="B60" s="271" t="s">
+      <c r="B60" s="273" t="s">
         <v>128</v>
       </c>
-      <c r="C60" s="272"/>
-      <c r="D60" s="272"/>
-      <c r="E60" s="273"/>
+      <c r="C60" s="274"/>
+      <c r="D60" s="274"/>
+      <c r="E60" s="275"/>
       <c r="F60" s="175" t="s">
         <v>127</v>
       </c>
@@ -57876,10 +57875,10 @@
       <c r="A69" s="154"/>
       <c r="B69" s="168"/>
       <c r="C69" s="171"/>
-      <c r="D69" s="277" t="s">
+      <c r="D69" s="278" t="s">
         <v>363</v>
       </c>
-      <c r="E69" s="278"/>
+      <c r="E69" s="279"/>
       <c r="F69" s="162" t="s">
         <v>362</v>
       </c>
@@ -58415,16 +58414,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
     <mergeCell ref="D73:E73"/>
     <mergeCell ref="D70:E70"/>
     <mergeCell ref="J14:L14"/>
@@ -58441,6 +58430,16 @@
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="B29:E29"/>
     <mergeCell ref="D36:E36"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D35:E35"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -58541,11 +58540,11 @@
       <c r="C4" s="266" t="s">
         <v>391</v>
       </c>
-      <c r="D4" s="275"/>
-      <c r="E4" s="275"/>
-      <c r="F4" s="275"/>
-      <c r="G4" s="275"/>
-      <c r="H4" s="275"/>
+      <c r="D4" s="268"/>
+      <c r="E4" s="268"/>
+      <c r="F4" s="268"/>
+      <c r="G4" s="268"/>
+      <c r="H4" s="268"/>
       <c r="I4" s="267"/>
       <c r="J4" s="154"/>
       <c r="K4" s="154"/>
@@ -58562,11 +58561,11 @@
       <c r="C5" s="266" t="s">
         <v>390</v>
       </c>
-      <c r="D5" s="275"/>
-      <c r="E5" s="275"/>
-      <c r="F5" s="275"/>
-      <c r="G5" s="275"/>
-      <c r="H5" s="275"/>
+      <c r="D5" s="268"/>
+      <c r="E5" s="268"/>
+      <c r="F5" s="268"/>
+      <c r="G5" s="268"/>
+      <c r="H5" s="268"/>
       <c r="I5" s="267"/>
       <c r="J5" s="154"/>
       <c r="K5" s="154"/>
@@ -58604,11 +58603,11 @@
       <c r="C7" s="266" t="s">
         <v>208</v>
       </c>
-      <c r="D7" s="275"/>
-      <c r="E7" s="275"/>
-      <c r="F7" s="275"/>
-      <c r="G7" s="275"/>
-      <c r="H7" s="275"/>
+      <c r="D7" s="268"/>
+      <c r="E7" s="268"/>
+      <c r="F7" s="268"/>
+      <c r="G7" s="268"/>
+      <c r="H7" s="268"/>
       <c r="I7" s="267"/>
       <c r="J7" s="154"/>
       <c r="K7" s="154"/>
@@ -58646,11 +58645,11 @@
       <c r="C9" s="266" t="s">
         <v>184</v>
       </c>
-      <c r="D9" s="275"/>
-      <c r="E9" s="275"/>
-      <c r="F9" s="275"/>
-      <c r="G9" s="275"/>
-      <c r="H9" s="275"/>
+      <c r="D9" s="268"/>
+      <c r="E9" s="268"/>
+      <c r="F9" s="268"/>
+      <c r="G9" s="268"/>
+      <c r="H9" s="268"/>
       <c r="I9" s="267"/>
       <c r="J9" s="154"/>
       <c r="K9" s="154"/>
@@ -58714,19 +58713,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="154"/>
-      <c r="B13" s="268" t="s">
+      <c r="B13" s="270" t="s">
         <v>126</v>
       </c>
-      <c r="C13" s="269"/>
-      <c r="D13" s="269"/>
-      <c r="E13" s="269"/>
-      <c r="F13" s="269"/>
-      <c r="G13" s="269"/>
-      <c r="H13" s="269"/>
-      <c r="I13" s="269"/>
-      <c r="J13" s="269"/>
-      <c r="K13" s="269"/>
-      <c r="L13" s="270"/>
+      <c r="C13" s="271"/>
+      <c r="D13" s="271"/>
+      <c r="E13" s="271"/>
+      <c r="F13" s="271"/>
+      <c r="G13" s="271"/>
+      <c r="H13" s="271"/>
+      <c r="I13" s="271"/>
+      <c r="J13" s="271"/>
+      <c r="K13" s="271"/>
+      <c r="L13" s="272"/>
       <c r="M13" s="154"/>
       <c r="N13" s="154"/>
       <c r="O13" s="154"/>
@@ -58755,11 +58754,11 @@
       <c r="I14" s="175" t="s">
         <v>133</v>
       </c>
-      <c r="J14" s="279" t="s">
+      <c r="J14" s="269" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="279"/>
-      <c r="L14" s="279"/>
+      <c r="K14" s="269"/>
+      <c r="L14" s="269"/>
       <c r="M14" s="154"/>
       <c r="N14" s="154"/>
       <c r="O14" s="154"/>
@@ -58784,11 +58783,11 @@
       <c r="I15" s="131" t="s">
         <v>289</v>
       </c>
-      <c r="J15" s="274" t="s">
+      <c r="J15" s="276" t="s">
         <v>388</v>
       </c>
-      <c r="K15" s="274"/>
-      <c r="L15" s="274"/>
+      <c r="K15" s="276"/>
+      <c r="L15" s="276"/>
       <c r="M15" s="154"/>
       <c r="N15" s="154"/>
       <c r="O15" s="154"/>
@@ -58969,12 +58968,12 @@
     </row>
     <row r="26" spans="1:15" s="173" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="174"/>
-      <c r="B26" s="271" t="s">
+      <c r="B26" s="273" t="s">
         <v>128</v>
       </c>
-      <c r="C26" s="272"/>
-      <c r="D26" s="272"/>
-      <c r="E26" s="273"/>
+      <c r="C26" s="274"/>
+      <c r="D26" s="274"/>
+      <c r="E26" s="275"/>
       <c r="F26" s="175" t="s">
         <v>127</v>
       </c>
@@ -59198,10 +59197,10 @@
       <c r="A33" s="154"/>
       <c r="B33" s="168"/>
       <c r="C33" s="171"/>
-      <c r="D33" s="277" t="s">
+      <c r="D33" s="278" t="s">
         <v>363</v>
       </c>
-      <c r="E33" s="278"/>
+      <c r="E33" s="279"/>
       <c r="F33" s="162" t="s">
         <v>362</v>
       </c>
@@ -59636,11 +59635,11 @@
     </row>
     <row r="55" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A55" s="154"/>
-      <c r="B55" s="276" t="s">
+      <c r="B55" s="277" t="s">
         <v>348</v>
       </c>
-      <c r="C55" s="276"/>
-      <c r="D55" s="276"/>
+      <c r="C55" s="277"/>
+      <c r="D55" s="277"/>
       <c r="E55" s="154"/>
       <c r="F55" s="154"/>
       <c r="G55" s="154"/>
@@ -59657,12 +59656,12 @@
     </row>
     <row r="56" spans="1:15" s="173" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="174"/>
-      <c r="B56" s="271" t="s">
+      <c r="B56" s="273" t="s">
         <v>128</v>
       </c>
-      <c r="C56" s="272"/>
-      <c r="D56" s="272"/>
-      <c r="E56" s="273"/>
+      <c r="C56" s="274"/>
+      <c r="D56" s="274"/>
+      <c r="E56" s="275"/>
       <c r="F56" s="175" t="s">
         <v>127</v>
       </c>
@@ -60308,11 +60307,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="D59:E59"/>
     <mergeCell ref="D60:E60"/>
@@ -60328,6 +60322,11 @@
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="B55:D55"/>
     <mergeCell ref="B56:E56"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -60427,11 +60426,11 @@
       <c r="C4" s="266" t="s">
         <v>204</v>
       </c>
-      <c r="D4" s="275"/>
-      <c r="E4" s="275"/>
-      <c r="F4" s="275"/>
-      <c r="G4" s="275"/>
-      <c r="H4" s="275"/>
+      <c r="D4" s="268"/>
+      <c r="E4" s="268"/>
+      <c r="F4" s="268"/>
+      <c r="G4" s="268"/>
+      <c r="H4" s="268"/>
       <c r="I4" s="267"/>
       <c r="J4" s="154"/>
       <c r="K4" s="154"/>
@@ -60448,11 +60447,11 @@
       <c r="C5" s="266" t="s">
         <v>395</v>
       </c>
-      <c r="D5" s="275"/>
-      <c r="E5" s="275"/>
-      <c r="F5" s="275"/>
-      <c r="G5" s="275"/>
-      <c r="H5" s="275"/>
+      <c r="D5" s="268"/>
+      <c r="E5" s="268"/>
+      <c r="F5" s="268"/>
+      <c r="G5" s="268"/>
+      <c r="H5" s="268"/>
       <c r="I5" s="267"/>
       <c r="J5" s="154"/>
       <c r="K5" s="154"/>
@@ -60490,11 +60489,11 @@
       <c r="C7" s="266" t="s">
         <v>207</v>
       </c>
-      <c r="D7" s="275"/>
-      <c r="E7" s="275"/>
-      <c r="F7" s="275"/>
-      <c r="G7" s="275"/>
-      <c r="H7" s="275"/>
+      <c r="D7" s="268"/>
+      <c r="E7" s="268"/>
+      <c r="F7" s="268"/>
+      <c r="G7" s="268"/>
+      <c r="H7" s="268"/>
       <c r="I7" s="267"/>
       <c r="J7" s="154"/>
       <c r="K7" s="154"/>
@@ -60532,11 +60531,11 @@
       <c r="C9" s="266" t="s">
         <v>184</v>
       </c>
-      <c r="D9" s="275"/>
-      <c r="E9" s="275"/>
-      <c r="F9" s="275"/>
-      <c r="G9" s="275"/>
-      <c r="H9" s="275"/>
+      <c r="D9" s="268"/>
+      <c r="E9" s="268"/>
+      <c r="F9" s="268"/>
+      <c r="G9" s="268"/>
+      <c r="H9" s="268"/>
       <c r="I9" s="267"/>
       <c r="J9" s="154"/>
       <c r="K9" s="154"/>
@@ -60600,19 +60599,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="154"/>
-      <c r="B13" s="268" t="s">
+      <c r="B13" s="270" t="s">
         <v>126</v>
       </c>
-      <c r="C13" s="269"/>
-      <c r="D13" s="269"/>
-      <c r="E13" s="269"/>
-      <c r="F13" s="269"/>
-      <c r="G13" s="269"/>
-      <c r="H13" s="269"/>
-      <c r="I13" s="269"/>
-      <c r="J13" s="269"/>
-      <c r="K13" s="269"/>
-      <c r="L13" s="270"/>
+      <c r="C13" s="271"/>
+      <c r="D13" s="271"/>
+      <c r="E13" s="271"/>
+      <c r="F13" s="271"/>
+      <c r="G13" s="271"/>
+      <c r="H13" s="271"/>
+      <c r="I13" s="271"/>
+      <c r="J13" s="271"/>
+      <c r="K13" s="271"/>
+      <c r="L13" s="272"/>
       <c r="M13" s="154"/>
       <c r="N13" s="154"/>
       <c r="O13" s="154"/>
@@ -60641,11 +60640,11 @@
       <c r="I14" s="175" t="s">
         <v>133</v>
       </c>
-      <c r="J14" s="279" t="s">
+      <c r="J14" s="269" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="279"/>
-      <c r="L14" s="279"/>
+      <c r="K14" s="269"/>
+      <c r="L14" s="269"/>
       <c r="M14" s="154"/>
       <c r="N14" s="154"/>
       <c r="O14" s="154"/>
@@ -60670,11 +60669,11 @@
       <c r="I15" s="130" t="s">
         <v>290</v>
       </c>
-      <c r="J15" s="274" t="s">
+      <c r="J15" s="276" t="s">
         <v>386</v>
       </c>
-      <c r="K15" s="274"/>
-      <c r="L15" s="274"/>
+      <c r="K15" s="276"/>
+      <c r="L15" s="276"/>
       <c r="M15" s="154"/>
       <c r="N15" s="154"/>
       <c r="O15" s="154"/>
@@ -60703,11 +60702,11 @@
       <c r="I16" s="130" t="s">
         <v>374</v>
       </c>
-      <c r="J16" s="274" t="s">
+      <c r="J16" s="276" t="s">
         <v>393</v>
       </c>
-      <c r="K16" s="274"/>
-      <c r="L16" s="274"/>
+      <c r="K16" s="276"/>
+      <c r="L16" s="276"/>
       <c r="M16" s="154"/>
       <c r="N16" s="154"/>
       <c r="O16" s="154"/>
@@ -60888,12 +60887,12 @@
     </row>
     <row r="27" spans="1:15" s="173" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="174"/>
-      <c r="B27" s="271" t="s">
+      <c r="B27" s="273" t="s">
         <v>128</v>
       </c>
-      <c r="C27" s="272"/>
-      <c r="D27" s="272"/>
-      <c r="E27" s="273"/>
+      <c r="C27" s="274"/>
+      <c r="D27" s="274"/>
+      <c r="E27" s="275"/>
       <c r="F27" s="175" t="s">
         <v>127</v>
       </c>
@@ -61423,11 +61422,11 @@
     </row>
     <row r="52" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="154"/>
-      <c r="B52" s="276" t="s">
+      <c r="B52" s="277" t="s">
         <v>348</v>
       </c>
-      <c r="C52" s="276"/>
-      <c r="D52" s="276"/>
+      <c r="C52" s="277"/>
+      <c r="D52" s="277"/>
       <c r="E52" s="154"/>
       <c r="F52" s="154"/>
       <c r="G52" s="154"/>
@@ -61444,12 +61443,12 @@
     </row>
     <row r="53" spans="1:15" s="173" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A53" s="174"/>
-      <c r="B53" s="271" t="s">
+      <c r="B53" s="273" t="s">
         <v>128</v>
       </c>
-      <c r="C53" s="272"/>
-      <c r="D53" s="272"/>
-      <c r="E53" s="273"/>
+      <c r="C53" s="274"/>
+      <c r="D53" s="274"/>
+      <c r="E53" s="275"/>
       <c r="F53" s="175" t="s">
         <v>127</v>
       </c>
@@ -62095,16 +62094,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="D57:E57"/>
@@ -62114,6 +62103,16 @@
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="B53:E53"/>
     <mergeCell ref="D56:E56"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:E27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>

--- a/doc/API_Design/BLOG_API_Spec.xlsx
+++ b/doc/API_Design/BLOG_API_Spec.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="7155" tabRatio="927" firstSheet="15" activeTab="23"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="7155" tabRatio="927" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="23" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3570" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3594" uniqueCount="465">
   <si>
     <t>Description</t>
   </si>
@@ -1501,6 +1501,9 @@
   <si>
     <t>I'm …</t>
   </si>
+  <si>
+    <t>Register user</t>
+  </si>
 </sst>
 </file>
 
@@ -2392,7 +2395,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="318">
+  <cellXfs count="322">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2872,44 +2875,57 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="10" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="6" borderId="10" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -2941,16 +2957,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -2978,21 +2984,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="10" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -3005,41 +2996,62 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="14" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="17" fillId="6" borderId="10" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3077,9 +3089,6 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="411" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="411" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="411" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3098,6 +3107,9 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="411" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="411" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="411" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3112,13 +3124,18 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="411" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3130,16 +3147,22 @@
     <xf numFmtId="0" fontId="28" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -3148,25 +3171,14 @@
     <xf numFmtId="0" fontId="28" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3177,6 +3189,7 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="411" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="412">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -14234,13 +14247,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>16329</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>61686</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1445079</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14580,6 +14593,58 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>      </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>"create_at":"2014-11-18",</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB">
+            <a:effectLst/>
+            <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>      "modified_at:"2014-11-18"</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB">
+            <a:effectLst/>
+            <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
           <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
             <a:lnSpc>
               <a:spcPct val="100000"/>
@@ -14597,6 +14662,29 @@
             <a:tabLst/>
             <a:defRPr/>
           </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100" b="0">
+            <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0">
               <a:solidFill>
@@ -14640,13 +14728,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>56696</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1428749</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -17488,6 +17576,84 @@
             </a:rPr>
             <a:t>@mulodo.com"</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>      </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>"create_at":"2014-11-18",</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB">
+            <a:effectLst/>
+            <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>      "modified_at:"2014-11-18"</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB">
+            <a:effectLst/>
+            <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
           <a:endParaRPr lang="en-US" sz="1100" b="0">
             <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
@@ -17940,6 +18106,61 @@
             </a:rPr>
             <a:t>@mulodo.com"</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>      "create_at":"2014-11-18",</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB">
+            <a:effectLst/>
+            <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>      "modified_at:"2014-11-18"</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB">
+            <a:effectLst/>
+            <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
           <a:endParaRPr lang="en-GB">
             <a:effectLst/>
             <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
@@ -18383,6 +18604,70 @@
             </a:rPr>
             <a:t>@mulodo.com",</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>      </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>"create_at":"2014-11-18",</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB">
+            <a:effectLst/>
+            <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>      "modified_at:"2014-11-18"</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB">
+            <a:effectLst/>
+            <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
           <a:endParaRPr lang="en-GB">
             <a:effectLst/>
             <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
@@ -22940,303 +23225,303 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="43" customFormat="1" ht="15.75">
-      <c r="A1" s="246" t="s">
+      <c r="A1" s="218" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="247"/>
-      <c r="C1" s="248"/>
-      <c r="D1" s="249" t="s">
+      <c r="B1" s="219"/>
+      <c r="C1" s="220"/>
+      <c r="D1" s="221" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="250"/>
-      <c r="F1" s="250"/>
-      <c r="G1" s="250"/>
-      <c r="H1" s="250"/>
-      <c r="I1" s="250"/>
-      <c r="J1" s="250"/>
-      <c r="K1" s="254" t="s">
+      <c r="E1" s="222"/>
+      <c r="F1" s="222"/>
+      <c r="G1" s="222"/>
+      <c r="H1" s="222"/>
+      <c r="I1" s="222"/>
+      <c r="J1" s="222"/>
+      <c r="K1" s="223" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="255"/>
-      <c r="M1" s="256"/>
-      <c r="N1" s="236" t="s">
+      <c r="L1" s="224"/>
+      <c r="M1" s="225"/>
+      <c r="N1" s="226" t="s">
         <v>146</v>
       </c>
-      <c r="O1" s="237"/>
-      <c r="P1" s="237"/>
-      <c r="Q1" s="237"/>
-      <c r="R1" s="237"/>
-      <c r="S1" s="237"/>
-      <c r="T1" s="237"/>
-      <c r="U1" s="238"/>
-      <c r="V1" s="257" t="s">
+      <c r="O1" s="227"/>
+      <c r="P1" s="227"/>
+      <c r="Q1" s="227"/>
+      <c r="R1" s="227"/>
+      <c r="S1" s="227"/>
+      <c r="T1" s="227"/>
+      <c r="U1" s="228"/>
+      <c r="V1" s="229" t="s">
         <v>32</v>
       </c>
-      <c r="W1" s="258"/>
-      <c r="X1" s="258"/>
-      <c r="Y1" s="258"/>
-      <c r="Z1" s="258"/>
-      <c r="AA1" s="258"/>
-      <c r="AB1" s="258"/>
-      <c r="AC1" s="258"/>
-      <c r="AD1" s="259"/>
+      <c r="W1" s="230"/>
+      <c r="X1" s="230"/>
+      <c r="Y1" s="230"/>
+      <c r="Z1" s="230"/>
+      <c r="AA1" s="230"/>
+      <c r="AB1" s="230"/>
+      <c r="AC1" s="230"/>
+      <c r="AD1" s="231"/>
     </row>
     <row r="2" spans="1:30" s="43" customFormat="1" ht="15.75">
-      <c r="A2" s="246" t="s">
+      <c r="A2" s="218" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="247"/>
-      <c r="C2" s="248"/>
-      <c r="D2" s="249" t="s">
+      <c r="B2" s="219"/>
+      <c r="C2" s="220"/>
+      <c r="D2" s="221" t="s">
         <v>459</v>
       </c>
-      <c r="E2" s="250"/>
-      <c r="F2" s="250"/>
-      <c r="G2" s="250"/>
-      <c r="H2" s="250"/>
-      <c r="I2" s="250"/>
-      <c r="J2" s="250"/>
-      <c r="K2" s="231" t="s">
+      <c r="E2" s="222"/>
+      <c r="F2" s="222"/>
+      <c r="G2" s="222"/>
+      <c r="H2" s="222"/>
+      <c r="I2" s="222"/>
+      <c r="J2" s="222"/>
+      <c r="K2" s="235" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="232"/>
-      <c r="M2" s="233"/>
-      <c r="N2" s="251" t="s">
+      <c r="L2" s="236"/>
+      <c r="M2" s="237"/>
+      <c r="N2" s="247" t="s">
         <v>149</v>
       </c>
-      <c r="O2" s="252"/>
-      <c r="P2" s="252"/>
-      <c r="Q2" s="252"/>
-      <c r="R2" s="252"/>
-      <c r="S2" s="252"/>
-      <c r="T2" s="252"/>
-      <c r="U2" s="253"/>
-      <c r="V2" s="228" t="s">
+      <c r="O2" s="248"/>
+      <c r="P2" s="248"/>
+      <c r="Q2" s="248"/>
+      <c r="R2" s="248"/>
+      <c r="S2" s="248"/>
+      <c r="T2" s="248"/>
+      <c r="U2" s="249"/>
+      <c r="V2" s="232" t="s">
         <v>151</v>
       </c>
-      <c r="W2" s="229"/>
-      <c r="X2" s="230"/>
-      <c r="Y2" s="228" t="s">
+      <c r="W2" s="233"/>
+      <c r="X2" s="234"/>
+      <c r="Y2" s="232" t="s">
         <v>35</v>
       </c>
-      <c r="Z2" s="229"/>
-      <c r="AA2" s="230"/>
-      <c r="AB2" s="228" t="s">
+      <c r="Z2" s="233"/>
+      <c r="AA2" s="234"/>
+      <c r="AB2" s="232" t="s">
         <v>36</v>
       </c>
-      <c r="AC2" s="229"/>
-      <c r="AD2" s="230"/>
+      <c r="AC2" s="233"/>
+      <c r="AD2" s="234"/>
     </row>
     <row r="3" spans="1:30" s="43" customFormat="1" ht="15.75">
-      <c r="A3" s="231" t="s">
+      <c r="A3" s="235" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="232"/>
-      <c r="C3" s="233"/>
-      <c r="D3" s="234" t="s">
+      <c r="B3" s="236"/>
+      <c r="C3" s="237"/>
+      <c r="D3" s="238" t="s">
         <v>148</v>
       </c>
-      <c r="E3" s="235"/>
-      <c r="F3" s="235"/>
-      <c r="G3" s="235"/>
-      <c r="H3" s="235"/>
-      <c r="I3" s="235"/>
-      <c r="J3" s="235"/>
-      <c r="K3" s="231" t="s">
+      <c r="E3" s="239"/>
+      <c r="F3" s="239"/>
+      <c r="G3" s="239"/>
+      <c r="H3" s="239"/>
+      <c r="I3" s="239"/>
+      <c r="J3" s="239"/>
+      <c r="K3" s="235" t="s">
         <v>37</v>
       </c>
-      <c r="L3" s="232"/>
-      <c r="M3" s="233"/>
-      <c r="N3" s="236" t="s">
+      <c r="L3" s="236"/>
+      <c r="M3" s="237"/>
+      <c r="N3" s="226" t="s">
         <v>150</v>
       </c>
-      <c r="O3" s="237"/>
-      <c r="P3" s="237"/>
-      <c r="Q3" s="237"/>
-      <c r="R3" s="237"/>
-      <c r="S3" s="237"/>
-      <c r="T3" s="237"/>
-      <c r="U3" s="238"/>
-      <c r="V3" s="239" t="s">
+      <c r="O3" s="227"/>
+      <c r="P3" s="227"/>
+      <c r="Q3" s="227"/>
+      <c r="R3" s="227"/>
+      <c r="S3" s="227"/>
+      <c r="T3" s="227"/>
+      <c r="U3" s="228"/>
+      <c r="V3" s="240" t="s">
         <v>248</v>
       </c>
-      <c r="W3" s="240"/>
-      <c r="X3" s="241"/>
-      <c r="Y3" s="242">
+      <c r="W3" s="241"/>
+      <c r="X3" s="242"/>
+      <c r="Y3" s="243">
         <v>41961</v>
       </c>
-      <c r="Z3" s="243"/>
-      <c r="AA3" s="244"/>
-      <c r="AB3" s="245">
+      <c r="Z3" s="244"/>
+      <c r="AA3" s="245"/>
+      <c r="AB3" s="246">
         <v>41967</v>
       </c>
-      <c r="AC3" s="243"/>
-      <c r="AD3" s="244"/>
+      <c r="AC3" s="244"/>
+      <c r="AD3" s="245"/>
     </row>
     <row r="7" spans="1:30" ht="15.75" thickBot="1"/>
     <row r="8" spans="1:30" ht="16.5" thickBot="1">
-      <c r="B8" s="226" t="s">
+      <c r="B8" s="262" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="226"/>
-      <c r="D8" s="226"/>
-      <c r="E8" s="226"/>
-      <c r="F8" s="226" t="s">
+      <c r="C8" s="262"/>
+      <c r="D8" s="262"/>
+      <c r="E8" s="262"/>
+      <c r="F8" s="262" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="226"/>
-      <c r="H8" s="226" t="s">
+      <c r="G8" s="262"/>
+      <c r="H8" s="262" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="226"/>
-      <c r="J8" s="226"/>
-      <c r="K8" s="226" t="s">
+      <c r="I8" s="262"/>
+      <c r="J8" s="262"/>
+      <c r="K8" s="262" t="s">
         <v>0</v>
       </c>
-      <c r="L8" s="226"/>
-      <c r="M8" s="226"/>
-      <c r="N8" s="226"/>
-      <c r="O8" s="226"/>
-      <c r="P8" s="226"/>
-      <c r="Q8" s="226"/>
-      <c r="R8" s="226"/>
-      <c r="S8" s="226"/>
-      <c r="T8" s="226"/>
-      <c r="U8" s="226"/>
-      <c r="V8" s="226"/>
-      <c r="W8" s="226"/>
-      <c r="X8" s="226" t="s">
+      <c r="L8" s="262"/>
+      <c r="M8" s="262"/>
+      <c r="N8" s="262"/>
+      <c r="O8" s="262"/>
+      <c r="P8" s="262"/>
+      <c r="Q8" s="262"/>
+      <c r="R8" s="262"/>
+      <c r="S8" s="262"/>
+      <c r="T8" s="262"/>
+      <c r="U8" s="262"/>
+      <c r="V8" s="262"/>
+      <c r="W8" s="262"/>
+      <c r="X8" s="262" t="s">
         <v>40</v>
       </c>
-      <c r="Y8" s="226"/>
-      <c r="Z8" s="226"/>
-      <c r="AA8" s="226"/>
-      <c r="AB8" s="226"/>
-      <c r="AC8" s="226"/>
+      <c r="Y8" s="262"/>
+      <c r="Z8" s="262"/>
+      <c r="AA8" s="262"/>
+      <c r="AB8" s="262"/>
+      <c r="AC8" s="262"/>
     </row>
     <row r="9" spans="1:30">
-      <c r="B9" s="227">
+      <c r="B9" s="250">
         <v>41961</v>
       </c>
-      <c r="C9" s="216"/>
-      <c r="D9" s="216"/>
-      <c r="E9" s="217"/>
-      <c r="F9" s="218" t="s">
+      <c r="C9" s="251"/>
+      <c r="D9" s="251"/>
+      <c r="E9" s="252"/>
+      <c r="F9" s="253" t="s">
         <v>145</v>
       </c>
-      <c r="G9" s="219"/>
-      <c r="H9" s="215"/>
-      <c r="I9" s="216"/>
-      <c r="J9" s="217"/>
-      <c r="K9" s="220"/>
-      <c r="L9" s="221"/>
-      <c r="M9" s="221"/>
-      <c r="N9" s="221"/>
-      <c r="O9" s="221"/>
-      <c r="P9" s="221"/>
-      <c r="Q9" s="221"/>
-      <c r="R9" s="221"/>
-      <c r="S9" s="221"/>
-      <c r="T9" s="221"/>
-      <c r="U9" s="221"/>
-      <c r="V9" s="221"/>
-      <c r="W9" s="222"/>
-      <c r="X9" s="223"/>
-      <c r="Y9" s="224"/>
-      <c r="Z9" s="224"/>
-      <c r="AA9" s="224"/>
-      <c r="AB9" s="224"/>
-      <c r="AC9" s="225"/>
+      <c r="G9" s="254"/>
+      <c r="H9" s="255"/>
+      <c r="I9" s="251"/>
+      <c r="J9" s="252"/>
+      <c r="K9" s="256"/>
+      <c r="L9" s="257"/>
+      <c r="M9" s="257"/>
+      <c r="N9" s="257"/>
+      <c r="O9" s="257"/>
+      <c r="P9" s="257"/>
+      <c r="Q9" s="257"/>
+      <c r="R9" s="257"/>
+      <c r="S9" s="257"/>
+      <c r="T9" s="257"/>
+      <c r="U9" s="257"/>
+      <c r="V9" s="257"/>
+      <c r="W9" s="258"/>
+      <c r="X9" s="259"/>
+      <c r="Y9" s="260"/>
+      <c r="Z9" s="260"/>
+      <c r="AA9" s="260"/>
+      <c r="AB9" s="260"/>
+      <c r="AC9" s="261"/>
     </row>
     <row r="10" spans="1:30">
-      <c r="B10" s="215"/>
-      <c r="C10" s="216"/>
-      <c r="D10" s="216"/>
-      <c r="E10" s="217"/>
-      <c r="F10" s="218"/>
-      <c r="G10" s="219"/>
-      <c r="H10" s="215"/>
-      <c r="I10" s="216"/>
-      <c r="J10" s="217"/>
-      <c r="K10" s="220"/>
-      <c r="L10" s="221"/>
-      <c r="M10" s="221"/>
-      <c r="N10" s="221"/>
-      <c r="O10" s="221"/>
-      <c r="P10" s="221"/>
-      <c r="Q10" s="221"/>
-      <c r="R10" s="221"/>
-      <c r="S10" s="221"/>
-      <c r="T10" s="221"/>
-      <c r="U10" s="221"/>
-      <c r="V10" s="221"/>
-      <c r="W10" s="222"/>
-      <c r="X10" s="223"/>
-      <c r="Y10" s="224"/>
-      <c r="Z10" s="224"/>
-      <c r="AA10" s="224"/>
-      <c r="AB10" s="224"/>
-      <c r="AC10" s="225"/>
+      <c r="B10" s="255"/>
+      <c r="C10" s="251"/>
+      <c r="D10" s="251"/>
+      <c r="E10" s="252"/>
+      <c r="F10" s="253"/>
+      <c r="G10" s="254"/>
+      <c r="H10" s="255"/>
+      <c r="I10" s="251"/>
+      <c r="J10" s="252"/>
+      <c r="K10" s="256"/>
+      <c r="L10" s="257"/>
+      <c r="M10" s="257"/>
+      <c r="N10" s="257"/>
+      <c r="O10" s="257"/>
+      <c r="P10" s="257"/>
+      <c r="Q10" s="257"/>
+      <c r="R10" s="257"/>
+      <c r="S10" s="257"/>
+      <c r="T10" s="257"/>
+      <c r="U10" s="257"/>
+      <c r="V10" s="257"/>
+      <c r="W10" s="258"/>
+      <c r="X10" s="259"/>
+      <c r="Y10" s="260"/>
+      <c r="Z10" s="260"/>
+      <c r="AA10" s="260"/>
+      <c r="AB10" s="260"/>
+      <c r="AC10" s="261"/>
     </row>
     <row r="11" spans="1:30">
-      <c r="B11" s="215"/>
-      <c r="C11" s="216"/>
-      <c r="D11" s="216"/>
-      <c r="E11" s="217"/>
-      <c r="F11" s="218"/>
-      <c r="G11" s="219"/>
-      <c r="H11" s="215"/>
-      <c r="I11" s="216"/>
-      <c r="J11" s="217"/>
-      <c r="K11" s="220"/>
-      <c r="L11" s="221"/>
-      <c r="M11" s="221"/>
-      <c r="N11" s="221"/>
-      <c r="O11" s="221"/>
-      <c r="P11" s="221"/>
-      <c r="Q11" s="221"/>
-      <c r="R11" s="221"/>
-      <c r="S11" s="221"/>
-      <c r="T11" s="221"/>
-      <c r="U11" s="221"/>
-      <c r="V11" s="221"/>
-      <c r="W11" s="222"/>
-      <c r="X11" s="223"/>
-      <c r="Y11" s="224"/>
-      <c r="Z11" s="224"/>
-      <c r="AA11" s="224"/>
-      <c r="AB11" s="224"/>
-      <c r="AC11" s="225"/>
+      <c r="B11" s="255"/>
+      <c r="C11" s="251"/>
+      <c r="D11" s="251"/>
+      <c r="E11" s="252"/>
+      <c r="F11" s="253"/>
+      <c r="G11" s="254"/>
+      <c r="H11" s="255"/>
+      <c r="I11" s="251"/>
+      <c r="J11" s="252"/>
+      <c r="K11" s="256"/>
+      <c r="L11" s="257"/>
+      <c r="M11" s="257"/>
+      <c r="N11" s="257"/>
+      <c r="O11" s="257"/>
+      <c r="P11" s="257"/>
+      <c r="Q11" s="257"/>
+      <c r="R11" s="257"/>
+      <c r="S11" s="257"/>
+      <c r="T11" s="257"/>
+      <c r="U11" s="257"/>
+      <c r="V11" s="257"/>
+      <c r="W11" s="258"/>
+      <c r="X11" s="259"/>
+      <c r="Y11" s="260"/>
+      <c r="Z11" s="260"/>
+      <c r="AA11" s="260"/>
+      <c r="AB11" s="260"/>
+      <c r="AC11" s="261"/>
     </row>
     <row r="12" spans="1:30">
-      <c r="B12" s="215"/>
-      <c r="C12" s="216"/>
-      <c r="D12" s="216"/>
-      <c r="E12" s="217"/>
-      <c r="F12" s="218"/>
-      <c r="G12" s="219"/>
-      <c r="H12" s="215"/>
-      <c r="I12" s="216"/>
-      <c r="J12" s="217"/>
-      <c r="K12" s="220"/>
-      <c r="L12" s="221"/>
-      <c r="M12" s="221"/>
-      <c r="N12" s="221"/>
-      <c r="O12" s="221"/>
-      <c r="P12" s="221"/>
-      <c r="Q12" s="221"/>
-      <c r="R12" s="221"/>
-      <c r="S12" s="221"/>
-      <c r="T12" s="221"/>
-      <c r="U12" s="221"/>
-      <c r="V12" s="221"/>
-      <c r="W12" s="222"/>
-      <c r="X12" s="223"/>
-      <c r="Y12" s="224"/>
-      <c r="Z12" s="224"/>
-      <c r="AA12" s="224"/>
-      <c r="AB12" s="224"/>
-      <c r="AC12" s="225"/>
+      <c r="B12" s="255"/>
+      <c r="C12" s="251"/>
+      <c r="D12" s="251"/>
+      <c r="E12" s="252"/>
+      <c r="F12" s="253"/>
+      <c r="G12" s="254"/>
+      <c r="H12" s="255"/>
+      <c r="I12" s="251"/>
+      <c r="J12" s="252"/>
+      <c r="K12" s="256"/>
+      <c r="L12" s="257"/>
+      <c r="M12" s="257"/>
+      <c r="N12" s="257"/>
+      <c r="O12" s="257"/>
+      <c r="P12" s="257"/>
+      <c r="Q12" s="257"/>
+      <c r="R12" s="257"/>
+      <c r="S12" s="257"/>
+      <c r="T12" s="257"/>
+      <c r="U12" s="257"/>
+      <c r="V12" s="257"/>
+      <c r="W12" s="258"/>
+      <c r="X12" s="259"/>
+      <c r="Y12" s="260"/>
+      <c r="Z12" s="260"/>
+      <c r="AA12" s="260"/>
+      <c r="AB12" s="260"/>
+      <c r="AC12" s="261"/>
     </row>
     <row r="13" spans="1:30" ht="18" customHeight="1"/>
     <row r="14" spans="1:30" ht="18" customHeight="1"/>
@@ -23266,11 +23551,31 @@
     <row r="38" ht="18" customHeight="1"/>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:U1"/>
-    <mergeCell ref="V1:AD1"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="K12:W12"/>
+    <mergeCell ref="X12:AC12"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="K10:W10"/>
+    <mergeCell ref="X10:AC10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:W11"/>
+    <mergeCell ref="X11:AC11"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="K8:W8"/>
+    <mergeCell ref="X8:AC8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:W9"/>
+    <mergeCell ref="X9:AC9"/>
     <mergeCell ref="Y2:AA2"/>
     <mergeCell ref="AB2:AD2"/>
     <mergeCell ref="A3:C3"/>
@@ -23285,31 +23590,11 @@
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:U2"/>
     <mergeCell ref="V2:X2"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K9:W9"/>
-    <mergeCell ref="X9:AC9"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="K8:W8"/>
-    <mergeCell ref="X8:AC8"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="K11:W11"/>
-    <mergeCell ref="X11:AC11"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="K10:W10"/>
-    <mergeCell ref="X10:AC10"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="K12:W12"/>
-    <mergeCell ref="X12:AC12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:U1"/>
+    <mergeCell ref="V1:AD1"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -23409,15 +23694,15 @@
       <c r="B4" s="188" t="s">
         <v>123</v>
       </c>
-      <c r="C4" s="276" t="s">
+      <c r="C4" s="279" t="s">
         <v>204</v>
       </c>
-      <c r="D4" s="278"/>
-      <c r="E4" s="278"/>
-      <c r="F4" s="278"/>
-      <c r="G4" s="278"/>
-      <c r="H4" s="278"/>
-      <c r="I4" s="277"/>
+      <c r="D4" s="289"/>
+      <c r="E4" s="289"/>
+      <c r="F4" s="289"/>
+      <c r="G4" s="289"/>
+      <c r="H4" s="289"/>
+      <c r="I4" s="280"/>
       <c r="J4" s="154"/>
       <c r="K4" s="154"/>
       <c r="L4" s="154"/>
@@ -23430,13 +23715,13 @@
       <c r="B5" s="188" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="276"/>
-      <c r="D5" s="278"/>
-      <c r="E5" s="278"/>
-      <c r="F5" s="278"/>
-      <c r="G5" s="278"/>
-      <c r="H5" s="278"/>
-      <c r="I5" s="277"/>
+      <c r="C5" s="279"/>
+      <c r="D5" s="289"/>
+      <c r="E5" s="289"/>
+      <c r="F5" s="289"/>
+      <c r="G5" s="289"/>
+      <c r="H5" s="289"/>
+      <c r="I5" s="280"/>
       <c r="J5" s="154"/>
       <c r="K5" s="154"/>
       <c r="L5" s="154"/>
@@ -23470,15 +23755,15 @@
       <c r="B7" s="188" t="s">
         <v>165</v>
       </c>
-      <c r="C7" s="276" t="s">
+      <c r="C7" s="279" t="s">
         <v>207</v>
       </c>
-      <c r="D7" s="278"/>
-      <c r="E7" s="278"/>
-      <c r="F7" s="278"/>
-      <c r="G7" s="278"/>
-      <c r="H7" s="278"/>
-      <c r="I7" s="277"/>
+      <c r="D7" s="289"/>
+      <c r="E7" s="289"/>
+      <c r="F7" s="289"/>
+      <c r="G7" s="289"/>
+      <c r="H7" s="289"/>
+      <c r="I7" s="280"/>
       <c r="J7" s="154"/>
       <c r="K7" s="154"/>
       <c r="L7" s="154"/>
@@ -23512,15 +23797,15 @@
       <c r="B9" s="188" t="s">
         <v>182</v>
       </c>
-      <c r="C9" s="276" t="s">
+      <c r="C9" s="279" t="s">
         <v>183</v>
       </c>
-      <c r="D9" s="278"/>
-      <c r="E9" s="278"/>
-      <c r="F9" s="278"/>
-      <c r="G9" s="278"/>
-      <c r="H9" s="278"/>
-      <c r="I9" s="277"/>
+      <c r="D9" s="289"/>
+      <c r="E9" s="289"/>
+      <c r="F9" s="289"/>
+      <c r="G9" s="289"/>
+      <c r="H9" s="289"/>
+      <c r="I9" s="280"/>
       <c r="J9" s="154"/>
       <c r="K9" s="154"/>
       <c r="L9" s="154"/>
@@ -23583,19 +23868,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="154"/>
-      <c r="B13" s="280" t="s">
+      <c r="B13" s="282" t="s">
         <v>125</v>
       </c>
-      <c r="C13" s="281"/>
-      <c r="D13" s="281"/>
-      <c r="E13" s="281"/>
-      <c r="F13" s="281"/>
-      <c r="G13" s="281"/>
-      <c r="H13" s="281"/>
-      <c r="I13" s="281"/>
-      <c r="J13" s="281"/>
-      <c r="K13" s="281"/>
-      <c r="L13" s="282"/>
+      <c r="C13" s="283"/>
+      <c r="D13" s="283"/>
+      <c r="E13" s="283"/>
+      <c r="F13" s="283"/>
+      <c r="G13" s="283"/>
+      <c r="H13" s="283"/>
+      <c r="I13" s="283"/>
+      <c r="J13" s="283"/>
+      <c r="K13" s="283"/>
+      <c r="L13" s="284"/>
       <c r="M13" s="154"/>
       <c r="N13" s="154"/>
       <c r="O13" s="154"/>
@@ -23624,11 +23909,11 @@
       <c r="I14" s="175" t="s">
         <v>132</v>
       </c>
-      <c r="J14" s="279" t="s">
+      <c r="J14" s="281" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="279"/>
-      <c r="L14" s="279"/>
+      <c r="K14" s="281"/>
+      <c r="L14" s="281"/>
       <c r="M14" s="154"/>
       <c r="N14" s="154"/>
       <c r="O14" s="154"/>
@@ -23790,11 +24075,11 @@
     </row>
     <row r="24" spans="1:15" s="178" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="179"/>
-      <c r="B24" s="290" t="s">
+      <c r="B24" s="293" t="s">
         <v>167</v>
       </c>
-      <c r="C24" s="290"/>
-      <c r="D24" s="290"/>
+      <c r="C24" s="293"/>
+      <c r="D24" s="293"/>
       <c r="E24" s="180"/>
       <c r="F24" s="181"/>
       <c r="G24" s="180"/>
@@ -23809,12 +24094,12 @@
     </row>
     <row r="25" spans="1:15" s="173" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="174"/>
-      <c r="B25" s="283" t="s">
+      <c r="B25" s="285" t="s">
         <v>127</v>
       </c>
-      <c r="C25" s="284"/>
-      <c r="D25" s="284"/>
-      <c r="E25" s="285"/>
+      <c r="C25" s="286"/>
+      <c r="D25" s="286"/>
+      <c r="E25" s="287"/>
       <c r="F25" s="175" t="s">
         <v>126</v>
       </c>
@@ -23906,10 +24191,10 @@
       <c r="A28" s="154"/>
       <c r="B28" s="168"/>
       <c r="C28" s="172"/>
-      <c r="D28" s="276" t="s">
+      <c r="D28" s="279" t="s">
         <v>173</v>
       </c>
-      <c r="E28" s="277"/>
+      <c r="E28" s="280"/>
       <c r="F28" s="162" t="s">
         <v>344</v>
       </c>
@@ -23939,10 +24224,10 @@
       <c r="A29" s="154"/>
       <c r="B29" s="168"/>
       <c r="C29" s="163"/>
-      <c r="D29" s="276" t="s">
+      <c r="D29" s="279" t="s">
         <v>174</v>
       </c>
-      <c r="E29" s="277"/>
+      <c r="E29" s="280"/>
       <c r="F29" s="162" t="s">
         <v>175</v>
       </c>
@@ -24005,8 +24290,8 @@
       <c r="A31" s="154"/>
       <c r="B31" s="164"/>
       <c r="C31" s="163"/>
-      <c r="D31" s="276"/>
-      <c r="E31" s="277"/>
+      <c r="D31" s="279"/>
+      <c r="E31" s="280"/>
       <c r="F31" s="162"/>
       <c r="G31" s="161"/>
       <c r="H31" s="161"/>
@@ -24328,11 +24613,11 @@
     </row>
     <row r="50" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A50" s="154"/>
-      <c r="B50" s="287" t="s">
+      <c r="B50" s="290" t="s">
         <v>347</v>
       </c>
-      <c r="C50" s="287"/>
-      <c r="D50" s="287"/>
+      <c r="C50" s="290"/>
+      <c r="D50" s="290"/>
       <c r="E50" s="154"/>
       <c r="F50" s="154"/>
       <c r="G50" s="154"/>
@@ -24349,12 +24634,12 @@
     </row>
     <row r="51" spans="1:15" s="173" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A51" s="174"/>
-      <c r="B51" s="283" t="s">
+      <c r="B51" s="285" t="s">
         <v>127</v>
       </c>
-      <c r="C51" s="284"/>
-      <c r="D51" s="284"/>
-      <c r="E51" s="285"/>
+      <c r="C51" s="286"/>
+      <c r="D51" s="286"/>
+      <c r="E51" s="287"/>
       <c r="F51" s="175" t="s">
         <v>126</v>
       </c>
@@ -24446,10 +24731,10 @@
       <c r="A54" s="154"/>
       <c r="B54" s="168"/>
       <c r="C54" s="172"/>
-      <c r="D54" s="276" t="s">
+      <c r="D54" s="279" t="s">
         <v>173</v>
       </c>
-      <c r="E54" s="277"/>
+      <c r="E54" s="280"/>
       <c r="F54" s="162" t="s">
         <v>344</v>
       </c>
@@ -24479,10 +24764,10 @@
       <c r="A55" s="154"/>
       <c r="B55" s="168"/>
       <c r="C55" s="172"/>
-      <c r="D55" s="276" t="s">
+      <c r="D55" s="279" t="s">
         <v>0</v>
       </c>
-      <c r="E55" s="277"/>
+      <c r="E55" s="280"/>
       <c r="F55" s="162" t="s">
         <v>191</v>
       </c>
@@ -24512,10 +24797,10 @@
       <c r="A56" s="154"/>
       <c r="B56" s="168"/>
       <c r="C56" s="172"/>
-      <c r="D56" s="291" t="s">
+      <c r="D56" s="294" t="s">
         <v>196</v>
       </c>
-      <c r="E56" s="277"/>
+      <c r="E56" s="280"/>
       <c r="F56" s="162" t="s">
         <v>194</v>
       </c>
@@ -24609,8 +24894,8 @@
       <c r="A59" s="154"/>
       <c r="B59" s="164"/>
       <c r="C59" s="163"/>
-      <c r="D59" s="276"/>
-      <c r="E59" s="277"/>
+      <c r="D59" s="279"/>
+      <c r="E59" s="280"/>
       <c r="F59" s="162"/>
       <c r="G59" s="161"/>
       <c r="H59" s="161"/>
@@ -25000,13 +25285,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="D54:E54"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="B25:E25"/>
     <mergeCell ref="D28:E28"/>
@@ -25017,6 +25295,13 @@
     <mergeCell ref="C9:I9"/>
     <mergeCell ref="B13:L13"/>
     <mergeCell ref="J14:L14"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="D54:E54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -25027,7 +25312,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O92"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A70" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A31" workbookViewId="0">
       <selection activeCell="I68" sqref="I68"/>
     </sheetView>
   </sheetViews>
@@ -25110,15 +25395,15 @@
       <c r="B4" s="188" t="s">
         <v>123</v>
       </c>
-      <c r="C4" s="276" t="s">
+      <c r="C4" s="279" t="s">
         <v>400</v>
       </c>
-      <c r="D4" s="278"/>
-      <c r="E4" s="278"/>
-      <c r="F4" s="278"/>
-      <c r="G4" s="278"/>
-      <c r="H4" s="278"/>
-      <c r="I4" s="277"/>
+      <c r="D4" s="289"/>
+      <c r="E4" s="289"/>
+      <c r="F4" s="289"/>
+      <c r="G4" s="289"/>
+      <c r="H4" s="289"/>
+      <c r="I4" s="280"/>
       <c r="J4" s="154"/>
       <c r="K4" s="154"/>
       <c r="L4" s="154"/>
@@ -25131,15 +25416,15 @@
       <c r="B5" s="188" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="276" t="s">
+      <c r="C5" s="279" t="s">
         <v>399</v>
       </c>
-      <c r="D5" s="278"/>
-      <c r="E5" s="278"/>
-      <c r="F5" s="278"/>
-      <c r="G5" s="278"/>
-      <c r="H5" s="278"/>
-      <c r="I5" s="277"/>
+      <c r="D5" s="289"/>
+      <c r="E5" s="289"/>
+      <c r="F5" s="289"/>
+      <c r="G5" s="289"/>
+      <c r="H5" s="289"/>
+      <c r="I5" s="280"/>
       <c r="J5" s="154"/>
       <c r="K5" s="154"/>
       <c r="L5" s="154"/>
@@ -25173,15 +25458,15 @@
       <c r="B7" s="188" t="s">
         <v>165</v>
       </c>
-      <c r="C7" s="276" t="s">
+      <c r="C7" s="279" t="s">
         <v>207</v>
       </c>
-      <c r="D7" s="278"/>
-      <c r="E7" s="278"/>
-      <c r="F7" s="278"/>
-      <c r="G7" s="278"/>
-      <c r="H7" s="278"/>
-      <c r="I7" s="277"/>
+      <c r="D7" s="289"/>
+      <c r="E7" s="289"/>
+      <c r="F7" s="289"/>
+      <c r="G7" s="289"/>
+      <c r="H7" s="289"/>
+      <c r="I7" s="280"/>
       <c r="J7" s="154"/>
       <c r="K7" s="154"/>
       <c r="L7" s="154"/>
@@ -25215,15 +25500,15 @@
       <c r="B9" s="188" t="s">
         <v>182</v>
       </c>
-      <c r="C9" s="276" t="s">
+      <c r="C9" s="279" t="s">
         <v>183</v>
       </c>
-      <c r="D9" s="278"/>
-      <c r="E9" s="278"/>
-      <c r="F9" s="278"/>
-      <c r="G9" s="278"/>
-      <c r="H9" s="278"/>
-      <c r="I9" s="277"/>
+      <c r="D9" s="289"/>
+      <c r="E9" s="289"/>
+      <c r="F9" s="289"/>
+      <c r="G9" s="289"/>
+      <c r="H9" s="289"/>
+      <c r="I9" s="280"/>
       <c r="J9" s="154"/>
       <c r="K9" s="154"/>
       <c r="L9" s="154"/>
@@ -25286,19 +25571,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="154"/>
-      <c r="B13" s="280" t="s">
+      <c r="B13" s="282" t="s">
         <v>125</v>
       </c>
-      <c r="C13" s="281"/>
-      <c r="D13" s="281"/>
-      <c r="E13" s="281"/>
-      <c r="F13" s="281"/>
-      <c r="G13" s="281"/>
-      <c r="H13" s="281"/>
-      <c r="I13" s="281"/>
-      <c r="J13" s="281"/>
-      <c r="K13" s="281"/>
-      <c r="L13" s="282"/>
+      <c r="C13" s="283"/>
+      <c r="D13" s="283"/>
+      <c r="E13" s="283"/>
+      <c r="F13" s="283"/>
+      <c r="G13" s="283"/>
+      <c r="H13" s="283"/>
+      <c r="I13" s="283"/>
+      <c r="J13" s="283"/>
+      <c r="K13" s="283"/>
+      <c r="L13" s="284"/>
       <c r="M13" s="154"/>
       <c r="N13" s="154"/>
       <c r="O13" s="154"/>
@@ -25327,11 +25612,11 @@
       <c r="I14" s="175" t="s">
         <v>132</v>
       </c>
-      <c r="J14" s="279" t="s">
+      <c r="J14" s="281" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="279"/>
-      <c r="L14" s="279"/>
+      <c r="K14" s="281"/>
+      <c r="L14" s="281"/>
       <c r="M14" s="154"/>
       <c r="N14" s="154"/>
       <c r="O14" s="154"/>
@@ -25356,11 +25641,11 @@
       <c r="I15" s="196" t="s">
         <v>397</v>
       </c>
-      <c r="J15" s="292" t="s">
+      <c r="J15" s="295" t="s">
         <v>396</v>
       </c>
-      <c r="K15" s="292"/>
-      <c r="L15" s="292"/>
+      <c r="K15" s="295"/>
+      <c r="L15" s="295"/>
       <c r="M15" s="154"/>
       <c r="N15" s="154"/>
       <c r="O15" s="154"/>
@@ -25522,11 +25807,11 @@
     </row>
     <row r="25" spans="1:15" s="178" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="179"/>
-      <c r="B25" s="290" t="s">
+      <c r="B25" s="293" t="s">
         <v>167</v>
       </c>
-      <c r="C25" s="290"/>
-      <c r="D25" s="290"/>
+      <c r="C25" s="293"/>
+      <c r="D25" s="293"/>
       <c r="E25" s="180"/>
       <c r="F25" s="181"/>
       <c r="G25" s="180"/>
@@ -25541,12 +25826,12 @@
     </row>
     <row r="26" spans="1:15" s="173" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="174"/>
-      <c r="B26" s="283" t="s">
+      <c r="B26" s="285" t="s">
         <v>127</v>
       </c>
-      <c r="C26" s="284"/>
-      <c r="D26" s="284"/>
-      <c r="E26" s="285"/>
+      <c r="C26" s="286"/>
+      <c r="D26" s="286"/>
+      <c r="E26" s="287"/>
       <c r="F26" s="175" t="s">
         <v>126</v>
       </c>
@@ -25638,10 +25923,10 @@
       <c r="A29" s="154"/>
       <c r="B29" s="168"/>
       <c r="C29" s="172"/>
-      <c r="D29" s="276" t="s">
+      <c r="D29" s="279" t="s">
         <v>173</v>
       </c>
-      <c r="E29" s="277"/>
+      <c r="E29" s="280"/>
       <c r="F29" s="162" t="s">
         <v>344</v>
       </c>
@@ -25671,10 +25956,10 @@
       <c r="A30" s="154"/>
       <c r="B30" s="168"/>
       <c r="C30" s="163"/>
-      <c r="D30" s="276" t="s">
+      <c r="D30" s="279" t="s">
         <v>174</v>
       </c>
-      <c r="E30" s="277"/>
+      <c r="E30" s="280"/>
       <c r="F30" s="162" t="s">
         <v>175</v>
       </c>
@@ -25737,10 +26022,10 @@
       <c r="A32" s="154"/>
       <c r="B32" s="168"/>
       <c r="C32" s="171"/>
-      <c r="D32" s="276" t="s">
+      <c r="D32" s="279" t="s">
         <v>365</v>
       </c>
-      <c r="E32" s="277"/>
+      <c r="E32" s="280"/>
       <c r="F32" s="162" t="s">
         <v>177</v>
       </c>
@@ -25770,10 +26055,10 @@
       <c r="A33" s="154"/>
       <c r="B33" s="168"/>
       <c r="C33" s="171"/>
-      <c r="D33" s="288" t="s">
+      <c r="D33" s="291" t="s">
         <v>362</v>
       </c>
-      <c r="E33" s="289"/>
+      <c r="E33" s="292"/>
       <c r="F33" s="162" t="s">
         <v>361</v>
       </c>
@@ -25803,10 +26088,10 @@
       <c r="A34" s="154"/>
       <c r="B34" s="168"/>
       <c r="C34" s="172"/>
-      <c r="D34" s="276" t="s">
+      <c r="D34" s="279" t="s">
         <v>359</v>
       </c>
-      <c r="E34" s="277"/>
+      <c r="E34" s="280"/>
       <c r="F34" s="162" t="s">
         <v>358</v>
       </c>
@@ -26866,6 +27151,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="D32:E32"/>
@@ -26875,11 +27165,6 @@
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="D29:E29"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -27491,8 +27776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O87"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F67" sqref="F67"/>
+    <sheetView showGridLines="0" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36:L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -27574,15 +27859,15 @@
       <c r="B4" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C4" s="299" t="s">
+      <c r="C4" s="298" t="s">
         <v>214</v>
       </c>
-      <c r="D4" s="300"/>
-      <c r="E4" s="300"/>
-      <c r="F4" s="300"/>
-      <c r="G4" s="300"/>
-      <c r="H4" s="300"/>
-      <c r="I4" s="301"/>
+      <c r="D4" s="310"/>
+      <c r="E4" s="310"/>
+      <c r="F4" s="310"/>
+      <c r="G4" s="310"/>
+      <c r="H4" s="310"/>
+      <c r="I4" s="297"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -27595,15 +27880,15 @@
       <c r="B5" s="70" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="299" t="s">
+      <c r="C5" s="298" t="s">
         <v>294</v>
       </c>
-      <c r="D5" s="300"/>
-      <c r="E5" s="300"/>
-      <c r="F5" s="300"/>
-      <c r="G5" s="300"/>
-      <c r="H5" s="300"/>
-      <c r="I5" s="301"/>
+      <c r="D5" s="310"/>
+      <c r="E5" s="310"/>
+      <c r="F5" s="310"/>
+      <c r="G5" s="310"/>
+      <c r="H5" s="310"/>
+      <c r="I5" s="297"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -27637,15 +27922,15 @@
       <c r="B7" s="70" t="s">
         <v>165</v>
       </c>
-      <c r="C7" s="302" t="s">
+      <c r="C7" s="296" t="s">
         <v>157</v>
       </c>
-      <c r="D7" s="300"/>
-      <c r="E7" s="300"/>
-      <c r="F7" s="300"/>
-      <c r="G7" s="300"/>
-      <c r="H7" s="300"/>
-      <c r="I7" s="301"/>
+      <c r="D7" s="310"/>
+      <c r="E7" s="310"/>
+      <c r="F7" s="310"/>
+      <c r="G7" s="310"/>
+      <c r="H7" s="310"/>
+      <c r="I7" s="297"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -27679,15 +27964,15 @@
       <c r="B9" s="70" t="s">
         <v>182</v>
       </c>
-      <c r="C9" s="302" t="s">
+      <c r="C9" s="296" t="s">
         <v>183</v>
       </c>
-      <c r="D9" s="300"/>
-      <c r="E9" s="300"/>
-      <c r="F9" s="300"/>
-      <c r="G9" s="300"/>
-      <c r="H9" s="300"/>
-      <c r="I9" s="301"/>
+      <c r="D9" s="310"/>
+      <c r="E9" s="310"/>
+      <c r="F9" s="310"/>
+      <c r="G9" s="310"/>
+      <c r="H9" s="310"/>
+      <c r="I9" s="297"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -27750,19 +28035,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="303" t="s">
+      <c r="B13" s="311" t="s">
         <v>125</v>
       </c>
-      <c r="C13" s="304"/>
-      <c r="D13" s="304"/>
-      <c r="E13" s="304"/>
-      <c r="F13" s="304"/>
-      <c r="G13" s="304"/>
-      <c r="H13" s="304"/>
-      <c r="I13" s="304"/>
-      <c r="J13" s="304"/>
-      <c r="K13" s="304"/>
-      <c r="L13" s="305"/>
+      <c r="C13" s="312"/>
+      <c r="D13" s="312"/>
+      <c r="E13" s="312"/>
+      <c r="F13" s="312"/>
+      <c r="G13" s="312"/>
+      <c r="H13" s="312"/>
+      <c r="I13" s="312"/>
+      <c r="J13" s="312"/>
+      <c r="K13" s="312"/>
+      <c r="L13" s="313"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -27791,11 +28076,11 @@
       <c r="I14" s="115" t="s">
         <v>132</v>
       </c>
-      <c r="J14" s="306" t="s">
+      <c r="J14" s="314" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="306"/>
-      <c r="L14" s="306"/>
+      <c r="K14" s="314"/>
+      <c r="L14" s="314"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -27820,11 +28105,11 @@
       <c r="I15" s="130" t="s">
         <v>295</v>
       </c>
-      <c r="J15" s="293" t="s">
+      <c r="J15" s="307" t="s">
         <v>296</v>
       </c>
-      <c r="K15" s="294"/>
-      <c r="L15" s="294"/>
+      <c r="K15" s="308"/>
+      <c r="L15" s="308"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -27853,9 +28138,9 @@
       <c r="I16" s="130" t="s">
         <v>301</v>
       </c>
-      <c r="J16" s="294"/>
-      <c r="K16" s="294"/>
-      <c r="L16" s="294"/>
+      <c r="J16" s="308"/>
+      <c r="K16" s="308"/>
+      <c r="L16" s="308"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -28046,11 +28331,11 @@
     </row>
     <row r="27" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="69"/>
-      <c r="B27" s="295" t="s">
+      <c r="B27" s="309" t="s">
         <v>167</v>
       </c>
-      <c r="C27" s="295"/>
-      <c r="D27" s="295"/>
+      <c r="C27" s="309"/>
+      <c r="D27" s="309"/>
       <c r="E27" s="80"/>
       <c r="F27" s="81"/>
       <c r="G27" s="80"/>
@@ -28065,12 +28350,12 @@
     </row>
     <row r="28" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="83"/>
-      <c r="B28" s="296" t="s">
+      <c r="B28" s="302" t="s">
         <v>127</v>
       </c>
-      <c r="C28" s="297"/>
-      <c r="D28" s="297"/>
-      <c r="E28" s="298"/>
+      <c r="C28" s="303"/>
+      <c r="D28" s="303"/>
+      <c r="E28" s="304"/>
       <c r="F28" s="115" t="s">
         <v>126</v>
       </c>
@@ -28162,10 +28447,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="85"/>
       <c r="C31" s="90"/>
-      <c r="D31" s="302" t="s">
+      <c r="D31" s="296" t="s">
         <v>173</v>
       </c>
-      <c r="E31" s="301"/>
+      <c r="E31" s="297"/>
       <c r="F31" s="74" t="s">
         <v>140</v>
       </c>
@@ -28195,10 +28480,10 @@
       <c r="A32" s="66"/>
       <c r="B32" s="85"/>
       <c r="C32" s="92"/>
-      <c r="D32" s="302" t="s">
+      <c r="D32" s="296" t="s">
         <v>174</v>
       </c>
-      <c r="E32" s="301"/>
+      <c r="E32" s="297"/>
       <c r="F32" s="74" t="s">
         <v>175</v>
       </c>
@@ -28261,10 +28546,10 @@
       <c r="A34" s="66"/>
       <c r="B34" s="85"/>
       <c r="C34" s="95"/>
-      <c r="D34" s="299" t="s">
+      <c r="D34" s="298" t="s">
         <v>304</v>
       </c>
-      <c r="E34" s="301"/>
+      <c r="E34" s="297"/>
       <c r="F34" s="105" t="s">
         <v>286</v>
       </c>
@@ -28294,10 +28579,10 @@
       <c r="A35" s="66"/>
       <c r="B35" s="85"/>
       <c r="C35" s="95"/>
-      <c r="D35" s="307" t="s">
+      <c r="D35" s="299" t="s">
         <v>297</v>
       </c>
-      <c r="E35" s="308"/>
+      <c r="E35" s="300"/>
       <c r="F35" s="105" t="s">
         <v>298</v>
       </c>
@@ -28687,11 +28972,11 @@
     </row>
     <row r="56" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="66"/>
-      <c r="B56" s="309" t="s">
+      <c r="B56" s="301" t="s">
         <v>143</v>
       </c>
-      <c r="C56" s="309"/>
-      <c r="D56" s="309"/>
+      <c r="C56" s="301"/>
+      <c r="D56" s="301"/>
       <c r="E56" s="66"/>
       <c r="F56" s="66"/>
       <c r="G56" s="66"/>
@@ -28708,12 +28993,12 @@
     </row>
     <row r="57" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="83"/>
-      <c r="B57" s="296" t="s">
+      <c r="B57" s="302" t="s">
         <v>127</v>
       </c>
-      <c r="C57" s="297"/>
-      <c r="D57" s="297"/>
-      <c r="E57" s="298"/>
+      <c r="C57" s="303"/>
+      <c r="D57" s="303"/>
+      <c r="E57" s="304"/>
       <c r="F57" s="115" t="s">
         <v>126</v>
       </c>
@@ -28805,10 +29090,10 @@
       <c r="A60" s="66"/>
       <c r="B60" s="85"/>
       <c r="C60" s="90"/>
-      <c r="D60" s="299" t="s">
+      <c r="D60" s="298" t="s">
         <v>173</v>
       </c>
-      <c r="E60" s="301"/>
+      <c r="E60" s="297"/>
       <c r="F60" s="74" t="s">
         <v>140</v>
       </c>
@@ -28838,10 +29123,10 @@
       <c r="A61" s="66"/>
       <c r="B61" s="85"/>
       <c r="C61" s="90"/>
-      <c r="D61" s="299" t="s">
+      <c r="D61" s="298" t="s">
         <v>0</v>
       </c>
-      <c r="E61" s="310"/>
+      <c r="E61" s="305"/>
       <c r="F61" s="105" t="s">
         <v>191</v>
       </c>
@@ -28871,10 +29156,10 @@
       <c r="A62" s="66"/>
       <c r="B62" s="85"/>
       <c r="C62" s="90"/>
-      <c r="D62" s="311" t="s">
+      <c r="D62" s="306" t="s">
         <v>196</v>
       </c>
-      <c r="E62" s="310"/>
+      <c r="E62" s="305"/>
       <c r="F62" s="105" t="s">
         <v>194</v>
       </c>
@@ -28968,8 +29253,8 @@
       <c r="A65" s="66"/>
       <c r="B65" s="91"/>
       <c r="C65" s="92"/>
-      <c r="D65" s="302"/>
-      <c r="E65" s="301"/>
+      <c r="D65" s="296"/>
+      <c r="E65" s="297"/>
       <c r="F65" s="74"/>
       <c r="G65" s="76"/>
       <c r="H65" s="76"/>
@@ -29359,6 +29644,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="J14:L14"/>
     <mergeCell ref="D65:E65"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="D32:E32"/>
@@ -29369,16 +29664,6 @@
     <mergeCell ref="D60:E60"/>
     <mergeCell ref="D61:E61"/>
     <mergeCell ref="D62:E62"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="J14:L14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -29476,15 +29761,15 @@
       <c r="B4" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C4" s="299" t="s">
+      <c r="C4" s="298" t="s">
         <v>307</v>
       </c>
-      <c r="D4" s="300"/>
-      <c r="E4" s="300"/>
-      <c r="F4" s="300"/>
-      <c r="G4" s="300"/>
-      <c r="H4" s="300"/>
-      <c r="I4" s="301"/>
+      <c r="D4" s="310"/>
+      <c r="E4" s="310"/>
+      <c r="F4" s="310"/>
+      <c r="G4" s="310"/>
+      <c r="H4" s="310"/>
+      <c r="I4" s="297"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -29497,15 +29782,15 @@
       <c r="B5" s="70" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="299" t="s">
+      <c r="C5" s="298" t="s">
         <v>308</v>
       </c>
-      <c r="D5" s="300"/>
-      <c r="E5" s="300"/>
-      <c r="F5" s="300"/>
-      <c r="G5" s="300"/>
-      <c r="H5" s="300"/>
-      <c r="I5" s="301"/>
+      <c r="D5" s="310"/>
+      <c r="E5" s="310"/>
+      <c r="F5" s="310"/>
+      <c r="G5" s="310"/>
+      <c r="H5" s="310"/>
+      <c r="I5" s="297"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -29539,15 +29824,15 @@
       <c r="B7" s="70" t="s">
         <v>165</v>
       </c>
-      <c r="C7" s="299" t="s">
+      <c r="C7" s="298" t="s">
         <v>206</v>
       </c>
-      <c r="D7" s="300"/>
-      <c r="E7" s="300"/>
-      <c r="F7" s="300"/>
-      <c r="G7" s="300"/>
-      <c r="H7" s="300"/>
-      <c r="I7" s="301"/>
+      <c r="D7" s="310"/>
+      <c r="E7" s="310"/>
+      <c r="F7" s="310"/>
+      <c r="G7" s="310"/>
+      <c r="H7" s="310"/>
+      <c r="I7" s="297"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -29581,15 +29866,15 @@
       <c r="B9" s="70" t="s">
         <v>182</v>
       </c>
-      <c r="C9" s="302" t="s">
+      <c r="C9" s="296" t="s">
         <v>183</v>
       </c>
-      <c r="D9" s="300"/>
-      <c r="E9" s="300"/>
-      <c r="F9" s="300"/>
-      <c r="G9" s="300"/>
-      <c r="H9" s="300"/>
-      <c r="I9" s="301"/>
+      <c r="D9" s="310"/>
+      <c r="E9" s="310"/>
+      <c r="F9" s="310"/>
+      <c r="G9" s="310"/>
+      <c r="H9" s="310"/>
+      <c r="I9" s="297"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -29652,19 +29937,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="303" t="s">
+      <c r="B13" s="311" t="s">
         <v>125</v>
       </c>
-      <c r="C13" s="304"/>
-      <c r="D13" s="304"/>
-      <c r="E13" s="304"/>
-      <c r="F13" s="304"/>
-      <c r="G13" s="304"/>
-      <c r="H13" s="304"/>
-      <c r="I13" s="304"/>
-      <c r="J13" s="304"/>
-      <c r="K13" s="304"/>
-      <c r="L13" s="305"/>
+      <c r="C13" s="312"/>
+      <c r="D13" s="312"/>
+      <c r="E13" s="312"/>
+      <c r="F13" s="312"/>
+      <c r="G13" s="312"/>
+      <c r="H13" s="312"/>
+      <c r="I13" s="312"/>
+      <c r="J13" s="312"/>
+      <c r="K13" s="312"/>
+      <c r="L13" s="313"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -29693,11 +29978,11 @@
       <c r="I14" s="115" t="s">
         <v>132</v>
       </c>
-      <c r="J14" s="306" t="s">
+      <c r="J14" s="314" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="306"/>
-      <c r="L14" s="306"/>
+      <c r="K14" s="314"/>
+      <c r="L14" s="314"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -29722,11 +30007,11 @@
       <c r="I15" s="130" t="s">
         <v>289</v>
       </c>
-      <c r="J15" s="293" t="s">
+      <c r="J15" s="307" t="s">
         <v>311</v>
       </c>
-      <c r="K15" s="294"/>
-      <c r="L15" s="294"/>
+      <c r="K15" s="308"/>
+      <c r="L15" s="308"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -29751,9 +30036,9 @@
       <c r="I16" s="131" t="s">
         <v>288</v>
       </c>
-      <c r="J16" s="293"/>
-      <c r="K16" s="294"/>
-      <c r="L16" s="294"/>
+      <c r="J16" s="307"/>
+      <c r="K16" s="308"/>
+      <c r="L16" s="308"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -29915,11 +30200,11 @@
     </row>
     <row r="26" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="69"/>
-      <c r="B26" s="295" t="s">
+      <c r="B26" s="309" t="s">
         <v>167</v>
       </c>
-      <c r="C26" s="295"/>
-      <c r="D26" s="295"/>
+      <c r="C26" s="309"/>
+      <c r="D26" s="309"/>
       <c r="E26" s="80"/>
       <c r="F26" s="81"/>
       <c r="G26" s="80"/>
@@ -29934,12 +30219,12 @@
     </row>
     <row r="27" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="83"/>
-      <c r="B27" s="296" t="s">
+      <c r="B27" s="302" t="s">
         <v>127</v>
       </c>
-      <c r="C27" s="297"/>
-      <c r="D27" s="297"/>
-      <c r="E27" s="298"/>
+      <c r="C27" s="303"/>
+      <c r="D27" s="303"/>
+      <c r="E27" s="304"/>
       <c r="F27" s="115" t="s">
         <v>126</v>
       </c>
@@ -30031,10 +30316,10 @@
       <c r="A30" s="66"/>
       <c r="B30" s="85"/>
       <c r="C30" s="90"/>
-      <c r="D30" s="302" t="s">
+      <c r="D30" s="296" t="s">
         <v>173</v>
       </c>
-      <c r="E30" s="301"/>
+      <c r="E30" s="297"/>
       <c r="F30" s="74" t="s">
         <v>140</v>
       </c>
@@ -30064,10 +30349,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="85"/>
       <c r="C31" s="92"/>
-      <c r="D31" s="302" t="s">
+      <c r="D31" s="296" t="s">
         <v>174</v>
       </c>
-      <c r="E31" s="301"/>
+      <c r="E31" s="297"/>
       <c r="F31" s="74" t="s">
         <v>175</v>
       </c>
@@ -30130,10 +30415,10 @@
       <c r="A33" s="66"/>
       <c r="B33" s="85"/>
       <c r="C33" s="95"/>
-      <c r="D33" s="302" t="s">
+      <c r="D33" s="296" t="s">
         <v>141</v>
       </c>
-      <c r="E33" s="301"/>
+      <c r="E33" s="297"/>
       <c r="F33" s="74" t="s">
         <v>142</v>
       </c>
@@ -30163,10 +30448,10 @@
       <c r="A34" s="66"/>
       <c r="B34" s="85"/>
       <c r="C34" s="95"/>
-      <c r="D34" s="299" t="s">
+      <c r="D34" s="298" t="s">
         <v>310</v>
       </c>
-      <c r="E34" s="301"/>
+      <c r="E34" s="297"/>
       <c r="F34" s="105" t="s">
         <v>286</v>
       </c>
@@ -30250,10 +30535,10 @@
       <c r="A37" s="66"/>
       <c r="B37" s="91"/>
       <c r="C37" s="92"/>
-      <c r="D37" s="312" t="s">
+      <c r="D37" s="316" t="s">
         <v>319</v>
       </c>
-      <c r="E37" s="313"/>
+      <c r="E37" s="317"/>
       <c r="F37" s="139" t="s">
         <v>318</v>
       </c>
@@ -30585,11 +30870,11 @@
     </row>
     <row r="56" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="66"/>
-      <c r="B56" s="309" t="s">
+      <c r="B56" s="301" t="s">
         <v>143</v>
       </c>
-      <c r="C56" s="309"/>
-      <c r="D56" s="309"/>
+      <c r="C56" s="301"/>
+      <c r="D56" s="301"/>
       <c r="E56" s="66"/>
       <c r="F56" s="66"/>
       <c r="G56" s="66"/>
@@ -30606,12 +30891,12 @@
     </row>
     <row r="57" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="83"/>
-      <c r="B57" s="296" t="s">
+      <c r="B57" s="302" t="s">
         <v>127</v>
       </c>
-      <c r="C57" s="297"/>
-      <c r="D57" s="297"/>
-      <c r="E57" s="298"/>
+      <c r="C57" s="303"/>
+      <c r="D57" s="303"/>
+      <c r="E57" s="304"/>
       <c r="F57" s="115" t="s">
         <v>126</v>
       </c>
@@ -30703,10 +30988,10 @@
       <c r="A60" s="66"/>
       <c r="B60" s="85"/>
       <c r="C60" s="90"/>
-      <c r="D60" s="299" t="s">
+      <c r="D60" s="298" t="s">
         <v>173</v>
       </c>
-      <c r="E60" s="301"/>
+      <c r="E60" s="297"/>
       <c r="F60" s="74" t="s">
         <v>140</v>
       </c>
@@ -30736,10 +31021,10 @@
       <c r="A61" s="66"/>
       <c r="B61" s="85"/>
       <c r="C61" s="90"/>
-      <c r="D61" s="299" t="s">
+      <c r="D61" s="298" t="s">
         <v>0</v>
       </c>
-      <c r="E61" s="310"/>
+      <c r="E61" s="305"/>
       <c r="F61" s="105" t="s">
         <v>191</v>
       </c>
@@ -30769,10 +31054,10 @@
       <c r="A62" s="66"/>
       <c r="B62" s="85"/>
       <c r="C62" s="90"/>
-      <c r="D62" s="311" t="s">
+      <c r="D62" s="306" t="s">
         <v>196</v>
       </c>
-      <c r="E62" s="310"/>
+      <c r="E62" s="305"/>
       <c r="F62" s="105" t="s">
         <v>194</v>
       </c>
@@ -30837,8 +31122,8 @@
       <c r="C64" s="88" t="s">
         <v>172</v>
       </c>
-      <c r="D64" s="314"/>
-      <c r="E64" s="314"/>
+      <c r="D64" s="315"/>
+      <c r="E64" s="315"/>
       <c r="F64" s="74" t="s">
         <v>170</v>
       </c>
@@ -30866,10 +31151,10 @@
       <c r="A65" s="66"/>
       <c r="B65" s="77"/>
       <c r="C65" s="86"/>
-      <c r="D65" s="302" t="s">
+      <c r="D65" s="296" t="s">
         <v>141</v>
       </c>
-      <c r="E65" s="301"/>
+      <c r="E65" s="297"/>
       <c r="F65" s="74" t="s">
         <v>142</v>
       </c>
@@ -30899,10 +31184,10 @@
       <c r="A66" s="66"/>
       <c r="B66" s="77"/>
       <c r="C66" s="86"/>
-      <c r="D66" s="299" t="s">
+      <c r="D66" s="298" t="s">
         <v>310</v>
       </c>
-      <c r="E66" s="301"/>
+      <c r="E66" s="297"/>
       <c r="F66" s="105" t="s">
         <v>286</v>
       </c>
@@ -30986,10 +31271,10 @@
       <c r="A69" s="66"/>
       <c r="B69" s="77"/>
       <c r="C69" s="86"/>
-      <c r="D69" s="312" t="s">
+      <c r="D69" s="316" t="s">
         <v>319</v>
       </c>
-      <c r="E69" s="313"/>
+      <c r="E69" s="317"/>
       <c r="F69" s="139" t="s">
         <v>318</v>
       </c>
@@ -31372,6 +31657,16 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="D64:E64"/>
     <mergeCell ref="D69:E69"/>
@@ -31381,21 +31676,11 @@
     <mergeCell ref="D61:E61"/>
     <mergeCell ref="D62:E62"/>
     <mergeCell ref="B57:E57"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="B56:D56"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:E27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -31493,15 +31778,15 @@
       <c r="B4" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C4" s="299" t="s">
+      <c r="C4" s="298" t="s">
         <v>313</v>
       </c>
-      <c r="D4" s="300"/>
-      <c r="E4" s="300"/>
-      <c r="F4" s="300"/>
-      <c r="G4" s="300"/>
-      <c r="H4" s="300"/>
-      <c r="I4" s="301"/>
+      <c r="D4" s="310"/>
+      <c r="E4" s="310"/>
+      <c r="F4" s="310"/>
+      <c r="G4" s="310"/>
+      <c r="H4" s="310"/>
+      <c r="I4" s="297"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -31514,15 +31799,15 @@
       <c r="B5" s="70" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="299" t="s">
+      <c r="C5" s="298" t="s">
         <v>314</v>
       </c>
-      <c r="D5" s="300"/>
-      <c r="E5" s="300"/>
-      <c r="F5" s="300"/>
-      <c r="G5" s="300"/>
-      <c r="H5" s="300"/>
-      <c r="I5" s="301"/>
+      <c r="D5" s="310"/>
+      <c r="E5" s="310"/>
+      <c r="F5" s="310"/>
+      <c r="G5" s="310"/>
+      <c r="H5" s="310"/>
+      <c r="I5" s="297"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -31556,15 +31841,15 @@
       <c r="B7" s="70" t="s">
         <v>165</v>
       </c>
-      <c r="C7" s="299" t="s">
+      <c r="C7" s="298" t="s">
         <v>206</v>
       </c>
-      <c r="D7" s="300"/>
-      <c r="E7" s="300"/>
-      <c r="F7" s="300"/>
-      <c r="G7" s="300"/>
-      <c r="H7" s="300"/>
-      <c r="I7" s="301"/>
+      <c r="D7" s="310"/>
+      <c r="E7" s="310"/>
+      <c r="F7" s="310"/>
+      <c r="G7" s="310"/>
+      <c r="H7" s="310"/>
+      <c r="I7" s="297"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -31598,15 +31883,15 @@
       <c r="B9" s="70" t="s">
         <v>182</v>
       </c>
-      <c r="C9" s="302" t="s">
+      <c r="C9" s="296" t="s">
         <v>183</v>
       </c>
-      <c r="D9" s="300"/>
-      <c r="E9" s="300"/>
-      <c r="F9" s="300"/>
-      <c r="G9" s="300"/>
-      <c r="H9" s="300"/>
-      <c r="I9" s="301"/>
+      <c r="D9" s="310"/>
+      <c r="E9" s="310"/>
+      <c r="F9" s="310"/>
+      <c r="G9" s="310"/>
+      <c r="H9" s="310"/>
+      <c r="I9" s="297"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -31669,19 +31954,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="303" t="s">
+      <c r="B13" s="311" t="s">
         <v>125</v>
       </c>
-      <c r="C13" s="304"/>
-      <c r="D13" s="304"/>
-      <c r="E13" s="304"/>
-      <c r="F13" s="304"/>
-      <c r="G13" s="304"/>
-      <c r="H13" s="304"/>
-      <c r="I13" s="304"/>
-      <c r="J13" s="304"/>
-      <c r="K13" s="304"/>
-      <c r="L13" s="305"/>
+      <c r="C13" s="312"/>
+      <c r="D13" s="312"/>
+      <c r="E13" s="312"/>
+      <c r="F13" s="312"/>
+      <c r="G13" s="312"/>
+      <c r="H13" s="312"/>
+      <c r="I13" s="312"/>
+      <c r="J13" s="312"/>
+      <c r="K13" s="312"/>
+      <c r="L13" s="313"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -31710,11 +31995,11 @@
       <c r="I14" s="115" t="s">
         <v>132</v>
       </c>
-      <c r="J14" s="306" t="s">
+      <c r="J14" s="314" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="306"/>
-      <c r="L14" s="306"/>
+      <c r="K14" s="314"/>
+      <c r="L14" s="314"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -31739,11 +32024,11 @@
       <c r="I15" s="130" t="s">
         <v>289</v>
       </c>
-      <c r="J15" s="293" t="s">
+      <c r="J15" s="307" t="s">
         <v>316</v>
       </c>
-      <c r="K15" s="294"/>
-      <c r="L15" s="294"/>
+      <c r="K15" s="308"/>
+      <c r="L15" s="308"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -31768,9 +32053,9 @@
       <c r="I16" s="131" t="s">
         <v>288</v>
       </c>
-      <c r="J16" s="293"/>
-      <c r="K16" s="294"/>
-      <c r="L16" s="294"/>
+      <c r="J16" s="307"/>
+      <c r="K16" s="308"/>
+      <c r="L16" s="308"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -31932,11 +32217,11 @@
     </row>
     <row r="26" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="69"/>
-      <c r="B26" s="295" t="s">
+      <c r="B26" s="309" t="s">
         <v>167</v>
       </c>
-      <c r="C26" s="295"/>
-      <c r="D26" s="295"/>
+      <c r="C26" s="309"/>
+      <c r="D26" s="309"/>
       <c r="E26" s="80"/>
       <c r="F26" s="81"/>
       <c r="G26" s="80"/>
@@ -31951,12 +32236,12 @@
     </row>
     <row r="27" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="83"/>
-      <c r="B27" s="296" t="s">
+      <c r="B27" s="302" t="s">
         <v>127</v>
       </c>
-      <c r="C27" s="297"/>
-      <c r="D27" s="297"/>
-      <c r="E27" s="298"/>
+      <c r="C27" s="303"/>
+      <c r="D27" s="303"/>
+      <c r="E27" s="304"/>
       <c r="F27" s="115" t="s">
         <v>126</v>
       </c>
@@ -32048,10 +32333,10 @@
       <c r="A30" s="66"/>
       <c r="B30" s="85"/>
       <c r="C30" s="90"/>
-      <c r="D30" s="302" t="s">
+      <c r="D30" s="296" t="s">
         <v>173</v>
       </c>
-      <c r="E30" s="301"/>
+      <c r="E30" s="297"/>
       <c r="F30" s="74" t="s">
         <v>140</v>
       </c>
@@ -32081,10 +32366,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="85"/>
       <c r="C31" s="92"/>
-      <c r="D31" s="302" t="s">
+      <c r="D31" s="296" t="s">
         <v>174</v>
       </c>
-      <c r="E31" s="301"/>
+      <c r="E31" s="297"/>
       <c r="F31" s="74" t="s">
         <v>175</v>
       </c>
@@ -32147,10 +32432,10 @@
       <c r="A33" s="66"/>
       <c r="B33" s="85"/>
       <c r="C33" s="95"/>
-      <c r="D33" s="302" t="s">
+      <c r="D33" s="296" t="s">
         <v>141</v>
       </c>
-      <c r="E33" s="301"/>
+      <c r="E33" s="297"/>
       <c r="F33" s="74" t="s">
         <v>142</v>
       </c>
@@ -32180,10 +32465,10 @@
       <c r="A34" s="66"/>
       <c r="B34" s="85"/>
       <c r="C34" s="95"/>
-      <c r="D34" s="299" t="s">
+      <c r="D34" s="298" t="s">
         <v>310</v>
       </c>
-      <c r="E34" s="301"/>
+      <c r="E34" s="297"/>
       <c r="F34" s="105" t="s">
         <v>286</v>
       </c>
@@ -32267,10 +32552,10 @@
       <c r="A37" s="66"/>
       <c r="B37" s="91"/>
       <c r="C37" s="92"/>
-      <c r="D37" s="312" t="s">
+      <c r="D37" s="316" t="s">
         <v>319</v>
       </c>
-      <c r="E37" s="313"/>
+      <c r="E37" s="317"/>
       <c r="F37" s="137" t="s">
         <v>318</v>
       </c>
@@ -32602,11 +32887,11 @@
     </row>
     <row r="56" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="66"/>
-      <c r="B56" s="309" t="s">
+      <c r="B56" s="301" t="s">
         <v>143</v>
       </c>
-      <c r="C56" s="309"/>
-      <c r="D56" s="309"/>
+      <c r="C56" s="301"/>
+      <c r="D56" s="301"/>
       <c r="E56" s="66"/>
       <c r="F56" s="66"/>
       <c r="G56" s="66"/>
@@ -32623,12 +32908,12 @@
     </row>
     <row r="57" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="83"/>
-      <c r="B57" s="296" t="s">
+      <c r="B57" s="302" t="s">
         <v>127</v>
       </c>
-      <c r="C57" s="297"/>
-      <c r="D57" s="297"/>
-      <c r="E57" s="298"/>
+      <c r="C57" s="303"/>
+      <c r="D57" s="303"/>
+      <c r="E57" s="304"/>
       <c r="F57" s="151" t="s">
         <v>126</v>
       </c>
@@ -32720,10 +33005,10 @@
       <c r="A60" s="66"/>
       <c r="B60" s="85"/>
       <c r="C60" s="90"/>
-      <c r="D60" s="299" t="s">
+      <c r="D60" s="298" t="s">
         <v>173</v>
       </c>
-      <c r="E60" s="301"/>
+      <c r="E60" s="297"/>
       <c r="F60" s="74" t="s">
         <v>140</v>
       </c>
@@ -32753,10 +33038,10 @@
       <c r="A61" s="66"/>
       <c r="B61" s="85"/>
       <c r="C61" s="90"/>
-      <c r="D61" s="299" t="s">
+      <c r="D61" s="298" t="s">
         <v>0</v>
       </c>
-      <c r="E61" s="310"/>
+      <c r="E61" s="305"/>
       <c r="F61" s="105" t="s">
         <v>191</v>
       </c>
@@ -32786,10 +33071,10 @@
       <c r="A62" s="66"/>
       <c r="B62" s="85"/>
       <c r="C62" s="90"/>
-      <c r="D62" s="311" t="s">
+      <c r="D62" s="306" t="s">
         <v>196</v>
       </c>
-      <c r="E62" s="310"/>
+      <c r="E62" s="305"/>
       <c r="F62" s="105" t="s">
         <v>194</v>
       </c>
@@ -32854,8 +33139,8 @@
       <c r="C64" s="88" t="s">
         <v>172</v>
       </c>
-      <c r="D64" s="314"/>
-      <c r="E64" s="314"/>
+      <c r="D64" s="315"/>
+      <c r="E64" s="315"/>
       <c r="F64" s="74" t="s">
         <v>170</v>
       </c>
@@ -32883,10 +33168,10 @@
       <c r="A65" s="66"/>
       <c r="B65" s="77"/>
       <c r="C65" s="86"/>
-      <c r="D65" s="302" t="s">
+      <c r="D65" s="296" t="s">
         <v>141</v>
       </c>
-      <c r="E65" s="301"/>
+      <c r="E65" s="297"/>
       <c r="F65" s="74" t="s">
         <v>142</v>
       </c>
@@ -32916,10 +33201,10 @@
       <c r="A66" s="66"/>
       <c r="B66" s="77"/>
       <c r="C66" s="86"/>
-      <c r="D66" s="299" t="s">
+      <c r="D66" s="298" t="s">
         <v>310</v>
       </c>
-      <c r="E66" s="301"/>
+      <c r="E66" s="297"/>
       <c r="F66" s="105" t="s">
         <v>286</v>
       </c>
@@ -33003,10 +33288,10 @@
       <c r="A69" s="66"/>
       <c r="B69" s="77"/>
       <c r="C69" s="86"/>
-      <c r="D69" s="312" t="s">
+      <c r="D69" s="316" t="s">
         <v>319</v>
       </c>
-      <c r="E69" s="313"/>
+      <c r="E69" s="317"/>
       <c r="F69" s="139" t="s">
         <v>318</v>
       </c>
@@ -33363,16 +33648,7 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D33:E33"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
@@ -33385,8 +33661,17 @@
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B27:E27"/>
     <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D61:E61"/>
     <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D33:E33"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -33484,15 +33769,15 @@
       <c r="B4" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C4" s="299" t="s">
+      <c r="C4" s="298" t="s">
         <v>329</v>
       </c>
-      <c r="D4" s="300"/>
-      <c r="E4" s="300"/>
-      <c r="F4" s="300"/>
-      <c r="G4" s="300"/>
-      <c r="H4" s="300"/>
-      <c r="I4" s="301"/>
+      <c r="D4" s="310"/>
+      <c r="E4" s="310"/>
+      <c r="F4" s="310"/>
+      <c r="G4" s="310"/>
+      <c r="H4" s="310"/>
+      <c r="I4" s="297"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -33505,15 +33790,15 @@
       <c r="B5" s="70" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="299" t="s">
+      <c r="C5" s="298" t="s">
         <v>330</v>
       </c>
-      <c r="D5" s="300"/>
-      <c r="E5" s="300"/>
-      <c r="F5" s="300"/>
-      <c r="G5" s="300"/>
-      <c r="H5" s="300"/>
-      <c r="I5" s="301"/>
+      <c r="D5" s="310"/>
+      <c r="E5" s="310"/>
+      <c r="F5" s="310"/>
+      <c r="G5" s="310"/>
+      <c r="H5" s="310"/>
+      <c r="I5" s="297"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -33547,15 +33832,15 @@
       <c r="B7" s="70" t="s">
         <v>165</v>
       </c>
-      <c r="C7" s="299" t="s">
+      <c r="C7" s="298" t="s">
         <v>206</v>
       </c>
-      <c r="D7" s="300"/>
-      <c r="E7" s="300"/>
-      <c r="F7" s="300"/>
-      <c r="G7" s="300"/>
-      <c r="H7" s="300"/>
-      <c r="I7" s="301"/>
+      <c r="D7" s="310"/>
+      <c r="E7" s="310"/>
+      <c r="F7" s="310"/>
+      <c r="G7" s="310"/>
+      <c r="H7" s="310"/>
+      <c r="I7" s="297"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -33589,15 +33874,15 @@
       <c r="B9" s="70" t="s">
         <v>182</v>
       </c>
-      <c r="C9" s="302" t="s">
+      <c r="C9" s="296" t="s">
         <v>183</v>
       </c>
-      <c r="D9" s="300"/>
-      <c r="E9" s="300"/>
-      <c r="F9" s="300"/>
-      <c r="G9" s="300"/>
-      <c r="H9" s="300"/>
-      <c r="I9" s="301"/>
+      <c r="D9" s="310"/>
+      <c r="E9" s="310"/>
+      <c r="F9" s="310"/>
+      <c r="G9" s="310"/>
+      <c r="H9" s="310"/>
+      <c r="I9" s="297"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -33660,19 +33945,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="303" t="s">
+      <c r="B13" s="311" t="s">
         <v>125</v>
       </c>
-      <c r="C13" s="304"/>
-      <c r="D13" s="304"/>
-      <c r="E13" s="304"/>
-      <c r="F13" s="304"/>
-      <c r="G13" s="304"/>
-      <c r="H13" s="304"/>
-      <c r="I13" s="304"/>
-      <c r="J13" s="304"/>
-      <c r="K13" s="304"/>
-      <c r="L13" s="305"/>
+      <c r="C13" s="312"/>
+      <c r="D13" s="312"/>
+      <c r="E13" s="312"/>
+      <c r="F13" s="312"/>
+      <c r="G13" s="312"/>
+      <c r="H13" s="312"/>
+      <c r="I13" s="312"/>
+      <c r="J13" s="312"/>
+      <c r="K13" s="312"/>
+      <c r="L13" s="313"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -33701,11 +33986,11 @@
       <c r="I14" s="115" t="s">
         <v>132</v>
       </c>
-      <c r="J14" s="306" t="s">
+      <c r="J14" s="314" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="306"/>
-      <c r="L14" s="306"/>
+      <c r="K14" s="314"/>
+      <c r="L14" s="314"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -33730,11 +34015,11 @@
       <c r="I15" s="130" t="s">
         <v>295</v>
       </c>
-      <c r="J15" s="293" t="s">
+      <c r="J15" s="307" t="s">
         <v>332</v>
       </c>
-      <c r="K15" s="294"/>
-      <c r="L15" s="294"/>
+      <c r="K15" s="308"/>
+      <c r="L15" s="308"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -33759,9 +34044,9 @@
       <c r="I16" s="130" t="s">
         <v>288</v>
       </c>
-      <c r="J16" s="294"/>
-      <c r="K16" s="294"/>
-      <c r="L16" s="294"/>
+      <c r="J16" s="308"/>
+      <c r="K16" s="308"/>
+      <c r="L16" s="308"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -33979,11 +34264,11 @@
     </row>
     <row r="28" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="69"/>
-      <c r="B28" s="295" t="s">
+      <c r="B28" s="309" t="s">
         <v>167</v>
       </c>
-      <c r="C28" s="295"/>
-      <c r="D28" s="295"/>
+      <c r="C28" s="309"/>
+      <c r="D28" s="309"/>
       <c r="E28" s="80"/>
       <c r="F28" s="81"/>
       <c r="G28" s="80"/>
@@ -33998,12 +34283,12 @@
     </row>
     <row r="29" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="83"/>
-      <c r="B29" s="296" t="s">
+      <c r="B29" s="302" t="s">
         <v>127</v>
       </c>
-      <c r="C29" s="297"/>
-      <c r="D29" s="297"/>
-      <c r="E29" s="298"/>
+      <c r="C29" s="303"/>
+      <c r="D29" s="303"/>
+      <c r="E29" s="304"/>
       <c r="F29" s="115" t="s">
         <v>126</v>
       </c>
@@ -34095,10 +34380,10 @@
       <c r="A32" s="66"/>
       <c r="B32" s="85"/>
       <c r="C32" s="90"/>
-      <c r="D32" s="302" t="s">
+      <c r="D32" s="296" t="s">
         <v>173</v>
       </c>
-      <c r="E32" s="301"/>
+      <c r="E32" s="297"/>
       <c r="F32" s="74" t="s">
         <v>140</v>
       </c>
@@ -34128,10 +34413,10 @@
       <c r="A33" s="66"/>
       <c r="B33" s="85"/>
       <c r="C33" s="92"/>
-      <c r="D33" s="302" t="s">
+      <c r="D33" s="296" t="s">
         <v>174</v>
       </c>
-      <c r="E33" s="301"/>
+      <c r="E33" s="297"/>
       <c r="F33" s="74" t="s">
         <v>175</v>
       </c>
@@ -34194,10 +34479,10 @@
       <c r="A35" s="66"/>
       <c r="B35" s="85"/>
       <c r="C35" s="95"/>
-      <c r="D35" s="299" t="s">
+      <c r="D35" s="298" t="s">
         <v>304</v>
       </c>
-      <c r="E35" s="301"/>
+      <c r="E35" s="297"/>
       <c r="F35" s="105" t="s">
         <v>286</v>
       </c>
@@ -34227,10 +34512,10 @@
       <c r="A36" s="66"/>
       <c r="B36" s="85"/>
       <c r="C36" s="95"/>
-      <c r="D36" s="307" t="s">
+      <c r="D36" s="299" t="s">
         <v>297</v>
       </c>
-      <c r="E36" s="308"/>
+      <c r="E36" s="300"/>
       <c r="F36" s="105" t="s">
         <v>298</v>
       </c>
@@ -34314,10 +34599,10 @@
       <c r="A39" s="66"/>
       <c r="B39" s="85"/>
       <c r="C39" s="95"/>
-      <c r="D39" s="312" t="s">
+      <c r="D39" s="316" t="s">
         <v>299</v>
       </c>
-      <c r="E39" s="313"/>
+      <c r="E39" s="317"/>
       <c r="F39" s="137" t="s">
         <v>300</v>
       </c>
@@ -34649,11 +34934,11 @@
     </row>
     <row r="58" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A58" s="66"/>
-      <c r="B58" s="309" t="s">
+      <c r="B58" s="301" t="s">
         <v>143</v>
       </c>
-      <c r="C58" s="309"/>
-      <c r="D58" s="309"/>
+      <c r="C58" s="301"/>
+      <c r="D58" s="301"/>
       <c r="E58" s="66"/>
       <c r="F58" s="66"/>
       <c r="G58" s="66"/>
@@ -34670,12 +34955,12 @@
     </row>
     <row r="59" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A59" s="83"/>
-      <c r="B59" s="296" t="s">
+      <c r="B59" s="302" t="s">
         <v>127</v>
       </c>
-      <c r="C59" s="297"/>
-      <c r="D59" s="297"/>
-      <c r="E59" s="298"/>
+      <c r="C59" s="303"/>
+      <c r="D59" s="303"/>
+      <c r="E59" s="304"/>
       <c r="F59" s="115" t="s">
         <v>126</v>
       </c>
@@ -34767,10 +35052,10 @@
       <c r="A62" s="66"/>
       <c r="B62" s="85"/>
       <c r="C62" s="90"/>
-      <c r="D62" s="299" t="s">
+      <c r="D62" s="298" t="s">
         <v>173</v>
       </c>
-      <c r="E62" s="301"/>
+      <c r="E62" s="297"/>
       <c r="F62" s="74" t="s">
         <v>140</v>
       </c>
@@ -34800,10 +35085,10 @@
       <c r="A63" s="66"/>
       <c r="B63" s="85"/>
       <c r="C63" s="90"/>
-      <c r="D63" s="299" t="s">
+      <c r="D63" s="298" t="s">
         <v>0</v>
       </c>
-      <c r="E63" s="310"/>
+      <c r="E63" s="305"/>
       <c r="F63" s="105" t="s">
         <v>191</v>
       </c>
@@ -34833,10 +35118,10 @@
       <c r="A64" s="66"/>
       <c r="B64" s="85"/>
       <c r="C64" s="90"/>
-      <c r="D64" s="311" t="s">
+      <c r="D64" s="306" t="s">
         <v>196</v>
       </c>
-      <c r="E64" s="310"/>
+      <c r="E64" s="305"/>
       <c r="F64" s="105" t="s">
         <v>194</v>
       </c>
@@ -34930,10 +35215,10 @@
       <c r="A67" s="66"/>
       <c r="B67" s="93"/>
       <c r="C67" s="86"/>
-      <c r="D67" s="299" t="s">
+      <c r="D67" s="298" t="s">
         <v>304</v>
       </c>
-      <c r="E67" s="301"/>
+      <c r="E67" s="297"/>
       <c r="F67" s="105" t="s">
         <v>286</v>
       </c>
@@ -34963,10 +35248,10 @@
       <c r="A68" s="66"/>
       <c r="B68" s="93"/>
       <c r="C68" s="86"/>
-      <c r="D68" s="307" t="s">
+      <c r="D68" s="299" t="s">
         <v>297</v>
       </c>
-      <c r="E68" s="308"/>
+      <c r="E68" s="300"/>
       <c r="F68" s="105" t="s">
         <v>298</v>
       </c>
@@ -35050,10 +35335,10 @@
       <c r="A71" s="66"/>
       <c r="B71" s="66"/>
       <c r="C71" s="66"/>
-      <c r="D71" s="312" t="s">
+      <c r="D71" s="316" t="s">
         <v>299</v>
       </c>
-      <c r="E71" s="313"/>
+      <c r="E71" s="317"/>
       <c r="F71" s="137" t="s">
         <v>300</v>
       </c>
@@ -35081,8 +35366,8 @@
         <v>181</v>
       </c>
       <c r="C72" s="66"/>
-      <c r="D72" s="315"/>
-      <c r="E72" s="316"/>
+      <c r="D72" s="318"/>
+      <c r="E72" s="319"/>
       <c r="F72" s="75"/>
       <c r="G72" s="75"/>
       <c r="H72" s="75"/>
@@ -35385,16 +35670,7 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D35:E35"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
@@ -35407,8 +35683,17 @@
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="B29:E29"/>
     <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D63:E63"/>
     <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D35:E35"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -35506,15 +35791,15 @@
       <c r="B4" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C4" s="299" t="s">
+      <c r="C4" s="298" t="s">
         <v>340</v>
       </c>
-      <c r="D4" s="300"/>
-      <c r="E4" s="300"/>
-      <c r="F4" s="300"/>
-      <c r="G4" s="300"/>
-      <c r="H4" s="300"/>
-      <c r="I4" s="301"/>
+      <c r="D4" s="310"/>
+      <c r="E4" s="310"/>
+      <c r="F4" s="310"/>
+      <c r="G4" s="310"/>
+      <c r="H4" s="310"/>
+      <c r="I4" s="297"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -35527,15 +35812,15 @@
       <c r="B5" s="70" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="299" t="s">
+      <c r="C5" s="298" t="s">
         <v>341</v>
       </c>
-      <c r="D5" s="300"/>
-      <c r="E5" s="300"/>
-      <c r="F5" s="300"/>
-      <c r="G5" s="300"/>
-      <c r="H5" s="300"/>
-      <c r="I5" s="301"/>
+      <c r="D5" s="310"/>
+      <c r="E5" s="310"/>
+      <c r="F5" s="310"/>
+      <c r="G5" s="310"/>
+      <c r="H5" s="310"/>
+      <c r="I5" s="297"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -35569,15 +35854,15 @@
       <c r="B7" s="70" t="s">
         <v>165</v>
       </c>
-      <c r="C7" s="299" t="s">
+      <c r="C7" s="298" t="s">
         <v>225</v>
       </c>
-      <c r="D7" s="300"/>
-      <c r="E7" s="300"/>
-      <c r="F7" s="300"/>
-      <c r="G7" s="300"/>
-      <c r="H7" s="300"/>
-      <c r="I7" s="301"/>
+      <c r="D7" s="310"/>
+      <c r="E7" s="310"/>
+      <c r="F7" s="310"/>
+      <c r="G7" s="310"/>
+      <c r="H7" s="310"/>
+      <c r="I7" s="297"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -35611,15 +35896,15 @@
       <c r="B9" s="70" t="s">
         <v>182</v>
       </c>
-      <c r="C9" s="302" t="s">
+      <c r="C9" s="296" t="s">
         <v>183</v>
       </c>
-      <c r="D9" s="300"/>
-      <c r="E9" s="300"/>
-      <c r="F9" s="300"/>
-      <c r="G9" s="300"/>
-      <c r="H9" s="300"/>
-      <c r="I9" s="301"/>
+      <c r="D9" s="310"/>
+      <c r="E9" s="310"/>
+      <c r="F9" s="310"/>
+      <c r="G9" s="310"/>
+      <c r="H9" s="310"/>
+      <c r="I9" s="297"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -35682,19 +35967,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="303" t="s">
+      <c r="B13" s="311" t="s">
         <v>125</v>
       </c>
-      <c r="C13" s="304"/>
-      <c r="D13" s="304"/>
-      <c r="E13" s="304"/>
-      <c r="F13" s="304"/>
-      <c r="G13" s="304"/>
-      <c r="H13" s="304"/>
-      <c r="I13" s="304"/>
-      <c r="J13" s="304"/>
-      <c r="K13" s="304"/>
-      <c r="L13" s="305"/>
+      <c r="C13" s="312"/>
+      <c r="D13" s="312"/>
+      <c r="E13" s="312"/>
+      <c r="F13" s="312"/>
+      <c r="G13" s="312"/>
+      <c r="H13" s="312"/>
+      <c r="I13" s="312"/>
+      <c r="J13" s="312"/>
+      <c r="K13" s="312"/>
+      <c r="L13" s="313"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -35723,11 +36008,11 @@
       <c r="I14" s="115" t="s">
         <v>132</v>
       </c>
-      <c r="J14" s="306" t="s">
+      <c r="J14" s="314" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="306"/>
-      <c r="L14" s="306"/>
+      <c r="K14" s="314"/>
+      <c r="L14" s="314"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -35752,11 +36037,11 @@
       <c r="I15" s="130" t="s">
         <v>289</v>
       </c>
-      <c r="J15" s="293" t="s">
+      <c r="J15" s="307" t="s">
         <v>342</v>
       </c>
-      <c r="K15" s="294"/>
-      <c r="L15" s="294"/>
+      <c r="K15" s="308"/>
+      <c r="L15" s="308"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -35781,9 +36066,9 @@
       <c r="I16" s="131" t="s">
         <v>288</v>
       </c>
-      <c r="J16" s="293"/>
-      <c r="K16" s="294"/>
-      <c r="L16" s="294"/>
+      <c r="J16" s="307"/>
+      <c r="K16" s="308"/>
+      <c r="L16" s="308"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -35945,11 +36230,11 @@
     </row>
     <row r="26" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="69"/>
-      <c r="B26" s="295" t="s">
+      <c r="B26" s="309" t="s">
         <v>167</v>
       </c>
-      <c r="C26" s="295"/>
-      <c r="D26" s="295"/>
+      <c r="C26" s="309"/>
+      <c r="D26" s="309"/>
       <c r="E26" s="80"/>
       <c r="F26" s="81"/>
       <c r="G26" s="80"/>
@@ -35964,12 +36249,12 @@
     </row>
     <row r="27" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="83"/>
-      <c r="B27" s="296" t="s">
+      <c r="B27" s="302" t="s">
         <v>127</v>
       </c>
-      <c r="C27" s="297"/>
-      <c r="D27" s="297"/>
-      <c r="E27" s="298"/>
+      <c r="C27" s="303"/>
+      <c r="D27" s="303"/>
+      <c r="E27" s="304"/>
       <c r="F27" s="115" t="s">
         <v>126</v>
       </c>
@@ -36061,10 +36346,10 @@
       <c r="A30" s="66"/>
       <c r="B30" s="85"/>
       <c r="C30" s="90"/>
-      <c r="D30" s="302" t="s">
+      <c r="D30" s="296" t="s">
         <v>173</v>
       </c>
-      <c r="E30" s="301"/>
+      <c r="E30" s="297"/>
       <c r="F30" s="74" t="s">
         <v>140</v>
       </c>
@@ -36094,10 +36379,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="85"/>
       <c r="C31" s="92"/>
-      <c r="D31" s="302" t="s">
+      <c r="D31" s="296" t="s">
         <v>174</v>
       </c>
-      <c r="E31" s="301"/>
+      <c r="E31" s="297"/>
       <c r="F31" s="74" t="s">
         <v>175</v>
       </c>
@@ -36160,8 +36445,8 @@
       <c r="A33" s="66"/>
       <c r="B33" s="85"/>
       <c r="C33" s="95"/>
-      <c r="D33" s="302"/>
-      <c r="E33" s="301"/>
+      <c r="D33" s="296"/>
+      <c r="E33" s="297"/>
       <c r="F33" s="74"/>
       <c r="G33" s="76"/>
       <c r="H33" s="76"/>
@@ -36483,11 +36768,11 @@
     </row>
     <row r="52" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="66"/>
-      <c r="B52" s="309" t="s">
+      <c r="B52" s="301" t="s">
         <v>143</v>
       </c>
-      <c r="C52" s="309"/>
-      <c r="D52" s="309"/>
+      <c r="C52" s="301"/>
+      <c r="D52" s="301"/>
       <c r="E52" s="66"/>
       <c r="F52" s="66"/>
       <c r="G52" s="66"/>
@@ -36504,12 +36789,12 @@
     </row>
     <row r="53" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A53" s="83"/>
-      <c r="B53" s="296" t="s">
+      <c r="B53" s="302" t="s">
         <v>127</v>
       </c>
-      <c r="C53" s="297"/>
-      <c r="D53" s="297"/>
-      <c r="E53" s="298"/>
+      <c r="C53" s="303"/>
+      <c r="D53" s="303"/>
+      <c r="E53" s="304"/>
       <c r="F53" s="115" t="s">
         <v>126</v>
       </c>
@@ -36601,10 +36886,10 @@
       <c r="A56" s="66"/>
       <c r="B56" s="85"/>
       <c r="C56" s="90"/>
-      <c r="D56" s="299" t="s">
+      <c r="D56" s="298" t="s">
         <v>173</v>
       </c>
-      <c r="E56" s="301"/>
+      <c r="E56" s="297"/>
       <c r="F56" s="74" t="s">
         <v>140</v>
       </c>
@@ -36634,10 +36919,10 @@
       <c r="A57" s="66"/>
       <c r="B57" s="85"/>
       <c r="C57" s="90"/>
-      <c r="D57" s="299" t="s">
+      <c r="D57" s="298" t="s">
         <v>0</v>
       </c>
-      <c r="E57" s="310"/>
+      <c r="E57" s="305"/>
       <c r="F57" s="105" t="s">
         <v>191</v>
       </c>
@@ -36667,10 +36952,10 @@
       <c r="A58" s="66"/>
       <c r="B58" s="85"/>
       <c r="C58" s="90"/>
-      <c r="D58" s="311" t="s">
+      <c r="D58" s="306" t="s">
         <v>196</v>
       </c>
-      <c r="E58" s="310"/>
+      <c r="E58" s="305"/>
       <c r="F58" s="105" t="s">
         <v>194</v>
       </c>
@@ -37130,12 +37415,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="D56:E56"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
@@ -37148,6 +37427,12 @@
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B27:E27"/>
     <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="D56:E56"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -37245,15 +37530,15 @@
       <c r="B4" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C4" s="299" t="s">
+      <c r="C4" s="298" t="s">
         <v>219</v>
       </c>
-      <c r="D4" s="300"/>
-      <c r="E4" s="300"/>
-      <c r="F4" s="300"/>
-      <c r="G4" s="300"/>
-      <c r="H4" s="300"/>
-      <c r="I4" s="301"/>
+      <c r="D4" s="310"/>
+      <c r="E4" s="310"/>
+      <c r="F4" s="310"/>
+      <c r="G4" s="310"/>
+      <c r="H4" s="310"/>
+      <c r="I4" s="297"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -37266,15 +37551,15 @@
       <c r="B5" s="70" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="299" t="s">
+      <c r="C5" s="298" t="s">
         <v>321</v>
       </c>
-      <c r="D5" s="300"/>
-      <c r="E5" s="300"/>
-      <c r="F5" s="300"/>
-      <c r="G5" s="300"/>
-      <c r="H5" s="300"/>
-      <c r="I5" s="301"/>
+      <c r="D5" s="310"/>
+      <c r="E5" s="310"/>
+      <c r="F5" s="310"/>
+      <c r="G5" s="310"/>
+      <c r="H5" s="310"/>
+      <c r="I5" s="297"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -37308,15 +37593,15 @@
       <c r="B7" s="70" t="s">
         <v>165</v>
       </c>
-      <c r="C7" s="299" t="s">
+      <c r="C7" s="298" t="s">
         <v>207</v>
       </c>
-      <c r="D7" s="300"/>
-      <c r="E7" s="300"/>
-      <c r="F7" s="300"/>
-      <c r="G7" s="300"/>
-      <c r="H7" s="300"/>
-      <c r="I7" s="301"/>
+      <c r="D7" s="310"/>
+      <c r="E7" s="310"/>
+      <c r="F7" s="310"/>
+      <c r="G7" s="310"/>
+      <c r="H7" s="310"/>
+      <c r="I7" s="297"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -37350,15 +37635,15 @@
       <c r="B9" s="70" t="s">
         <v>182</v>
       </c>
-      <c r="C9" s="302" t="s">
+      <c r="C9" s="296" t="s">
         <v>183</v>
       </c>
-      <c r="D9" s="300"/>
-      <c r="E9" s="300"/>
-      <c r="F9" s="300"/>
-      <c r="G9" s="300"/>
-      <c r="H9" s="300"/>
-      <c r="I9" s="301"/>
+      <c r="D9" s="310"/>
+      <c r="E9" s="310"/>
+      <c r="F9" s="310"/>
+      <c r="G9" s="310"/>
+      <c r="H9" s="310"/>
+      <c r="I9" s="297"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -37421,19 +37706,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="303" t="s">
+      <c r="B13" s="311" t="s">
         <v>125</v>
       </c>
-      <c r="C13" s="304"/>
-      <c r="D13" s="304"/>
-      <c r="E13" s="304"/>
-      <c r="F13" s="304"/>
-      <c r="G13" s="304"/>
-      <c r="H13" s="304"/>
-      <c r="I13" s="304"/>
-      <c r="J13" s="304"/>
-      <c r="K13" s="304"/>
-      <c r="L13" s="305"/>
+      <c r="C13" s="312"/>
+      <c r="D13" s="312"/>
+      <c r="E13" s="312"/>
+      <c r="F13" s="312"/>
+      <c r="G13" s="312"/>
+      <c r="H13" s="312"/>
+      <c r="I13" s="312"/>
+      <c r="J13" s="312"/>
+      <c r="K13" s="312"/>
+      <c r="L13" s="313"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -37462,11 +37747,11 @@
       <c r="I14" s="115" t="s">
         <v>132</v>
       </c>
-      <c r="J14" s="306" t="s">
+      <c r="J14" s="314" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="306"/>
-      <c r="L14" s="306"/>
+      <c r="K14" s="314"/>
+      <c r="L14" s="314"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -37481,9 +37766,9 @@
       <c r="G15" s="76"/>
       <c r="H15" s="76"/>
       <c r="I15" s="130"/>
-      <c r="J15" s="293"/>
-      <c r="K15" s="294"/>
-      <c r="L15" s="294"/>
+      <c r="J15" s="307"/>
+      <c r="K15" s="308"/>
+      <c r="L15" s="308"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -37498,9 +37783,9 @@
       <c r="G16" s="76"/>
       <c r="H16" s="76"/>
       <c r="I16" s="130"/>
-      <c r="J16" s="294"/>
-      <c r="K16" s="294"/>
-      <c r="L16" s="294"/>
+      <c r="J16" s="308"/>
+      <c r="K16" s="308"/>
+      <c r="L16" s="308"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -37679,11 +37964,11 @@
     </row>
     <row r="27" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="69"/>
-      <c r="B27" s="295" t="s">
+      <c r="B27" s="309" t="s">
         <v>167</v>
       </c>
-      <c r="C27" s="295"/>
-      <c r="D27" s="295"/>
+      <c r="C27" s="309"/>
+      <c r="D27" s="309"/>
       <c r="E27" s="80"/>
       <c r="F27" s="81"/>
       <c r="G27" s="80"/>
@@ -37698,12 +37983,12 @@
     </row>
     <row r="28" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="83"/>
-      <c r="B28" s="296" t="s">
+      <c r="B28" s="302" t="s">
         <v>127</v>
       </c>
-      <c r="C28" s="297"/>
-      <c r="D28" s="297"/>
-      <c r="E28" s="298"/>
+      <c r="C28" s="303"/>
+      <c r="D28" s="303"/>
+      <c r="E28" s="304"/>
       <c r="F28" s="115" t="s">
         <v>126</v>
       </c>
@@ -37795,10 +38080,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="85"/>
       <c r="C31" s="90"/>
-      <c r="D31" s="302" t="s">
+      <c r="D31" s="296" t="s">
         <v>173</v>
       </c>
-      <c r="E31" s="301"/>
+      <c r="E31" s="297"/>
       <c r="F31" s="74" t="s">
         <v>140</v>
       </c>
@@ -37828,10 +38113,10 @@
       <c r="A32" s="66"/>
       <c r="B32" s="85"/>
       <c r="C32" s="92"/>
-      <c r="D32" s="302" t="s">
+      <c r="D32" s="296" t="s">
         <v>174</v>
       </c>
-      <c r="E32" s="301"/>
+      <c r="E32" s="297"/>
       <c r="F32" s="74" t="s">
         <v>175</v>
       </c>
@@ -37894,10 +38179,10 @@
       <c r="A34" s="66"/>
       <c r="B34" s="85"/>
       <c r="C34" s="95"/>
-      <c r="D34" s="299" t="s">
+      <c r="D34" s="298" t="s">
         <v>304</v>
       </c>
-      <c r="E34" s="301"/>
+      <c r="E34" s="297"/>
       <c r="F34" s="105" t="s">
         <v>286</v>
       </c>
@@ -37927,10 +38212,10 @@
       <c r="A35" s="66"/>
       <c r="B35" s="85"/>
       <c r="C35" s="95"/>
-      <c r="D35" s="307" t="s">
+      <c r="D35" s="299" t="s">
         <v>297</v>
       </c>
-      <c r="E35" s="308"/>
+      <c r="E35" s="300"/>
       <c r="F35" s="105" t="s">
         <v>298</v>
       </c>
@@ -38266,11 +38551,11 @@
     </row>
     <row r="54" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A54" s="66"/>
-      <c r="B54" s="309" t="s">
+      <c r="B54" s="301" t="s">
         <v>143</v>
       </c>
-      <c r="C54" s="309"/>
-      <c r="D54" s="309"/>
+      <c r="C54" s="301"/>
+      <c r="D54" s="301"/>
       <c r="E54" s="66"/>
       <c r="F54" s="66"/>
       <c r="G54" s="66"/>
@@ -38287,12 +38572,12 @@
     </row>
     <row r="55" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A55" s="83"/>
-      <c r="B55" s="296" t="s">
+      <c r="B55" s="302" t="s">
         <v>127</v>
       </c>
-      <c r="C55" s="297"/>
-      <c r="D55" s="297"/>
-      <c r="E55" s="298"/>
+      <c r="C55" s="303"/>
+      <c r="D55" s="303"/>
+      <c r="E55" s="304"/>
       <c r="F55" s="115" t="s">
         <v>126</v>
       </c>
@@ -38384,10 +38669,10 @@
       <c r="A58" s="66"/>
       <c r="B58" s="85"/>
       <c r="C58" s="90"/>
-      <c r="D58" s="299" t="s">
+      <c r="D58" s="298" t="s">
         <v>173</v>
       </c>
-      <c r="E58" s="301"/>
+      <c r="E58" s="297"/>
       <c r="F58" s="74" t="s">
         <v>140</v>
       </c>
@@ -38417,10 +38702,10 @@
       <c r="A59" s="66"/>
       <c r="B59" s="85"/>
       <c r="C59" s="90"/>
-      <c r="D59" s="299" t="s">
+      <c r="D59" s="298" t="s">
         <v>0</v>
       </c>
-      <c r="E59" s="310"/>
+      <c r="E59" s="305"/>
       <c r="F59" s="105" t="s">
         <v>191</v>
       </c>
@@ -38450,10 +38735,10 @@
       <c r="A60" s="66"/>
       <c r="B60" s="85"/>
       <c r="C60" s="90"/>
-      <c r="D60" s="311" t="s">
+      <c r="D60" s="306" t="s">
         <v>196</v>
       </c>
-      <c r="E60" s="310"/>
+      <c r="E60" s="305"/>
       <c r="F60" s="105" t="s">
         <v>194</v>
       </c>
@@ -38547,8 +38832,8 @@
       <c r="A63" s="66"/>
       <c r="B63" s="91"/>
       <c r="C63" s="92"/>
-      <c r="D63" s="302"/>
-      <c r="E63" s="301"/>
+      <c r="D63" s="296"/>
+      <c r="E63" s="297"/>
       <c r="F63" s="74"/>
       <c r="G63" s="76"/>
       <c r="H63" s="76"/>
@@ -38938,14 +39223,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D59:E59"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
@@ -38958,6 +39235,14 @@
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D59:E59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -39051,15 +39336,15 @@
       <c r="B4" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C4" s="299" t="s">
+      <c r="C4" s="298" t="s">
         <v>324</v>
       </c>
-      <c r="D4" s="300"/>
-      <c r="E4" s="300"/>
-      <c r="F4" s="300"/>
-      <c r="G4" s="300"/>
-      <c r="H4" s="300"/>
-      <c r="I4" s="301"/>
+      <c r="D4" s="310"/>
+      <c r="E4" s="310"/>
+      <c r="F4" s="310"/>
+      <c r="G4" s="310"/>
+      <c r="H4" s="310"/>
+      <c r="I4" s="297"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -39072,13 +39357,13 @@
       <c r="B5" s="70" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="299"/>
-      <c r="D5" s="300"/>
-      <c r="E5" s="300"/>
-      <c r="F5" s="300"/>
-      <c r="G5" s="300"/>
-      <c r="H5" s="300"/>
-      <c r="I5" s="301"/>
+      <c r="C5" s="298"/>
+      <c r="D5" s="310"/>
+      <c r="E5" s="310"/>
+      <c r="F5" s="310"/>
+      <c r="G5" s="310"/>
+      <c r="H5" s="310"/>
+      <c r="I5" s="297"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -39112,15 +39397,15 @@
       <c r="B7" s="70" t="s">
         <v>165</v>
       </c>
-      <c r="C7" s="299" t="s">
+      <c r="C7" s="298" t="s">
         <v>207</v>
       </c>
-      <c r="D7" s="300"/>
-      <c r="E7" s="300"/>
-      <c r="F7" s="300"/>
-      <c r="G7" s="300"/>
-      <c r="H7" s="300"/>
-      <c r="I7" s="301"/>
+      <c r="D7" s="310"/>
+      <c r="E7" s="310"/>
+      <c r="F7" s="310"/>
+      <c r="G7" s="310"/>
+      <c r="H7" s="310"/>
+      <c r="I7" s="297"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -39154,15 +39439,15 @@
       <c r="B9" s="70" t="s">
         <v>182</v>
       </c>
-      <c r="C9" s="302" t="s">
+      <c r="C9" s="296" t="s">
         <v>183</v>
       </c>
-      <c r="D9" s="300"/>
-      <c r="E9" s="300"/>
-      <c r="F9" s="300"/>
-      <c r="G9" s="300"/>
-      <c r="H9" s="300"/>
-      <c r="I9" s="301"/>
+      <c r="D9" s="310"/>
+      <c r="E9" s="310"/>
+      <c r="F9" s="310"/>
+      <c r="G9" s="310"/>
+      <c r="H9" s="310"/>
+      <c r="I9" s="297"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -39225,19 +39510,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="303" t="s">
+      <c r="B13" s="311" t="s">
         <v>125</v>
       </c>
-      <c r="C13" s="304"/>
-      <c r="D13" s="304"/>
-      <c r="E13" s="304"/>
-      <c r="F13" s="304"/>
-      <c r="G13" s="304"/>
-      <c r="H13" s="304"/>
-      <c r="I13" s="304"/>
-      <c r="J13" s="304"/>
-      <c r="K13" s="304"/>
-      <c r="L13" s="305"/>
+      <c r="C13" s="312"/>
+      <c r="D13" s="312"/>
+      <c r="E13" s="312"/>
+      <c r="F13" s="312"/>
+      <c r="G13" s="312"/>
+      <c r="H13" s="312"/>
+      <c r="I13" s="312"/>
+      <c r="J13" s="312"/>
+      <c r="K13" s="312"/>
+      <c r="L13" s="313"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -39266,11 +39551,11 @@
       <c r="I14" s="115" t="s">
         <v>132</v>
       </c>
-      <c r="J14" s="306" t="s">
+      <c r="J14" s="314" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="306"/>
-      <c r="L14" s="306"/>
+      <c r="K14" s="314"/>
+      <c r="L14" s="314"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -39295,11 +39580,11 @@
       <c r="I15" s="131" t="s">
         <v>287</v>
       </c>
-      <c r="J15" s="293" t="s">
+      <c r="J15" s="307" t="s">
         <v>326</v>
       </c>
-      <c r="K15" s="294"/>
-      <c r="L15" s="294"/>
+      <c r="K15" s="308"/>
+      <c r="L15" s="308"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -39314,9 +39599,9 @@
       <c r="G16" s="76"/>
       <c r="H16" s="76"/>
       <c r="I16" s="130"/>
-      <c r="J16" s="294"/>
-      <c r="K16" s="294"/>
-      <c r="L16" s="294"/>
+      <c r="J16" s="308"/>
+      <c r="K16" s="308"/>
+      <c r="L16" s="308"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -39495,11 +39780,11 @@
     </row>
     <row r="27" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="69"/>
-      <c r="B27" s="295" t="s">
+      <c r="B27" s="309" t="s">
         <v>167</v>
       </c>
-      <c r="C27" s="295"/>
-      <c r="D27" s="295"/>
+      <c r="C27" s="309"/>
+      <c r="D27" s="309"/>
       <c r="E27" s="80"/>
       <c r="F27" s="81"/>
       <c r="G27" s="80"/>
@@ -39514,12 +39799,12 @@
     </row>
     <row r="28" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="83"/>
-      <c r="B28" s="296" t="s">
+      <c r="B28" s="302" t="s">
         <v>127</v>
       </c>
-      <c r="C28" s="297"/>
-      <c r="D28" s="297"/>
-      <c r="E28" s="298"/>
+      <c r="C28" s="303"/>
+      <c r="D28" s="303"/>
+      <c r="E28" s="304"/>
       <c r="F28" s="115" t="s">
         <v>126</v>
       </c>
@@ -39611,10 +39896,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="85"/>
       <c r="C31" s="90"/>
-      <c r="D31" s="302" t="s">
+      <c r="D31" s="296" t="s">
         <v>173</v>
       </c>
-      <c r="E31" s="301"/>
+      <c r="E31" s="297"/>
       <c r="F31" s="74" t="s">
         <v>140</v>
       </c>
@@ -39644,10 +39929,10 @@
       <c r="A32" s="66"/>
       <c r="B32" s="85"/>
       <c r="C32" s="92"/>
-      <c r="D32" s="302" t="s">
+      <c r="D32" s="296" t="s">
         <v>174</v>
       </c>
-      <c r="E32" s="301"/>
+      <c r="E32" s="297"/>
       <c r="F32" s="74" t="s">
         <v>175</v>
       </c>
@@ -39710,10 +39995,10 @@
       <c r="A34" s="66"/>
       <c r="B34" s="85"/>
       <c r="C34" s="95"/>
-      <c r="D34" s="299" t="s">
+      <c r="D34" s="298" t="s">
         <v>285</v>
       </c>
-      <c r="E34" s="310"/>
+      <c r="E34" s="305"/>
       <c r="F34" s="105" t="s">
         <v>177</v>
       </c>
@@ -39739,10 +40024,10 @@
       <c r="A35" s="66"/>
       <c r="B35" s="85"/>
       <c r="C35" s="95"/>
-      <c r="D35" s="299" t="s">
+      <c r="D35" s="298" t="s">
         <v>304</v>
       </c>
-      <c r="E35" s="301"/>
+      <c r="E35" s="297"/>
       <c r="F35" s="105" t="s">
         <v>286</v>
       </c>
@@ -39772,10 +40057,10 @@
       <c r="A36" s="66"/>
       <c r="B36" s="85"/>
       <c r="C36" s="95"/>
-      <c r="D36" s="307" t="s">
+      <c r="D36" s="299" t="s">
         <v>297</v>
       </c>
-      <c r="E36" s="308"/>
+      <c r="E36" s="300"/>
       <c r="F36" s="105" t="s">
         <v>298</v>
       </c>
@@ -40111,11 +40396,11 @@
     </row>
     <row r="55" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A55" s="66"/>
-      <c r="B55" s="309" t="s">
+      <c r="B55" s="301" t="s">
         <v>143</v>
       </c>
-      <c r="C55" s="309"/>
-      <c r="D55" s="309"/>
+      <c r="C55" s="301"/>
+      <c r="D55" s="301"/>
       <c r="E55" s="66"/>
       <c r="F55" s="66"/>
       <c r="G55" s="66"/>
@@ -40132,12 +40417,12 @@
     </row>
     <row r="56" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="83"/>
-      <c r="B56" s="296" t="s">
+      <c r="B56" s="302" t="s">
         <v>127</v>
       </c>
-      <c r="C56" s="297"/>
-      <c r="D56" s="297"/>
-      <c r="E56" s="298"/>
+      <c r="C56" s="303"/>
+      <c r="D56" s="303"/>
+      <c r="E56" s="304"/>
       <c r="F56" s="115" t="s">
         <v>126</v>
       </c>
@@ -40229,10 +40514,10 @@
       <c r="A59" s="66"/>
       <c r="B59" s="85"/>
       <c r="C59" s="90"/>
-      <c r="D59" s="299" t="s">
+      <c r="D59" s="298" t="s">
         <v>173</v>
       </c>
-      <c r="E59" s="301"/>
+      <c r="E59" s="297"/>
       <c r="F59" s="74" t="s">
         <v>140</v>
       </c>
@@ -40262,10 +40547,10 @@
       <c r="A60" s="66"/>
       <c r="B60" s="85"/>
       <c r="C60" s="90"/>
-      <c r="D60" s="299" t="s">
+      <c r="D60" s="298" t="s">
         <v>0</v>
       </c>
-      <c r="E60" s="310"/>
+      <c r="E60" s="305"/>
       <c r="F60" s="105" t="s">
         <v>191</v>
       </c>
@@ -40295,10 +40580,10 @@
       <c r="A61" s="66"/>
       <c r="B61" s="85"/>
       <c r="C61" s="90"/>
-      <c r="D61" s="311" t="s">
+      <c r="D61" s="306" t="s">
         <v>196</v>
       </c>
-      <c r="E61" s="310"/>
+      <c r="E61" s="305"/>
       <c r="F61" s="105" t="s">
         <v>194</v>
       </c>
@@ -40392,8 +40677,8 @@
       <c r="A64" s="66"/>
       <c r="B64" s="91"/>
       <c r="C64" s="92"/>
-      <c r="D64" s="302"/>
-      <c r="E64" s="301"/>
+      <c r="D64" s="296"/>
+      <c r="E64" s="297"/>
       <c r="F64" s="74"/>
       <c r="G64" s="76"/>
       <c r="H64" s="76"/>
@@ -40783,15 +41068,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:E56"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D60:E60"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
@@ -40804,6 +41080,15 @@
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D60:E60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -41332,15 +41617,15 @@
       <c r="B4" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C4" s="299" t="s">
+      <c r="C4" s="298" t="s">
         <v>229</v>
       </c>
-      <c r="D4" s="300"/>
-      <c r="E4" s="300"/>
-      <c r="F4" s="300"/>
-      <c r="G4" s="300"/>
-      <c r="H4" s="300"/>
-      <c r="I4" s="301"/>
+      <c r="D4" s="310"/>
+      <c r="E4" s="310"/>
+      <c r="F4" s="310"/>
+      <c r="G4" s="310"/>
+      <c r="H4" s="310"/>
+      <c r="I4" s="297"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -41353,15 +41638,15 @@
       <c r="B5" s="70" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="299" t="s">
+      <c r="C5" s="298" t="s">
         <v>403</v>
       </c>
-      <c r="D5" s="300"/>
-      <c r="E5" s="300"/>
-      <c r="F5" s="300"/>
-      <c r="G5" s="300"/>
-      <c r="H5" s="300"/>
-      <c r="I5" s="301"/>
+      <c r="D5" s="310"/>
+      <c r="E5" s="310"/>
+      <c r="F5" s="310"/>
+      <c r="G5" s="310"/>
+      <c r="H5" s="310"/>
+      <c r="I5" s="297"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -41395,15 +41680,15 @@
       <c r="B7" s="70" t="s">
         <v>165</v>
       </c>
-      <c r="C7" s="302" t="s">
+      <c r="C7" s="296" t="s">
         <v>157</v>
       </c>
-      <c r="D7" s="300"/>
-      <c r="E7" s="300"/>
-      <c r="F7" s="300"/>
-      <c r="G7" s="300"/>
-      <c r="H7" s="300"/>
-      <c r="I7" s="301"/>
+      <c r="D7" s="310"/>
+      <c r="E7" s="310"/>
+      <c r="F7" s="310"/>
+      <c r="G7" s="310"/>
+      <c r="H7" s="310"/>
+      <c r="I7" s="297"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -41437,15 +41722,15 @@
       <c r="B9" s="70" t="s">
         <v>182</v>
       </c>
-      <c r="C9" s="302" t="s">
+      <c r="C9" s="296" t="s">
         <v>183</v>
       </c>
-      <c r="D9" s="300"/>
-      <c r="E9" s="300"/>
-      <c r="F9" s="300"/>
-      <c r="G9" s="300"/>
-      <c r="H9" s="300"/>
-      <c r="I9" s="301"/>
+      <c r="D9" s="310"/>
+      <c r="E9" s="310"/>
+      <c r="F9" s="310"/>
+      <c r="G9" s="310"/>
+      <c r="H9" s="310"/>
+      <c r="I9" s="297"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -41508,19 +41793,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="303" t="s">
+      <c r="B13" s="311" t="s">
         <v>125</v>
       </c>
-      <c r="C13" s="304"/>
-      <c r="D13" s="304"/>
-      <c r="E13" s="304"/>
-      <c r="F13" s="304"/>
-      <c r="G13" s="304"/>
-      <c r="H13" s="304"/>
-      <c r="I13" s="304"/>
-      <c r="J13" s="304"/>
-      <c r="K13" s="304"/>
-      <c r="L13" s="305"/>
+      <c r="C13" s="312"/>
+      <c r="D13" s="312"/>
+      <c r="E13" s="312"/>
+      <c r="F13" s="312"/>
+      <c r="G13" s="312"/>
+      <c r="H13" s="312"/>
+      <c r="I13" s="312"/>
+      <c r="J13" s="312"/>
+      <c r="K13" s="312"/>
+      <c r="L13" s="313"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -41549,11 +41834,11 @@
       <c r="I14" s="151" t="s">
         <v>132</v>
       </c>
-      <c r="J14" s="306" t="s">
+      <c r="J14" s="314" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="306"/>
-      <c r="L14" s="306"/>
+      <c r="K14" s="314"/>
+      <c r="L14" s="314"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -41578,11 +41863,11 @@
       <c r="I15" s="130" t="s">
         <v>295</v>
       </c>
-      <c r="J15" s="293" t="s">
+      <c r="J15" s="307" t="s">
         <v>296</v>
       </c>
-      <c r="K15" s="294"/>
-      <c r="L15" s="294"/>
+      <c r="K15" s="308"/>
+      <c r="L15" s="308"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -41607,9 +41892,9 @@
       <c r="I16" s="130" t="s">
         <v>406</v>
       </c>
-      <c r="J16" s="294"/>
-      <c r="K16" s="294"/>
-      <c r="L16" s="294"/>
+      <c r="J16" s="308"/>
+      <c r="K16" s="308"/>
+      <c r="L16" s="308"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -41800,11 +42085,11 @@
     </row>
     <row r="27" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="69"/>
-      <c r="B27" s="295" t="s">
+      <c r="B27" s="309" t="s">
         <v>167</v>
       </c>
-      <c r="C27" s="295"/>
-      <c r="D27" s="295"/>
+      <c r="C27" s="309"/>
+      <c r="D27" s="309"/>
       <c r="E27" s="80"/>
       <c r="F27" s="81"/>
       <c r="G27" s="80"/>
@@ -41819,12 +42104,12 @@
     </row>
     <row r="28" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="83"/>
-      <c r="B28" s="296" t="s">
+      <c r="B28" s="302" t="s">
         <v>127</v>
       </c>
-      <c r="C28" s="297"/>
-      <c r="D28" s="297"/>
-      <c r="E28" s="298"/>
+      <c r="C28" s="303"/>
+      <c r="D28" s="303"/>
+      <c r="E28" s="304"/>
       <c r="F28" s="151" t="s">
         <v>126</v>
       </c>
@@ -41916,10 +42201,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="85"/>
       <c r="C31" s="90"/>
-      <c r="D31" s="302" t="s">
+      <c r="D31" s="296" t="s">
         <v>173</v>
       </c>
-      <c r="E31" s="301"/>
+      <c r="E31" s="297"/>
       <c r="F31" s="74" t="s">
         <v>140</v>
       </c>
@@ -41949,10 +42234,10 @@
       <c r="A32" s="66"/>
       <c r="B32" s="85"/>
       <c r="C32" s="92"/>
-      <c r="D32" s="302" t="s">
+      <c r="D32" s="296" t="s">
         <v>174</v>
       </c>
-      <c r="E32" s="301"/>
+      <c r="E32" s="297"/>
       <c r="F32" s="74" t="s">
         <v>175</v>
       </c>
@@ -42044,10 +42329,10 @@
       <c r="A35" s="66"/>
       <c r="B35" s="85"/>
       <c r="C35" s="95"/>
-      <c r="D35" s="299" t="s">
+      <c r="D35" s="298" t="s">
         <v>304</v>
       </c>
-      <c r="E35" s="301"/>
+      <c r="E35" s="297"/>
       <c r="F35" s="105" t="s">
         <v>405</v>
       </c>
@@ -42077,10 +42362,10 @@
       <c r="A36" s="66"/>
       <c r="B36" s="85"/>
       <c r="C36" s="95"/>
-      <c r="D36" s="307" t="s">
+      <c r="D36" s="299" t="s">
         <v>408</v>
       </c>
-      <c r="E36" s="308"/>
+      <c r="E36" s="300"/>
       <c r="F36" s="105" t="s">
         <v>286</v>
       </c>
@@ -42503,11 +42788,11 @@
     </row>
     <row r="58" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A58" s="66"/>
-      <c r="B58" s="309" t="s">
+      <c r="B58" s="301" t="s">
         <v>143</v>
       </c>
-      <c r="C58" s="309"/>
-      <c r="D58" s="309"/>
+      <c r="C58" s="301"/>
+      <c r="D58" s="301"/>
       <c r="E58" s="66"/>
       <c r="F58" s="66"/>
       <c r="G58" s="66"/>
@@ -42524,12 +42809,12 @@
     </row>
     <row r="59" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A59" s="83"/>
-      <c r="B59" s="296" t="s">
+      <c r="B59" s="302" t="s">
         <v>127</v>
       </c>
-      <c r="C59" s="297"/>
-      <c r="D59" s="297"/>
-      <c r="E59" s="298"/>
+      <c r="C59" s="303"/>
+      <c r="D59" s="303"/>
+      <c r="E59" s="304"/>
       <c r="F59" s="151" t="s">
         <v>126</v>
       </c>
@@ -42621,10 +42906,10 @@
       <c r="A62" s="66"/>
       <c r="B62" s="85"/>
       <c r="C62" s="90"/>
-      <c r="D62" s="299" t="s">
+      <c r="D62" s="298" t="s">
         <v>173</v>
       </c>
-      <c r="E62" s="301"/>
+      <c r="E62" s="297"/>
       <c r="F62" s="74" t="s">
         <v>140</v>
       </c>
@@ -42654,10 +42939,10 @@
       <c r="A63" s="66"/>
       <c r="B63" s="85"/>
       <c r="C63" s="90"/>
-      <c r="D63" s="299" t="s">
+      <c r="D63" s="298" t="s">
         <v>0</v>
       </c>
-      <c r="E63" s="310"/>
+      <c r="E63" s="305"/>
       <c r="F63" s="105" t="s">
         <v>191</v>
       </c>
@@ -42687,10 +42972,10 @@
       <c r="A64" s="66"/>
       <c r="B64" s="85"/>
       <c r="C64" s="90"/>
-      <c r="D64" s="311" t="s">
+      <c r="D64" s="306" t="s">
         <v>196</v>
       </c>
-      <c r="E64" s="310"/>
+      <c r="E64" s="305"/>
       <c r="F64" s="105" t="s">
         <v>194</v>
       </c>
@@ -42784,8 +43069,8 @@
       <c r="A67" s="66"/>
       <c r="B67" s="91"/>
       <c r="C67" s="92"/>
-      <c r="D67" s="302"/>
-      <c r="E67" s="301"/>
+      <c r="D67" s="296"/>
+      <c r="E67" s="297"/>
       <c r="F67" s="74"/>
       <c r="G67" s="76"/>
       <c r="H67" s="76"/>
@@ -43175,14 +43460,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D63:E63"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
@@ -43195,6 +43472,14 @@
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D63:E63"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -43292,15 +43577,15 @@
       <c r="B4" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C4" s="299" t="s">
+      <c r="C4" s="298" t="s">
         <v>230</v>
       </c>
-      <c r="D4" s="300"/>
-      <c r="E4" s="300"/>
-      <c r="F4" s="300"/>
-      <c r="G4" s="300"/>
-      <c r="H4" s="300"/>
-      <c r="I4" s="301"/>
+      <c r="D4" s="310"/>
+      <c r="E4" s="310"/>
+      <c r="F4" s="310"/>
+      <c r="G4" s="310"/>
+      <c r="H4" s="310"/>
+      <c r="I4" s="297"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -43313,15 +43598,15 @@
       <c r="B5" s="70" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="299" t="s">
+      <c r="C5" s="298" t="s">
         <v>416</v>
       </c>
-      <c r="D5" s="300"/>
-      <c r="E5" s="300"/>
-      <c r="F5" s="300"/>
-      <c r="G5" s="300"/>
-      <c r="H5" s="300"/>
-      <c r="I5" s="301"/>
+      <c r="D5" s="310"/>
+      <c r="E5" s="310"/>
+      <c r="F5" s="310"/>
+      <c r="G5" s="310"/>
+      <c r="H5" s="310"/>
+      <c r="I5" s="297"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -43355,15 +43640,15 @@
       <c r="B7" s="70" t="s">
         <v>165</v>
       </c>
-      <c r="C7" s="299" t="s">
+      <c r="C7" s="298" t="s">
         <v>206</v>
       </c>
-      <c r="D7" s="300"/>
-      <c r="E7" s="300"/>
-      <c r="F7" s="300"/>
-      <c r="G7" s="300"/>
-      <c r="H7" s="300"/>
-      <c r="I7" s="301"/>
+      <c r="D7" s="310"/>
+      <c r="E7" s="310"/>
+      <c r="F7" s="310"/>
+      <c r="G7" s="310"/>
+      <c r="H7" s="310"/>
+      <c r="I7" s="297"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -43397,15 +43682,15 @@
       <c r="B9" s="70" t="s">
         <v>182</v>
       </c>
-      <c r="C9" s="302" t="s">
+      <c r="C9" s="296" t="s">
         <v>183</v>
       </c>
-      <c r="D9" s="300"/>
-      <c r="E9" s="300"/>
-      <c r="F9" s="300"/>
-      <c r="G9" s="300"/>
-      <c r="H9" s="300"/>
-      <c r="I9" s="301"/>
+      <c r="D9" s="310"/>
+      <c r="E9" s="310"/>
+      <c r="F9" s="310"/>
+      <c r="G9" s="310"/>
+      <c r="H9" s="310"/>
+      <c r="I9" s="297"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -43468,19 +43753,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="303" t="s">
+      <c r="B13" s="311" t="s">
         <v>125</v>
       </c>
-      <c r="C13" s="304"/>
-      <c r="D13" s="304"/>
-      <c r="E13" s="304"/>
-      <c r="F13" s="304"/>
-      <c r="G13" s="304"/>
-      <c r="H13" s="304"/>
-      <c r="I13" s="304"/>
-      <c r="J13" s="304"/>
-      <c r="K13" s="304"/>
-      <c r="L13" s="305"/>
+      <c r="C13" s="312"/>
+      <c r="D13" s="312"/>
+      <c r="E13" s="312"/>
+      <c r="F13" s="312"/>
+      <c r="G13" s="312"/>
+      <c r="H13" s="312"/>
+      <c r="I13" s="312"/>
+      <c r="J13" s="312"/>
+      <c r="K13" s="312"/>
+      <c r="L13" s="313"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -43509,11 +43794,11 @@
       <c r="I14" s="151" t="s">
         <v>132</v>
       </c>
-      <c r="J14" s="306" t="s">
+      <c r="J14" s="314" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="306"/>
-      <c r="L14" s="306"/>
+      <c r="K14" s="314"/>
+      <c r="L14" s="314"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -43538,11 +43823,11 @@
       <c r="I15" s="130" t="s">
         <v>295</v>
       </c>
-      <c r="J15" s="293" t="s">
+      <c r="J15" s="307" t="s">
         <v>296</v>
       </c>
-      <c r="K15" s="294"/>
-      <c r="L15" s="294"/>
+      <c r="K15" s="308"/>
+      <c r="L15" s="308"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -43764,11 +44049,11 @@
     </row>
     <row r="27" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="69"/>
-      <c r="B27" s="295" t="s">
+      <c r="B27" s="309" t="s">
         <v>167</v>
       </c>
-      <c r="C27" s="295"/>
-      <c r="D27" s="295"/>
+      <c r="C27" s="309"/>
+      <c r="D27" s="309"/>
       <c r="E27" s="80"/>
       <c r="F27" s="81"/>
       <c r="G27" s="80"/>
@@ -43783,12 +44068,12 @@
     </row>
     <row r="28" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="83"/>
-      <c r="B28" s="296" t="s">
+      <c r="B28" s="302" t="s">
         <v>127</v>
       </c>
-      <c r="C28" s="297"/>
-      <c r="D28" s="297"/>
-      <c r="E28" s="298"/>
+      <c r="C28" s="303"/>
+      <c r="D28" s="303"/>
+      <c r="E28" s="304"/>
       <c r="F28" s="151" t="s">
         <v>126</v>
       </c>
@@ -43880,10 +44165,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="85"/>
       <c r="C31" s="90"/>
-      <c r="D31" s="302" t="s">
+      <c r="D31" s="296" t="s">
         <v>173</v>
       </c>
-      <c r="E31" s="301"/>
+      <c r="E31" s="297"/>
       <c r="F31" s="74" t="s">
         <v>140</v>
       </c>
@@ -43913,10 +44198,10 @@
       <c r="A32" s="66"/>
       <c r="B32" s="85"/>
       <c r="C32" s="92"/>
-      <c r="D32" s="302" t="s">
+      <c r="D32" s="296" t="s">
         <v>174</v>
       </c>
-      <c r="E32" s="301"/>
+      <c r="E32" s="297"/>
       <c r="F32" s="74" t="s">
         <v>175</v>
       </c>
@@ -44008,10 +44293,10 @@
       <c r="A35" s="66"/>
       <c r="B35" s="85"/>
       <c r="C35" s="95"/>
-      <c r="D35" s="299" t="s">
+      <c r="D35" s="298" t="s">
         <v>304</v>
       </c>
-      <c r="E35" s="301"/>
+      <c r="E35" s="297"/>
       <c r="F35" s="105" t="s">
         <v>405</v>
       </c>
@@ -44041,10 +44326,10 @@
       <c r="A36" s="66"/>
       <c r="B36" s="85"/>
       <c r="C36" s="95"/>
-      <c r="D36" s="307" t="s">
+      <c r="D36" s="299" t="s">
         <v>408</v>
       </c>
-      <c r="E36" s="308"/>
+      <c r="E36" s="300"/>
       <c r="F36" s="105" t="s">
         <v>286</v>
       </c>
@@ -44467,11 +44752,11 @@
     </row>
     <row r="58" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A58" s="66"/>
-      <c r="B58" s="309" t="s">
+      <c r="B58" s="301" t="s">
         <v>143</v>
       </c>
-      <c r="C58" s="309"/>
-      <c r="D58" s="309"/>
+      <c r="C58" s="301"/>
+      <c r="D58" s="301"/>
       <c r="E58" s="66"/>
       <c r="F58" s="66"/>
       <c r="G58" s="66"/>
@@ -44488,12 +44773,12 @@
     </row>
     <row r="59" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A59" s="83"/>
-      <c r="B59" s="296" t="s">
+      <c r="B59" s="302" t="s">
         <v>127</v>
       </c>
-      <c r="C59" s="297"/>
-      <c r="D59" s="297"/>
-      <c r="E59" s="298"/>
+      <c r="C59" s="303"/>
+      <c r="D59" s="303"/>
+      <c r="E59" s="304"/>
       <c r="F59" s="151" t="s">
         <v>126</v>
       </c>
@@ -44585,10 +44870,10 @@
       <c r="A62" s="66"/>
       <c r="B62" s="85"/>
       <c r="C62" s="90"/>
-      <c r="D62" s="299" t="s">
+      <c r="D62" s="298" t="s">
         <v>173</v>
       </c>
-      <c r="E62" s="301"/>
+      <c r="E62" s="297"/>
       <c r="F62" s="74" t="s">
         <v>140</v>
       </c>
@@ -44618,10 +44903,10 @@
       <c r="A63" s="66"/>
       <c r="B63" s="85"/>
       <c r="C63" s="90"/>
-      <c r="D63" s="299" t="s">
+      <c r="D63" s="298" t="s">
         <v>0</v>
       </c>
-      <c r="E63" s="310"/>
+      <c r="E63" s="305"/>
       <c r="F63" s="105" t="s">
         <v>191</v>
       </c>
@@ -44651,10 +44936,10 @@
       <c r="A64" s="66"/>
       <c r="B64" s="85"/>
       <c r="C64" s="90"/>
-      <c r="D64" s="311" t="s">
+      <c r="D64" s="306" t="s">
         <v>196</v>
       </c>
-      <c r="E64" s="310"/>
+      <c r="E64" s="305"/>
       <c r="F64" s="105" t="s">
         <v>194</v>
       </c>
@@ -44777,10 +45062,10 @@
       <c r="A68" s="66"/>
       <c r="B68" s="85"/>
       <c r="C68" s="95"/>
-      <c r="D68" s="299" t="s">
+      <c r="D68" s="298" t="s">
         <v>304</v>
       </c>
-      <c r="E68" s="301"/>
+      <c r="E68" s="297"/>
       <c r="F68" s="105" t="s">
         <v>405</v>
       </c>
@@ -44810,10 +45095,10 @@
       <c r="A69" s="66"/>
       <c r="B69" s="85"/>
       <c r="C69" s="95"/>
-      <c r="D69" s="307" t="s">
+      <c r="D69" s="299" t="s">
         <v>408</v>
       </c>
-      <c r="E69" s="308"/>
+      <c r="E69" s="300"/>
       <c r="F69" s="105" t="s">
         <v>286</v>
       </c>
@@ -45266,15 +45551,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D63:E63"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
@@ -45286,6 +45562,15 @@
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D63:E63"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -45382,15 +45667,15 @@
       <c r="B4" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C4" s="299" t="s">
+      <c r="C4" s="298" t="s">
         <v>231</v>
       </c>
-      <c r="D4" s="300"/>
-      <c r="E4" s="300"/>
-      <c r="F4" s="300"/>
-      <c r="G4" s="300"/>
-      <c r="H4" s="300"/>
-      <c r="I4" s="301"/>
+      <c r="D4" s="310"/>
+      <c r="E4" s="310"/>
+      <c r="F4" s="310"/>
+      <c r="G4" s="310"/>
+      <c r="H4" s="310"/>
+      <c r="I4" s="297"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -45403,15 +45688,15 @@
       <c r="B5" s="70" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="299" t="s">
+      <c r="C5" s="298" t="s">
         <v>421</v>
       </c>
-      <c r="D5" s="300"/>
-      <c r="E5" s="300"/>
-      <c r="F5" s="300"/>
-      <c r="G5" s="300"/>
-      <c r="H5" s="300"/>
-      <c r="I5" s="301"/>
+      <c r="D5" s="310"/>
+      <c r="E5" s="310"/>
+      <c r="F5" s="310"/>
+      <c r="G5" s="310"/>
+      <c r="H5" s="310"/>
+      <c r="I5" s="297"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -45445,15 +45730,15 @@
       <c r="B7" s="70" t="s">
         <v>165</v>
       </c>
-      <c r="C7" s="299" t="s">
+      <c r="C7" s="298" t="s">
         <v>225</v>
       </c>
-      <c r="D7" s="300"/>
-      <c r="E7" s="300"/>
-      <c r="F7" s="300"/>
-      <c r="G7" s="300"/>
-      <c r="H7" s="300"/>
-      <c r="I7" s="301"/>
+      <c r="D7" s="310"/>
+      <c r="E7" s="310"/>
+      <c r="F7" s="310"/>
+      <c r="G7" s="310"/>
+      <c r="H7" s="310"/>
+      <c r="I7" s="297"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -45487,15 +45772,15 @@
       <c r="B9" s="70" t="s">
         <v>182</v>
       </c>
-      <c r="C9" s="302" t="s">
+      <c r="C9" s="296" t="s">
         <v>183</v>
       </c>
-      <c r="D9" s="300"/>
-      <c r="E9" s="300"/>
-      <c r="F9" s="300"/>
-      <c r="G9" s="300"/>
-      <c r="H9" s="300"/>
-      <c r="I9" s="301"/>
+      <c r="D9" s="310"/>
+      <c r="E9" s="310"/>
+      <c r="F9" s="310"/>
+      <c r="G9" s="310"/>
+      <c r="H9" s="310"/>
+      <c r="I9" s="297"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -45558,19 +45843,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="303" t="s">
+      <c r="B13" s="311" t="s">
         <v>125</v>
       </c>
-      <c r="C13" s="304"/>
-      <c r="D13" s="304"/>
-      <c r="E13" s="304"/>
-      <c r="F13" s="304"/>
-      <c r="G13" s="304"/>
-      <c r="H13" s="304"/>
-      <c r="I13" s="304"/>
-      <c r="J13" s="304"/>
-      <c r="K13" s="304"/>
-      <c r="L13" s="305"/>
+      <c r="C13" s="312"/>
+      <c r="D13" s="312"/>
+      <c r="E13" s="312"/>
+      <c r="F13" s="312"/>
+      <c r="G13" s="312"/>
+      <c r="H13" s="312"/>
+      <c r="I13" s="312"/>
+      <c r="J13" s="312"/>
+      <c r="K13" s="312"/>
+      <c r="L13" s="313"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -45599,11 +45884,11 @@
       <c r="I14" s="151" t="s">
         <v>132</v>
       </c>
-      <c r="J14" s="306" t="s">
+      <c r="J14" s="314" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="306"/>
-      <c r="L14" s="306"/>
+      <c r="K14" s="314"/>
+      <c r="L14" s="314"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -45628,11 +45913,11 @@
       <c r="I15" s="130" t="s">
         <v>295</v>
       </c>
-      <c r="J15" s="293" t="s">
+      <c r="J15" s="307" t="s">
         <v>296</v>
       </c>
-      <c r="K15" s="294"/>
-      <c r="L15" s="294"/>
+      <c r="K15" s="308"/>
+      <c r="L15" s="308"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -45823,11 +46108,11 @@
     </row>
     <row r="26" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="69"/>
-      <c r="B26" s="295" t="s">
+      <c r="B26" s="309" t="s">
         <v>167</v>
       </c>
-      <c r="C26" s="295"/>
-      <c r="D26" s="295"/>
+      <c r="C26" s="309"/>
+      <c r="D26" s="309"/>
       <c r="E26" s="80"/>
       <c r="F26" s="81"/>
       <c r="G26" s="80"/>
@@ -45842,12 +46127,12 @@
     </row>
     <row r="27" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="83"/>
-      <c r="B27" s="296" t="s">
+      <c r="B27" s="302" t="s">
         <v>127</v>
       </c>
-      <c r="C27" s="297"/>
-      <c r="D27" s="297"/>
-      <c r="E27" s="298"/>
+      <c r="C27" s="303"/>
+      <c r="D27" s="303"/>
+      <c r="E27" s="304"/>
       <c r="F27" s="151" t="s">
         <v>126</v>
       </c>
@@ -45939,10 +46224,10 @@
       <c r="A30" s="66"/>
       <c r="B30" s="85"/>
       <c r="C30" s="90"/>
-      <c r="D30" s="302" t="s">
+      <c r="D30" s="296" t="s">
         <v>173</v>
       </c>
-      <c r="E30" s="301"/>
+      <c r="E30" s="297"/>
       <c r="F30" s="74" t="s">
         <v>140</v>
       </c>
@@ -45972,10 +46257,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="85"/>
       <c r="C31" s="92"/>
-      <c r="D31" s="302" t="s">
+      <c r="D31" s="296" t="s">
         <v>174</v>
       </c>
-      <c r="E31" s="301"/>
+      <c r="E31" s="297"/>
       <c r="F31" s="74" t="s">
         <v>175</v>
       </c>
@@ -46038,8 +46323,8 @@
       <c r="A33" s="66"/>
       <c r="B33" s="85"/>
       <c r="C33" s="95"/>
-      <c r="D33" s="317"/>
-      <c r="E33" s="317"/>
+      <c r="D33" s="320"/>
+      <c r="E33" s="320"/>
       <c r="F33" s="105"/>
       <c r="G33" s="106"/>
       <c r="H33" s="76"/>
@@ -46361,11 +46646,11 @@
     </row>
     <row r="52" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="66"/>
-      <c r="B52" s="309" t="s">
+      <c r="B52" s="301" t="s">
         <v>143</v>
       </c>
-      <c r="C52" s="309"/>
-      <c r="D52" s="309"/>
+      <c r="C52" s="301"/>
+      <c r="D52" s="301"/>
       <c r="E52" s="66"/>
       <c r="F52" s="66"/>
       <c r="G52" s="66"/>
@@ -46382,12 +46667,12 @@
     </row>
     <row r="53" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A53" s="83"/>
-      <c r="B53" s="296" t="s">
+      <c r="B53" s="302" t="s">
         <v>127</v>
       </c>
-      <c r="C53" s="297"/>
-      <c r="D53" s="297"/>
-      <c r="E53" s="298"/>
+      <c r="C53" s="303"/>
+      <c r="D53" s="303"/>
+      <c r="E53" s="304"/>
       <c r="F53" s="151" t="s">
         <v>126</v>
       </c>
@@ -46479,10 +46764,10 @@
       <c r="A56" s="66"/>
       <c r="B56" s="85"/>
       <c r="C56" s="90"/>
-      <c r="D56" s="299" t="s">
+      <c r="D56" s="298" t="s">
         <v>173</v>
       </c>
-      <c r="E56" s="301"/>
+      <c r="E56" s="297"/>
       <c r="F56" s="74" t="s">
         <v>140</v>
       </c>
@@ -46512,10 +46797,10 @@
       <c r="A57" s="66"/>
       <c r="B57" s="85"/>
       <c r="C57" s="90"/>
-      <c r="D57" s="299" t="s">
+      <c r="D57" s="298" t="s">
         <v>0</v>
       </c>
-      <c r="E57" s="310"/>
+      <c r="E57" s="305"/>
       <c r="F57" s="105" t="s">
         <v>191</v>
       </c>
@@ -46545,10 +46830,10 @@
       <c r="A58" s="66"/>
       <c r="B58" s="85"/>
       <c r="C58" s="90"/>
-      <c r="D58" s="311" t="s">
+      <c r="D58" s="306" t="s">
         <v>196</v>
       </c>
-      <c r="E58" s="310"/>
+      <c r="E58" s="305"/>
       <c r="F58" s="105" t="s">
         <v>194</v>
       </c>
@@ -46642,8 +46927,8 @@
       <c r="A61" s="66"/>
       <c r="B61" s="91"/>
       <c r="C61" s="92"/>
-      <c r="D61" s="302"/>
-      <c r="E61" s="301"/>
+      <c r="D61" s="296"/>
+      <c r="E61" s="297"/>
       <c r="F61" s="74"/>
       <c r="G61" s="76"/>
       <c r="H61" s="76"/>
@@ -47033,6 +47318,17 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="D30:E30"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="D61:E61"/>
     <mergeCell ref="D33:E33"/>
@@ -47040,17 +47336,6 @@
     <mergeCell ref="B53:E53"/>
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -47147,15 +47432,15 @@
       <c r="B4" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C4" s="299" t="s">
+      <c r="C4" s="298" t="s">
         <v>423</v>
       </c>
-      <c r="D4" s="300"/>
-      <c r="E4" s="300"/>
-      <c r="F4" s="300"/>
-      <c r="G4" s="300"/>
-      <c r="H4" s="300"/>
-      <c r="I4" s="301"/>
+      <c r="D4" s="310"/>
+      <c r="E4" s="310"/>
+      <c r="F4" s="310"/>
+      <c r="G4" s="310"/>
+      <c r="H4" s="310"/>
+      <c r="I4" s="297"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -47168,15 +47453,15 @@
       <c r="B5" s="70" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="299" t="s">
+      <c r="C5" s="298" t="s">
         <v>424</v>
       </c>
-      <c r="D5" s="300"/>
-      <c r="E5" s="300"/>
-      <c r="F5" s="300"/>
-      <c r="G5" s="300"/>
-      <c r="H5" s="300"/>
-      <c r="I5" s="301"/>
+      <c r="D5" s="310"/>
+      <c r="E5" s="310"/>
+      <c r="F5" s="310"/>
+      <c r="G5" s="310"/>
+      <c r="H5" s="310"/>
+      <c r="I5" s="297"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -47210,15 +47495,15 @@
       <c r="B7" s="70" t="s">
         <v>165</v>
       </c>
-      <c r="C7" s="299" t="s">
+      <c r="C7" s="298" t="s">
         <v>207</v>
       </c>
-      <c r="D7" s="300"/>
-      <c r="E7" s="300"/>
-      <c r="F7" s="300"/>
-      <c r="G7" s="300"/>
-      <c r="H7" s="300"/>
-      <c r="I7" s="301"/>
+      <c r="D7" s="310"/>
+      <c r="E7" s="310"/>
+      <c r="F7" s="310"/>
+      <c r="G7" s="310"/>
+      <c r="H7" s="310"/>
+      <c r="I7" s="297"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -47252,15 +47537,15 @@
       <c r="B9" s="70" t="s">
         <v>182</v>
       </c>
-      <c r="C9" s="302" t="s">
+      <c r="C9" s="296" t="s">
         <v>183</v>
       </c>
-      <c r="D9" s="300"/>
-      <c r="E9" s="300"/>
-      <c r="F9" s="300"/>
-      <c r="G9" s="300"/>
-      <c r="H9" s="300"/>
-      <c r="I9" s="301"/>
+      <c r="D9" s="310"/>
+      <c r="E9" s="310"/>
+      <c r="F9" s="310"/>
+      <c r="G9" s="310"/>
+      <c r="H9" s="310"/>
+      <c r="I9" s="297"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -47323,19 +47608,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="303" t="s">
+      <c r="B13" s="311" t="s">
         <v>125</v>
       </c>
-      <c r="C13" s="304"/>
-      <c r="D13" s="304"/>
-      <c r="E13" s="304"/>
-      <c r="F13" s="304"/>
-      <c r="G13" s="304"/>
-      <c r="H13" s="304"/>
-      <c r="I13" s="304"/>
-      <c r="J13" s="304"/>
-      <c r="K13" s="304"/>
-      <c r="L13" s="305"/>
+      <c r="C13" s="312"/>
+      <c r="D13" s="312"/>
+      <c r="E13" s="312"/>
+      <c r="F13" s="312"/>
+      <c r="G13" s="312"/>
+      <c r="H13" s="312"/>
+      <c r="I13" s="312"/>
+      <c r="J13" s="312"/>
+      <c r="K13" s="312"/>
+      <c r="L13" s="313"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -47364,11 +47649,11 @@
       <c r="I14" s="151" t="s">
         <v>132</v>
       </c>
-      <c r="J14" s="306" t="s">
+      <c r="J14" s="314" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="306"/>
-      <c r="L14" s="306"/>
+      <c r="K14" s="314"/>
+      <c r="L14" s="314"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -47393,11 +47678,11 @@
       <c r="I15" s="130" t="s">
         <v>288</v>
       </c>
-      <c r="J15" s="293" t="s">
+      <c r="J15" s="307" t="s">
         <v>305</v>
       </c>
-      <c r="K15" s="294"/>
-      <c r="L15" s="294"/>
+      <c r="K15" s="308"/>
+      <c r="L15" s="308"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -47412,9 +47697,9 @@
       <c r="G16" s="76"/>
       <c r="H16" s="76"/>
       <c r="I16" s="130"/>
-      <c r="J16" s="294"/>
-      <c r="K16" s="294"/>
-      <c r="L16" s="294"/>
+      <c r="J16" s="308"/>
+      <c r="K16" s="308"/>
+      <c r="L16" s="308"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -47593,11 +47878,11 @@
     </row>
     <row r="27" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="69"/>
-      <c r="B27" s="295" t="s">
+      <c r="B27" s="309" t="s">
         <v>167</v>
       </c>
-      <c r="C27" s="295"/>
-      <c r="D27" s="295"/>
+      <c r="C27" s="309"/>
+      <c r="D27" s="309"/>
       <c r="E27" s="80"/>
       <c r="F27" s="81"/>
       <c r="G27" s="80"/>
@@ -47612,12 +47897,12 @@
     </row>
     <row r="28" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="83"/>
-      <c r="B28" s="296" t="s">
+      <c r="B28" s="302" t="s">
         <v>127</v>
       </c>
-      <c r="C28" s="297"/>
-      <c r="D28" s="297"/>
-      <c r="E28" s="298"/>
+      <c r="C28" s="303"/>
+      <c r="D28" s="303"/>
+      <c r="E28" s="304"/>
       <c r="F28" s="151" t="s">
         <v>126</v>
       </c>
@@ -47709,10 +47994,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="85"/>
       <c r="C31" s="90"/>
-      <c r="D31" s="302" t="s">
+      <c r="D31" s="296" t="s">
         <v>173</v>
       </c>
-      <c r="E31" s="301"/>
+      <c r="E31" s="297"/>
       <c r="F31" s="74" t="s">
         <v>140</v>
       </c>
@@ -47742,10 +48027,10 @@
       <c r="A32" s="66"/>
       <c r="B32" s="85"/>
       <c r="C32" s="92"/>
-      <c r="D32" s="302" t="s">
+      <c r="D32" s="296" t="s">
         <v>174</v>
       </c>
-      <c r="E32" s="301"/>
+      <c r="E32" s="297"/>
       <c r="F32" s="74" t="s">
         <v>175</v>
       </c>
@@ -47808,10 +48093,10 @@
       <c r="A34" s="66"/>
       <c r="B34" s="85"/>
       <c r="C34" s="95"/>
-      <c r="D34" s="299" t="s">
+      <c r="D34" s="298" t="s">
         <v>408</v>
       </c>
-      <c r="E34" s="301"/>
+      <c r="E34" s="297"/>
       <c r="F34" s="105" t="s">
         <v>286</v>
       </c>
@@ -47841,10 +48126,10 @@
       <c r="A35" s="66"/>
       <c r="B35" s="85"/>
       <c r="C35" s="95"/>
-      <c r="D35" s="307" t="s">
+      <c r="D35" s="299" t="s">
         <v>299</v>
       </c>
-      <c r="E35" s="308"/>
+      <c r="E35" s="300"/>
       <c r="F35" s="105" t="s">
         <v>300</v>
       </c>
@@ -48180,11 +48465,11 @@
     </row>
     <row r="54" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A54" s="66"/>
-      <c r="B54" s="309" t="s">
+      <c r="B54" s="301" t="s">
         <v>143</v>
       </c>
-      <c r="C54" s="309"/>
-      <c r="D54" s="309"/>
+      <c r="C54" s="301"/>
+      <c r="D54" s="301"/>
       <c r="E54" s="66"/>
       <c r="F54" s="66"/>
       <c r="G54" s="66"/>
@@ -48201,12 +48486,12 @@
     </row>
     <row r="55" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A55" s="83"/>
-      <c r="B55" s="296" t="s">
+      <c r="B55" s="302" t="s">
         <v>127</v>
       </c>
-      <c r="C55" s="297"/>
-      <c r="D55" s="297"/>
-      <c r="E55" s="298"/>
+      <c r="C55" s="303"/>
+      <c r="D55" s="303"/>
+      <c r="E55" s="304"/>
       <c r="F55" s="151" t="s">
         <v>126</v>
       </c>
@@ -48298,10 +48583,10 @@
       <c r="A58" s="66"/>
       <c r="B58" s="85"/>
       <c r="C58" s="90"/>
-      <c r="D58" s="299" t="s">
+      <c r="D58" s="298" t="s">
         <v>173</v>
       </c>
-      <c r="E58" s="301"/>
+      <c r="E58" s="297"/>
       <c r="F58" s="74" t="s">
         <v>140</v>
       </c>
@@ -48331,10 +48616,10 @@
       <c r="A59" s="66"/>
       <c r="B59" s="85"/>
       <c r="C59" s="90"/>
-      <c r="D59" s="299" t="s">
+      <c r="D59" s="298" t="s">
         <v>0</v>
       </c>
-      <c r="E59" s="310"/>
+      <c r="E59" s="305"/>
       <c r="F59" s="105" t="s">
         <v>191</v>
       </c>
@@ -48364,10 +48649,10 @@
       <c r="A60" s="66"/>
       <c r="B60" s="85"/>
       <c r="C60" s="90"/>
-      <c r="D60" s="311" t="s">
+      <c r="D60" s="306" t="s">
         <v>196</v>
       </c>
-      <c r="E60" s="310"/>
+      <c r="E60" s="305"/>
       <c r="F60" s="105" t="s">
         <v>194</v>
       </c>
@@ -48461,8 +48746,8 @@
       <c r="A63" s="66"/>
       <c r="B63" s="91"/>
       <c r="C63" s="92"/>
-      <c r="D63" s="302"/>
-      <c r="E63" s="301"/>
+      <c r="D63" s="296"/>
+      <c r="E63" s="297"/>
       <c r="F63" s="74"/>
       <c r="G63" s="76"/>
       <c r="H63" s="76"/>
@@ -48852,14 +49137,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D59:E59"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
@@ -48872,6 +49149,14 @@
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D59:E59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -48882,8 +49167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O86"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView showGridLines="0" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -48965,15 +49250,15 @@
       <c r="B4" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C4" s="299" t="s">
+      <c r="C4" s="298" t="s">
         <v>426</v>
       </c>
-      <c r="D4" s="300"/>
-      <c r="E4" s="300"/>
-      <c r="F4" s="300"/>
-      <c r="G4" s="300"/>
-      <c r="H4" s="300"/>
-      <c r="I4" s="301"/>
+      <c r="D4" s="310"/>
+      <c r="E4" s="310"/>
+      <c r="F4" s="310"/>
+      <c r="G4" s="310"/>
+      <c r="H4" s="310"/>
+      <c r="I4" s="297"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -48986,15 +49271,15 @@
       <c r="B5" s="70" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="299" t="s">
+      <c r="C5" s="298" t="s">
         <v>427</v>
       </c>
-      <c r="D5" s="300"/>
-      <c r="E5" s="300"/>
-      <c r="F5" s="300"/>
-      <c r="G5" s="300"/>
-      <c r="H5" s="300"/>
-      <c r="I5" s="301"/>
+      <c r="D5" s="310"/>
+      <c r="E5" s="310"/>
+      <c r="F5" s="310"/>
+      <c r="G5" s="310"/>
+      <c r="H5" s="310"/>
+      <c r="I5" s="297"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -49028,15 +49313,15 @@
       <c r="B7" s="70" t="s">
         <v>165</v>
       </c>
-      <c r="C7" s="299" t="s">
+      <c r="C7" s="298" t="s">
         <v>207</v>
       </c>
-      <c r="D7" s="300"/>
-      <c r="E7" s="300"/>
-      <c r="F7" s="300"/>
-      <c r="G7" s="300"/>
-      <c r="H7" s="300"/>
-      <c r="I7" s="301"/>
+      <c r="D7" s="310"/>
+      <c r="E7" s="310"/>
+      <c r="F7" s="310"/>
+      <c r="G7" s="310"/>
+      <c r="H7" s="310"/>
+      <c r="I7" s="297"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -49070,15 +49355,15 @@
       <c r="B9" s="70" t="s">
         <v>182</v>
       </c>
-      <c r="C9" s="302" t="s">
+      <c r="C9" s="296" t="s">
         <v>183</v>
       </c>
-      <c r="D9" s="300"/>
-      <c r="E9" s="300"/>
-      <c r="F9" s="300"/>
-      <c r="G9" s="300"/>
-      <c r="H9" s="300"/>
-      <c r="I9" s="301"/>
+      <c r="D9" s="310"/>
+      <c r="E9" s="310"/>
+      <c r="F9" s="310"/>
+      <c r="G9" s="310"/>
+      <c r="H9" s="310"/>
+      <c r="I9" s="297"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -49141,19 +49426,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="303" t="s">
+      <c r="B13" s="311" t="s">
         <v>125</v>
       </c>
-      <c r="C13" s="304"/>
-      <c r="D13" s="304"/>
-      <c r="E13" s="304"/>
-      <c r="F13" s="304"/>
-      <c r="G13" s="304"/>
-      <c r="H13" s="304"/>
-      <c r="I13" s="304"/>
-      <c r="J13" s="304"/>
-      <c r="K13" s="304"/>
-      <c r="L13" s="305"/>
+      <c r="C13" s="312"/>
+      <c r="D13" s="312"/>
+      <c r="E13" s="312"/>
+      <c r="F13" s="312"/>
+      <c r="G13" s="312"/>
+      <c r="H13" s="312"/>
+      <c r="I13" s="312"/>
+      <c r="J13" s="312"/>
+      <c r="K13" s="312"/>
+      <c r="L13" s="313"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -49182,11 +49467,11 @@
       <c r="I14" s="151" t="s">
         <v>132</v>
       </c>
-      <c r="J14" s="306" t="s">
+      <c r="J14" s="314" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="306"/>
-      <c r="L14" s="306"/>
+      <c r="K14" s="314"/>
+      <c r="L14" s="314"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -49211,11 +49496,11 @@
       <c r="I15" s="130" t="s">
         <v>429</v>
       </c>
-      <c r="J15" s="293" t="s">
+      <c r="J15" s="307" t="s">
         <v>430</v>
       </c>
-      <c r="K15" s="294"/>
-      <c r="L15" s="294"/>
+      <c r="K15" s="308"/>
+      <c r="L15" s="308"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -49240,11 +49525,11 @@
       <c r="I16" s="130" t="s">
         <v>288</v>
       </c>
-      <c r="J16" s="293" t="s">
+      <c r="J16" s="307" t="s">
         <v>431</v>
       </c>
-      <c r="K16" s="294"/>
-      <c r="L16" s="294"/>
+      <c r="K16" s="308"/>
+      <c r="L16" s="308"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -49423,11 +49708,11 @@
     </row>
     <row r="27" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="69"/>
-      <c r="B27" s="295" t="s">
+      <c r="B27" s="309" t="s">
         <v>167</v>
       </c>
-      <c r="C27" s="295"/>
-      <c r="D27" s="295"/>
+      <c r="C27" s="309"/>
+      <c r="D27" s="309"/>
       <c r="E27" s="80"/>
       <c r="F27" s="81"/>
       <c r="G27" s="80"/>
@@ -49442,12 +49727,12 @@
     </row>
     <row r="28" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="83"/>
-      <c r="B28" s="296" t="s">
+      <c r="B28" s="302" t="s">
         <v>127</v>
       </c>
-      <c r="C28" s="297"/>
-      <c r="D28" s="297"/>
-      <c r="E28" s="298"/>
+      <c r="C28" s="303"/>
+      <c r="D28" s="303"/>
+      <c r="E28" s="304"/>
       <c r="F28" s="151" t="s">
         <v>126</v>
       </c>
@@ -49539,10 +49824,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="85"/>
       <c r="C31" s="90"/>
-      <c r="D31" s="302" t="s">
+      <c r="D31" s="296" t="s">
         <v>173</v>
       </c>
-      <c r="E31" s="301"/>
+      <c r="E31" s="297"/>
       <c r="F31" s="74" t="s">
         <v>140</v>
       </c>
@@ -49572,10 +49857,10 @@
       <c r="A32" s="66"/>
       <c r="B32" s="85"/>
       <c r="C32" s="92"/>
-      <c r="D32" s="302" t="s">
+      <c r="D32" s="296" t="s">
         <v>174</v>
       </c>
-      <c r="E32" s="301"/>
+      <c r="E32" s="297"/>
       <c r="F32" s="74" t="s">
         <v>175</v>
       </c>
@@ -49667,10 +49952,10 @@
       <c r="A35" s="66"/>
       <c r="B35" s="85"/>
       <c r="C35" s="95"/>
-      <c r="D35" s="299" t="s">
+      <c r="D35" s="298" t="s">
         <v>408</v>
       </c>
-      <c r="E35" s="301"/>
+      <c r="E35" s="297"/>
       <c r="F35" s="105" t="s">
         <v>286</v>
       </c>
@@ -49700,10 +49985,10 @@
       <c r="A36" s="66"/>
       <c r="B36" s="85"/>
       <c r="C36" s="95"/>
-      <c r="D36" s="307" t="s">
+      <c r="D36" s="299" t="s">
         <v>299</v>
       </c>
-      <c r="E36" s="308"/>
+      <c r="E36" s="300"/>
       <c r="F36" s="105" t="s">
         <v>300</v>
       </c>
@@ -50049,11 +50334,11 @@
     </row>
     <row r="57" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="66"/>
-      <c r="B57" s="309" t="s">
+      <c r="B57" s="301" t="s">
         <v>143</v>
       </c>
-      <c r="C57" s="309"/>
-      <c r="D57" s="309"/>
+      <c r="C57" s="301"/>
+      <c r="D57" s="301"/>
       <c r="E57" s="66"/>
       <c r="F57" s="66"/>
       <c r="G57" s="66"/>
@@ -50070,12 +50355,12 @@
     </row>
     <row r="58" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A58" s="66"/>
-      <c r="B58" s="296" t="s">
+      <c r="B58" s="302" t="s">
         <v>127</v>
       </c>
-      <c r="C58" s="297"/>
-      <c r="D58" s="297"/>
-      <c r="E58" s="298"/>
+      <c r="C58" s="303"/>
+      <c r="D58" s="303"/>
+      <c r="E58" s="304"/>
       <c r="F58" s="151" t="s">
         <v>126</v>
       </c>
@@ -50687,22 +50972,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="D36:E36"/>
     <mergeCell ref="B57:D57"/>
     <mergeCell ref="B58:E58"/>
     <mergeCell ref="D32:E32"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="D31:E31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -50713,7 +50998,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H53"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -50747,10 +51032,10 @@
       <c r="C4" s="111" t="s">
         <v>186</v>
       </c>
-      <c r="D4" s="260" t="s">
+      <c r="D4" s="266" t="s">
         <v>190</v>
       </c>
-      <c r="E4" s="260"/>
+      <c r="E4" s="266"/>
       <c r="F4" s="111" t="s">
         <v>187</v>
       </c>
@@ -50763,10 +51048,10 @@
       <c r="C5" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="261" t="s">
+      <c r="D5" s="265" t="s">
         <v>291</v>
       </c>
-      <c r="E5" s="261"/>
+      <c r="E5" s="265"/>
       <c r="F5" s="120" t="s">
         <v>249</v>
       </c>
@@ -50780,10 +51065,10 @@
       <c r="C6" s="119" t="s">
         <v>277</v>
       </c>
-      <c r="D6" s="261" t="s">
+      <c r="D6" s="265" t="s">
         <v>303</v>
       </c>
-      <c r="E6" s="261"/>
+      <c r="E6" s="265"/>
       <c r="F6" s="120" t="s">
         <v>280</v>
       </c>
@@ -50796,10 +51081,10 @@
       <c r="C7" s="119" t="s">
         <v>278</v>
       </c>
-      <c r="D7" s="261" t="s">
+      <c r="D7" s="265" t="s">
         <v>279</v>
       </c>
-      <c r="E7" s="261"/>
+      <c r="E7" s="265"/>
       <c r="F7" s="120" t="s">
         <v>281</v>
       </c>
@@ -50812,10 +51097,10 @@
       <c r="C8" s="119" t="s">
         <v>290</v>
       </c>
-      <c r="D8" s="261" t="s">
+      <c r="D8" s="265" t="s">
         <v>293</v>
       </c>
-      <c r="E8" s="261"/>
+      <c r="E8" s="265"/>
       <c r="F8" s="120" t="s">
         <v>292</v>
       </c>
@@ -50835,10 +51120,10 @@
       <c r="C10" s="111" t="s">
         <v>186</v>
       </c>
-      <c r="D10" s="260" t="s">
+      <c r="D10" s="266" t="s">
         <v>190</v>
       </c>
-      <c r="E10" s="260"/>
+      <c r="E10" s="266"/>
       <c r="F10" s="111" t="s">
         <v>187</v>
       </c>
@@ -50850,10 +51135,10 @@
       <c r="C11" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="261" t="s">
+      <c r="D11" s="265" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="261"/>
+      <c r="E11" s="265"/>
       <c r="F11" s="100"/>
       <c r="H11" s="100"/>
     </row>
@@ -50864,10 +51149,10 @@
       <c r="C12" s="119" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="261" t="s">
+      <c r="D12" s="265" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="261"/>
+      <c r="E12" s="265"/>
       <c r="F12" s="120"/>
       <c r="G12" s="100"/>
       <c r="H12" s="100"/>
@@ -50879,10 +51164,10 @@
       <c r="C13" s="119" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="261" t="s">
+      <c r="D13" s="265" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="261"/>
+      <c r="E13" s="265"/>
       <c r="F13" s="120"/>
       <c r="G13" s="100"/>
       <c r="H13" s="100"/>
@@ -50894,10 +51179,10 @@
       <c r="C14" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="261" t="s">
+      <c r="D14" s="265" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="261"/>
+      <c r="E14" s="265"/>
       <c r="F14" s="120"/>
       <c r="G14" s="100"/>
       <c r="H14" s="100"/>
@@ -50909,10 +51194,10 @@
       <c r="C15" s="119" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="261" t="s">
+      <c r="D15" s="265" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="261"/>
+      <c r="E15" s="265"/>
       <c r="F15" s="120"/>
       <c r="G15" s="100"/>
       <c r="H15" s="100"/>
@@ -50931,10 +51216,10 @@
       <c r="C18" s="111" t="s">
         <v>186</v>
       </c>
-      <c r="D18" s="260" t="s">
+      <c r="D18" s="266" t="s">
         <v>190</v>
       </c>
-      <c r="E18" s="260"/>
+      <c r="E18" s="266"/>
       <c r="F18" s="111" t="s">
         <v>187</v>
       </c>
@@ -50946,10 +51231,10 @@
       <c r="C19" s="119" t="s">
         <v>250</v>
       </c>
-      <c r="D19" s="261" t="s">
+      <c r="D19" s="265" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="261"/>
+      <c r="E19" s="265"/>
       <c r="F19" s="122"/>
       <c r="G19" s="100"/>
       <c r="H19" s="100"/>
@@ -50961,10 +51246,10 @@
       <c r="C20" s="119" t="s">
         <v>251</v>
       </c>
-      <c r="D20" s="261" t="s">
+      <c r="D20" s="265" t="s">
         <v>256</v>
       </c>
-      <c r="E20" s="261"/>
+      <c r="E20" s="265"/>
       <c r="F20" s="122"/>
       <c r="G20" s="100"/>
       <c r="H20" s="100"/>
@@ -50976,10 +51261,10 @@
       <c r="C21" s="119" t="s">
         <v>252</v>
       </c>
-      <c r="D21" s="261" t="s">
+      <c r="D21" s="265" t="s">
         <v>257</v>
       </c>
-      <c r="E21" s="261"/>
+      <c r="E21" s="265"/>
       <c r="F21" s="122"/>
       <c r="G21" s="100"/>
       <c r="H21" s="100"/>
@@ -50991,10 +51276,10 @@
       <c r="C22" s="119" t="s">
         <v>253</v>
       </c>
-      <c r="D22" s="261" t="s">
+      <c r="D22" s="265" t="s">
         <v>461</v>
       </c>
-      <c r="E22" s="261"/>
+      <c r="E22" s="265"/>
       <c r="F22" s="122"/>
       <c r="G22" s="100"/>
       <c r="H22" s="100"/>
@@ -51006,10 +51291,10 @@
       <c r="C23" s="119" t="s">
         <v>254</v>
       </c>
-      <c r="D23" s="261" t="s">
+      <c r="D23" s="265" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="261"/>
+      <c r="E23" s="265"/>
       <c r="F23" s="122"/>
       <c r="G23" s="100"/>
       <c r="H23" s="100"/>
@@ -51021,10 +51306,10 @@
       <c r="C24" s="119" t="s">
         <v>255</v>
       </c>
-      <c r="D24" s="261" t="s">
+      <c r="D24" s="265" t="s">
         <v>25</v>
       </c>
-      <c r="E24" s="261"/>
+      <c r="E24" s="265"/>
       <c r="F24" s="122"/>
       <c r="G24" s="100"/>
       <c r="H24" s="100"/>
@@ -51043,10 +51328,10 @@
       <c r="C27" s="111" t="s">
         <v>186</v>
       </c>
-      <c r="D27" s="260" t="s">
+      <c r="D27" s="266" t="s">
         <v>190</v>
       </c>
-      <c r="E27" s="260"/>
+      <c r="E27" s="266"/>
       <c r="F27" s="111" t="s">
         <v>187</v>
       </c>
@@ -51058,10 +51343,10 @@
       <c r="C28" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="261" t="s">
+      <c r="D28" s="265" t="s">
         <v>189</v>
       </c>
-      <c r="E28" s="261"/>
+      <c r="E28" s="265"/>
       <c r="F28" s="122"/>
       <c r="G28" s="100"/>
       <c r="H28" s="100"/>
@@ -51073,10 +51358,10 @@
       <c r="C29" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="261" t="s">
+      <c r="D29" s="265" t="s">
         <v>269</v>
       </c>
-      <c r="E29" s="261"/>
+      <c r="E29" s="265"/>
       <c r="F29" s="122"/>
       <c r="G29" s="100"/>
       <c r="H29" s="100"/>
@@ -51088,10 +51373,10 @@
       <c r="C30" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="D30" s="261" t="s">
+      <c r="D30" s="265" t="s">
         <v>455</v>
       </c>
-      <c r="E30" s="261"/>
+      <c r="E30" s="265"/>
       <c r="F30" s="122"/>
       <c r="G30" s="100"/>
       <c r="H30" s="100"/>
@@ -51103,10 +51388,10 @@
       <c r="C31" s="119" t="s">
         <v>22</v>
       </c>
-      <c r="D31" s="261" t="s">
+      <c r="D31" s="265" t="s">
         <v>258</v>
       </c>
-      <c r="E31" s="261"/>
+      <c r="E31" s="265"/>
       <c r="F31" s="122"/>
       <c r="G31" s="100"/>
       <c r="H31" s="100"/>
@@ -51118,10 +51403,10 @@
       <c r="C32" s="119" t="s">
         <v>23</v>
       </c>
-      <c r="D32" s="261" t="s">
+      <c r="D32" s="265" t="s">
         <v>259</v>
       </c>
-      <c r="E32" s="261"/>
+      <c r="E32" s="265"/>
       <c r="F32" s="122"/>
       <c r="G32" s="100"/>
       <c r="H32" s="100"/>
@@ -51138,10 +51423,10 @@
       <c r="C36" s="111" t="s">
         <v>186</v>
       </c>
-      <c r="D36" s="260" t="s">
+      <c r="D36" s="266" t="s">
         <v>190</v>
       </c>
-      <c r="E36" s="260"/>
+      <c r="E36" s="266"/>
       <c r="F36" s="111" t="s">
         <v>187</v>
       </c>
@@ -51153,10 +51438,10 @@
       <c r="C37" s="119" t="s">
         <v>108</v>
       </c>
-      <c r="D37" s="262" t="s">
+      <c r="D37" s="267" t="s">
         <v>262</v>
       </c>
-      <c r="E37" s="263"/>
+      <c r="E37" s="268"/>
       <c r="F37" s="126"/>
     </row>
     <row r="38" spans="2:6" ht="15" customHeight="1">
@@ -51166,10 +51451,10 @@
       <c r="C38" s="119" t="s">
         <v>109</v>
       </c>
-      <c r="D38" s="262" t="s">
+      <c r="D38" s="267" t="s">
         <v>263</v>
       </c>
-      <c r="E38" s="263"/>
+      <c r="E38" s="268"/>
       <c r="F38" s="126"/>
     </row>
     <row r="39" spans="2:6" ht="15" customHeight="1">
@@ -51179,10 +51464,10 @@
       <c r="C39" s="119" t="s">
         <v>110</v>
       </c>
-      <c r="D39" s="262" t="s">
+      <c r="D39" s="267" t="s">
         <v>264</v>
       </c>
-      <c r="E39" s="263"/>
+      <c r="E39" s="268"/>
       <c r="F39" s="126"/>
     </row>
     <row r="40" spans="2:6" ht="15" customHeight="1">
@@ -51192,10 +51477,10 @@
       <c r="C40" s="119" t="s">
         <v>111</v>
       </c>
-      <c r="D40" s="262" t="s">
+      <c r="D40" s="267" t="s">
         <v>265</v>
       </c>
-      <c r="E40" s="263"/>
+      <c r="E40" s="268"/>
       <c r="F40" s="126"/>
     </row>
     <row r="41" spans="2:6" ht="15" customHeight="1">
@@ -51205,10 +51490,10 @@
       <c r="C41" s="119" t="s">
         <v>112</v>
       </c>
-      <c r="D41" s="262" t="s">
+      <c r="D41" s="267" t="s">
         <v>266</v>
       </c>
-      <c r="E41" s="263"/>
+      <c r="E41" s="268"/>
       <c r="F41" s="126"/>
     </row>
     <row r="42" spans="2:6">
@@ -51218,10 +51503,10 @@
       <c r="C42" s="127">
         <v>2506</v>
       </c>
-      <c r="D42" s="264" t="s">
+      <c r="D42" s="263" t="s">
         <v>268</v>
       </c>
-      <c r="E42" s="265"/>
+      <c r="E42" s="264"/>
       <c r="F42" s="128"/>
     </row>
     <row r="43" spans="2:6">
@@ -51231,10 +51516,10 @@
       <c r="C43" s="127">
         <v>2507</v>
       </c>
-      <c r="D43" s="264" t="s">
+      <c r="D43" s="263" t="s">
         <v>328</v>
       </c>
-      <c r="E43" s="265"/>
+      <c r="E43" s="264"/>
       <c r="F43" s="129"/>
     </row>
     <row r="45" spans="2:6" ht="15.75">
@@ -51249,10 +51534,10 @@
       <c r="C46" s="111" t="s">
         <v>186</v>
       </c>
-      <c r="D46" s="260" t="s">
+      <c r="D46" s="266" t="s">
         <v>190</v>
       </c>
-      <c r="E46" s="260"/>
+      <c r="E46" s="266"/>
       <c r="F46" s="111" t="s">
         <v>187</v>
       </c>
@@ -51264,10 +51549,10 @@
       <c r="C47" s="119" t="s">
         <v>96</v>
       </c>
-      <c r="D47" s="261" t="s">
+      <c r="D47" s="265" t="s">
         <v>271</v>
       </c>
-      <c r="E47" s="261"/>
+      <c r="E47" s="265"/>
       <c r="F47" s="122"/>
     </row>
     <row r="48" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -51277,10 +51562,10 @@
       <c r="C48" s="119" t="s">
         <v>97</v>
       </c>
-      <c r="D48" s="261" t="s">
+      <c r="D48" s="265" t="s">
         <v>272</v>
       </c>
-      <c r="E48" s="261"/>
+      <c r="E48" s="265"/>
       <c r="F48" s="122"/>
     </row>
     <row r="49" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -51290,10 +51575,10 @@
       <c r="C49" s="119" t="s">
         <v>98</v>
       </c>
-      <c r="D49" s="261" t="s">
+      <c r="D49" s="265" t="s">
         <v>273</v>
       </c>
-      <c r="E49" s="261"/>
+      <c r="E49" s="265"/>
       <c r="F49" s="122"/>
     </row>
     <row r="50" spans="2:6" ht="32.25" customHeight="1">
@@ -51303,10 +51588,10 @@
       <c r="C50" s="119" t="s">
         <v>99</v>
       </c>
-      <c r="D50" s="261" t="s">
+      <c r="D50" s="265" t="s">
         <v>274</v>
       </c>
-      <c r="E50" s="261"/>
+      <c r="E50" s="265"/>
       <c r="F50" s="122" t="s">
         <v>454</v>
       </c>
@@ -51318,10 +51603,10 @@
       <c r="C51" s="119" t="s">
         <v>100</v>
       </c>
-      <c r="D51" s="261" t="s">
+      <c r="D51" s="265" t="s">
         <v>275</v>
       </c>
-      <c r="E51" s="261"/>
+      <c r="E51" s="265"/>
       <c r="F51" s="122"/>
     </row>
     <row r="52" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -51331,28 +51616,25 @@
       <c r="C52" s="119" t="s">
         <v>101</v>
       </c>
-      <c r="D52" s="261" t="s">
+      <c r="D52" s="265" t="s">
         <v>276</v>
       </c>
-      <c r="E52" s="261"/>
+      <c r="E52" s="265"/>
       <c r="F52" s="122"/>
     </row>
     <row r="53" spans="2:6" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
     <mergeCell ref="D52:E52"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D14:E14"/>
@@ -51369,16 +51651,19 @@
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -51395,8 +51680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N26"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="E13" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15"/>
@@ -51458,10 +51743,10 @@
       <c r="D4" s="96" t="s">
         <v>160</v>
       </c>
-      <c r="E4" s="266" t="s">
+      <c r="E4" s="269" t="s">
         <v>159</v>
       </c>
-      <c r="F4" s="267"/>
+      <c r="F4" s="270"/>
       <c r="G4" s="142" t="s">
         <v>158</v>
       </c>
@@ -51474,9 +51759,9 @@
         <v>1</v>
       </c>
       <c r="C5" s="118" t="s">
-        <v>200</v>
-      </c>
-      <c r="D5" s="268" t="s">
+        <v>464</v>
+      </c>
+      <c r="D5" s="271" t="s">
         <v>155</v>
       </c>
       <c r="E5" s="202" t="s">
@@ -51501,7 +51786,7 @@
       <c r="C6" s="118" t="s">
         <v>201</v>
       </c>
-      <c r="D6" s="269"/>
+      <c r="D6" s="272"/>
       <c r="E6" s="203" t="s">
         <v>157</v>
       </c>
@@ -51524,7 +51809,7 @@
       <c r="C7" s="118" t="s">
         <v>446</v>
       </c>
-      <c r="D7" s="269"/>
+      <c r="D7" s="272"/>
       <c r="E7" s="202" t="s">
         <v>206</v>
       </c>
@@ -51547,7 +51832,7 @@
       <c r="C8" s="118" t="s">
         <v>202</v>
       </c>
-      <c r="D8" s="269"/>
+      <c r="D8" s="272"/>
       <c r="E8" s="202" t="s">
         <v>207</v>
       </c>
@@ -51570,7 +51855,7 @@
       <c r="C9" s="118" t="s">
         <v>203</v>
       </c>
-      <c r="D9" s="269"/>
+      <c r="D9" s="272"/>
       <c r="E9" s="202" t="s">
         <v>206</v>
       </c>
@@ -51593,7 +51878,7 @@
       <c r="C10" s="118" t="s">
         <v>204</v>
       </c>
-      <c r="D10" s="269"/>
+      <c r="D10" s="272"/>
       <c r="E10" s="202" t="s">
         <v>207</v>
       </c>
@@ -51616,7 +51901,7 @@
       <c r="C11" s="118" t="s">
         <v>205</v>
       </c>
-      <c r="D11" s="270"/>
+      <c r="D11" s="273"/>
       <c r="E11" s="202" t="s">
         <v>207</v>
       </c>
@@ -51639,7 +51924,7 @@
       <c r="C12" s="118" t="s">
         <v>214</v>
       </c>
-      <c r="D12" s="271" t="s">
+      <c r="D12" s="274" t="s">
         <v>267</v>
       </c>
       <c r="E12" s="202" t="s">
@@ -51664,7 +51949,7 @@
       <c r="C13" s="118" t="s">
         <v>215</v>
       </c>
-      <c r="D13" s="272"/>
+      <c r="D13" s="275"/>
       <c r="E13" s="202" t="s">
         <v>206</v>
       </c>
@@ -51687,7 +51972,7 @@
       <c r="C14" s="118" t="s">
         <v>216</v>
       </c>
-      <c r="D14" s="272"/>
+      <c r="D14" s="275"/>
       <c r="E14" s="202" t="s">
         <v>206</v>
       </c>
@@ -51710,7 +51995,7 @@
       <c r="C15" s="118" t="s">
         <v>217</v>
       </c>
-      <c r="D15" s="272"/>
+      <c r="D15" s="275"/>
       <c r="E15" s="202" t="s">
         <v>206</v>
       </c>
@@ -51733,7 +52018,7 @@
       <c r="C16" s="118" t="s">
         <v>218</v>
       </c>
-      <c r="D16" s="272"/>
+      <c r="D16" s="275"/>
       <c r="E16" s="202" t="s">
         <v>225</v>
       </c>
@@ -51756,7 +52041,7 @@
       <c r="C17" s="118" t="s">
         <v>219</v>
       </c>
-      <c r="D17" s="272"/>
+      <c r="D17" s="275"/>
       <c r="E17" s="202" t="s">
         <v>207</v>
       </c>
@@ -51779,7 +52064,7 @@
       <c r="C18" s="118" t="s">
         <v>220</v>
       </c>
-      <c r="D18" s="272"/>
+      <c r="D18" s="275"/>
       <c r="E18" s="202" t="s">
         <v>207</v>
       </c>
@@ -51802,7 +52087,7 @@
       <c r="C19" s="118" t="s">
         <v>229</v>
       </c>
-      <c r="D19" s="273" t="s">
+      <c r="D19" s="276" t="s">
         <v>156</v>
       </c>
       <c r="E19" s="202" t="s">
@@ -51827,7 +52112,7 @@
       <c r="C20" s="118" t="s">
         <v>230</v>
       </c>
-      <c r="D20" s="274"/>
+      <c r="D20" s="277"/>
       <c r="E20" s="202" t="s">
         <v>206</v>
       </c>
@@ -51850,7 +52135,7 @@
       <c r="C21" s="118" t="s">
         <v>231</v>
       </c>
-      <c r="D21" s="274"/>
+      <c r="D21" s="277"/>
       <c r="E21" s="202" t="s">
         <v>225</v>
       </c>
@@ -51873,7 +52158,7 @@
       <c r="C22" s="118" t="s">
         <v>232</v>
       </c>
-      <c r="D22" s="274"/>
+      <c r="D22" s="277"/>
       <c r="E22" s="202" t="s">
         <v>207</v>
       </c>
@@ -51896,7 +52181,7 @@
       <c r="C23" s="118" t="s">
         <v>233</v>
       </c>
-      <c r="D23" s="275"/>
+      <c r="D23" s="278"/>
       <c r="E23" s="202" t="s">
         <v>207</v>
       </c>
@@ -51965,10 +52250,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O91"/>
+  <dimension ref="A1:O93"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60:D60"/>
+    <sheetView showGridLines="0" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41:K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -52050,15 +52335,15 @@
       <c r="B4" s="188" t="s">
         <v>123</v>
       </c>
-      <c r="C4" s="276" t="s">
+      <c r="C4" s="279" t="s">
         <v>200</v>
       </c>
-      <c r="D4" s="278"/>
-      <c r="E4" s="278"/>
-      <c r="F4" s="278"/>
-      <c r="G4" s="278"/>
-      <c r="H4" s="278"/>
-      <c r="I4" s="277"/>
+      <c r="D4" s="289"/>
+      <c r="E4" s="289"/>
+      <c r="F4" s="289"/>
+      <c r="G4" s="289"/>
+      <c r="H4" s="289"/>
+      <c r="I4" s="280"/>
       <c r="J4" s="154"/>
       <c r="K4" s="154"/>
       <c r="L4" s="154"/>
@@ -52071,15 +52356,15 @@
       <c r="B5" s="188" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="276" t="s">
+      <c r="C5" s="279" t="s">
         <v>379</v>
       </c>
-      <c r="D5" s="278"/>
-      <c r="E5" s="278"/>
-      <c r="F5" s="278"/>
-      <c r="G5" s="278"/>
-      <c r="H5" s="278"/>
-      <c r="I5" s="277"/>
+      <c r="D5" s="289"/>
+      <c r="E5" s="289"/>
+      <c r="F5" s="289"/>
+      <c r="G5" s="289"/>
+      <c r="H5" s="289"/>
+      <c r="I5" s="280"/>
       <c r="J5" s="154"/>
       <c r="K5" s="154"/>
       <c r="L5" s="154"/>
@@ -52113,15 +52398,15 @@
       <c r="B7" s="188" t="s">
         <v>165</v>
       </c>
-      <c r="C7" s="276" t="s">
+      <c r="C7" s="279" t="s">
         <v>157</v>
       </c>
-      <c r="D7" s="278"/>
-      <c r="E7" s="278"/>
-      <c r="F7" s="278"/>
-      <c r="G7" s="278"/>
-      <c r="H7" s="278"/>
-      <c r="I7" s="277"/>
+      <c r="D7" s="289"/>
+      <c r="E7" s="289"/>
+      <c r="F7" s="289"/>
+      <c r="G7" s="289"/>
+      <c r="H7" s="289"/>
+      <c r="I7" s="280"/>
       <c r="J7" s="154"/>
       <c r="K7" s="154"/>
       <c r="L7" s="154"/>
@@ -52155,15 +52440,15 @@
       <c r="B9" s="188" t="s">
         <v>182</v>
       </c>
-      <c r="C9" s="276" t="s">
+      <c r="C9" s="279" t="s">
         <v>183</v>
       </c>
-      <c r="D9" s="278"/>
-      <c r="E9" s="278"/>
-      <c r="F9" s="278"/>
-      <c r="G9" s="278"/>
-      <c r="H9" s="278"/>
-      <c r="I9" s="277"/>
+      <c r="D9" s="289"/>
+      <c r="E9" s="289"/>
+      <c r="F9" s="289"/>
+      <c r="G9" s="289"/>
+      <c r="H9" s="289"/>
+      <c r="I9" s="280"/>
       <c r="J9" s="154"/>
       <c r="K9" s="154"/>
       <c r="L9" s="154"/>
@@ -52226,19 +52511,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="154"/>
-      <c r="B13" s="280" t="s">
+      <c r="B13" s="282" t="s">
         <v>125</v>
       </c>
-      <c r="C13" s="281"/>
-      <c r="D13" s="281"/>
-      <c r="E13" s="281"/>
-      <c r="F13" s="281"/>
-      <c r="G13" s="281"/>
-      <c r="H13" s="281"/>
-      <c r="I13" s="281"/>
-      <c r="J13" s="281"/>
-      <c r="K13" s="281"/>
-      <c r="L13" s="282"/>
+      <c r="C13" s="283"/>
+      <c r="D13" s="283"/>
+      <c r="E13" s="283"/>
+      <c r="F13" s="283"/>
+      <c r="G13" s="283"/>
+      <c r="H13" s="283"/>
+      <c r="I13" s="283"/>
+      <c r="J13" s="283"/>
+      <c r="K13" s="283"/>
+      <c r="L13" s="284"/>
       <c r="M13" s="154"/>
       <c r="N13" s="154"/>
       <c r="O13" s="154"/>
@@ -52267,11 +52552,11 @@
       <c r="I14" s="175" t="s">
         <v>132</v>
       </c>
-      <c r="J14" s="279" t="s">
+      <c r="J14" s="281" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="279"/>
-      <c r="L14" s="279"/>
+      <c r="K14" s="281"/>
+      <c r="L14" s="281"/>
       <c r="M14" s="154"/>
       <c r="N14" s="154"/>
       <c r="O14" s="154"/>
@@ -52300,11 +52585,11 @@
       <c r="I15" s="130" t="s">
         <v>377</v>
       </c>
-      <c r="J15" s="286" t="s">
+      <c r="J15" s="288" t="s">
         <v>376</v>
       </c>
-      <c r="K15" s="286"/>
-      <c r="L15" s="286"/>
+      <c r="K15" s="288"/>
+      <c r="L15" s="288"/>
       <c r="M15" s="154"/>
       <c r="N15" s="154"/>
       <c r="O15" s="154"/>
@@ -52333,11 +52618,11 @@
       <c r="I16" s="130" t="s">
         <v>373</v>
       </c>
-      <c r="J16" s="286" t="s">
+      <c r="J16" s="288" t="s">
         <v>372</v>
       </c>
-      <c r="K16" s="286"/>
-      <c r="L16" s="286"/>
+      <c r="K16" s="288"/>
+      <c r="L16" s="288"/>
       <c r="M16" s="154"/>
       <c r="N16" s="154"/>
       <c r="O16" s="154"/>
@@ -52399,11 +52684,11 @@
       <c r="I18" s="160" t="s">
         <v>369</v>
       </c>
-      <c r="J18" s="276" t="s">
+      <c r="J18" s="279" t="s">
         <v>368</v>
       </c>
-      <c r="K18" s="278"/>
-      <c r="L18" s="277"/>
+      <c r="K18" s="289"/>
+      <c r="L18" s="280"/>
       <c r="M18" s="154"/>
       <c r="N18" s="154"/>
       <c r="O18" s="154"/>
@@ -52432,11 +52717,11 @@
       <c r="I19" s="183" t="s">
         <v>367</v>
       </c>
-      <c r="J19" s="276" t="s">
+      <c r="J19" s="279" t="s">
         <v>366</v>
       </c>
-      <c r="K19" s="278"/>
-      <c r="L19" s="277"/>
+      <c r="K19" s="289"/>
+      <c r="L19" s="280"/>
       <c r="M19" s="154"/>
       <c r="N19" s="154"/>
       <c r="O19" s="154"/>
@@ -52598,11 +52883,11 @@
     </row>
     <row r="29" spans="1:15" s="178" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="179"/>
-      <c r="B29" s="290" t="s">
+      <c r="B29" s="293" t="s">
         <v>167</v>
       </c>
-      <c r="C29" s="290"/>
-      <c r="D29" s="290"/>
+      <c r="C29" s="293"/>
+      <c r="D29" s="293"/>
       <c r="E29" s="180"/>
       <c r="F29" s="181"/>
       <c r="G29" s="180"/>
@@ -52617,12 +52902,12 @@
     </row>
     <row r="30" spans="1:15" s="173" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="174"/>
-      <c r="B30" s="283" t="s">
+      <c r="B30" s="285" t="s">
         <v>127</v>
       </c>
-      <c r="C30" s="284"/>
-      <c r="D30" s="284"/>
-      <c r="E30" s="285"/>
+      <c r="C30" s="286"/>
+      <c r="D30" s="286"/>
+      <c r="E30" s="287"/>
       <c r="F30" s="175" t="s">
         <v>126</v>
       </c>
@@ -52714,10 +52999,10 @@
       <c r="A33" s="154"/>
       <c r="B33" s="168"/>
       <c r="C33" s="172"/>
-      <c r="D33" s="276" t="s">
+      <c r="D33" s="279" t="s">
         <v>173</v>
       </c>
-      <c r="E33" s="277"/>
+      <c r="E33" s="280"/>
       <c r="F33" s="162" t="s">
         <v>344</v>
       </c>
@@ -52747,10 +53032,10 @@
       <c r="A34" s="154"/>
       <c r="B34" s="168"/>
       <c r="C34" s="163"/>
-      <c r="D34" s="276" t="s">
+      <c r="D34" s="279" t="s">
         <v>174</v>
       </c>
-      <c r="E34" s="277"/>
+      <c r="E34" s="280"/>
       <c r="F34" s="162" t="s">
         <v>175</v>
       </c>
@@ -52813,10 +53098,10 @@
       <c r="A36" s="154"/>
       <c r="B36" s="168"/>
       <c r="C36" s="171"/>
-      <c r="D36" s="276" t="s">
+      <c r="D36" s="279" t="s">
         <v>365</v>
       </c>
-      <c r="E36" s="277"/>
+      <c r="E36" s="280"/>
       <c r="F36" s="162" t="s">
         <v>177</v>
       </c>
@@ -52846,10 +53131,10 @@
       <c r="A37" s="154"/>
       <c r="B37" s="168"/>
       <c r="C37" s="171"/>
-      <c r="D37" s="288" t="s">
+      <c r="D37" s="291" t="s">
         <v>362</v>
       </c>
-      <c r="E37" s="289"/>
+      <c r="E37" s="292"/>
       <c r="F37" s="162" t="s">
         <v>361</v>
       </c>
@@ -52879,10 +53164,10 @@
       <c r="A38" s="154"/>
       <c r="B38" s="168"/>
       <c r="C38" s="172"/>
-      <c r="D38" s="276" t="s">
+      <c r="D38" s="279" t="s">
         <v>359</v>
       </c>
-      <c r="E38" s="277"/>
+      <c r="E38" s="280"/>
       <c r="F38" s="162" t="s">
         <v>358</v>
       </c>
@@ -52976,69 +53261,87 @@
     </row>
     <row r="41" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A41" s="154"/>
-      <c r="B41" s="164"/>
-      <c r="C41" s="163"/>
-      <c r="D41" s="276" t="s">
-        <v>350</v>
-      </c>
-      <c r="E41" s="277"/>
-      <c r="F41" s="162" t="s">
-        <v>349</v>
-      </c>
-      <c r="G41" s="161" t="s">
-        <v>348</v>
-      </c>
-      <c r="H41" s="161" t="s">
+      <c r="B41" s="168"/>
+      <c r="C41" s="172"/>
+      <c r="D41" s="215" t="s">
+        <v>335</v>
+      </c>
+      <c r="E41" s="216"/>
+      <c r="F41" s="105" t="s">
+        <v>336</v>
+      </c>
+      <c r="G41" s="217" t="s">
+        <v>337</v>
+      </c>
+      <c r="H41" s="76" t="s">
         <v>168</v>
       </c>
-      <c r="I41" s="161">
+      <c r="I41" s="76">
         <v>1</v>
       </c>
-      <c r="J41" s="161" t="s">
-        <v>343</v>
-      </c>
-      <c r="K41" s="161" t="s">
-        <v>133</v>
-      </c>
-      <c r="L41" s="160" t="s">
-        <v>178</v>
-      </c>
+      <c r="J41" s="76"/>
+      <c r="K41" s="76"/>
+      <c r="L41" s="107"/>
       <c r="M41" s="154"/>
       <c r="N41" s="154"/>
       <c r="O41" s="154"/>
     </row>
     <row r="42" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A42" s="154"/>
-      <c r="B42" s="156"/>
-      <c r="C42" s="159"/>
-      <c r="D42" s="158"/>
-      <c r="E42" s="158"/>
-      <c r="F42" s="156"/>
-      <c r="G42" s="157"/>
-      <c r="H42" s="157"/>
-      <c r="I42" s="157"/>
-      <c r="J42" s="157"/>
-      <c r="K42" s="157"/>
-      <c r="L42" s="156"/>
+      <c r="B42" s="168"/>
+      <c r="C42" s="172"/>
+      <c r="D42" s="215" t="s">
+        <v>338</v>
+      </c>
+      <c r="E42" s="216"/>
+      <c r="F42" s="105" t="s">
+        <v>339</v>
+      </c>
+      <c r="G42" s="217" t="s">
+        <v>337</v>
+      </c>
+      <c r="H42" s="76" t="s">
+        <v>168</v>
+      </c>
+      <c r="I42" s="76">
+        <v>1</v>
+      </c>
+      <c r="J42" s="76"/>
+      <c r="K42" s="76"/>
+      <c r="L42" s="107"/>
       <c r="M42" s="154"/>
       <c r="N42" s="154"/>
       <c r="O42" s="154"/>
     </row>
     <row r="43" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A43" s="154"/>
-      <c r="B43" s="155" t="s">
-        <v>185</v>
-      </c>
-      <c r="C43" s="159"/>
-      <c r="D43" s="158"/>
-      <c r="E43" s="158"/>
-      <c r="F43" s="156"/>
-      <c r="G43" s="157"/>
-      <c r="H43" s="157"/>
-      <c r="I43" s="157"/>
-      <c r="J43" s="157"/>
-      <c r="K43" s="157"/>
-      <c r="L43" s="156"/>
+      <c r="B43" s="164"/>
+      <c r="C43" s="163"/>
+      <c r="D43" s="279" t="s">
+        <v>350</v>
+      </c>
+      <c r="E43" s="280"/>
+      <c r="F43" s="162" t="s">
+        <v>349</v>
+      </c>
+      <c r="G43" s="161" t="s">
+        <v>348</v>
+      </c>
+      <c r="H43" s="161" t="s">
+        <v>168</v>
+      </c>
+      <c r="I43" s="161">
+        <v>1</v>
+      </c>
+      <c r="J43" s="161" t="s">
+        <v>343</v>
+      </c>
+      <c r="K43" s="161" t="s">
+        <v>133</v>
+      </c>
+      <c r="L43" s="160" t="s">
+        <v>178</v>
+      </c>
       <c r="M43" s="154"/>
       <c r="N43" s="154"/>
       <c r="O43" s="154"/>
@@ -53062,7 +53365,9 @@
     </row>
     <row r="45" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A45" s="154"/>
-      <c r="B45" s="156"/>
+      <c r="B45" s="155" t="s">
+        <v>185</v>
+      </c>
       <c r="C45" s="159"/>
       <c r="D45" s="158"/>
       <c r="E45" s="158"/>
@@ -53300,156 +53605,128 @@
     </row>
     <row r="59" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A59" s="154"/>
-      <c r="B59" s="154"/>
-      <c r="C59" s="154"/>
-      <c r="D59" s="154"/>
-      <c r="E59" s="154"/>
-      <c r="F59" s="154"/>
-      <c r="G59" s="154"/>
-      <c r="H59" s="154"/>
-      <c r="I59" s="154"/>
-      <c r="J59" s="154"/>
-      <c r="K59" s="154"/>
-      <c r="L59" s="154"/>
+      <c r="B59" s="156"/>
+      <c r="C59" s="159"/>
+      <c r="D59" s="158"/>
+      <c r="E59" s="158"/>
+      <c r="F59" s="156"/>
+      <c r="G59" s="157"/>
+      <c r="H59" s="157"/>
+      <c r="I59" s="157"/>
+      <c r="J59" s="157"/>
+      <c r="K59" s="157"/>
+      <c r="L59" s="156"/>
       <c r="M59" s="154"/>
       <c r="N59" s="154"/>
       <c r="O59" s="154"/>
     </row>
     <row r="60" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A60" s="154"/>
-      <c r="B60" s="287" t="s">
-        <v>347</v>
-      </c>
-      <c r="C60" s="287"/>
-      <c r="D60" s="287"/>
-      <c r="E60" s="154"/>
-      <c r="F60" s="154"/>
-      <c r="G60" s="154"/>
-      <c r="H60" s="154"/>
-      <c r="I60" s="154"/>
-      <c r="J60" s="154" t="s">
-        <v>343</v>
-      </c>
-      <c r="K60" s="154"/>
-      <c r="L60" s="154"/>
+      <c r="B60" s="156"/>
+      <c r="C60" s="159"/>
+      <c r="D60" s="158"/>
+      <c r="E60" s="158"/>
+      <c r="F60" s="156"/>
+      <c r="G60" s="157"/>
+      <c r="H60" s="157"/>
+      <c r="I60" s="157"/>
+      <c r="J60" s="157"/>
+      <c r="K60" s="157"/>
+      <c r="L60" s="156"/>
       <c r="M60" s="154"/>
       <c r="N60" s="154"/>
       <c r="O60" s="154"/>
     </row>
-    <row r="61" spans="1:15" s="173" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A61" s="174"/>
-      <c r="B61" s="283" t="s">
-        <v>127</v>
-      </c>
-      <c r="C61" s="284"/>
-      <c r="D61" s="284"/>
-      <c r="E61" s="285"/>
-      <c r="F61" s="175" t="s">
-        <v>126</v>
-      </c>
-      <c r="G61" s="175" t="s">
-        <v>128</v>
-      </c>
-      <c r="H61" s="175" t="s">
-        <v>129</v>
-      </c>
-      <c r="I61" s="175" t="s">
-        <v>346</v>
-      </c>
-      <c r="J61" s="175" t="s">
-        <v>130</v>
-      </c>
-      <c r="K61" s="175" t="s">
-        <v>131</v>
-      </c>
-      <c r="L61" s="175" t="s">
-        <v>0</v>
-      </c>
-      <c r="M61" s="174"/>
-      <c r="N61" s="174"/>
-      <c r="O61" s="174"/>
+    <row r="61" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A61" s="154"/>
+      <c r="B61" s="154"/>
+      <c r="C61" s="154"/>
+      <c r="D61" s="154"/>
+      <c r="E61" s="154"/>
+      <c r="F61" s="154"/>
+      <c r="G61" s="154"/>
+      <c r="H61" s="154"/>
+      <c r="I61" s="154"/>
+      <c r="J61" s="154"/>
+      <c r="K61" s="154"/>
+      <c r="L61" s="154"/>
+      <c r="M61" s="154"/>
+      <c r="N61" s="154"/>
+      <c r="O61" s="154"/>
     </row>
     <row r="62" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A62" s="154"/>
-      <c r="B62" s="168" t="s">
-        <v>345</v>
-      </c>
-      <c r="C62" s="159"/>
-      <c r="D62" s="159"/>
-      <c r="E62" s="165"/>
-      <c r="F62" s="161" t="s">
+      <c r="B62" s="290" t="s">
+        <v>347</v>
+      </c>
+      <c r="C62" s="290"/>
+      <c r="D62" s="290"/>
+      <c r="E62" s="154"/>
+      <c r="F62" s="154"/>
+      <c r="G62" s="154"/>
+      <c r="H62" s="154"/>
+      <c r="I62" s="154"/>
+      <c r="J62" s="154" t="s">
         <v>343</v>
       </c>
-      <c r="G62" s="161" t="s">
-        <v>343</v>
-      </c>
-      <c r="H62" s="161" t="s">
-        <v>343</v>
-      </c>
-      <c r="I62" s="161" t="s">
-        <v>343</v>
-      </c>
-      <c r="J62" s="161" t="s">
-        <v>343</v>
-      </c>
-      <c r="K62" s="161" t="s">
-        <v>343</v>
-      </c>
-      <c r="L62" s="160"/>
+      <c r="K62" s="154"/>
+      <c r="L62" s="154"/>
       <c r="M62" s="154"/>
       <c r="N62" s="154"/>
       <c r="O62" s="154"/>
     </row>
-    <row r="63" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A63" s="154"/>
-      <c r="B63" s="168"/>
-      <c r="C63" s="167" t="s">
-        <v>171</v>
-      </c>
-      <c r="D63" s="166"/>
-      <c r="E63" s="165"/>
-      <c r="F63" s="162" t="s">
-        <v>169</v>
-      </c>
-      <c r="G63" s="161" t="s">
-        <v>343</v>
-      </c>
-      <c r="H63" s="161" t="s">
-        <v>168</v>
-      </c>
-      <c r="I63" s="161">
-        <v>1</v>
-      </c>
-      <c r="J63" s="161" t="s">
-        <v>343</v>
-      </c>
-      <c r="K63" s="161" t="s">
-        <v>343</v>
-      </c>
-      <c r="L63" s="160"/>
-      <c r="M63" s="154"/>
-      <c r="N63" s="154"/>
-      <c r="O63" s="154"/>
+    <row r="63" spans="1:15" s="173" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A63" s="174"/>
+      <c r="B63" s="285" t="s">
+        <v>127</v>
+      </c>
+      <c r="C63" s="286"/>
+      <c r="D63" s="286"/>
+      <c r="E63" s="287"/>
+      <c r="F63" s="175" t="s">
+        <v>126</v>
+      </c>
+      <c r="G63" s="175" t="s">
+        <v>128</v>
+      </c>
+      <c r="H63" s="175" t="s">
+        <v>129</v>
+      </c>
+      <c r="I63" s="175" t="s">
+        <v>346</v>
+      </c>
+      <c r="J63" s="175" t="s">
+        <v>130</v>
+      </c>
+      <c r="K63" s="175" t="s">
+        <v>131</v>
+      </c>
+      <c r="L63" s="175" t="s">
+        <v>0</v>
+      </c>
+      <c r="M63" s="174"/>
+      <c r="N63" s="174"/>
+      <c r="O63" s="174"/>
     </row>
     <row r="64" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A64" s="154"/>
-      <c r="B64" s="168"/>
-      <c r="C64" s="172"/>
-      <c r="D64" s="276" t="s">
-        <v>173</v>
-      </c>
-      <c r="E64" s="277"/>
-      <c r="F64" s="162" t="s">
-        <v>344</v>
+      <c r="B64" s="168" t="s">
+        <v>345</v>
+      </c>
+      <c r="C64" s="159"/>
+      <c r="D64" s="159"/>
+      <c r="E64" s="165"/>
+      <c r="F64" s="161" t="s">
+        <v>343</v>
       </c>
       <c r="G64" s="161" t="s">
-        <v>134</v>
+        <v>343</v>
       </c>
       <c r="H64" s="161" t="s">
-        <v>168</v>
-      </c>
-      <c r="I64" s="161">
-        <v>1</v>
+        <v>343</v>
+      </c>
+      <c r="I64" s="161" t="s">
+        <v>343</v>
       </c>
       <c r="J64" s="161" t="s">
         <v>343</v>
@@ -53457,9 +53734,7 @@
       <c r="K64" s="161" t="s">
         <v>343</v>
       </c>
-      <c r="L64" s="160" t="s">
-        <v>193</v>
-      </c>
+      <c r="L64" s="160"/>
       <c r="M64" s="154"/>
       <c r="N64" s="154"/>
       <c r="O64" s="154"/>
@@ -53467,16 +53742,16 @@
     <row r="65" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A65" s="154"/>
       <c r="B65" s="168"/>
-      <c r="C65" s="172"/>
-      <c r="D65" s="276" t="s">
-        <v>0</v>
-      </c>
-      <c r="E65" s="277"/>
+      <c r="C65" s="167" t="s">
+        <v>171</v>
+      </c>
+      <c r="D65" s="166"/>
+      <c r="E65" s="165"/>
       <c r="F65" s="162" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="G65" s="161" t="s">
-        <v>163</v>
+        <v>343</v>
       </c>
       <c r="H65" s="161" t="s">
         <v>168</v>
@@ -53485,14 +53760,12 @@
         <v>1</v>
       </c>
       <c r="J65" s="161" t="s">
-        <v>133</v>
+        <v>343</v>
       </c>
       <c r="K65" s="161" t="s">
-        <v>133</v>
-      </c>
-      <c r="L65" s="160" t="s">
-        <v>192</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="L65" s="160"/>
       <c r="M65" s="154"/>
       <c r="N65" s="154"/>
       <c r="O65" s="154"/>
@@ -53501,15 +53774,15 @@
       <c r="A66" s="154"/>
       <c r="B66" s="168"/>
       <c r="C66" s="172"/>
-      <c r="D66" s="291" t="s">
-        <v>196</v>
-      </c>
-      <c r="E66" s="277"/>
+      <c r="D66" s="279" t="s">
+        <v>173</v>
+      </c>
+      <c r="E66" s="280"/>
       <c r="F66" s="162" t="s">
-        <v>194</v>
+        <v>344</v>
       </c>
       <c r="G66" s="161" t="s">
-        <v>343</v>
+        <v>134</v>
       </c>
       <c r="H66" s="161" t="s">
         <v>168</v>
@@ -53524,7 +53797,7 @@
         <v>343</v>
       </c>
       <c r="L66" s="160" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="M66" s="154"/>
       <c r="N66" s="154"/>
@@ -53533,13 +53806,13 @@
     <row r="67" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A67" s="154"/>
       <c r="B67" s="168"/>
-      <c r="C67" s="171"/>
-      <c r="D67" s="170"/>
-      <c r="E67" s="169" t="s">
-        <v>197</v>
-      </c>
+      <c r="C67" s="172"/>
+      <c r="D67" s="279" t="s">
+        <v>0</v>
+      </c>
+      <c r="E67" s="280"/>
       <c r="F67" s="162" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="G67" s="161" t="s">
         <v>163</v>
@@ -53547,8 +53820,8 @@
       <c r="H67" s="161" t="s">
         <v>168</v>
       </c>
-      <c r="I67" s="161" t="s">
-        <v>195</v>
+      <c r="I67" s="161">
+        <v>1</v>
       </c>
       <c r="J67" s="161" t="s">
         <v>133</v>
@@ -53557,7 +53830,7 @@
         <v>133</v>
       </c>
       <c r="L67" s="160" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="M67" s="154"/>
       <c r="N67" s="154"/>
@@ -53566,13 +53839,13 @@
     <row r="68" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A68" s="154"/>
       <c r="B68" s="168"/>
-      <c r="C68" s="167" t="s">
-        <v>172</v>
-      </c>
-      <c r="D68" s="166"/>
-      <c r="E68" s="165"/>
+      <c r="C68" s="172"/>
+      <c r="D68" s="294" t="s">
+        <v>196</v>
+      </c>
+      <c r="E68" s="280"/>
       <c r="F68" s="162" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="G68" s="161" t="s">
         <v>343</v>
@@ -53589,84 +53862,116 @@
       <c r="K68" s="161" t="s">
         <v>343</v>
       </c>
-      <c r="L68" s="160"/>
+      <c r="L68" s="160" t="s">
+        <v>199</v>
+      </c>
       <c r="M68" s="154"/>
       <c r="N68" s="154"/>
       <c r="O68" s="154"/>
     </row>
     <row r="69" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A69" s="154"/>
-      <c r="B69" s="164"/>
-      <c r="C69" s="163"/>
-      <c r="D69" s="276"/>
-      <c r="E69" s="277"/>
-      <c r="F69" s="162"/>
-      <c r="G69" s="161"/>
-      <c r="H69" s="161"/>
-      <c r="I69" s="161"/>
-      <c r="J69" s="161"/>
-      <c r="K69" s="161"/>
-      <c r="L69" s="160"/>
+      <c r="B69" s="168"/>
+      <c r="C69" s="171"/>
+      <c r="D69" s="170"/>
+      <c r="E69" s="169" t="s">
+        <v>197</v>
+      </c>
+      <c r="F69" s="162" t="s">
+        <v>175</v>
+      </c>
+      <c r="G69" s="161" t="s">
+        <v>163</v>
+      </c>
+      <c r="H69" s="161" t="s">
+        <v>168</v>
+      </c>
+      <c r="I69" s="161" t="s">
+        <v>195</v>
+      </c>
+      <c r="J69" s="161" t="s">
+        <v>133</v>
+      </c>
+      <c r="K69" s="161" t="s">
+        <v>133</v>
+      </c>
+      <c r="L69" s="160" t="s">
+        <v>198</v>
+      </c>
       <c r="M69" s="154"/>
       <c r="N69" s="154"/>
       <c r="O69" s="154"/>
     </row>
     <row r="70" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A70" s="154"/>
-      <c r="B70" s="156"/>
-      <c r="C70" s="159"/>
-      <c r="D70" s="158"/>
-      <c r="E70" s="158"/>
-      <c r="F70" s="156"/>
-      <c r="G70" s="157"/>
-      <c r="H70" s="157"/>
-      <c r="I70" s="157"/>
-      <c r="J70" s="157"/>
-      <c r="K70" s="157"/>
-      <c r="L70" s="156"/>
+      <c r="B70" s="168"/>
+      <c r="C70" s="167" t="s">
+        <v>172</v>
+      </c>
+      <c r="D70" s="166"/>
+      <c r="E70" s="165"/>
+      <c r="F70" s="162" t="s">
+        <v>170</v>
+      </c>
+      <c r="G70" s="161" t="s">
+        <v>343</v>
+      </c>
+      <c r="H70" s="161" t="s">
+        <v>168</v>
+      </c>
+      <c r="I70" s="161">
+        <v>1</v>
+      </c>
+      <c r="J70" s="161" t="s">
+        <v>343</v>
+      </c>
+      <c r="K70" s="161" t="s">
+        <v>343</v>
+      </c>
+      <c r="L70" s="160"/>
       <c r="M70" s="154"/>
       <c r="N70" s="154"/>
       <c r="O70" s="154"/>
     </row>
     <row r="71" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A71" s="154"/>
-      <c r="B71" s="155" t="s">
-        <v>181</v>
-      </c>
-      <c r="C71" s="154"/>
-      <c r="D71" s="154"/>
-      <c r="E71" s="154"/>
-      <c r="F71" s="154"/>
-      <c r="G71" s="154"/>
-      <c r="H71" s="154"/>
-      <c r="I71" s="154"/>
-      <c r="J71" s="154"/>
-      <c r="K71" s="154"/>
-      <c r="L71" s="154"/>
+      <c r="B71" s="164"/>
+      <c r="C71" s="163"/>
+      <c r="D71" s="279"/>
+      <c r="E71" s="280"/>
+      <c r="F71" s="162"/>
+      <c r="G71" s="161"/>
+      <c r="H71" s="161"/>
+      <c r="I71" s="161"/>
+      <c r="J71" s="161"/>
+      <c r="K71" s="161"/>
+      <c r="L71" s="160"/>
       <c r="M71" s="154"/>
       <c r="N71" s="154"/>
       <c r="O71" s="154"/>
     </row>
     <row r="72" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A72" s="154"/>
-      <c r="B72" s="154"/>
-      <c r="C72" s="154"/>
-      <c r="D72" s="154"/>
-      <c r="E72" s="154"/>
-      <c r="F72" s="154"/>
-      <c r="G72" s="154"/>
-      <c r="H72" s="154"/>
-      <c r="I72" s="154"/>
-      <c r="J72" s="154"/>
-      <c r="K72" s="154"/>
-      <c r="L72" s="154"/>
+      <c r="B72" s="156"/>
+      <c r="C72" s="159"/>
+      <c r="D72" s="158"/>
+      <c r="E72" s="158"/>
+      <c r="F72" s="156"/>
+      <c r="G72" s="157"/>
+      <c r="H72" s="157"/>
+      <c r="I72" s="157"/>
+      <c r="J72" s="157"/>
+      <c r="K72" s="157"/>
+      <c r="L72" s="156"/>
       <c r="M72" s="154"/>
       <c r="N72" s="154"/>
       <c r="O72" s="154"/>
     </row>
     <row r="73" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A73" s="154"/>
-      <c r="B73" s="154"/>
+      <c r="B73" s="155" t="s">
+        <v>181</v>
+      </c>
       <c r="C73" s="154"/>
       <c r="D73" s="154"/>
       <c r="E73" s="154"/>
@@ -53971,48 +54276,82 @@
       <c r="O90" s="154"/>
     </row>
     <row r="91" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A91" s="153"/>
-      <c r="B91" s="153"/>
-      <c r="C91" s="153"/>
-      <c r="D91" s="153"/>
-      <c r="E91" s="153"/>
-      <c r="F91" s="153"/>
-      <c r="G91" s="153"/>
-      <c r="H91" s="153"/>
-      <c r="I91" s="153"/>
-      <c r="J91" s="153"/>
-      <c r="K91" s="153"/>
-      <c r="L91" s="153"/>
-      <c r="M91" s="153"/>
-      <c r="N91" s="153"/>
-      <c r="O91" s="153"/>
+      <c r="A91" s="154"/>
+      <c r="B91" s="154"/>
+      <c r="C91" s="154"/>
+      <c r="D91" s="154"/>
+      <c r="E91" s="154"/>
+      <c r="F91" s="154"/>
+      <c r="G91" s="154"/>
+      <c r="H91" s="154"/>
+      <c r="I91" s="154"/>
+      <c r="J91" s="154"/>
+      <c r="K91" s="154"/>
+      <c r="L91" s="154"/>
+      <c r="M91" s="154"/>
+      <c r="N91" s="154"/>
+      <c r="O91" s="154"/>
+    </row>
+    <row r="92" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A92" s="154"/>
+      <c r="B92" s="154"/>
+      <c r="C92" s="154"/>
+      <c r="D92" s="154"/>
+      <c r="E92" s="154"/>
+      <c r="F92" s="154"/>
+      <c r="G92" s="154"/>
+      <c r="H92" s="154"/>
+      <c r="I92" s="154"/>
+      <c r="J92" s="154"/>
+      <c r="K92" s="154"/>
+      <c r="L92" s="154"/>
+      <c r="M92" s="154"/>
+      <c r="N92" s="154"/>
+      <c r="O92" s="154"/>
+    </row>
+    <row r="93" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A93" s="153"/>
+      <c r="B93" s="153"/>
+      <c r="C93" s="153"/>
+      <c r="D93" s="153"/>
+      <c r="E93" s="153"/>
+      <c r="F93" s="153"/>
+      <c r="G93" s="153"/>
+      <c r="H93" s="153"/>
+      <c r="I93" s="153"/>
+      <c r="J93" s="153"/>
+      <c r="K93" s="153"/>
+      <c r="L93" s="153"/>
+      <c r="M93" s="153"/>
+      <c r="N93" s="153"/>
+      <c r="O93" s="153"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="D66:E66"/>
     <mergeCell ref="J14:L14"/>
-    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D71:E71"/>
     <mergeCell ref="B13:L13"/>
     <mergeCell ref="B30:E30"/>
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="J16:L16"/>
     <mergeCell ref="J18:L18"/>
     <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B62:D62"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="D37:E37"/>
-    <mergeCell ref="B61:E61"/>
+    <mergeCell ref="B63:E63"/>
     <mergeCell ref="J19:L19"/>
     <mergeCell ref="B29:D29"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="D67:E67"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -54029,7 +54368,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O88"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A52" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D35" sqref="D35:L37"/>
     </sheetView>
   </sheetViews>
@@ -54112,15 +54451,15 @@
       <c r="B4" s="188" t="s">
         <v>123</v>
       </c>
-      <c r="C4" s="276" t="s">
+      <c r="C4" s="279" t="s">
         <v>201</v>
       </c>
-      <c r="D4" s="278"/>
-      <c r="E4" s="278"/>
-      <c r="F4" s="278"/>
-      <c r="G4" s="278"/>
-      <c r="H4" s="278"/>
-      <c r="I4" s="277"/>
+      <c r="D4" s="289"/>
+      <c r="E4" s="289"/>
+      <c r="F4" s="289"/>
+      <c r="G4" s="289"/>
+      <c r="H4" s="289"/>
+      <c r="I4" s="280"/>
       <c r="J4" s="154"/>
       <c r="K4" s="154"/>
       <c r="L4" s="154"/>
@@ -54133,15 +54472,15 @@
       <c r="B5" s="188" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="276" t="s">
+      <c r="C5" s="279" t="s">
         <v>384</v>
       </c>
-      <c r="D5" s="278"/>
-      <c r="E5" s="278"/>
-      <c r="F5" s="278"/>
-      <c r="G5" s="278"/>
-      <c r="H5" s="278"/>
-      <c r="I5" s="277"/>
+      <c r="D5" s="289"/>
+      <c r="E5" s="289"/>
+      <c r="F5" s="289"/>
+      <c r="G5" s="289"/>
+      <c r="H5" s="289"/>
+      <c r="I5" s="280"/>
       <c r="J5" s="154"/>
       <c r="K5" s="154"/>
       <c r="L5" s="154"/>
@@ -54175,15 +54514,15 @@
       <c r="B7" s="188" t="s">
         <v>165</v>
       </c>
-      <c r="C7" s="276" t="s">
+      <c r="C7" s="279" t="s">
         <v>157</v>
       </c>
-      <c r="D7" s="278"/>
-      <c r="E7" s="278"/>
-      <c r="F7" s="278"/>
-      <c r="G7" s="278"/>
-      <c r="H7" s="278"/>
-      <c r="I7" s="277"/>
+      <c r="D7" s="289"/>
+      <c r="E7" s="289"/>
+      <c r="F7" s="289"/>
+      <c r="G7" s="289"/>
+      <c r="H7" s="289"/>
+      <c r="I7" s="280"/>
       <c r="J7" s="154"/>
       <c r="K7" s="154"/>
       <c r="L7" s="154"/>
@@ -54217,15 +54556,15 @@
       <c r="B9" s="188" t="s">
         <v>182</v>
       </c>
-      <c r="C9" s="276" t="s">
+      <c r="C9" s="279" t="s">
         <v>183</v>
       </c>
-      <c r="D9" s="278"/>
-      <c r="E9" s="278"/>
-      <c r="F9" s="278"/>
-      <c r="G9" s="278"/>
-      <c r="H9" s="278"/>
-      <c r="I9" s="277"/>
+      <c r="D9" s="289"/>
+      <c r="E9" s="289"/>
+      <c r="F9" s="289"/>
+      <c r="G9" s="289"/>
+      <c r="H9" s="289"/>
+      <c r="I9" s="280"/>
       <c r="J9" s="154"/>
       <c r="K9" s="154"/>
       <c r="L9" s="154"/>
@@ -54288,19 +54627,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="154"/>
-      <c r="B13" s="280" t="s">
+      <c r="B13" s="282" t="s">
         <v>125</v>
       </c>
-      <c r="C13" s="281"/>
-      <c r="D13" s="281"/>
-      <c r="E13" s="281"/>
-      <c r="F13" s="281"/>
-      <c r="G13" s="281"/>
-      <c r="H13" s="281"/>
-      <c r="I13" s="281"/>
-      <c r="J13" s="281"/>
-      <c r="K13" s="281"/>
-      <c r="L13" s="282"/>
+      <c r="C13" s="283"/>
+      <c r="D13" s="283"/>
+      <c r="E13" s="283"/>
+      <c r="F13" s="283"/>
+      <c r="G13" s="283"/>
+      <c r="H13" s="283"/>
+      <c r="I13" s="283"/>
+      <c r="J13" s="283"/>
+      <c r="K13" s="283"/>
+      <c r="L13" s="284"/>
       <c r="M13" s="154"/>
       <c r="N13" s="154"/>
       <c r="O13" s="154"/>
@@ -54329,11 +54668,11 @@
       <c r="I14" s="175" t="s">
         <v>132</v>
       </c>
-      <c r="J14" s="279" t="s">
+      <c r="J14" s="281" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="279"/>
-      <c r="L14" s="279"/>
+      <c r="K14" s="281"/>
+      <c r="L14" s="281"/>
       <c r="M14" s="154"/>
       <c r="N14" s="154"/>
       <c r="O14" s="154"/>
@@ -54358,11 +54697,11 @@
       <c r="I15" s="130" t="s">
         <v>377</v>
       </c>
-      <c r="J15" s="286" t="s">
+      <c r="J15" s="288" t="s">
         <v>376</v>
       </c>
-      <c r="K15" s="286"/>
-      <c r="L15" s="286"/>
+      <c r="K15" s="288"/>
+      <c r="L15" s="288"/>
       <c r="M15" s="154"/>
       <c r="N15" s="154"/>
       <c r="O15" s="154"/>
@@ -54387,11 +54726,11 @@
       <c r="I16" s="130" t="s">
         <v>373</v>
       </c>
-      <c r="J16" s="286" t="s">
+      <c r="J16" s="288" t="s">
         <v>382</v>
       </c>
-      <c r="K16" s="286"/>
-      <c r="L16" s="286"/>
+      <c r="K16" s="288"/>
+      <c r="L16" s="288"/>
       <c r="M16" s="154"/>
       <c r="N16" s="154"/>
       <c r="O16" s="154"/>
@@ -54553,11 +54892,11 @@
     </row>
     <row r="26" spans="1:15" s="178" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="179"/>
-      <c r="B26" s="290" t="s">
+      <c r="B26" s="293" t="s">
         <v>167</v>
       </c>
-      <c r="C26" s="290"/>
-      <c r="D26" s="290"/>
+      <c r="C26" s="293"/>
+      <c r="D26" s="293"/>
       <c r="E26" s="180"/>
       <c r="F26" s="181"/>
       <c r="G26" s="180"/>
@@ -54572,12 +54911,12 @@
     </row>
     <row r="27" spans="1:15" s="173" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="174"/>
-      <c r="B27" s="283" t="s">
+      <c r="B27" s="285" t="s">
         <v>127</v>
       </c>
-      <c r="C27" s="284"/>
-      <c r="D27" s="284"/>
-      <c r="E27" s="285"/>
+      <c r="C27" s="286"/>
+      <c r="D27" s="286"/>
+      <c r="E27" s="287"/>
       <c r="F27" s="175" t="s">
         <v>126</v>
       </c>
@@ -54669,10 +55008,10 @@
       <c r="A30" s="154"/>
       <c r="B30" s="168"/>
       <c r="C30" s="172"/>
-      <c r="D30" s="276" t="s">
+      <c r="D30" s="279" t="s">
         <v>173</v>
       </c>
-      <c r="E30" s="277"/>
+      <c r="E30" s="280"/>
       <c r="F30" s="162" t="s">
         <v>344</v>
       </c>
@@ -54702,10 +55041,10 @@
       <c r="A31" s="154"/>
       <c r="B31" s="168"/>
       <c r="C31" s="163"/>
-      <c r="D31" s="276" t="s">
+      <c r="D31" s="279" t="s">
         <v>174</v>
       </c>
-      <c r="E31" s="277"/>
+      <c r="E31" s="280"/>
       <c r="F31" s="162" t="s">
         <v>175</v>
       </c>
@@ -54768,10 +55107,10 @@
       <c r="A33" s="154"/>
       <c r="B33" s="168"/>
       <c r="C33" s="171"/>
-      <c r="D33" s="276" t="s">
+      <c r="D33" s="279" t="s">
         <v>365</v>
       </c>
-      <c r="E33" s="277"/>
+      <c r="E33" s="280"/>
       <c r="F33" s="162" t="s">
         <v>177</v>
       </c>
@@ -54801,10 +55140,10 @@
       <c r="A34" s="154"/>
       <c r="B34" s="168"/>
       <c r="C34" s="171"/>
-      <c r="D34" s="288" t="s">
+      <c r="D34" s="291" t="s">
         <v>362</v>
       </c>
-      <c r="E34" s="289"/>
+      <c r="E34" s="292"/>
       <c r="F34" s="162" t="s">
         <v>361</v>
       </c>
@@ -54834,10 +55173,10 @@
       <c r="A35" s="154"/>
       <c r="B35" s="168"/>
       <c r="C35" s="171"/>
-      <c r="D35" s="276" t="s">
+      <c r="D35" s="279" t="s">
         <v>359</v>
       </c>
-      <c r="E35" s="277"/>
+      <c r="E35" s="280"/>
       <c r="F35" s="162" t="s">
         <v>358</v>
       </c>
@@ -54933,10 +55272,10 @@
       <c r="A38" s="154"/>
       <c r="B38" s="164"/>
       <c r="C38" s="163"/>
-      <c r="D38" s="276" t="s">
+      <c r="D38" s="279" t="s">
         <v>350</v>
       </c>
-      <c r="E38" s="277"/>
+      <c r="E38" s="280"/>
       <c r="F38" s="162" t="s">
         <v>349</v>
       </c>
@@ -55272,11 +55611,11 @@
     </row>
     <row r="57" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="154"/>
-      <c r="B57" s="287" t="s">
+      <c r="B57" s="290" t="s">
         <v>347</v>
       </c>
-      <c r="C57" s="287"/>
-      <c r="D57" s="287"/>
+      <c r="C57" s="290"/>
+      <c r="D57" s="290"/>
       <c r="E57" s="154"/>
       <c r="F57" s="154"/>
       <c r="G57" s="154"/>
@@ -55293,12 +55632,12 @@
     </row>
     <row r="58" spans="1:15" s="173" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A58" s="174"/>
-      <c r="B58" s="283" t="s">
+      <c r="B58" s="285" t="s">
         <v>127</v>
       </c>
-      <c r="C58" s="284"/>
-      <c r="D58" s="284"/>
-      <c r="E58" s="285"/>
+      <c r="C58" s="286"/>
+      <c r="D58" s="286"/>
+      <c r="E58" s="287"/>
       <c r="F58" s="175" t="s">
         <v>126</v>
       </c>
@@ -55390,10 +55729,10 @@
       <c r="A61" s="154"/>
       <c r="B61" s="168"/>
       <c r="C61" s="172"/>
-      <c r="D61" s="276" t="s">
+      <c r="D61" s="279" t="s">
         <v>173</v>
       </c>
-      <c r="E61" s="277"/>
+      <c r="E61" s="280"/>
       <c r="F61" s="162" t="s">
         <v>344</v>
       </c>
@@ -55423,10 +55762,10 @@
       <c r="A62" s="154"/>
       <c r="B62" s="168"/>
       <c r="C62" s="172"/>
-      <c r="D62" s="276" t="s">
+      <c r="D62" s="279" t="s">
         <v>0</v>
       </c>
-      <c r="E62" s="277"/>
+      <c r="E62" s="280"/>
       <c r="F62" s="162" t="s">
         <v>191</v>
       </c>
@@ -55456,10 +55795,10 @@
       <c r="A63" s="154"/>
       <c r="B63" s="168"/>
       <c r="C63" s="172"/>
-      <c r="D63" s="291" t="s">
+      <c r="D63" s="294" t="s">
         <v>196</v>
       </c>
-      <c r="E63" s="277"/>
+      <c r="E63" s="280"/>
       <c r="F63" s="162" t="s">
         <v>194</v>
       </c>
@@ -55553,8 +55892,8 @@
       <c r="A66" s="154"/>
       <c r="B66" s="164"/>
       <c r="C66" s="163"/>
-      <c r="D66" s="276"/>
-      <c r="E66" s="277"/>
+      <c r="D66" s="279"/>
+      <c r="E66" s="280"/>
       <c r="F66" s="162"/>
       <c r="G66" s="161"/>
       <c r="H66" s="161"/>
@@ -55944,28 +56283,28 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
     <mergeCell ref="D66:E66"/>
     <mergeCell ref="B57:D57"/>
     <mergeCell ref="B58:E58"/>
     <mergeCell ref="D61:E61"/>
     <mergeCell ref="D62:E62"/>
     <mergeCell ref="D63:E63"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -55980,8 +56319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O95"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73:L73"/>
+    <sheetView showGridLines="0" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73:L74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -56063,15 +56402,15 @@
       <c r="B4" s="188" t="s">
         <v>123</v>
       </c>
-      <c r="C4" s="276" t="s">
+      <c r="C4" s="279" t="s">
         <v>446</v>
       </c>
-      <c r="D4" s="278"/>
-      <c r="E4" s="278"/>
-      <c r="F4" s="278"/>
-      <c r="G4" s="278"/>
-      <c r="H4" s="278"/>
-      <c r="I4" s="277"/>
+      <c r="D4" s="289"/>
+      <c r="E4" s="289"/>
+      <c r="F4" s="289"/>
+      <c r="G4" s="289"/>
+      <c r="H4" s="289"/>
+      <c r="I4" s="280"/>
       <c r="J4" s="154"/>
       <c r="K4" s="154"/>
       <c r="L4" s="154"/>
@@ -56084,15 +56423,15 @@
       <c r="B5" s="188" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="276" t="s">
+      <c r="C5" s="279" t="s">
         <v>453</v>
       </c>
-      <c r="D5" s="278"/>
-      <c r="E5" s="278"/>
-      <c r="F5" s="278"/>
-      <c r="G5" s="278"/>
-      <c r="H5" s="278"/>
-      <c r="I5" s="277"/>
+      <c r="D5" s="289"/>
+      <c r="E5" s="289"/>
+      <c r="F5" s="289"/>
+      <c r="G5" s="289"/>
+      <c r="H5" s="289"/>
+      <c r="I5" s="280"/>
       <c r="J5" s="154"/>
       <c r="K5" s="154"/>
       <c r="L5" s="154"/>
@@ -56126,15 +56465,15 @@
       <c r="B7" s="188" t="s">
         <v>165</v>
       </c>
-      <c r="C7" s="276" t="s">
+      <c r="C7" s="279" t="s">
         <v>206</v>
       </c>
-      <c r="D7" s="278"/>
-      <c r="E7" s="278"/>
-      <c r="F7" s="278"/>
-      <c r="G7" s="278"/>
-      <c r="H7" s="278"/>
-      <c r="I7" s="277"/>
+      <c r="D7" s="289"/>
+      <c r="E7" s="289"/>
+      <c r="F7" s="289"/>
+      <c r="G7" s="289"/>
+      <c r="H7" s="289"/>
+      <c r="I7" s="280"/>
       <c r="J7" s="154"/>
       <c r="K7" s="154"/>
       <c r="L7" s="154"/>
@@ -56168,15 +56507,15 @@
       <c r="B9" s="188" t="s">
         <v>182</v>
       </c>
-      <c r="C9" s="276" t="s">
+      <c r="C9" s="279" t="s">
         <v>183</v>
       </c>
-      <c r="D9" s="278"/>
-      <c r="E9" s="278"/>
-      <c r="F9" s="278"/>
-      <c r="G9" s="278"/>
-      <c r="H9" s="278"/>
-      <c r="I9" s="277"/>
+      <c r="D9" s="289"/>
+      <c r="E9" s="289"/>
+      <c r="F9" s="289"/>
+      <c r="G9" s="289"/>
+      <c r="H9" s="289"/>
+      <c r="I9" s="280"/>
       <c r="J9" s="154"/>
       <c r="K9" s="154"/>
       <c r="L9" s="154"/>
@@ -56239,19 +56578,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="154"/>
-      <c r="B13" s="280" t="s">
+      <c r="B13" s="282" t="s">
         <v>125</v>
       </c>
-      <c r="C13" s="281"/>
-      <c r="D13" s="281"/>
-      <c r="E13" s="281"/>
-      <c r="F13" s="281"/>
-      <c r="G13" s="281"/>
-      <c r="H13" s="281"/>
-      <c r="I13" s="281"/>
-      <c r="J13" s="281"/>
-      <c r="K13" s="281"/>
-      <c r="L13" s="282"/>
+      <c r="C13" s="283"/>
+      <c r="D13" s="283"/>
+      <c r="E13" s="283"/>
+      <c r="F13" s="283"/>
+      <c r="G13" s="283"/>
+      <c r="H13" s="283"/>
+      <c r="I13" s="283"/>
+      <c r="J13" s="283"/>
+      <c r="K13" s="283"/>
+      <c r="L13" s="284"/>
       <c r="M13" s="154"/>
       <c r="N13" s="154"/>
       <c r="O13" s="154"/>
@@ -56280,11 +56619,11 @@
       <c r="I14" s="175" t="s">
         <v>132</v>
       </c>
-      <c r="J14" s="279" t="s">
+      <c r="J14" s="281" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="279"/>
-      <c r="L14" s="279"/>
+      <c r="K14" s="281"/>
+      <c r="L14" s="281"/>
       <c r="M14" s="154"/>
       <c r="N14" s="154"/>
       <c r="O14" s="154"/>
@@ -56309,11 +56648,11 @@
       <c r="I15" s="130" t="s">
         <v>460</v>
       </c>
-      <c r="J15" s="286" t="s">
+      <c r="J15" s="288" t="s">
         <v>385</v>
       </c>
-      <c r="K15" s="286"/>
-      <c r="L15" s="286"/>
+      <c r="K15" s="288"/>
+      <c r="L15" s="288"/>
       <c r="M15" s="154"/>
       <c r="N15" s="154"/>
       <c r="O15" s="154"/>
@@ -56375,11 +56714,11 @@
       <c r="I17" s="160" t="s">
         <v>369</v>
       </c>
-      <c r="J17" s="276" t="s">
+      <c r="J17" s="279" t="s">
         <v>368</v>
       </c>
-      <c r="K17" s="278"/>
-      <c r="L17" s="277"/>
+      <c r="K17" s="289"/>
+      <c r="L17" s="280"/>
       <c r="M17" s="154"/>
       <c r="N17" s="154"/>
       <c r="O17" s="154"/>
@@ -56408,11 +56747,11 @@
       <c r="I18" s="183" t="s">
         <v>367</v>
       </c>
-      <c r="J18" s="276" t="s">
+      <c r="J18" s="279" t="s">
         <v>366</v>
       </c>
-      <c r="K18" s="278"/>
-      <c r="L18" s="277"/>
+      <c r="K18" s="289"/>
+      <c r="L18" s="280"/>
       <c r="M18" s="154"/>
       <c r="N18" s="154"/>
       <c r="O18" s="154"/>
@@ -56574,11 +56913,11 @@
     </row>
     <row r="28" spans="1:15" s="178" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="179"/>
-      <c r="B28" s="290" t="s">
+      <c r="B28" s="293" t="s">
         <v>167</v>
       </c>
-      <c r="C28" s="290"/>
-      <c r="D28" s="290"/>
+      <c r="C28" s="293"/>
+      <c r="D28" s="293"/>
       <c r="E28" s="180"/>
       <c r="F28" s="181"/>
       <c r="G28" s="180"/>
@@ -56593,12 +56932,12 @@
     </row>
     <row r="29" spans="1:15" s="173" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="174"/>
-      <c r="B29" s="283" t="s">
+      <c r="B29" s="285" t="s">
         <v>127</v>
       </c>
-      <c r="C29" s="284"/>
-      <c r="D29" s="284"/>
-      <c r="E29" s="285"/>
+      <c r="C29" s="286"/>
+      <c r="D29" s="286"/>
+      <c r="E29" s="287"/>
       <c r="F29" s="175" t="s">
         <v>126</v>
       </c>
@@ -56690,10 +57029,10 @@
       <c r="A32" s="154"/>
       <c r="B32" s="168"/>
       <c r="C32" s="172"/>
-      <c r="D32" s="276" t="s">
+      <c r="D32" s="279" t="s">
         <v>173</v>
       </c>
-      <c r="E32" s="277"/>
+      <c r="E32" s="280"/>
       <c r="F32" s="162" t="s">
         <v>344</v>
       </c>
@@ -56723,10 +57062,10 @@
       <c r="A33" s="154"/>
       <c r="B33" s="168"/>
       <c r="C33" s="163"/>
-      <c r="D33" s="276" t="s">
+      <c r="D33" s="279" t="s">
         <v>174</v>
       </c>
-      <c r="E33" s="277"/>
+      <c r="E33" s="280"/>
       <c r="F33" s="162" t="s">
         <v>175</v>
       </c>
@@ -56789,10 +57128,10 @@
       <c r="A35" s="154"/>
       <c r="B35" s="168"/>
       <c r="C35" s="171"/>
-      <c r="D35" s="276" t="s">
+      <c r="D35" s="279" t="s">
         <v>365</v>
       </c>
-      <c r="E35" s="277"/>
+      <c r="E35" s="280"/>
       <c r="F35" s="162" t="s">
         <v>177</v>
       </c>
@@ -56822,10 +57161,10 @@
       <c r="A36" s="154"/>
       <c r="B36" s="168"/>
       <c r="C36" s="171"/>
-      <c r="D36" s="288" t="s">
+      <c r="D36" s="291" t="s">
         <v>362</v>
       </c>
-      <c r="E36" s="289"/>
+      <c r="E36" s="292"/>
       <c r="F36" s="162" t="s">
         <v>361</v>
       </c>
@@ -56855,10 +57194,10 @@
       <c r="A37" s="154"/>
       <c r="B37" s="168"/>
       <c r="C37" s="172"/>
-      <c r="D37" s="276" t="s">
+      <c r="D37" s="279" t="s">
         <v>359</v>
       </c>
-      <c r="E37" s="277"/>
+      <c r="E37" s="280"/>
       <c r="F37" s="162" t="s">
         <v>358</v>
       </c>
@@ -56954,14 +57293,24 @@
       <c r="A40" s="154"/>
       <c r="B40" s="164"/>
       <c r="C40" s="163"/>
-      <c r="D40" s="276"/>
-      <c r="E40" s="277"/>
-      <c r="F40" s="162"/>
-      <c r="G40" s="161"/>
-      <c r="H40" s="161"/>
-      <c r="I40" s="161"/>
-      <c r="J40" s="161"/>
-      <c r="K40" s="161"/>
+      <c r="D40" s="215" t="s">
+        <v>335</v>
+      </c>
+      <c r="E40" s="216"/>
+      <c r="F40" s="105" t="s">
+        <v>336</v>
+      </c>
+      <c r="G40" s="217" t="s">
+        <v>337</v>
+      </c>
+      <c r="H40" s="76" t="s">
+        <v>168</v>
+      </c>
+      <c r="I40" s="76">
+        <v>1</v>
+      </c>
+      <c r="J40" s="76"/>
+      <c r="K40" s="76"/>
       <c r="L40" s="160"/>
       <c r="M40" s="154"/>
       <c r="N40" s="154"/>
@@ -56971,15 +57320,25 @@
       <c r="A41" s="154"/>
       <c r="B41" s="156"/>
       <c r="C41" s="159"/>
-      <c r="D41" s="158"/>
-      <c r="E41" s="158"/>
-      <c r="F41" s="156"/>
-      <c r="G41" s="157"/>
-      <c r="H41" s="157"/>
-      <c r="I41" s="157"/>
-      <c r="J41" s="157"/>
-      <c r="K41" s="157"/>
-      <c r="L41" s="156"/>
+      <c r="D41" s="215" t="s">
+        <v>338</v>
+      </c>
+      <c r="E41" s="216"/>
+      <c r="F41" s="105" t="s">
+        <v>339</v>
+      </c>
+      <c r="G41" s="217" t="s">
+        <v>337</v>
+      </c>
+      <c r="H41" s="76" t="s">
+        <v>168</v>
+      </c>
+      <c r="I41" s="76">
+        <v>1</v>
+      </c>
+      <c r="J41" s="76"/>
+      <c r="K41" s="76"/>
+      <c r="L41" s="321"/>
       <c r="M41" s="154"/>
       <c r="N41" s="154"/>
       <c r="O41" s="154"/>
@@ -57277,11 +57636,11 @@
     </row>
     <row r="59" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A59" s="154"/>
-      <c r="B59" s="287" t="s">
+      <c r="B59" s="290" t="s">
         <v>347</v>
       </c>
-      <c r="C59" s="287"/>
-      <c r="D59" s="287"/>
+      <c r="C59" s="290"/>
+      <c r="D59" s="290"/>
       <c r="E59" s="154"/>
       <c r="F59" s="154"/>
       <c r="G59" s="154"/>
@@ -57298,12 +57657,12 @@
     </row>
     <row r="60" spans="1:15" s="173" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A60" s="174"/>
-      <c r="B60" s="283" t="s">
+      <c r="B60" s="285" t="s">
         <v>127</v>
       </c>
-      <c r="C60" s="284"/>
-      <c r="D60" s="284"/>
-      <c r="E60" s="285"/>
+      <c r="C60" s="286"/>
+      <c r="D60" s="286"/>
+      <c r="E60" s="287"/>
       <c r="F60" s="175" t="s">
         <v>126</v>
       </c>
@@ -57395,10 +57754,10 @@
       <c r="A63" s="154"/>
       <c r="B63" s="168"/>
       <c r="C63" s="172"/>
-      <c r="D63" s="276" t="s">
+      <c r="D63" s="279" t="s">
         <v>173</v>
       </c>
-      <c r="E63" s="277"/>
+      <c r="E63" s="280"/>
       <c r="F63" s="162" t="s">
         <v>344</v>
       </c>
@@ -57428,10 +57787,10 @@
       <c r="A64" s="154"/>
       <c r="B64" s="168"/>
       <c r="C64" s="172"/>
-      <c r="D64" s="276" t="s">
+      <c r="D64" s="279" t="s">
         <v>0</v>
       </c>
-      <c r="E64" s="277"/>
+      <c r="E64" s="280"/>
       <c r="F64" s="162" t="s">
         <v>191</v>
       </c>
@@ -57461,10 +57820,10 @@
       <c r="A65" s="154"/>
       <c r="B65" s="168"/>
       <c r="C65" s="172"/>
-      <c r="D65" s="291" t="s">
+      <c r="D65" s="294" t="s">
         <v>196</v>
       </c>
-      <c r="E65" s="277"/>
+      <c r="E65" s="280"/>
       <c r="F65" s="162" t="s">
         <v>194</v>
       </c>
@@ -57558,10 +57917,10 @@
       <c r="A68" s="154"/>
       <c r="B68" s="168"/>
       <c r="C68" s="171"/>
-      <c r="D68" s="276" t="s">
+      <c r="D68" s="279" t="s">
         <v>365</v>
       </c>
-      <c r="E68" s="277"/>
+      <c r="E68" s="280"/>
       <c r="F68" s="162" t="s">
         <v>177</v>
       </c>
@@ -57591,10 +57950,10 @@
       <c r="A69" s="154"/>
       <c r="B69" s="168"/>
       <c r="C69" s="171"/>
-      <c r="D69" s="288" t="s">
+      <c r="D69" s="291" t="s">
         <v>362</v>
       </c>
-      <c r="E69" s="289"/>
+      <c r="E69" s="292"/>
       <c r="F69" s="162" t="s">
         <v>361</v>
       </c>
@@ -57624,10 +57983,10 @@
       <c r="A70" s="154"/>
       <c r="B70" s="168"/>
       <c r="C70" s="171"/>
-      <c r="D70" s="276" t="s">
+      <c r="D70" s="279" t="s">
         <v>359</v>
       </c>
-      <c r="E70" s="277"/>
+      <c r="E70" s="280"/>
       <c r="F70" s="162" t="s">
         <v>358</v>
       </c>
@@ -57723,14 +58082,24 @@
       <c r="A73" s="154"/>
       <c r="B73" s="164"/>
       <c r="C73" s="163"/>
-      <c r="D73" s="276"/>
-      <c r="E73" s="277"/>
-      <c r="F73" s="162"/>
-      <c r="G73" s="161"/>
-      <c r="H73" s="161"/>
-      <c r="I73" s="161"/>
-      <c r="J73" s="161"/>
-      <c r="K73" s="161"/>
+      <c r="D73" s="215" t="s">
+        <v>335</v>
+      </c>
+      <c r="E73" s="216"/>
+      <c r="F73" s="105" t="s">
+        <v>336</v>
+      </c>
+      <c r="G73" s="217" t="s">
+        <v>337</v>
+      </c>
+      <c r="H73" s="76" t="s">
+        <v>168</v>
+      </c>
+      <c r="I73" s="76">
+        <v>1</v>
+      </c>
+      <c r="J73" s="76"/>
+      <c r="K73" s="76"/>
       <c r="L73" s="160"/>
       <c r="M73" s="154"/>
       <c r="N73" s="154"/>
@@ -57740,15 +58109,25 @@
       <c r="A74" s="154"/>
       <c r="B74" s="156"/>
       <c r="C74" s="159"/>
-      <c r="D74" s="158"/>
-      <c r="E74" s="158"/>
-      <c r="F74" s="156"/>
-      <c r="G74" s="157"/>
-      <c r="H74" s="157"/>
-      <c r="I74" s="157"/>
-      <c r="J74" s="157"/>
-      <c r="K74" s="157"/>
-      <c r="L74" s="156"/>
+      <c r="D74" s="215" t="s">
+        <v>338</v>
+      </c>
+      <c r="E74" s="216"/>
+      <c r="F74" s="105" t="s">
+        <v>339</v>
+      </c>
+      <c r="G74" s="217" t="s">
+        <v>337</v>
+      </c>
+      <c r="H74" s="76" t="s">
+        <v>168</v>
+      </c>
+      <c r="I74" s="76">
+        <v>1</v>
+      </c>
+      <c r="J74" s="76"/>
+      <c r="K74" s="76"/>
+      <c r="L74" s="321"/>
       <c r="M74" s="154"/>
       <c r="N74" s="154"/>
       <c r="O74" s="154"/>
@@ -58113,8 +58492,16 @@
       <c r="O95" s="153"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="D73:E73"/>
+  <mergeCells count="24">
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
     <mergeCell ref="D70:E70"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="B59:D59"/>
@@ -58130,16 +58517,6 @@
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="B29:E29"/>
     <mergeCell ref="D36:E36"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D35:E35"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -58154,7 +58531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O86"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A34" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" workbookViewId="0">
       <selection activeCell="D34" sqref="D34:L36"/>
     </sheetView>
   </sheetViews>
@@ -58237,15 +58614,15 @@
       <c r="B4" s="188" t="s">
         <v>123</v>
       </c>
-      <c r="C4" s="276" t="s">
+      <c r="C4" s="279" t="s">
         <v>390</v>
       </c>
-      <c r="D4" s="278"/>
-      <c r="E4" s="278"/>
-      <c r="F4" s="278"/>
-      <c r="G4" s="278"/>
-      <c r="H4" s="278"/>
-      <c r="I4" s="277"/>
+      <c r="D4" s="289"/>
+      <c r="E4" s="289"/>
+      <c r="F4" s="289"/>
+      <c r="G4" s="289"/>
+      <c r="H4" s="289"/>
+      <c r="I4" s="280"/>
       <c r="J4" s="154"/>
       <c r="K4" s="154"/>
       <c r="L4" s="154"/>
@@ -58258,15 +58635,15 @@
       <c r="B5" s="188" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="276" t="s">
+      <c r="C5" s="279" t="s">
         <v>389</v>
       </c>
-      <c r="D5" s="278"/>
-      <c r="E5" s="278"/>
-      <c r="F5" s="278"/>
-      <c r="G5" s="278"/>
-      <c r="H5" s="278"/>
-      <c r="I5" s="277"/>
+      <c r="D5" s="289"/>
+      <c r="E5" s="289"/>
+      <c r="F5" s="289"/>
+      <c r="G5" s="289"/>
+      <c r="H5" s="289"/>
+      <c r="I5" s="280"/>
       <c r="J5" s="154"/>
       <c r="K5" s="154"/>
       <c r="L5" s="154"/>
@@ -58300,15 +58677,15 @@
       <c r="B7" s="188" t="s">
         <v>165</v>
       </c>
-      <c r="C7" s="276" t="s">
+      <c r="C7" s="279" t="s">
         <v>207</v>
       </c>
-      <c r="D7" s="278"/>
-      <c r="E7" s="278"/>
-      <c r="F7" s="278"/>
-      <c r="G7" s="278"/>
-      <c r="H7" s="278"/>
-      <c r="I7" s="277"/>
+      <c r="D7" s="289"/>
+      <c r="E7" s="289"/>
+      <c r="F7" s="289"/>
+      <c r="G7" s="289"/>
+      <c r="H7" s="289"/>
+      <c r="I7" s="280"/>
       <c r="J7" s="154"/>
       <c r="K7" s="154"/>
       <c r="L7" s="154"/>
@@ -58342,15 +58719,15 @@
       <c r="B9" s="188" t="s">
         <v>182</v>
       </c>
-      <c r="C9" s="276" t="s">
+      <c r="C9" s="279" t="s">
         <v>183</v>
       </c>
-      <c r="D9" s="278"/>
-      <c r="E9" s="278"/>
-      <c r="F9" s="278"/>
-      <c r="G9" s="278"/>
-      <c r="H9" s="278"/>
-      <c r="I9" s="277"/>
+      <c r="D9" s="289"/>
+      <c r="E9" s="289"/>
+      <c r="F9" s="289"/>
+      <c r="G9" s="289"/>
+      <c r="H9" s="289"/>
+      <c r="I9" s="280"/>
       <c r="J9" s="154"/>
       <c r="K9" s="154"/>
       <c r="L9" s="154"/>
@@ -58413,19 +58790,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="154"/>
-      <c r="B13" s="280" t="s">
+      <c r="B13" s="282" t="s">
         <v>125</v>
       </c>
-      <c r="C13" s="281"/>
-      <c r="D13" s="281"/>
-      <c r="E13" s="281"/>
-      <c r="F13" s="281"/>
-      <c r="G13" s="281"/>
-      <c r="H13" s="281"/>
-      <c r="I13" s="281"/>
-      <c r="J13" s="281"/>
-      <c r="K13" s="281"/>
-      <c r="L13" s="282"/>
+      <c r="C13" s="283"/>
+      <c r="D13" s="283"/>
+      <c r="E13" s="283"/>
+      <c r="F13" s="283"/>
+      <c r="G13" s="283"/>
+      <c r="H13" s="283"/>
+      <c r="I13" s="283"/>
+      <c r="J13" s="283"/>
+      <c r="K13" s="283"/>
+      <c r="L13" s="284"/>
       <c r="M13" s="154"/>
       <c r="N13" s="154"/>
       <c r="O13" s="154"/>
@@ -58454,11 +58831,11 @@
       <c r="I14" s="175" t="s">
         <v>132</v>
       </c>
-      <c r="J14" s="279" t="s">
+      <c r="J14" s="281" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="279"/>
-      <c r="L14" s="279"/>
+      <c r="K14" s="281"/>
+      <c r="L14" s="281"/>
       <c r="M14" s="154"/>
       <c r="N14" s="154"/>
       <c r="O14" s="154"/>
@@ -58483,11 +58860,11 @@
       <c r="I15" s="131" t="s">
         <v>288</v>
       </c>
-      <c r="J15" s="286" t="s">
+      <c r="J15" s="288" t="s">
         <v>387</v>
       </c>
-      <c r="K15" s="286"/>
-      <c r="L15" s="286"/>
+      <c r="K15" s="288"/>
+      <c r="L15" s="288"/>
       <c r="M15" s="154"/>
       <c r="N15" s="154"/>
       <c r="O15" s="154"/>
@@ -58649,11 +59026,11 @@
     </row>
     <row r="25" spans="1:15" s="178" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="179"/>
-      <c r="B25" s="290" t="s">
+      <c r="B25" s="293" t="s">
         <v>167</v>
       </c>
-      <c r="C25" s="290"/>
-      <c r="D25" s="290"/>
+      <c r="C25" s="293"/>
+      <c r="D25" s="293"/>
       <c r="E25" s="180"/>
       <c r="F25" s="181"/>
       <c r="G25" s="180"/>
@@ -58668,12 +59045,12 @@
     </row>
     <row r="26" spans="1:15" s="173" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="174"/>
-      <c r="B26" s="283" t="s">
+      <c r="B26" s="285" t="s">
         <v>127</v>
       </c>
-      <c r="C26" s="284"/>
-      <c r="D26" s="284"/>
-      <c r="E26" s="285"/>
+      <c r="C26" s="286"/>
+      <c r="D26" s="286"/>
+      <c r="E26" s="287"/>
       <c r="F26" s="175" t="s">
         <v>126</v>
       </c>
@@ -58765,10 +59142,10 @@
       <c r="A29" s="154"/>
       <c r="B29" s="168"/>
       <c r="C29" s="172"/>
-      <c r="D29" s="276" t="s">
+      <c r="D29" s="279" t="s">
         <v>173</v>
       </c>
-      <c r="E29" s="277"/>
+      <c r="E29" s="280"/>
       <c r="F29" s="162" t="s">
         <v>344</v>
       </c>
@@ -58798,10 +59175,10 @@
       <c r="A30" s="154"/>
       <c r="B30" s="168"/>
       <c r="C30" s="163"/>
-      <c r="D30" s="276" t="s">
+      <c r="D30" s="279" t="s">
         <v>174</v>
       </c>
-      <c r="E30" s="277"/>
+      <c r="E30" s="280"/>
       <c r="F30" s="162" t="s">
         <v>175</v>
       </c>
@@ -58864,10 +59241,10 @@
       <c r="A32" s="154"/>
       <c r="B32" s="168"/>
       <c r="C32" s="171"/>
-      <c r="D32" s="276" t="s">
+      <c r="D32" s="279" t="s">
         <v>365</v>
       </c>
-      <c r="E32" s="277"/>
+      <c r="E32" s="280"/>
       <c r="F32" s="162" t="s">
         <v>177</v>
       </c>
@@ -58897,10 +59274,10 @@
       <c r="A33" s="154"/>
       <c r="B33" s="168"/>
       <c r="C33" s="171"/>
-      <c r="D33" s="288" t="s">
+      <c r="D33" s="291" t="s">
         <v>362</v>
       </c>
-      <c r="E33" s="289"/>
+      <c r="E33" s="292"/>
       <c r="F33" s="162" t="s">
         <v>361</v>
       </c>
@@ -58930,10 +59307,10 @@
       <c r="A34" s="154"/>
       <c r="B34" s="168"/>
       <c r="C34" s="172"/>
-      <c r="D34" s="276" t="s">
+      <c r="D34" s="279" t="s">
         <v>359</v>
       </c>
-      <c r="E34" s="277"/>
+      <c r="E34" s="280"/>
       <c r="F34" s="162" t="s">
         <v>358</v>
       </c>
@@ -59335,11 +59712,11 @@
     </row>
     <row r="55" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A55" s="154"/>
-      <c r="B55" s="287" t="s">
+      <c r="B55" s="290" t="s">
         <v>347</v>
       </c>
-      <c r="C55" s="287"/>
-      <c r="D55" s="287"/>
+      <c r="C55" s="290"/>
+      <c r="D55" s="290"/>
       <c r="E55" s="154"/>
       <c r="F55" s="154"/>
       <c r="G55" s="154"/>
@@ -59356,12 +59733,12 @@
     </row>
     <row r="56" spans="1:15" s="173" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="174"/>
-      <c r="B56" s="283" t="s">
+      <c r="B56" s="285" t="s">
         <v>127</v>
       </c>
-      <c r="C56" s="284"/>
-      <c r="D56" s="284"/>
-      <c r="E56" s="285"/>
+      <c r="C56" s="286"/>
+      <c r="D56" s="286"/>
+      <c r="E56" s="287"/>
       <c r="F56" s="175" t="s">
         <v>126</v>
       </c>
@@ -59453,10 +59830,10 @@
       <c r="A59" s="154"/>
       <c r="B59" s="168"/>
       <c r="C59" s="172"/>
-      <c r="D59" s="276" t="s">
+      <c r="D59" s="279" t="s">
         <v>173</v>
       </c>
-      <c r="E59" s="277"/>
+      <c r="E59" s="280"/>
       <c r="F59" s="162" t="s">
         <v>344</v>
       </c>
@@ -59486,10 +59863,10 @@
       <c r="A60" s="154"/>
       <c r="B60" s="168"/>
       <c r="C60" s="172"/>
-      <c r="D60" s="276" t="s">
+      <c r="D60" s="279" t="s">
         <v>0</v>
       </c>
-      <c r="E60" s="277"/>
+      <c r="E60" s="280"/>
       <c r="F60" s="162" t="s">
         <v>191</v>
       </c>
@@ -59519,10 +59896,10 @@
       <c r="A61" s="154"/>
       <c r="B61" s="168"/>
       <c r="C61" s="172"/>
-      <c r="D61" s="291" t="s">
+      <c r="D61" s="294" t="s">
         <v>196</v>
       </c>
-      <c r="E61" s="277"/>
+      <c r="E61" s="280"/>
       <c r="F61" s="162" t="s">
         <v>194</v>
       </c>
@@ -59616,8 +59993,8 @@
       <c r="A64" s="154"/>
       <c r="B64" s="164"/>
       <c r="C64" s="163"/>
-      <c r="D64" s="276"/>
-      <c r="E64" s="277"/>
+      <c r="D64" s="279"/>
+      <c r="E64" s="280"/>
       <c r="F64" s="162"/>
       <c r="G64" s="161"/>
       <c r="H64" s="161"/>
@@ -60007,6 +60384,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="D59:E59"/>
     <mergeCell ref="D60:E60"/>
@@ -60022,11 +60404,6 @@
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="B55:D55"/>
     <mergeCell ref="B56:E56"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -60123,15 +60500,15 @@
       <c r="B4" s="188" t="s">
         <v>123</v>
       </c>
-      <c r="C4" s="276" t="s">
+      <c r="C4" s="279" t="s">
         <v>203</v>
       </c>
-      <c r="D4" s="278"/>
-      <c r="E4" s="278"/>
-      <c r="F4" s="278"/>
-      <c r="G4" s="278"/>
-      <c r="H4" s="278"/>
-      <c r="I4" s="277"/>
+      <c r="D4" s="289"/>
+      <c r="E4" s="289"/>
+      <c r="F4" s="289"/>
+      <c r="G4" s="289"/>
+      <c r="H4" s="289"/>
+      <c r="I4" s="280"/>
       <c r="J4" s="154"/>
       <c r="K4" s="154"/>
       <c r="L4" s="154"/>
@@ -60144,15 +60521,15 @@
       <c r="B5" s="188" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="276" t="s">
+      <c r="C5" s="279" t="s">
         <v>394</v>
       </c>
-      <c r="D5" s="278"/>
-      <c r="E5" s="278"/>
-      <c r="F5" s="278"/>
-      <c r="G5" s="278"/>
-      <c r="H5" s="278"/>
-      <c r="I5" s="277"/>
+      <c r="D5" s="289"/>
+      <c r="E5" s="289"/>
+      <c r="F5" s="289"/>
+      <c r="G5" s="289"/>
+      <c r="H5" s="289"/>
+      <c r="I5" s="280"/>
       <c r="J5" s="154"/>
       <c r="K5" s="154"/>
       <c r="L5" s="154"/>
@@ -60186,15 +60563,15 @@
       <c r="B7" s="188" t="s">
         <v>165</v>
       </c>
-      <c r="C7" s="276" t="s">
+      <c r="C7" s="279" t="s">
         <v>206</v>
       </c>
-      <c r="D7" s="278"/>
-      <c r="E7" s="278"/>
-      <c r="F7" s="278"/>
-      <c r="G7" s="278"/>
-      <c r="H7" s="278"/>
-      <c r="I7" s="277"/>
+      <c r="D7" s="289"/>
+      <c r="E7" s="289"/>
+      <c r="F7" s="289"/>
+      <c r="G7" s="289"/>
+      <c r="H7" s="289"/>
+      <c r="I7" s="280"/>
       <c r="J7" s="154"/>
       <c r="K7" s="154"/>
       <c r="L7" s="154"/>
@@ -60228,15 +60605,15 @@
       <c r="B9" s="188" t="s">
         <v>182</v>
       </c>
-      <c r="C9" s="276" t="s">
+      <c r="C9" s="279" t="s">
         <v>183</v>
       </c>
-      <c r="D9" s="278"/>
-      <c r="E9" s="278"/>
-      <c r="F9" s="278"/>
-      <c r="G9" s="278"/>
-      <c r="H9" s="278"/>
-      <c r="I9" s="277"/>
+      <c r="D9" s="289"/>
+      <c r="E9" s="289"/>
+      <c r="F9" s="289"/>
+      <c r="G9" s="289"/>
+      <c r="H9" s="289"/>
+      <c r="I9" s="280"/>
       <c r="J9" s="154"/>
       <c r="K9" s="154"/>
       <c r="L9" s="154"/>
@@ -60299,19 +60676,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="154"/>
-      <c r="B13" s="280" t="s">
+      <c r="B13" s="282" t="s">
         <v>125</v>
       </c>
-      <c r="C13" s="281"/>
-      <c r="D13" s="281"/>
-      <c r="E13" s="281"/>
-      <c r="F13" s="281"/>
-      <c r="G13" s="281"/>
-      <c r="H13" s="281"/>
-      <c r="I13" s="281"/>
-      <c r="J13" s="281"/>
-      <c r="K13" s="281"/>
-      <c r="L13" s="282"/>
+      <c r="C13" s="283"/>
+      <c r="D13" s="283"/>
+      <c r="E13" s="283"/>
+      <c r="F13" s="283"/>
+      <c r="G13" s="283"/>
+      <c r="H13" s="283"/>
+      <c r="I13" s="283"/>
+      <c r="J13" s="283"/>
+      <c r="K13" s="283"/>
+      <c r="L13" s="284"/>
       <c r="M13" s="154"/>
       <c r="N13" s="154"/>
       <c r="O13" s="154"/>
@@ -60340,11 +60717,11 @@
       <c r="I14" s="175" t="s">
         <v>132</v>
       </c>
-      <c r="J14" s="279" t="s">
+      <c r="J14" s="281" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="279"/>
-      <c r="L14" s="279"/>
+      <c r="K14" s="281"/>
+      <c r="L14" s="281"/>
       <c r="M14" s="154"/>
       <c r="N14" s="154"/>
       <c r="O14" s="154"/>
@@ -60369,11 +60746,11 @@
       <c r="I15" s="130" t="s">
         <v>289</v>
       </c>
-      <c r="J15" s="286" t="s">
+      <c r="J15" s="288" t="s">
         <v>385</v>
       </c>
-      <c r="K15" s="286"/>
-      <c r="L15" s="286"/>
+      <c r="K15" s="288"/>
+      <c r="L15" s="288"/>
       <c r="M15" s="154"/>
       <c r="N15" s="154"/>
       <c r="O15" s="154"/>
@@ -60402,11 +60779,11 @@
       <c r="I16" s="130" t="s">
         <v>373</v>
       </c>
-      <c r="J16" s="286" t="s">
+      <c r="J16" s="288" t="s">
         <v>392</v>
       </c>
-      <c r="K16" s="286"/>
-      <c r="L16" s="286"/>
+      <c r="K16" s="288"/>
+      <c r="L16" s="288"/>
       <c r="M16" s="154"/>
       <c r="N16" s="154"/>
       <c r="O16" s="154"/>
@@ -60568,11 +60945,11 @@
     </row>
     <row r="26" spans="1:15" s="178" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="179"/>
-      <c r="B26" s="290" t="s">
+      <c r="B26" s="293" t="s">
         <v>167</v>
       </c>
-      <c r="C26" s="290"/>
-      <c r="D26" s="290"/>
+      <c r="C26" s="293"/>
+      <c r="D26" s="293"/>
       <c r="E26" s="180"/>
       <c r="F26" s="181"/>
       <c r="G26" s="180"/>
@@ -60587,12 +60964,12 @@
     </row>
     <row r="27" spans="1:15" s="173" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="174"/>
-      <c r="B27" s="283" t="s">
+      <c r="B27" s="285" t="s">
         <v>127</v>
       </c>
-      <c r="C27" s="284"/>
-      <c r="D27" s="284"/>
-      <c r="E27" s="285"/>
+      <c r="C27" s="286"/>
+      <c r="D27" s="286"/>
+      <c r="E27" s="287"/>
       <c r="F27" s="175" t="s">
         <v>126</v>
       </c>
@@ -60684,10 +61061,10 @@
       <c r="A30" s="154"/>
       <c r="B30" s="168"/>
       <c r="C30" s="172"/>
-      <c r="D30" s="276" t="s">
+      <c r="D30" s="279" t="s">
         <v>173</v>
       </c>
-      <c r="E30" s="277"/>
+      <c r="E30" s="280"/>
       <c r="F30" s="162" t="s">
         <v>344</v>
       </c>
@@ -60717,10 +61094,10 @@
       <c r="A31" s="154"/>
       <c r="B31" s="168"/>
       <c r="C31" s="163"/>
-      <c r="D31" s="276" t="s">
+      <c r="D31" s="279" t="s">
         <v>174</v>
       </c>
-      <c r="E31" s="277"/>
+      <c r="E31" s="280"/>
       <c r="F31" s="162" t="s">
         <v>175</v>
       </c>
@@ -60783,8 +61160,8 @@
       <c r="A33" s="154"/>
       <c r="B33" s="164"/>
       <c r="C33" s="163"/>
-      <c r="D33" s="276"/>
-      <c r="E33" s="277"/>
+      <c r="D33" s="279"/>
+      <c r="E33" s="280"/>
       <c r="F33" s="162"/>
       <c r="G33" s="161"/>
       <c r="H33" s="161"/>
@@ -61106,11 +61483,11 @@
     </row>
     <row r="52" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="154"/>
-      <c r="B52" s="287" t="s">
+      <c r="B52" s="290" t="s">
         <v>347</v>
       </c>
-      <c r="C52" s="287"/>
-      <c r="D52" s="287"/>
+      <c r="C52" s="290"/>
+      <c r="D52" s="290"/>
       <c r="E52" s="154"/>
       <c r="F52" s="154"/>
       <c r="G52" s="154"/>
@@ -61127,12 +61504,12 @@
     </row>
     <row r="53" spans="1:15" s="173" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A53" s="174"/>
-      <c r="B53" s="283" t="s">
+      <c r="B53" s="285" t="s">
         <v>127</v>
       </c>
-      <c r="C53" s="284"/>
-      <c r="D53" s="284"/>
-      <c r="E53" s="285"/>
+      <c r="C53" s="286"/>
+      <c r="D53" s="286"/>
+      <c r="E53" s="287"/>
       <c r="F53" s="175" t="s">
         <v>126</v>
       </c>
@@ -61224,10 +61601,10 @@
       <c r="A56" s="154"/>
       <c r="B56" s="168"/>
       <c r="C56" s="172"/>
-      <c r="D56" s="276" t="s">
+      <c r="D56" s="279" t="s">
         <v>173</v>
       </c>
-      <c r="E56" s="277"/>
+      <c r="E56" s="280"/>
       <c r="F56" s="162" t="s">
         <v>344</v>
       </c>
@@ -61257,10 +61634,10 @@
       <c r="A57" s="154"/>
       <c r="B57" s="168"/>
       <c r="C57" s="172"/>
-      <c r="D57" s="276" t="s">
+      <c r="D57" s="279" t="s">
         <v>0</v>
       </c>
-      <c r="E57" s="277"/>
+      <c r="E57" s="280"/>
       <c r="F57" s="162" t="s">
         <v>191</v>
       </c>
@@ -61290,10 +61667,10 @@
       <c r="A58" s="154"/>
       <c r="B58" s="168"/>
       <c r="C58" s="172"/>
-      <c r="D58" s="291" t="s">
+      <c r="D58" s="294" t="s">
         <v>196</v>
       </c>
-      <c r="E58" s="277"/>
+      <c r="E58" s="280"/>
       <c r="F58" s="162" t="s">
         <v>194</v>
       </c>
@@ -61387,8 +61764,8 @@
       <c r="A61" s="154"/>
       <c r="B61" s="164"/>
       <c r="C61" s="163"/>
-      <c r="D61" s="276"/>
-      <c r="E61" s="277"/>
+      <c r="D61" s="279"/>
+      <c r="E61" s="280"/>
       <c r="F61" s="162"/>
       <c r="G61" s="161"/>
       <c r="H61" s="161"/>
@@ -61778,6 +62155,16 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="D57:E57"/>
@@ -61787,16 +62174,6 @@
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="B53:E53"/>
     <mergeCell ref="D56:E56"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:E27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
